--- a/generated/dataset_command_mmr_recursivecharactertext_bge.xlsx
+++ b/generated/dataset_command_mmr_recursivecharactertext_bge.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="327">
   <si>
     <t>question</t>
   </si>
@@ -25,7 +25,7 @@
     <t>answer</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the Strategic Impact: ---Attaining favorable protection environments---: i.e., finding or recommendations that require a change in existing policy and regulations. [/INST]List, as bullet points, all findings in relation to your specific area of expertise and focus. 
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the Strategic Impact: ---Attaining favorable protection environments---: i.e., finding or recommendations that require a change in existing policy and regulations. [/INST] List, as bullet points, all findings and evidences in relation to your specific area of expertise and focus. 
 &lt;/s&gt;
 [INST]  
 Keep your answer grounded in the facts of the contexts. 
@@ -45,6 +45,16 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the Strategic Impact: ---Attaining favorable protection environments---: i.e., finding or recommendations that require a change in existing policy and regulations. [/INST] Explain, in relation to your specific area of expertise and focus, what are the main risks and difficulties here described. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the Strategic Impact: ---Attaining favorable protection environments---: i.e., finding or recommendations that require a change in existing policy and regulations. [/INST] Explain, in relation to your specific area of expertise and focus, what what can be learnt. 
 &lt;/s&gt;
 [INST]  
@@ -55,17 +65,117 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the Strategic Impact: ---Attaining favorable protection environments---: i.e., finding or recommendations that require a change in existing policy and regulations. [/INST]List, as bullet points, all recommendations made in relation to your specific area of expertise and focus. 
-&lt;/s&gt;
-[INST]  
-Keep your answer grounded in the facts of the contexts. 
-If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
-Be concise in the response and  when relevant include precise citations from the contexts. 
-[/INST] 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the Strategic Impact: ---Securing durable solutions--- : i.e., finding or recommendations that require a change in existing policy and regulations. [/INST]List, as bullet points, all findings in relation to your specific area of expertise and focus. 
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the Strategic Impact: ---Attaining favorable protection environments---: i.e., finding or recommendations that require a change in existing policy and regulations. [/INST] List, as bullet points, all recommendations made in relation to your specific area of expertise and focus. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the Strategic Impact: ---Realizing rights in safe environments---: i.e., finding or recommendations that require a change in existing policy and regulations. [/INST] List, as bullet points, all findings and evidences in relation to your specific area of expertise and focus. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the Strategic Impact: ---Realizing rights in safe environments---: i.e., finding or recommendations that require a change in existing policy and regulations. [/INST] Explain, in relation to your specific area of expertise and focus, what are the root causes for the situation. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the Strategic Impact: ---Realizing rights in safe environments---: i.e., finding or recommendations that require a change in existing policy and regulations. [/INST] Explain, in relation to your specific area of expertise and focus, what are the main risks and difficulties here described. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the Strategic Impact: ---Realizing rights in safe environments---: i.e., finding or recommendations that require a change in existing policy and regulations. [/INST] Explain, in relation to your specific area of expertise and focus, what what can be learnt. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the Strategic Impact: ---Realizing rights in safe environments---: i.e., finding or recommendations that require a change in existing policy and regulations. [/INST] List, as bullet points, all recommendations made in relation to your specific area of expertise and focus. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the Strategic Impact: ---Empowering communities and achieving gender equality--- : i.e., finding or recommendations that require a change in existing policy and regulations. [/INST] List, as bullet points, all findings and evidences in relation to your specific area of expertise and focus. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the Strategic Impact: ---Empowering communities and achieving gender equality--- : i.e., finding or recommendations that require a change in existing policy and regulations. [/INST] Explain, in relation to your specific area of expertise and focus, what are the root causes for the situation. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the Strategic Impact: ---Empowering communities and achieving gender equality--- : i.e., finding or recommendations that require a change in existing policy and regulations. [/INST] Explain, in relation to your specific area of expertise and focus, what are the main risks and difficulties here described. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the Strategic Impact: ---Empowering communities and achieving gender equality--- : i.e., finding or recommendations that require a change in existing policy and regulations. [/INST] Explain, in relation to your specific area of expertise and focus, what what can be learnt. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the Strategic Impact: ---Empowering communities and achieving gender equality--- : i.e., finding or recommendations that require a change in existing policy and regulations. [/INST] List, as bullet points, all recommendations made in relation to your specific area of expertise and focus. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the Strategic Impact: ---Securing durable solutions--- : i.e., finding or recommendations that require a change in existing policy and regulations. [/INST] List, as bullet points, all findings and evidences in relation to your specific area of expertise and focus. 
 &lt;/s&gt;
 [INST]  
 Keep your answer grounded in the facts of the contexts. 
@@ -85,6 +195,16 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the Strategic Impact: ---Securing durable solutions--- : i.e., finding or recommendations that require a change in existing policy and regulations. [/INST] Explain, in relation to your specific area of expertise and focus, what are the main risks and difficulties here described. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the Strategic Impact: ---Securing durable solutions--- : i.e., finding or recommendations that require a change in existing policy and regulations. [/INST] Explain, in relation to your specific area of expertise and focus, what what can be learnt. 
 &lt;/s&gt;
 [INST]  
@@ -95,17 +215,67 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the Strategic Impact: ---Securing durable solutions--- : i.e., finding or recommendations that require a change in existing policy and regulations. [/INST]List, as bullet points, all recommendations made in relation to your specific area of expertise and focus. 
-&lt;/s&gt;
-[INST]  
-Keep your answer grounded in the facts of the contexts. 
-If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
-Be concise in the response and  when relevant include precise citations from the contexts. 
-[/INST] 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Status determination ---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST]List, as bullet points, all findings in relation to your specific area of expertise and focus. 
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the Strategic Impact: ---Securing durable solutions--- : i.e., finding or recommendations that require a change in existing policy and regulations. [/INST] List, as bullet points, all recommendations made in relation to your specific area of expertise and focus. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: ---Access to territory registration and documentation ---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] List, as bullet points, all findings and evidences in relation to your specific area of expertise and focus. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: ---Access to territory registration and documentation ---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] Explain, in relation to your specific area of expertise and focus, what are the root causes for the situation. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: ---Access to territory registration and documentation ---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] Explain, in relation to your specific area of expertise and focus, what are the main risks and difficulties here described. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: ---Access to territory registration and documentation ---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] Explain, in relation to your specific area of expertise and focus, what what can be learnt. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: ---Access to territory registration and documentation ---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] List, as bullet points, all recommendations made in relation to your specific area of expertise and focus. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Status determination ---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] List, as bullet points, all findings and evidences in relation to your specific area of expertise and focus. 
 &lt;/s&gt;
 [INST]  
 Keep your answer grounded in the facts of the contexts. 
@@ -125,6 +295,16 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Status determination ---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] Explain, in relation to your specific area of expertise and focus, what are the main risks and difficulties here described. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Status determination ---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] Explain, in relation to your specific area of expertise and focus, what what can be learnt. 
 &lt;/s&gt;
 [INST]  
@@ -135,165 +315,2182 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Status determination ---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST]List, as bullet points, all recommendations made in relation to your specific area of expertise and focus. 
-&lt;/s&gt;
-[INST]  
-Keep your answer grounded in the facts of the contexts. 
-If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
-Be concise in the response and  when relevant include precise citations from the contexts. 
-[/INST] 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on Systems and processes Organizational Enabler, i.e. elements that require changes in management practices, technical approach, business processes, staffing allocation or capacity building. [/INST]List, as bullet points, all findings in relation to your specific area of expertise and focus. 
-&lt;/s&gt;
-[INST]  
-Keep your answer grounded in the facts of the contexts. 
-If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
-Be concise in the response and  when relevant include precise citations from the contexts. 
-[/INST] 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on Systems and processes Organizational Enabler, i.e. elements that require changes in management practices, technical approach, business processes, staffing allocation or capacity building. [/INST] Explain, in relation to your specific area of expertise and focus, what are the root causes for the situation. 
-&lt;/s&gt;
-[INST]  
-Keep your answer grounded in the facts of the contexts. 
-If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
-Be concise in the response and  when relevant include precise citations from the contexts. 
-[/INST] 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on Systems and processes Organizational Enabler, i.e. elements that require changes in management practices, technical approach, business processes, staffing allocation or capacity building. [/INST] Explain, in relation to your specific area of expertise and focus, what what can be learnt. 
-&lt;/s&gt;
-[INST]  
-Keep your answer grounded in the facts of the contexts. 
-If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
-Be concise in the response and  when relevant include precise citations from the contexts. 
-[/INST] 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on Systems and processes Organizational Enabler, i.e. elements that require changes in management practices, technical approach, business processes, staffing allocation or capacity building. [/INST]List, as bullet points, all recommendations made in relation to your specific area of expertise and focus. 
-&lt;/s&gt;
-[INST]  
-Keep your answer grounded in the facts of the contexts. 
-If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
-Be concise in the response and  when relevant include precise citations from the contexts. 
-[/INST] 
-</t>
-  </si>
-  <si>
-    <t>['40 UNHCR  \n   \nThis KEQ will also seek to answer the following sub-questions:  \n\uf0b7 What key steps have other UN agencies, similar organi zations and thought leaders in data and IM \ntaken that are applicable to UNHCR’s work?  \n\uf0b7 What actions should be prioritized based on the evaluation findings of the primary challenges and \nconstraints that UNHCR operations experience during the process of data collation/collection, cleaning, \nanalysis, storage and management that hinder evidence -informed decision -making?  \n\uf0b7 What should UNHCR do to address issues concerning data access, synthesis and dissemination \nacross various data systems at the country, regional and HQ offices?   \n\uf0b7 Which actions can be implemented more rapidly and which actions require  a higher level of effort and \nresourcing?  \n \n4.3 Approach and methodology   \n18. This is a theory -based, retrospective evaluation to understand UNHCR’s current practices around data and', '40 UNHCR  \n   \nThis KEQ will also seek to answer the following sub-questions:  \n\uf0b7 What key steps have other UN agencies, similar organi zations and thought leaders in data and IM \ntaken that are applicable to UNHCR’s work?  \n\uf0b7 What actions should be prioritized based on the evaluation findings of the primary challenges and \nconstraints that UNHCR operations experience during the process of data collation/collection, cleaning, \nanalysis, storage and management that hinder evidence -informed decision -making?  \n\uf0b7 What should UNHCR do to address issues concerning data access, synthesis and dissemination \nacross various data systems at the country, regional and HQ offices?   \n\uf0b7 Which actions can be implemented more rapidly and which actions require  a higher level of effort and \nresourcing?  \n \n4.3 Approach and methodology   \n18. This is a theory -based, retrospective evaluation to understand UNHCR’s current practices around data and', '40 UNHCR  \n   \nThis KEQ will also seek to answer the following sub-questions:  \n\uf0b7 What key steps have other UN agencies, similar organi zations and thought leaders in data and IM \ntaken that are applicable to UNHCR’s work?  \n\uf0b7 What actions should be prioritized based on the evaluation findings of the primary challenges and \nconstraints that UNHCR operations experience during the process of data collation/collection, cleaning, \nanalysis, storage and management that hinder evidence -informed decision -making?  \n\uf0b7 What should UNHCR do to address issues concerning data access, synthesis and dissemination \nacross various data systems at the country, regional and HQ offices?   \n\uf0b7 Which actions can be implemented more rapidly and which actions require  a higher level of effort and \nresourcing?  \n \n4.3 Approach and methodology   \n18. This is a theory -based, retrospective evaluation to understand UNHCR’s current practices around data and', '9 UNHCR  \n Recommendat ions \n \nIn the context of UNHCR’s current data and information systems, the internal and external changes it is facing, \nand the needs required to act as a lea der on protection and solutions , the evaluation offers the following \nrecommendations , with additiona l detail and sub -recommendations in the main body of the report : \n \nRecommended actions  Responsible  Anticipated \ntimeframe  \nThe evaluation emphasizes that an organization -wide prioritization \nwould be essential to transform data within UNHCR to the asset that it \ncan be.  \n \nThe evaluation recommends that UNHCR develop a data transformation \nstrategy and roadmap, with key elements such as enforcing data norms \nand standards throughout the organization, cultivating strong data \nleadership, developing systems to integra te and pull data together, \ncreating a data -first culture, and building capacities and confidence \naround statistics and evidence on persons of concern.  \n SET*  Complete by Q4']</t>
-  </si>
-  <si>
-    <t>['9 UNHCR  \n Recommendat ions \n \nIn the context of UNHCR’s current data and information systems, the internal and external changes it is facing, \nand the needs required to act as a lea der on protection and solutions , the evaluation offers the following \nrecommendations , with additiona l detail and sub -recommendations in the main body of the report : \n \nRecommended actions  Responsible  Anticipated \ntimeframe  \nThe evaluation emphasizes that an organization -wide prioritization \nwould be essential to transform data within UNHCR to the asset that it \ncan be.  \n \nThe evaluation recommends that UNHCR develop a data transformation \nstrategy and roadmap, with key elements such as enforcing data norms \nand standards throughout the organization, cultivating strong data \nleadership, developing systems to integra te and pull data together, \ncreating a data -first culture, and building capacities and confidence \naround statistics and evidence on persons of concern.  \n SET*  Complete by Q4', '9 UNHCR  \n Recommendat ions \n \nIn the context of UNHCR’s current data and information systems, the internal and external changes it is facing, \nand the needs required to act as a lea der on protection and solutions , the evaluation offers the following \nrecommendations , with additiona l detail and sub -recommendations in the main body of the report : \n \nRecommended actions  Responsible  Anticipated \ntimeframe  \nThe evaluation emphasizes that an organization -wide prioritization \nwould be essential to transform data within UNHCR to the asset that it \ncan be.  \n \nThe evaluation recommends that UNHCR develop a data transformation \nstrategy and roadmap, with key elements such as enforcing data norms \nand standards throughout the organization, cultivating strong data \nleadership, developing systems to integra te and pull data together, \ncreating a data -first culture, and building capacities and confidence \naround statistics and evidence on persons of concern.  \n SET*  Complete by Q4', '9 UNHCR  \n Recommendat ions \n \nIn the context of UNHCR’s current data and information systems, the internal and external changes it is facing, \nand the needs required to act as a lea der on protection and solutions , the evaluation offers the following \nrecommendations , with additiona l detail and sub -recommendations in the main body of the report : \n \nRecommended actions  Responsible  Anticipated \ntimeframe  \nThe evaluation emphasizes that an organization -wide prioritization \nwould be essential to transform data within UNHCR to the asset that it \ncan be.  \n \nThe evaluation recommends that UNHCR develop a data transformation \nstrategy and roadmap, with key elements such as enforcing data norms \nand standards throughout the organization, cultivating strong data \nleadership, developing systems to integra te and pull data together, \ncreating a data -first culture, and building capacities and confidence \naround statistics and evidence on persons of concern.  \n SET*  Complete by Q4', '40 UNHCR  \n   \nThis KEQ will also seek to answer the following sub-questions:  \n\uf0b7 What key steps have other UN agencies, similar organi zations and thought leaders in data and IM \ntaken that are applicable to UNHCR’s work?  \n\uf0b7 What actions should be prioritized based on the evaluation findings of the primary challenges and \nconstraints that UNHCR operations experience during the process of data collation/collection, cleaning, \nanalysis, storage and management that hinder evidence -informed decision -making?  \n\uf0b7 What should UNHCR do to address issues concerning data access, synthesis and dissemination \nacross various data systems at the country, regional and HQ offices?   \n\uf0b7 Which actions can be implemented more rapidly and which actions require  a higher level of effort and \nresourcing?  \n \n4.3 Approach and methodology   \n18. This is a theory -based, retrospective evaluation to understand UNHCR’s current practices around data and']</t>
-  </si>
-  <si>
-    <t>['9 UNHCR  \n Recommendat ions \n \nIn the context of UNHCR’s current data and information systems, the internal and external changes it is facing, \nand the needs required to act as a lea der on protection and solutions , the evaluation offers the following \nrecommendations , with additiona l detail and sub -recommendations in the main body of the report : \n \nRecommended actions  Responsible  Anticipated \ntimeframe  \nThe evaluation emphasizes that an organization -wide prioritization \nwould be essential to transform data within UNHCR to the asset that it \ncan be.  \n \nThe evaluation recommends that UNHCR develop a data transformation \nstrategy and roadmap, with key elements such as enforcing data norms \nand standards throughout the organization, cultivating strong data \nleadership, developing systems to integra te and pull data together, \ncreating a data -first culture, and building capacities and confidence \naround statistics and evidence on persons of concern.  \n SET*  Complete by Q4', '9 UNHCR  \n Recommendat ions \n \nIn the context of UNHCR’s current data and information systems, the internal and external changes it is facing, \nand the needs required to act as a lea der on protection and solutions , the evaluation offers the following \nrecommendations , with additiona l detail and sub -recommendations in the main body of the report : \n \nRecommended actions  Responsible  Anticipated \ntimeframe  \nThe evaluation emphasizes that an organization -wide prioritization \nwould be essential to transform data within UNHCR to the asset that it \ncan be.  \n \nThe evaluation recommends that UNHCR develop a data transformation \nstrategy and roadmap, with key elements such as enforcing data norms \nand standards throughout the organization, cultivating strong data \nleadership, developing systems to integra te and pull data together, \ncreating a data -first culture, and building capacities and confidence \naround statistics and evidence on persons of concern.  \n SET*  Complete by Q4', '9 UNHCR  \n Recommendat ions \n \nIn the context of UNHCR’s current data and information systems, the internal and external changes it is facing, \nand the needs required to act as a lea der on protection and solutions , the evaluation offers the following \nrecommendations , with additiona l detail and sub -recommendations in the main body of the report : \n \nRecommended actions  Responsible  Anticipated \ntimeframe  \nThe evaluation emphasizes that an organization -wide prioritization \nwould be essential to transform data within UNHCR to the asset that it \ncan be.  \n \nThe evaluation recommends that UNHCR develop a data transformation \nstrategy and roadmap, with key elements such as enforcing data norms \nand standards throughout the organization, cultivating strong data \nleadership, developing systems to integra te and pull data together, \ncreating a data -first culture, and building capacities and confidence \naround statistics and evidence on persons of concern.  \n SET*  Complete by Q4', '33 UNHCR  \n 6. Recommendations  \n85. The evaluation has highlighted UNHCR’s current data infrastructure and processes, discussed \nexternal and internal changes the organization is currently facing and reviewed the gaps in data \npractice that cu rrently exist. In this section, we discuss what UNHCR will need to achieve in order to \nrise to the challenge of becoming a best -in-class data and information organiz ation  of the future.  \n6.1. Developing a global vision for UNHCR’s data and information management  \n86. The evaluation emphasizes that an organization -wide prioritization would be essential to transform \ndata within UNHCR to the asset that it can be. This evaluation is one of several indicators that UNHCR \nrecognizes the potential advantage that data can prov ide. As the organization empha sises the strategic \nimportance of data and makes commensurate investments to strengthen its systems, the organization']</t>
-  </si>
-  <si>
-    <t>['33 UNHCR  \n 6. Recommendations  \n85. The evaluation has highlighted UNHCR’s current data infrastructure and processes, discussed \nexternal and internal changes the organization is currently facing and reviewed the gaps in data \npractice that cu rrently exist. In this section, we discuss what UNHCR will need to achieve in order to \nrise to the challenge of becoming a best -in-class data and information organiz ation  of the future.  \n6.1. Developing a global vision for UNHCR’s data and information management  \n86. The evaluation emphasizes that an organization -wide prioritization would be essential to transform \ndata within UNHCR to the asset that it can be. This evaluation is one of several indicators that UNHCR \nrecognizes the potential advantage that data can prov ide. As the organization empha sises the strategic \nimportance of data and makes commensurate investments to strengthen its systems, the organization', '33 UNHCR  \n 6. Recommendations  \n85. The evaluation has highlighted UNHCR’s current data infrastructure and processes, discussed \nexternal and internal changes the organization is currently facing and reviewed the gaps in data \npractice that cu rrently exist. In this section, we discuss what UNHCR will need to achieve in order to \nrise to the challenge of becoming a best -in-class data and information organiz ation  of the future.  \n6.1. Developing a global vision for UNHCR’s data and information management  \n86. The evaluation emphasizes that an organization -wide prioritization would be essential to transform \ndata within UNHCR to the asset that it can be. This evaluation is one of several indicators that UNHCR \nrecognizes the potential advantage that data can prov ide. As the organization empha sises the strategic \nimportance of data and makes commensurate investments to strengthen its systems, the organization', '33 UNHCR  \n 6. Recommendations  \n85. The evaluation has highlighted UNHCR’s current data infrastructure and processes, discussed \nexternal and internal changes the organization is currently facing and reviewed the gaps in data \npractice that cu rrently exist. In this section, we discuss what UNHCR will need to achieve in order to \nrise to the challenge of becoming a best -in-class data and information organiz ation  of the future.  \n6.1. Developing a global vision for UNHCR’s data and information management  \n86. The evaluation emphasizes that an organization -wide prioritization would be essential to transform \ndata within UNHCR to the asset that it can be. This evaluation is one of several indicators that UNHCR \nrecognizes the potential advantage that data can prov ide. As the organization empha sises the strategic \nimportance of data and makes commensurate investments to strengthen its systems, the organization', '9 UNHCR  \n Recommendat ions \n \nIn the context of UNHCR’s current data and information systems, the internal and external changes it is facing, \nand the needs required to act as a lea der on protection and solutions , the evaluation offers the following \nrecommendations , with additiona l detail and sub -recommendations in the main body of the report : \n \nRecommended actions  Responsible  Anticipated \ntimeframe  \nThe evaluation emphasizes that an organization -wide prioritization \nwould be essential to transform data within UNHCR to the asset that it \ncan be.  \n \nThe evaluation recommends that UNHCR develop a data transformation \nstrategy and roadmap, with key elements such as enforcing data norms \nand standards throughout the organization, cultivating strong data \nleadership, developing systems to integra te and pull data together, \ncreating a data -first culture, and building capacities and confidence \naround statistics and evidence on persons of concern.  \n SET*  Complete by Q4']</t>
-  </si>
-  <si>
-    <t>['40 UNHCR  \n   \nThis KEQ will also seek to answer the following sub-questions:  \n\uf0b7 What key steps have other UN agencies, similar organi zations and thought leaders in data and IM \ntaken that are applicable to UNHCR’s work?  \n\uf0b7 What actions should be prioritized based on the evaluation findings of the primary challenges and \nconstraints that UNHCR operations experience during the process of data collation/collection, cleaning, \nanalysis, storage and management that hinder evidence -informed decision -making?  \n\uf0b7 What should UNHCR do to address issues concerning data access, synthesis and dissemination \nacross various data systems at the country, regional and HQ offices?   \n\uf0b7 Which actions can be implemented more rapidly and which actions require  a higher level of effort and \nresourcing?  \n \n4.3 Approach and methodology   \n18. This is a theory -based, retrospective evaluation to understand UNHCR’s current practices around data and', '40 UNHCR  \n   \nThis KEQ will also seek to answer the following sub-questions:  \n\uf0b7 What key steps have other UN agencies, similar organi zations and thought leaders in data and IM \ntaken that are applicable to UNHCR’s work?  \n\uf0b7 What actions should be prioritized based on the evaluation findings of the primary challenges and \nconstraints that UNHCR operations experience during the process of data collation/collection, cleaning, \nanalysis, storage and management that hinder evidence -informed decision -making?  \n\uf0b7 What should UNHCR do to address issues concerning data access, synthesis and dissemination \nacross various data systems at the country, regional and HQ offices?   \n\uf0b7 Which actions can be implemented more rapidly and which actions require  a higher level of effort and \nresourcing?  \n \n4.3 Approach and methodology   \n18. This is a theory -based, retrospective evaluation to understand UNHCR’s current practices around data and', '40 UNHCR  \n   \nThis KEQ will also seek to answer the following sub-questions:  \n\uf0b7 What key steps have other UN agencies, similar organi zations and thought leaders in data and IM \ntaken that are applicable to UNHCR’s work?  \n\uf0b7 What actions should be prioritized based on the evaluation findings of the primary challenges and \nconstraints that UNHCR operations experience during the process of data collation/collection, cleaning, \nanalysis, storage and management that hinder evidence -informed decision -making?  \n\uf0b7 What should UNHCR do to address issues concerning data access, synthesis and dissemination \nacross various data systems at the country, regional and HQ offices?   \n\uf0b7 Which actions can be implemented more rapidly and which actions require  a higher level of effort and \nresourcing?  \n \n4.3 Approach and methodology   \n18. This is a theory -based, retrospective evaluation to understand UNHCR’s current practices around data and', 'good practices in the organization. However, on the whole, a t the \noperational level, there is much more that needs to be done to \nensure that persons of concern have access to their information, \nthat assessment and other data is communicated back to \ncommunities, and that they participate in decisions.  \nUNHCR aspires to ensure that \npersons of concern have \naccess to and control over \ntheir data and information, and \nthat feedback from persons  of \nconcern is regularly received \nand used in decision -making.  \nAn impressive array of data and IM systems exist within UNHCR, \nillustrating the solution -oriented mindset of staff oper ating within a \ndecentralised approach to data management. However, \nconsiderations for systems interoperability have not been required \nor facilitated by HQ until recently (PRIMES). Being able to \ndemonstrate accountability and results to donors while at the same \ntime showing contributions to the GCR underscore the importance']</t>
-  </si>
-  <si>
-    <t>['40 UNHCR  \n   \nThis KEQ will also seek to answer the following sub-questions:  \n\uf0b7 What key steps have other UN agencies, similar organi zations and thought leaders in data and IM \ntaken that are applicable to UNHCR’s work?  \n\uf0b7 What actions should be prioritized based on the evaluation findings of the primary challenges and \nconstraints that UNHCR operations experience during the process of data collation/collection, cleaning, \nanalysis, storage and management that hinder evidence -informed decision -making?  \n\uf0b7 What should UNHCR do to address issues concerning data access, synthesis and dissemination \nacross various data systems at the country, regional and HQ offices?   \n\uf0b7 Which actions can be implemented more rapidly and which actions require  a higher level of effort and \nresourcing?  \n \n4.3 Approach and methodology   \n18. This is a theory -based, retrospective evaluation to understand UNHCR’s current practices around data and', '40 UNHCR  \n   \nThis KEQ will also seek to answer the following sub-questions:  \n\uf0b7 What key steps have other UN agencies, similar organi zations and thought leaders in data and IM \ntaken that are applicable to UNHCR’s work?  \n\uf0b7 What actions should be prioritized based on the evaluation findings of the primary challenges and \nconstraints that UNHCR operations experience during the process of data collation/collection, cleaning, \nanalysis, storage and management that hinder evidence -informed decision -making?  \n\uf0b7 What should UNHCR do to address issues concerning data access, synthesis and dissemination \nacross various data systems at the country, regional and HQ offices?   \n\uf0b7 Which actions can be implemented more rapidly and which actions require  a higher level of effort and \nresourcing?  \n \n4.3 Approach and methodology   \n18. This is a theory -based, retrospective evaluation to understand UNHCR’s current practices around data and', '40 UNHCR  \n   \nThis KEQ will also seek to answer the following sub-questions:  \n\uf0b7 What key steps have other UN agencies, similar organi zations and thought leaders in data and IM \ntaken that are applicable to UNHCR’s work?  \n\uf0b7 What actions should be prioritized based on the evaluation findings of the primary challenges and \nconstraints that UNHCR operations experience during the process of data collation/collection, cleaning, \nanalysis, storage and management that hinder evidence -informed decision -making?  \n\uf0b7 What should UNHCR do to address issues concerning data access, synthesis and dissemination \nacross various data systems at the country, regional and HQ offices?   \n\uf0b7 Which actions can be implemented more rapidly and which actions require  a higher level of effort and \nresourcing?  \n \n4.3 Approach and methodology   \n18. This is a theory -based, retrospective evaluation to understand UNHCR’s current practices around data and', '12 UNHCR Programme Ma nual, Chapter 4 (June 2017), p.250.   \n13 Accountability  – through assessing and reporting on implementation and results, and requesting management to formally respond to \nthe evaluation. Learning  – Describing as well as explaining results is necessary to gen erate insights and pointers for learning to improve \nfuture strategies – and if possible – in other contexts where UNHCR operations face similar opportunities and constraints.']</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> * The evaluation highlights the need for UNHCR to prioritize data transformation through a strategy and roadmap (SET, Q4) - &lt;p&gt;The evaluation recommends that UNHCR develop a data transformation strategy and roadmap, with key elements such as enforcing data norms and standards throughout the organization, cultivating strong data leadership, developing systems to integrate and pull data together, creating a data-first culture, and building capacities and confidence around statistics and evidence on persons of concern. SET* Complete by Q4&lt;/p&gt;
-This recommendation is relevant to your area of expertise as it emphasizes the need for organization-wide prioritization of data transformation, which can contribute to attaining favorable protection environments through informed decision-making based on data norms and standards.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The root causes for the situation can be identified as insufficient data transformation strategy and roadmap, lack of organization-wide prioritization to transform data, absence of strong data leadership, and inadequate systems to integrate and pull data together. These issues are highlighted in the evaluation recommendations (9 UNHCR Recommendations). The current practices around data at UNHCR need improvement to attain favorable protection environments.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Based on the provided context, there are no specific policy or regulation changes recommended for attaining favorable protection environments. The evaluation focuses mainly on developing a data transformation strategy and roadmap, including enforcing data norms and standards, cultivating strong data leadership, integrating and pulling data together, creating a data-first culture, and building capacities and confidence around statistics and evidence on persons of concern.
-However, the context does mention that the evaluation will seek to answer sub-questions related to UNHCR's work, including actions that should be prioritized based on evaluation findings of challenges and constraints that hinder evidence-informed decision-making (30). Additionally, the evaluation will look into issues concerning data access, synthesis, and dissemination across various data systems at country, regional, and HQ offices.
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Status determination ---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] List, as bullet points, all recommendations made in relation to your specific area of expertise and focus. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Protection policy and law---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] List, as bullet points, all findings and evidences in relation to your specific area of expertise and focus. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Protection policy and law---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] Explain, in relation to your specific area of expertise and focus, what are the root causes for the situation. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Protection policy and law---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] Explain, in relation to your specific area of expertise and focus, what are the main risks and difficulties here described. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Protection policy and law---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] Explain, in relation to your specific area of expertise and focus, what what can be learnt. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Protection policy and law---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] List, as bullet points, all recommendations made in relation to your specific area of expertise and focus. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Gender-based violence ---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] List, as bullet points, all findings and evidences in relation to your specific area of expertise and focus. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Gender-based violence ---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] Explain, in relation to your specific area of expertise and focus, what are the root causes for the situation. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Gender-based violence ---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] Explain, in relation to your specific area of expertise and focus, what are the main risks and difficulties here described. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Gender-based violence ---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] Explain, in relation to your specific area of expertise and focus, what what can be learnt. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Gender-based violence ---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] List, as bullet points, all recommendations made in relation to your specific area of expertise and focus. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Child protection ---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] List, as bullet points, all findings and evidences in relation to your specific area of expertise and focus. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Child protection ---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] Explain, in relation to your specific area of expertise and focus, what are the root causes for the situation. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Child protection ---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] Explain, in relation to your specific area of expertise and focus, what are the main risks and difficulties here described. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Child protection ---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] Explain, in relation to your specific area of expertise and focus, what what can be learnt. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Child protection ---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] List, as bullet points, all recommendations made in relation to your specific area of expertise and focus. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Safety and access to justice ---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] List, as bullet points, all findings and evidences in relation to your specific area of expertise and focus. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Safety and access to justice ---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] Explain, in relation to your specific area of expertise and focus, what are the root causes for the situation. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Safety and access to justice ---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] Explain, in relation to your specific area of expertise and focus, what are the main risks and difficulties here described. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Safety and access to justice ---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] Explain, in relation to your specific area of expertise and focus, what what can be learnt. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Safety and access to justice ---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] List, as bullet points, all recommendations made in relation to your specific area of expertise and focus. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Community engagement and women's empowerment ---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] List, as bullet points, all findings and evidences in relation to your specific area of expertise and focus. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Community engagement and women's empowerment ---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] Explain, in relation to your specific area of expertise and focus, what are the root causes for the situation. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Community engagement and women's empowerment ---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] Explain, in relation to your specific area of expertise and focus, what are the main risks and difficulties here described. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Community engagement and women's empowerment ---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] Explain, in relation to your specific area of expertise and focus, what what can be learnt. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Community engagement and women's empowerment ---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] List, as bullet points, all recommendations made in relation to your specific area of expertise and focus. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Well-being and basic needs ---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] List, as bullet points, all findings and evidences in relation to your specific area of expertise and focus. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Well-being and basic needs ---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] Explain, in relation to your specific area of expertise and focus, what are the root causes for the situation. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Well-being and basic needs ---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] Explain, in relation to your specific area of expertise and focus, what are the main risks and difficulties here described. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Well-being and basic needs ---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] Explain, in relation to your specific area of expertise and focus, what what can be learnt. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Well-being and basic needs ---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] List, as bullet points, all recommendations made in relation to your specific area of expertise and focus. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Sustainable housing and settlements ---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] List, as bullet points, all findings and evidences in relation to your specific area of expertise and focus. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Sustainable housing and settlements ---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] Explain, in relation to your specific area of expertise and focus, what are the root causes for the situation. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Sustainable housing and settlements ---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] Explain, in relation to your specific area of expertise and focus, what are the main risks and difficulties here described. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Sustainable housing and settlements ---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] Explain, in relation to your specific area of expertise and focus, what what can be learnt. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Sustainable housing and settlements ---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] List, as bullet points, all recommendations made in relation to your specific area of expertise and focus. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Healthy lives---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] List, as bullet points, all findings and evidences in relation to your specific area of expertise and focus. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Healthy lives---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] Explain, in relation to your specific area of expertise and focus, what are the root causes for the situation. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Healthy lives---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] Explain, in relation to your specific area of expertise and focus, what are the main risks and difficulties here described. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Healthy lives---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] Explain, in relation to your specific area of expertise and focus, what what can be learnt. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Healthy lives---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] List, as bullet points, all recommendations made in relation to your specific area of expertise and focus. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Education ---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] List, as bullet points, all findings and evidences in relation to your specific area of expertise and focus. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Education ---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] Explain, in relation to your specific area of expertise and focus, what are the root causes for the situation. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Education ---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] Explain, in relation to your specific area of expertise and focus, what are the main risks and difficulties here described. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Education ---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] Explain, in relation to your specific area of expertise and focus, what what can be learnt. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Education ---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] List, as bullet points, all recommendations made in relation to your specific area of expertise and focus. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Clean water sanitation and hygiene ---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] List, as bullet points, all findings and evidences in relation to your specific area of expertise and focus. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Clean water sanitation and hygiene ---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] Explain, in relation to your specific area of expertise and focus, what are the root causes for the situation. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Clean water sanitation and hygiene ---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] Explain, in relation to your specific area of expertise and focus, what are the main risks and difficulties here described. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Clean water sanitation and hygiene ---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] Explain, in relation to your specific area of expertise and focus, what what can be learnt. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Clean water sanitation and hygiene ---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] List, as bullet points, all recommendations made in relation to your specific area of expertise and focus. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Self-reliance, Economic inclusion, and livelihoods ---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] List, as bullet points, all findings and evidences in relation to your specific area of expertise and focus. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Self-reliance, Economic inclusion, and livelihoods ---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] Explain, in relation to your specific area of expertise and focus, what are the root causes for the situation. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Self-reliance, Economic inclusion, and livelihoods ---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] Explain, in relation to your specific area of expertise and focus, what are the main risks and difficulties here described. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Self-reliance, Economic inclusion, and livelihoods ---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] Explain, in relation to your specific area of expertise and focus, what what can be learnt. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Self-reliance, Economic inclusion, and livelihoods ---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] List, as bullet points, all recommendations made in relation to your specific area of expertise and focus. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Voluntary repatriation and sustainable reintegration ---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] List, as bullet points, all findings and evidences in relation to your specific area of expertise and focus. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Voluntary repatriation and sustainable reintegration ---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] Explain, in relation to your specific area of expertise and focus, what are the root causes for the situation. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Voluntary repatriation and sustainable reintegration ---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] Explain, in relation to your specific area of expertise and focus, what are the main risks and difficulties here described. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Voluntary repatriation and sustainable reintegration ---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] Explain, in relation to your specific area of expertise and focus, what what can be learnt. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Voluntary repatriation and sustainable reintegration ---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] List, as bullet points, all recommendations made in relation to your specific area of expertise and focus. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Resettlement and complementary pathways---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] List, as bullet points, all findings and evidences in relation to your specific area of expertise and focus. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Resettlement and complementary pathways---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] Explain, in relation to your specific area of expertise and focus, what are the root causes for the situation. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Resettlement and complementary pathways---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] Explain, in relation to your specific area of expertise and focus, what are the main risks and difficulties here described. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Resettlement and complementary pathways---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] Explain, in relation to your specific area of expertise and focus, what what can be learnt. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Resettlement and complementary pathways---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] List, as bullet points, all recommendations made in relation to your specific area of expertise and focus. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Local integration and other local solutions ---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] List, as bullet points, all findings and evidences in relation to your specific area of expertise and focus. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Local integration and other local solutions ---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] Explain, in relation to your specific area of expertise and focus, what are the root causes for the situation. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Local integration and other local solutions ---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] Explain, in relation to your specific area of expertise and focus, what are the main risks and difficulties here described. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Local integration and other local solutions ---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] Explain, in relation to your specific area of expertise and focus, what what can be learnt. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Local integration and other local solutions ---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] List, as bullet points, all recommendations made in relation to your specific area of expertise and focus. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on Systems and processes Organizational Enabler, i.e. elements that require changes in management practices, technical approach, business processes, staffing allocation or capacity building. [/INST]&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on Operational support and supply chain Organizational Enabler, i.e. elements that require changes in management practices, technical approach, business processes, staffing allocation or capacity building. [/INST] List, as bullet points, all findings and evidences in relation to your specific area of expertise and focus. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on Systems and processes Organizational Enabler, i.e. elements that require changes in management practices, technical approach, business processes, staffing allocation or capacity building. [/INST]&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on Operational support and supply chain Organizational Enabler, i.e. elements that require changes in management practices, technical approach, business processes, staffing allocation or capacity building. [/INST] Explain, in relation to your specific area of expertise and focus, what are the root causes for the situation. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on Systems and processes Organizational Enabler, i.e. elements that require changes in management practices, technical approach, business processes, staffing allocation or capacity building. [/INST]&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on Operational support and supply chain Organizational Enabler, i.e. elements that require changes in management practices, technical approach, business processes, staffing allocation or capacity building. [/INST] Explain, in relation to your specific area of expertise and focus, what are the main risks and difficulties here described. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on Systems and processes Organizational Enabler, i.e. elements that require changes in management practices, technical approach, business processes, staffing allocation or capacity building. [/INST]&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on Operational support and supply chain Organizational Enabler, i.e. elements that require changes in management practices, technical approach, business processes, staffing allocation or capacity building. [/INST] Explain, in relation to your specific area of expertise and focus, what what can be learnt. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on Systems and processes Organizational Enabler, i.e. elements that require changes in management practices, technical approach, business processes, staffing allocation or capacity building. [/INST]&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on Operational support and supply chain Organizational Enabler, i.e. elements that require changes in management practices, technical approach, business processes, staffing allocation or capacity building. [/INST] List, as bullet points, all recommendations made in relation to your specific area of expertise and focus. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on People and culture Organizational Enabler, i.e. elements that require changes in management practices, technical approach, business processes, staffing allocation or capacity building. [/INST] List, as bullet points, all findings and evidences in relation to your specific area of expertise and focus. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on People and culture Organizational Enabler, i.e. elements that require changes in management practices, technical approach, business processes, staffing allocation or capacity building. [/INST] Explain, in relation to your specific area of expertise and focus, what are the root causes for the situation. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on People and culture Organizational Enabler, i.e. elements that require changes in management practices, technical approach, business processes, staffing allocation or capacity building. [/INST] Explain, in relation to your specific area of expertise and focus, what are the main risks and difficulties here described. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on People and culture Organizational Enabler, i.e. elements that require changes in management practices, technical approach, business processes, staffing allocation or capacity building. [/INST] Explain, in relation to your specific area of expertise and focus, what what can be learnt. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on People and culture Organizational Enabler, i.e. elements that require changes in management practices, technical approach, business processes, staffing allocation or capacity building. [/INST] List, as bullet points, all recommendations made in relation to your specific area of expertise and focus. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on External engagement and resource mobilization Organizational Enabler, i.e. elements that require changes in management practices, technical approach, business processes, staffing allocation or capacity building. [/INST] List, as bullet points, all findings and evidences in relation to your specific area of expertise and focus. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on External engagement and resource mobilization Organizational Enabler, i.e. elements that require changes in management practices, technical approach, business processes, staffing allocation or capacity building. [/INST] Explain, in relation to your specific area of expertise and focus, what are the root causes for the situation. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on External engagement and resource mobilization Organizational Enabler, i.e. elements that require changes in management practices, technical approach, business processes, staffing allocation or capacity building. [/INST] Explain, in relation to your specific area of expertise and focus, what are the main risks and difficulties here described. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on External engagement and resource mobilization Organizational Enabler, i.e. elements that require changes in management practices, technical approach, business processes, staffing allocation or capacity building. [/INST] Explain, in relation to your specific area of expertise and focus, what what can be learnt. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on External engagement and resource mobilization Organizational Enabler, i.e. elements that require changes in management practices, technical approach, business processes, staffing allocation or capacity building. [/INST] List, as bullet points, all recommendations made in relation to your specific area of expertise and focus. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on Leadership and governance Organizational Enabler, i.e. elements that require changes in management practices, technical approach, business processes, staffing allocation or capacity building. [/INST] List, as bullet points, all findings and evidences in relation to your specific area of expertise and focus. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on Leadership and governance Organizational Enabler, i.e. elements that require changes in management practices, technical approach, business processes, staffing allocation or capacity building. [/INST] Explain, in relation to your specific area of expertise and focus, what are the root causes for the situation. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on Leadership and governance Organizational Enabler, i.e. elements that require changes in management practices, technical approach, business processes, staffing allocation or capacity building. [/INST] Explain, in relation to your specific area of expertise and focus, what are the main risks and difficulties here described. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on Leadership and governance Organizational Enabler, i.e. elements that require changes in management practices, technical approach, business processes, staffing allocation or capacity building. [/INST] Explain, in relation to your specific area of expertise and focus, what what can be learnt. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on Leadership and governance Organizational Enabler, i.e. elements that require changes in management practices, technical approach, business processes, staffing allocation or capacity building. [/INST] List, as bullet points, all recommendations made in relation to your specific area of expertise and focus. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t>['40 UNHCR  \n   \nThis KEQ will also seek to answer the following sub-questions:  \n\uf0b7 What key steps have other UN agencies, similar organi zations and thought leaders in data and IM \ntaken that are applicable to UNHCR’s work?  \n\uf0b7 What actions should be prioritized based on the evaluation findings of the primary challenges and \nconstraints that UNHCR operations experience during the process of data collation/collection, cleaning, \nanalysis, storage and management that hinder evidence -informed decision -making?  \n\uf0b7 What should UNHCR do to address issues concerning data access, synthesis and dissemination \nacross various data systems at the country, regional and HQ offices?   \n\uf0b7 Which actions can be implemented more rapidly and which actions require  a higher level of effort and \nresourcing?  \n \n4.3 Approach and methodology   \n18. This is a theory -based, retrospective evaluation to understand UNHCR’s current practices around data and', 'sources. This work also includes a consideration of  who UNHCR should work with, such as innovators, \nstandard and policy se tting bodies, other humanitarian organiz ation s, development organiz ation s, \ngovernments and persons  of concern.  \n1.3.5 Revamping  UNHCR’s results -based management approach  \n22. At the time of t his evaluation, UNHCR’s corporate results -based management (RBM) tool is called \nFOCUS . This system primarily reports on outputs , and UNHCR recognised that there is a need for \nmore outcome -focused monitoring leadi ng to longer -term impact. UNHCR is in the process of \ndesigning  a new RBM tool that will transform  how the organization  reports on its programming , \nadvocacy and coordination efforts .  \n1.4 UNHCR’s  evolving contextual landscape  \n23. UNHCR operates in a constantly changing environment. The growth of personal access to \ninformation , increased levels of displacement  globally, and limited availability of funds create the need', '22 UNHCR  \n 3.4 Limitations  \n45. Representativeness of three countries / case studies . The evaluation’s findings are based on \nfindings from three field visits to Pakistan, the Syria regional refugee response  and Zambia. These \nfield visits w ere supplemented with additional interviews with HQ staff in Copenhagen and Geneva, \nvirtual meetings wi th other RRRP  operations, and documentation review. However, this evaluation \ndoes not aim to represent the entire diversity in data management systems and practices across all \nUNHCR operations  and the 130 countries that it works in . The evaluation’s focus is on identifying \nwhether there are organization -wide issues that affect efficient and effective management and use of \ndata and information. This hypothesis -driven design allowed the evaluation to carefully and \npurposefully select case s that would provide learning  across the differing situations and contexts .', 'this larger review and will inform future orga nizational direction and strategies regarding data and \ninformation management.    \n3. Purpose and objectives  \n14. The evaluation will serve a dual and mutually reinforcing learning and accountability purpose.13 The purpose \nof this centralized  evaluation is to con tribute evidence and recommendations that will inform UNHCR’s IM \nsystems and practice , ultimately contributing to improved capacity for responsible, timely and purposeful \ndata use and information management at various levels within UNHCR, in both its opera tional and \ncoordination roles.   \n15. The primary audience is UNHCR Senior Executive Team, Division of Programme Support and Management, \nDivision of International Protection, Division of Information Systems and Telecommunications, Division of \n                                                \n12 UNHCR Programme Ma nual, Chapter 4 (June 2017), p.250.']</t>
+  </si>
+  <si>
+    <t>['9 UNHCR  \n Recommendat ions \n \nIn the context of UNHCR’s current data and information systems, the internal and external changes it is facing, \nand the needs required to act as a lea der on protection and solutions , the evaluation offers the following \nrecommendations , with additiona l detail and sub -recommendations in the main body of the report : \n \nRecommended actions  Responsible  Anticipated \ntimeframe  \nThe evaluation emphasizes that an organization -wide prioritization \nwould be essential to transform data within UNHCR to the asset that it \ncan be.  \n \nThe evaluation recommends that UNHCR develop a data transformation \nstrategy and roadmap, with key elements such as enforcing data norms \nand standards throughout the organization, cultivating strong data \nleadership, developing systems to integra te and pull data together, \ncreating a data -first culture, and building capacities and confidence \naround statistics and evidence on persons of concern.  \n SET*  Complete by Q4', 'sources. This work also includes a consideration of  who UNHCR should work with, such as innovators, \nstandard and policy se tting bodies, other humanitarian organiz ation s, development organiz ation s, \ngovernments and persons  of concern.  \n1.3.5 Revamping  UNHCR’s results -based management approach  \n22. At the time of t his evaluation, UNHCR’s corporate results -based management (RBM) tool is called \nFOCUS . This system primarily reports on outputs , and UNHCR recognised that there is a need for \nmore outcome -focused monitoring leadi ng to longer -term impact. UNHCR is in the process of \ndesigning  a new RBM tool that will transform  how the organization  reports on its programming , \nadvocacy and coordination efforts .  \n1.4 UNHCR’s  evolving contextual landscape  \n23. UNHCR operates in a constantly changing environment. The growth of personal access to \ninformation , increased levels of displacement  globally, and limited availability of funds create the need', 'and international agencies and national institutions.4 \n \n26. Another  factor that has implications for UNHCR’s data needs is the growing scope and complexity \naround persons of concern. While camps remain a key feature in UNHCR’s response, persons of \nconcern are increasingly finding refuge in urban areas where social networks  often exist , or greater \neducation and economic opportunities  are available . This change mean s that UNHCR may find itself \nconfronted with programming for persons of concern  in a more complex social and economic \nenvironment with both greater opportunities and risks.  When considering the implications for \nUNHCR’s data needs, this again points to much wider and deeper partnering – with local authorities \nand service providers – and inc reased sophistication around new ways of determining the needs of \npersons of concern and activities (e.g. the “big data” of social media).  \n \n1.4.2 Transformations underway  within UNHCR', 'offices and stakeholders (internal/external)?  \n\uf0b7 What are key challenges and issues with accessing, synthesizing and/or disseminating data and \ninformation via these various data systems at the  country, regional and HQ offices?   \n\uf0b7 What data validation procedures and data quality assessments have been developed to support country \noperations and to what extent are they used in the field?    \n\uf0b7 How could organizational design around the central managemen t of data and information at HQs and \nregional platforms be optimized to ensure that critical requirements across the organi zation are met?  \n  \nKEQ 3:  In RRP situations (i.e. Syria, South Sudan, Burundi, DRC, Nigeria) when UNHCR plays a leading role \nin the r esponse, how effective is UNHCR in determining, addressing (i.e. collated, collected, cleaned, \nanalyzed , stored and managed) and coordinating data and information management in this inter -agency \nspace?']</t>
+  </si>
+  <si>
+    <t>['9 UNHCR  \n Recommendat ions \n \nIn the context of UNHCR’s current data and information systems, the internal and external changes it is facing, \nand the needs required to act as a lea der on protection and solutions , the evaluation offers the following \nrecommendations , with additiona l detail and sub -recommendations in the main body of the report : \n \nRecommended actions  Responsible  Anticipated \ntimeframe  \nThe evaluation emphasizes that an organization -wide prioritization \nwould be essential to transform data within UNHCR to the asset that it \ncan be.  \n \nThe evaluation recommends that UNHCR develop a data transformation \nstrategy and roadmap, with key elements such as enforcing data norms \nand standards throughout the organization, cultivating strong data \nleadership, developing systems to integra te and pull data together, \ncreating a data -first culture, and building capacities and confidence \naround statistics and evidence on persons of concern.  \n SET*  Complete by Q4', 'offices and stakeholders (internal/external)?  \n\uf0b7 What are key challenges and issues with accessing, synthesizing and/or disseminating data and \ninformation via these various data systems at the  country, regional and HQ offices?   \n\uf0b7 What data validation procedures and data quality assessments have been developed to support country \noperations and to what extent are they used in the field?    \n\uf0b7 How could organizational design around the central managemen t of data and information at HQs and \nregional platforms be optimized to ensure that critical requirements across the organi zation are met?  \n  \nKEQ 3:  In RRP situations (i.e. Syria, South Sudan, Burundi, DRC, Nigeria) when UNHCR plays a leading role \nin the r esponse, how effective is UNHCR in determining, addressing (i.e. collated, collected, cleaned, \nanalyzed , stored and managed) and coordinating data and information management in this inter -agency \nspace?', 'sources. This work also includes a consideration of  who UNHCR should work with, such as innovators, \nstandard and policy se tting bodies, other humanitarian organiz ation s, development organiz ation s, \ngovernments and persons  of concern.  \n1.3.5 Revamping  UNHCR’s results -based management approach  \n22. At the time of t his evaluation, UNHCR’s corporate results -based management (RBM) tool is called \nFOCUS . This system primarily reports on outputs , and UNHCR recognised that there is a need for \nmore outcome -focused monitoring leadi ng to longer -term impact. UNHCR is in the process of \ndesigning  a new RBM tool that will transform  how the organization  reports on its programming , \nadvocacy and coordination efforts .  \n1.4 UNHCR’s  evolving contextual landscape  \n23. UNHCR operates in a constantly changing environment. The growth of personal access to \ninformation , increased levels of displacement  globally, and limited availability of funds create the need', '22 UNHCR  \n 3.4 Limitations  \n45. Representativeness of three countries / case studies . The evaluation’s findings are based on \nfindings from three field visits to Pakistan, the Syria regional refugee response  and Zambia. These \nfield visits w ere supplemented with additional interviews with HQ staff in Copenhagen and Geneva, \nvirtual meetings wi th other RRRP  operations, and documentation review. However, this evaluation \ndoes not aim to represent the entire diversity in data management systems and practices across all \nUNHCR operations  and the 130 countries that it works in . The evaluation’s focus is on identifying \nwhether there are organization -wide issues that affect efficient and effective management and use of \ndata and information. This hypothesis -driven design allowed the evaluation to carefully and \npurposefully select case s that would provide learning  across the differing situations and contexts .']</t>
+  </si>
+  <si>
+    <t>['9 UNHCR  \n Recommendat ions \n \nIn the context of UNHCR’s current data and information systems, the internal and external changes it is facing, \nand the needs required to act as a lea der on protection and solutions , the evaluation offers the following \nrecommendations , with additiona l detail and sub -recommendations in the main body of the report : \n \nRecommended actions  Responsible  Anticipated \ntimeframe  \nThe evaluation emphasizes that an organization -wide prioritization \nwould be essential to transform data within UNHCR to the asset that it \ncan be.  \n \nThe evaluation recommends that UNHCR develop a data transformation \nstrategy and roadmap, with key elements such as enforcing data norms \nand standards throughout the organization, cultivating strong data \nleadership, developing systems to integra te and pull data together, \ncreating a data -first culture, and building capacities and confidence \naround statistics and evidence on persons of concern.  \n SET*  Complete by Q4', '12 UNHCR Programme Ma nual, Chapter 4 (June 2017), p.250.   \n13 Accountability  – through assessing and reporting on implementation and results, and requesting management to formally respond to \nthe evaluation. Learning  – Describing as well as explaining results is necessary to gen erate insights and pointers for learning to improve \nfuture strategies – and if possible – in other contexts where UNHCR operations face similar opportunities and constraints.', 'offices and stakeholders (internal/external)?  \n\uf0b7 What are key challenges and issues with accessing, synthesizing and/or disseminating data and \ninformation via these various data systems at the  country, regional and HQ offices?   \n\uf0b7 What data validation procedures and data quality assessments have been developed to support country \noperations and to what extent are they used in the field?    \n\uf0b7 How could organizational design around the central managemen t of data and information at HQs and \nregional platforms be optimized to ensure that critical requirements across the organi zation are met?  \n  \nKEQ 3:  In RRP situations (i.e. Syria, South Sudan, Burundi, DRC, Nigeria) when UNHCR plays a leading role \nin the r esponse, how effective is UNHCR in determining, addressing (i.e. collated, collected, cleaned, \nanalyzed , stored and managed) and coordinating data and information management in this inter -agency \nspace?', 'sources. This work also includes a consideration of  who UNHCR should work with, such as innovators, \nstandard and policy se tting bodies, other humanitarian organiz ation s, development organiz ation s, \ngovernments and persons  of concern.  \n1.3.5 Revamping  UNHCR’s results -based management approach  \n22. At the time of t his evaluation, UNHCR’s corporate results -based management (RBM) tool is called \nFOCUS . This system primarily reports on outputs , and UNHCR recognised that there is a need for \nmore outcome -focused monitoring leadi ng to longer -term impact. UNHCR is in the process of \ndesigning  a new RBM tool that will transform  how the organization  reports on its programming , \nadvocacy and coordination efforts .  \n1.4 UNHCR’s  evolving contextual landscape  \n23. UNHCR operates in a constantly changing environment. The growth of personal access to \ninformation , increased levels of displacement  globally, and limited availability of funds create the need']</t>
+  </si>
+  <si>
+    <t>['9 UNHCR  \n Recommendat ions \n \nIn the context of UNHCR’s current data and information systems, the internal and external changes it is facing, \nand the needs required to act as a lea der on protection and solutions , the evaluation offers the following \nrecommendations , with additiona l detail and sub -recommendations in the main body of the report : \n \nRecommended actions  Responsible  Anticipated \ntimeframe  \nThe evaluation emphasizes that an organization -wide prioritization \nwould be essential to transform data within UNHCR to the asset that it \ncan be.  \n \nThe evaluation recommends that UNHCR develop a data transformation \nstrategy and roadmap, with key elements such as enforcing data norms \nand standards throughout the organization, cultivating strong data \nleadership, developing systems to integra te and pull data together, \ncreating a data -first culture, and building capacities and confidence \naround statistics and evidence on persons of concern.  \n SET*  Complete by Q4', 'sources. This work also includes a consideration of  who UNHCR should work with, such as innovators, \nstandard and policy se tting bodies, other humanitarian organiz ation s, development organiz ation s, \ngovernments and persons  of concern.  \n1.3.5 Revamping  UNHCR’s results -based management approach  \n22. At the time of t his evaluation, UNHCR’s corporate results -based management (RBM) tool is called \nFOCUS . This system primarily reports on outputs , and UNHCR recognised that there is a need for \nmore outcome -focused monitoring leadi ng to longer -term impact. UNHCR is in the process of \ndesigning  a new RBM tool that will transform  how the organization  reports on its programming , \nadvocacy and coordination efforts .  \n1.4 UNHCR’s  evolving contextual landscape  \n23. UNHCR operates in a constantly changing environment. The growth of personal access to \ninformation , increased levels of displacement  globally, and limited availability of funds create the need', 'resourcing?  \n \n4.3 Approach and methodology   \n18. This is a theory -based, retrospective evaluation to understand UNHCR’s current practices around data and \nIM in country operations and RRP situations in order to generate recommendati ons to improve how the \norgani zation collates, collects, cleans, stores, manages, analyses, disseminates, uses and coordinates data \nand information in order to better position UNHCR to carry out its mandate of international protection, \nhumanitarian assistan ce and permanent solutions for persons of concern.   \n19. The methodology should be two -pronged:  1) Utilize  a case -based evaluation approach to yield rich detail in \nthe 4 selected case studies as well as RRP situations; and 2) Situational analysis of changes in the external \nenvironment and internally within UNHCR followed by a landscape mapping of how other UN agencies, \nsimilar organi zation and thought leaders in humanitarian/development sectors are positioning their data and', 'offices and stakeholders (internal/external)?  \n\uf0b7 What are key challenges and issues with accessing, synthesizing and/or disseminating data and \ninformation via these various data systems at the  country, regional and HQ offices?   \n\uf0b7 What data validation procedures and data quality assessments have been developed to support country \noperations and to what extent are they used in the field?    \n\uf0b7 How could organizational design around the central managemen t of data and information at HQs and \nregional platforms be optimized to ensure that critical requirements across the organi zation are met?  \n  \nKEQ 3:  In RRP situations (i.e. Syria, South Sudan, Burundi, DRC, Nigeria) when UNHCR plays a leading role \nin the r esponse, how effective is UNHCR in determining, addressing (i.e. collated, collected, cleaned, \nanalyzed , stored and managed) and coordinating data and information management in this inter -agency \nspace?']</t>
+  </si>
+  <si>
+    <t>['40 UNHCR  \n   \nThis KEQ will also seek to answer the following sub-questions:  \n\uf0b7 What key steps have other UN agencies, similar organi zations and thought leaders in data and IM \ntaken that are applicable to UNHCR’s work?  \n\uf0b7 What actions should be prioritized based on the evaluation findings of the primary challenges and \nconstraints that UNHCR operations experience during the process of data collation/collection, cleaning, \nanalysis, storage and management that hinder evidence -informed decision -making?  \n\uf0b7 What should UNHCR do to address issues concerning data access, synthesis and dissemination \nacross various data systems at the country, regional and HQ offices?   \n\uf0b7 Which actions can be implemented more rapidly and which actions require  a higher level of effort and \nresourcing?  \n \n4.3 Approach and methodology   \n18. This is a theory -based, retrospective evaluation to understand UNHCR’s current practices around data and', 'sources. This work also includes a consideration of  who UNHCR should work with, such as innovators, \nstandard and policy se tting bodies, other humanitarian organiz ation s, development organiz ation s, \ngovernments and persons  of concern.  \n1.3.5 Revamping  UNHCR’s results -based management approach  \n22. At the time of t his evaluation, UNHCR’s corporate results -based management (RBM) tool is called \nFOCUS . This system primarily reports on outputs , and UNHCR recognised that there is a need for \nmore outcome -focused monitoring leadi ng to longer -term impact. UNHCR is in the process of \ndesigning  a new RBM tool that will transform  how the organization  reports on its programming , \nadvocacy and coordination efforts .  \n1.4 UNHCR’s  evolving contextual landscape  \n23. UNHCR operates in a constantly changing environment. The growth of personal access to \ninformation , increased levels of displacement  globally, and limited availability of funds create the need', 'study on returnees to Syria had 70+ dedicated researchers while UNHCR had 5 staff who provided \ncomments on top of their existing workloads. In interviews with UNHCR country office staff, the ge neral \nconsensus was that the culture is geared towards “doing”  with very little time or routine to take a step \nback and look at what  is working , or trends based on deeper analysis of different types of data from \nprotection and programme. Analys es such as t his help drive the discourse on forced displacement \nresponse among policy and decision  makers. Box 2 provides an example of an emerg ing good \npractice in the Syria regional refugee r esponse.   \n4.7 Access to data for  persons of concern  could be improved  \n75. UNHC R commits to inclu ding the perceptions, needs \nand experiences of  persons of concern in all aspects \nof its operations. Nonetheless , the evaluation team \nobserved gaps in the fulfilment of this commitment , \nspecifically in sharing information back to persons o f', '2 UNHCR  \n UNHCR Evaluation Service  \n \nUNHCR’s Evaluation Policy confirms UNHCR’s commitment to support accountability, learning and continual \nimprovement through the systematic examination and analysis of organiz ational strategies, policies, and \nprogrammes.  Evaluations are guided by the principles of independence, impartiality, credibility and utility, and \nare undertaken to enhance the organization’s performance in addressing the protection, assistance and \nsolution needs of refugees, stateless people and oth er persons of concern.  \n \n \nEvaluation Service  \nUnited Nations High Commissioner for Refugees  \nCase Postale 2500  \n1211 Genève 2  \nSwitzerland  \nwww.unhcr.org  \n \n \n \n \n \n \n \n \n \n \n \n \n \nPublished by UNHCR  \nEvaluation Service Copyright © 2019 UNHCR  \n \nThis document is issued by the Office of the United Nations High Commissioner for Refugees for general \ndistribution. All rights are reserved. Reproduction is authorized, except for commercial purposes, provided']</t>
+  </si>
+  <si>
+    <t>['40 UNHCR  \n   \nThis KEQ will also seek to answer the following sub-questions:  \n\uf0b7 What key steps have other UN agencies, similar organi zations and thought leaders in data and IM \ntaken that are applicable to UNHCR’s work?  \n\uf0b7 What actions should be prioritized based on the evaluation findings of the primary challenges and \nconstraints that UNHCR operations experience during the process of data collation/collection, cleaning, \nanalysis, storage and management that hinder evidence -informed decision -making?  \n\uf0b7 What should UNHCR do to address issues concerning data access, synthesis and dissemination \nacross various data systems at the country, regional and HQ offices?   \n\uf0b7 Which actions can be implemented more rapidly and which actions require  a higher level of effort and \nresourcing?  \n \n4.3 Approach and methodology   \n18. This is a theory -based, retrospective evaluation to understand UNHCR’s current practices around data and', 'sources. This work also includes a consideration of  who UNHCR should work with, such as innovators, \nstandard and policy se tting bodies, other humanitarian organiz ation s, development organiz ation s, \ngovernments and persons  of concern.  \n1.3.5 Revamping  UNHCR’s results -based management approach  \n22. At the time of t his evaluation, UNHCR’s corporate results -based management (RBM) tool is called \nFOCUS . This system primarily reports on outputs , and UNHCR recognised that there is a need for \nmore outcome -focused monitoring leadi ng to longer -term impact. UNHCR is in the process of \ndesigning  a new RBM tool that will transform  how the organization  reports on its programming , \nadvocacy and coordination efforts .  \n1.4 UNHCR’s  evolving contextual landscape  \n23. UNHCR operates in a constantly changing environment. The growth of personal access to \ninformation , increased levels of displacement  globally, and limited availability of funds create the need', 'and international agencies and national institutions.4 \n \n26. Another  factor that has implications for UNHCR’s data needs is the growing scope and complexity \naround persons of concern. While camps remain a key feature in UNHCR’s response, persons of \nconcern are increasingly finding refuge in urban areas where social networks  often exist , or greater \neducation and economic opportunities  are available . This change mean s that UNHCR may find itself \nconfronted with programming for persons of concern  in a more complex social and economic \nenvironment with both greater opportunities and risks.  When considering the implications for \nUNHCR’s data needs, this again points to much wider and deeper partnering – with local authorities \nand service providers – and inc reased sophistication around new ways of determining the needs of \npersons of concern and activities (e.g. the “big data” of social media).  \n \n1.4.2 Transformations underway  within UNHCR', '23. UNHCR operates in a constantly changing environment. The growth of personal access to \ninformation , increased levels of displacement  globally, and limited availability of funds create the need \nfor UNHCR to adapt its data practices . In addition to these broader issues, UNHCR is confrontin g a \nnumber of specific external and internal changes that will have a profound effect on its data and \ninformation needs.  \n1.4.1 The global context that UNHCR operates in  \n24. The New York Declaratio n for Refugees and Migrants of September 2016 , whereby the UN G eneral \nAssembly adopted a set of commitments to enhance the protection of refugees and migrants, also \ncalled upon UNHCR to develop and intiate the Comprehensive Refugee Response Framework  \n(CRRF) .3 The CRR F recogniz es that sustainable assistance and durable  solution s for refugee s cannot \nbe achieved without international cooperation . The CRRF  seeks to achieve four objectives: 1) to ease']</t>
+  </si>
+  <si>
+    <t>['40 UNHCR  \n   \nThis KEQ will also seek to answer the following sub-questions:  \n\uf0b7 What key steps have other UN agencies, similar organi zations and thought leaders in data and IM \ntaken that are applicable to UNHCR’s work?  \n\uf0b7 What actions should be prioritized based on the evaluation findings of the primary challenges and \nconstraints that UNHCR operations experience during the process of data collation/collection, cleaning, \nanalysis, storage and management that hinder evidence -informed decision -making?  \n\uf0b7 What should UNHCR do to address issues concerning data access, synthesis and dissemination \nacross various data systems at the country, regional and HQ offices?   \n\uf0b7 Which actions can be implemented more rapidly and which actions require  a higher level of effort and \nresourcing?  \n \n4.3 Approach and methodology   \n18. This is a theory -based, retrospective evaluation to understand UNHCR’s current practices around data and', '9 UNHCR  \n Recommendat ions \n \nIn the context of UNHCR’s current data and information systems, the internal and external changes it is facing, \nand the needs required to act as a lea der on protection and solutions , the evaluation offers the following \nrecommendations , with additiona l detail and sub -recommendations in the main body of the report : \n \nRecommended actions  Responsible  Anticipated \ntimeframe  \nThe evaluation emphasizes that an organization -wide prioritization \nwould be essential to transform data within UNHCR to the asset that it \ncan be.  \n \nThe evaluation recommends that UNHCR develop a data transformation \nstrategy and roadmap, with key elements such as enforcing data norms \nand standards throughout the organization, cultivating strong data \nleadership, developing systems to integra te and pull data together, \ncreating a data -first culture, and building capacities and confidence \naround statistics and evidence on persons of concern.  \n SET*  Complete by Q4', 'sources. This work also includes a consideration of  who UNHCR should work with, such as innovators, \nstandard and policy se tting bodies, other humanitarian organiz ation s, development organiz ation s, \ngovernments and persons  of concern.  \n1.3.5 Revamping  UNHCR’s results -based management approach  \n22. At the time of t his evaluation, UNHCR’s corporate results -based management (RBM) tool is called \nFOCUS . This system primarily reports on outputs , and UNHCR recognised that there is a need for \nmore outcome -focused monitoring leadi ng to longer -term impact. UNHCR is in the process of \ndesigning  a new RBM tool that will transform  how the organization  reports on its programming , \nadvocacy and coordination efforts .  \n1.4 UNHCR’s  evolving contextual landscape  \n23. UNHCR operates in a constantly changing environment. The growth of personal access to \ninformation , increased levels of displacement  globally, and limited availability of funds create the need', 'and international agencies and national institutions.4 \n \n26. Another  factor that has implications for UNHCR’s data needs is the growing scope and complexity \naround persons of concern. While camps remain a key feature in UNHCR’s response, persons of \nconcern are increasingly finding refuge in urban areas where social networks  often exist , or greater \neducation and economic opportunities  are available . This change mean s that UNHCR may find itself \nconfronted with programming for persons of concern  in a more complex social and economic \nenvironment with both greater opportunities and risks.  When considering the implications for \nUNHCR’s data needs, this again points to much wider and deeper partnering – with local authorities \nand service providers – and inc reased sophistication around new ways of determining the needs of \npersons of concern and activities (e.g. the “big data” of social media).  \n \n1.4.2 Transformations underway  within UNHCR']</t>
+  </si>
+  <si>
+    <t>['40 UNHCR  \n   \nThis KEQ will also seek to answer the following sub-questions:  \n\uf0b7 What key steps have other UN agencies, similar organi zations and thought leaders in data and IM \ntaken that are applicable to UNHCR’s work?  \n\uf0b7 What actions should be prioritized based on the evaluation findings of the primary challenges and \nconstraints that UNHCR operations experience during the process of data collation/collection, cleaning, \nanalysis, storage and management that hinder evidence -informed decision -making?  \n\uf0b7 What should UNHCR do to address issues concerning data access, synthesis and dissemination \nacross various data systems at the country, regional and HQ offices?   \n\uf0b7 Which actions can be implemented more rapidly and which actions require  a higher level of effort and \nresourcing?  \n \n4.3 Approach and methodology   \n18. This is a theory -based, retrospective evaluation to understand UNHCR’s current practices around data and', '9 UNHCR  \n Recommendat ions \n \nIn the context of UNHCR’s current data and information systems, the internal and external changes it is facing, \nand the needs required to act as a lea der on protection and solutions , the evaluation offers the following \nrecommendations , with additiona l detail and sub -recommendations in the main body of the report : \n \nRecommended actions  Responsible  Anticipated \ntimeframe  \nThe evaluation emphasizes that an organization -wide prioritization \nwould be essential to transform data within UNHCR to the asset that it \ncan be.  \n \nThe evaluation recommends that UNHCR develop a data transformation \nstrategy and roadmap, with key elements such as enforcing data norms \nand standards throughout the organization, cultivating strong data \nleadership, developing systems to integra te and pull data together, \ncreating a data -first culture, and building capacities and confidence \naround statistics and evidence on persons of concern.  \n SET*  Complete by Q4', '12 UNHCR Programme Ma nual, Chapter 4 (June 2017), p.250.   \n13 Accountability  – through assessing and reporting on implementation and results, and requesting management to formally respond to \nthe evaluation. Learning  – Describing as well as explaining results is necessary to gen erate insights and pointers for learning to improve \nfuture strategies – and if possible – in other contexts where UNHCR operations face similar opportunities and constraints.', 'sources. This work also includes a consideration of  who UNHCR should work with, such as innovators, \nstandard and policy se tting bodies, other humanitarian organiz ation s, development organiz ation s, \ngovernments and persons  of concern.  \n1.3.5 Revamping  UNHCR’s results -based management approach  \n22. At the time of t his evaluation, UNHCR’s corporate results -based management (RBM) tool is called \nFOCUS . This system primarily reports on outputs , and UNHCR recognised that there is a need for \nmore outcome -focused monitoring leadi ng to longer -term impact. UNHCR is in the process of \ndesigning  a new RBM tool that will transform  how the organization  reports on its programming , \nadvocacy and coordination efforts .  \n1.4 UNHCR’s  evolving contextual landscape  \n23. UNHCR operates in a constantly changing environment. The growth of personal access to \ninformation , increased levels of displacement  globally, and limited availability of funds create the need']</t>
+  </si>
+  <si>
+    <t>['9 UNHCR  \n Recommendat ions \n \nIn the context of UNHCR’s current data and information systems, the internal and external changes it is facing, \nand the needs required to act as a lea der on protection and solutions , the evaluation offers the following \nrecommendations , with additiona l detail and sub -recommendations in the main body of the report : \n \nRecommended actions  Responsible  Anticipated \ntimeframe  \nThe evaluation emphasizes that an organization -wide prioritization \nwould be essential to transform data within UNHCR to the asset that it \ncan be.  \n \nThe evaluation recommends that UNHCR develop a data transformation \nstrategy and roadmap, with key elements such as enforcing data norms \nand standards throughout the organization, cultivating strong data \nleadership, developing systems to integra te and pull data together, \ncreating a data -first culture, and building capacities and confidence \naround statistics and evidence on persons of concern.  \n SET*  Complete by Q4', '2 UNHCR  \n UNHCR Evaluation Service  \n \nUNHCR’s Evaluation Policy confirms UNHCR’s commitment to support accountability, learning and continual \nimprovement through the systematic examination and analysis of organiz ational strategies, policies, and \nprogrammes.  Evaluations are guided by the principles of independence, impartiality, credibility and utility, and \nare undertaken to enhance the organization’s performance in addressing the protection, assistance and \nsolution needs of refugees, stateless people and oth er persons of concern.  \n \n \nEvaluation Service  \nUnited Nations High Commissioner for Refugees  \nCase Postale 2500  \n1211 Genève 2  \nSwitzerland  \nwww.unhcr.org  \n \n \n \n \n \n \n \n \n \n \n \n \n \nPublished by UNHCR  \nEvaluation Service Copyright © 2019 UNHCR  \n \nThis document is issued by the Office of the United Nations High Commissioner for Refugees for general \ndistribution. All rights are reserved. Reproduction is authorized, except for commercial purposes, provided', 'sources. This work also includes a consideration of  who UNHCR should work with, such as innovators, \nstandard and policy se tting bodies, other humanitarian organiz ation s, development organiz ation s, \ngovernments and persons  of concern.  \n1.3.5 Revamping  UNHCR’s results -based management approach  \n22. At the time of t his evaluation, UNHCR’s corporate results -based management (RBM) tool is called \nFOCUS . This system primarily reports on outputs , and UNHCR recognised that there is a need for \nmore outcome -focused monitoring leadi ng to longer -term impact. UNHCR is in the process of \ndesigning  a new RBM tool that will transform  how the organization  reports on its programming , \nadvocacy and coordination efforts .  \n1.4 UNHCR’s  evolving contextual landscape  \n23. UNHCR operates in a constantly changing environment. The growth of personal access to \ninformation , increased levels of displacement  globally, and limited availability of funds create the need', 'resourcing?  \n \n4.3 Approach and methodology   \n18. This is a theory -based, retrospective evaluation to understand UNHCR’s current practices around data and \nIM in country operations and RRP situations in order to generate recommendati ons to improve how the \norgani zation collates, collects, cleans, stores, manages, analyses, disseminates, uses and coordinates data \nand information in order to better position UNHCR to carry out its mandate of international protection, \nhumanitarian assistan ce and permanent solutions for persons of concern.   \n19. The methodology should be two -pronged:  1) Utilize  a case -based evaluation approach to yield rich detail in \nthe 4 selected case studies as well as RRP situations; and 2) Situational analysis of changes in the external \nenvironment and internally within UNHCR followed by a landscape mapping of how other UN agencies, \nsimilar organi zation and thought leaders in humanitarian/development sectors are positioning their data and']</t>
+  </si>
+  <si>
+    <t>['40 UNHCR  \n   \nThis KEQ will also seek to answer the following sub-questions:  \n\uf0b7 What key steps have other UN agencies, similar organi zations and thought leaders in data and IM \ntaken that are applicable to UNHCR’s work?  \n\uf0b7 What actions should be prioritized based on the evaluation findings of the primary challenges and \nconstraints that UNHCR operations experience during the process of data collation/collection, cleaning, \nanalysis, storage and management that hinder evidence -informed decision -making?  \n\uf0b7 What should UNHCR do to address issues concerning data access, synthesis and dissemination \nacross various data systems at the country, regional and HQ offices?   \n\uf0b7 Which actions can be implemented more rapidly and which actions require  a higher level of effort and \nresourcing?  \n \n4.3 Approach and methodology   \n18. This is a theory -based, retrospective evaluation to understand UNHCR’s current practices around data and', '12 UNHCR Programme Ma nual, Chapter 4 (June 2017), p.250.   \n13 Accountability  – through assessing and reporting on implementation and results, and requesting management to formally respond to \nthe evaluation. Learning  – Describing as well as explaining results is necessary to gen erate insights and pointers for learning to improve \nfuture strategies – and if possible – in other contexts where UNHCR operations face similar opportunities and constraints.', '22 UNHCR  \n 3.4 Limitations  \n45. Representativeness of three countries / case studies . The evaluation’s findings are based on \nfindings from three field visits to Pakistan, the Syria regional refugee response  and Zambia. These \nfield visits w ere supplemented with additional interviews with HQ staff in Copenhagen and Geneva, \nvirtual meetings wi th other RRRP  operations, and documentation review. However, this evaluation \ndoes not aim to represent the entire diversity in data management systems and practices across all \nUNHCR operations  and the 130 countries that it works in . The evaluation’s focus is on identifying \nwhether there are organization -wide issues that affect efficient and effective management and use of \ndata and information. This hypothesis -driven design allowed the evaluation to carefully and \npurposefully select case s that would provide learning  across the differing situations and contexts .', 'study on returnees to Syria had 70+ dedicated researchers while UNHCR had 5 staff who provided \ncomments on top of their existing workloads. In interviews with UNHCR country office staff, the ge neral \nconsensus was that the culture is geared towards “doing”  with very little time or routine to take a step \nback and look at what  is working , or trends based on deeper analysis of different types of data from \nprotection and programme. Analys es such as t his help drive the discourse on forced displacement \nresponse among policy and decision  makers. Box 2 provides an example of an emerg ing good \npractice in the Syria regional refugee r esponse.   \n4.7 Access to data for  persons of concern  could be improved  \n75. UNHC R commits to inclu ding the perceptions, needs \nand experiences of  persons of concern in all aspects \nof its operations. Nonetheless , the evaluation team \nobserved gaps in the fulfilment of this commitment , \nspecifically in sharing information back to persons o f']</t>
+  </si>
+  <si>
+    <t>['40 UNHCR  \n   \nThis KEQ will also seek to answer the following sub-questions:  \n\uf0b7 What key steps have other UN agencies, similar organi zations and thought leaders in data and IM \ntaken that are applicable to UNHCR’s work?  \n\uf0b7 What actions should be prioritized based on the evaluation findings of the primary challenges and \nconstraints that UNHCR operations experience during the process of data collation/collection, cleaning, \nanalysis, storage and management that hinder evidence -informed decision -making?  \n\uf0b7 What should UNHCR do to address issues concerning data access, synthesis and dissemination \nacross various data systems at the country, regional and HQ offices?   \n\uf0b7 Which actions can be implemented more rapidly and which actions require  a higher level of effort and \nresourcing?  \n \n4.3 Approach and methodology   \n18. This is a theory -based, retrospective evaluation to understand UNHCR’s current practices around data and', '12 UNHCR Programme Ma nual, Chapter 4 (June 2017), p.250.   \n13 Accountability  – through assessing and reporting on implementation and results, and requesting management to formally respond to \nthe evaluation. Learning  – Describing as well as explaining results is necessary to gen erate insights and pointers for learning to improve \nfuture strategies – and if possible – in other contexts where UNHCR operations face similar opportunities and constraints.', 'sources. This work also includes a consideration of  who UNHCR should work with, such as innovators, \nstandard and policy se tting bodies, other humanitarian organiz ation s, development organiz ation s, \ngovernments and persons  of concern.  \n1.3.5 Revamping  UNHCR’s results -based management approach  \n22. At the time of t his evaluation, UNHCR’s corporate results -based management (RBM) tool is called \nFOCUS . This system primarily reports on outputs , and UNHCR recognised that there is a need for \nmore outcome -focused monitoring leadi ng to longer -term impact. UNHCR is in the process of \ndesigning  a new RBM tool that will transform  how the organization  reports on its programming , \nadvocacy and coordination efforts .  \n1.4 UNHCR’s  evolving contextual landscape  \n23. UNHCR operates in a constantly changing environment. The growth of personal access to \ninformation , increased levels of displacement  globally, and limited availability of funds create the need', 'has been analysed with an understanding and consideration of the external and internal changes \nUNHCR is experiencing.  Accordingly , the conclusions and recommendations are appropriately \nsituated to provide maxi mum utility based on the evaluation’s assessment of the future context.  \n  \n36. Contrary to typical evaluations, the assignment was conceived without specific measurement criteria  \n(e.g. to assess progress) or expected outcomes , given that the scope of the evalua tion is to review  \noperational data practice and approaches . Therefore, t he research methodologies of process mapping \n(see Annex 3 for details), key informant interviews , document review  and observation were used to \ndevelop an understanding of organiz ation al systems, practices, culture, structures and \nincentives/disincentives regarding data and information.  \n \n37. Importantly, as a strategic evaluation, the work is hypothesis -driven. Using a  deductive  process, i t was']</t>
+  </si>
+  <si>
+    <t>['40 UNHCR  \n   \nThis KEQ will also seek to answer the following sub-questions:  \n\uf0b7 What key steps have other UN agencies, similar organi zations and thought leaders in data and IM \ntaken that are applicable to UNHCR’s work?  \n\uf0b7 What actions should be prioritized based on the evaluation findings of the primary challenges and \nconstraints that UNHCR operations experience during the process of data collation/collection, cleaning, \nanalysis, storage and management that hinder evidence -informed decision -making?  \n\uf0b7 What should UNHCR do to address issues concerning data access, synthesis and dissemination \nacross various data systems at the country, regional and HQ offices?   \n\uf0b7 Which actions can be implemented more rapidly and which actions require  a higher level of effort and \nresourcing?  \n \n4.3 Approach and methodology   \n18. This is a theory -based, retrospective evaluation to understand UNHCR’s current practices around data and', '12 UNHCR Programme Ma nual, Chapter 4 (June 2017), p.250.   \n13 Accountability  – through assessing and reporting on implementation and results, and requesting management to formally respond to \nthe evaluation. Learning  – Describing as well as explaining results is necessary to gen erate insights and pointers for learning to improve \nfuture strategies – and if possible – in other contexts where UNHCR operations face similar opportunities and constraints.', 'sources. This work also includes a consideration of  who UNHCR should work with, such as innovators, \nstandard and policy se tting bodies, other humanitarian organiz ation s, development organiz ation s, \ngovernments and persons  of concern.  \n1.3.5 Revamping  UNHCR’s results -based management approach  \n22. At the time of t his evaluation, UNHCR’s corporate results -based management (RBM) tool is called \nFOCUS . This system primarily reports on outputs , and UNHCR recognised that there is a need for \nmore outcome -focused monitoring leadi ng to longer -term impact. UNHCR is in the process of \ndesigning  a new RBM tool that will transform  how the organization  reports on its programming , \nadvocacy and coordination efforts .  \n1.4 UNHCR’s  evolving contextual landscape  \n23. UNHCR operates in a constantly changing environment. The growth of personal access to \ninformation , increased levels of displacement  globally, and limited availability of funds create the need', '22 UNHCR  \n 3.4 Limitations  \n45. Representativeness of three countries / case studies . The evaluation’s findings are based on \nfindings from three field visits to Pakistan, the Syria regional refugee response  and Zambia. These \nfield visits w ere supplemented with additional interviews with HQ staff in Copenhagen and Geneva, \nvirtual meetings wi th other RRRP  operations, and documentation review. However, this evaluation \ndoes not aim to represent the entire diversity in data management systems and practices across all \nUNHCR operations  and the 130 countries that it works in . The evaluation’s focus is on identifying \nwhether there are organization -wide issues that affect efficient and effective management and use of \ndata and information. This hypothesis -driven design allowed the evaluation to carefully and \npurposefully select case s that would provide learning  across the differing situations and contexts .']</t>
+  </si>
+  <si>
+    <t>['12 UNHCR Programme Ma nual, Chapter 4 (June 2017), p.250.   \n13 Accountability  – through assessing and reporting on implementation and results, and requesting management to formally respond to \nthe evaluation. Learning  – Describing as well as explaining results is necessary to gen erate insights and pointers for learning to improve \nfuture strategies – and if possible – in other contexts where UNHCR operations face similar opportunities and constraints.', '• Finally, as the UN Refugee Agency,  UNHCR ought to be an authority  on what is happening with \nrefugees and other persons of concern, but this authority is being er oded by other players who are \npresenting and sharing data and information that is sometimes more compelling and interesting \nthan UNHCR’s  data. Benchmarking efforts with other organizations have shown their prioriti zation \nof improvements in data and informa tion management.  \n \n24. Based on this evaluation, the gap between what UNHCR wants and where it currently is not that \nstark . There are some straightforward, and not -so-difficult fixes that can help UNHCR become more \nefficient and have more aggregated data visual ized and accessible. In particular, prioriti zing some \ninvestments in data integration, data capacities and data norms and standards could be very helpful.  \nUNHCR has some excellent data/IM practices and some great capacity , but this is often only seen', 'has been analysed with an understanding and consideration of the external and internal changes \nUNHCR is experiencing.  Accordingly , the conclusions and recommendations are appropriately \nsituated to provide maxi mum utility based on the evaluation’s assessment of the future context.  \n  \n36. Contrary to typical evaluations, the assignment was conceived without specific measurement criteria  \n(e.g. to assess progress) or expected outcomes , given that the scope of the evalua tion is to review  \noperational data practice and approaches . Therefore, t he research methodologies of process mapping \n(see Annex 3 for details), key informant interviews , document review  and observation were used to \ndevelop an understanding of organiz ation al systems, practices, culture, structures and \nincentives/disincentives regarding data and information.  \n \n37. Importantly, as a strategic evaluation, the work is hypothesis -driven. Using a  deductive  process, i t was', 'sources. This work also includes a consideration of  who UNHCR should work with, such as innovators, \nstandard and policy se tting bodies, other humanitarian organiz ation s, development organiz ation s, \ngovernments and persons  of concern.  \n1.3.5 Revamping  UNHCR’s results -based management approach  \n22. At the time of t his evaluation, UNHCR’s corporate results -based management (RBM) tool is called \nFOCUS . This system primarily reports on outputs , and UNHCR recognised that there is a need for \nmore outcome -focused monitoring leadi ng to longer -term impact. UNHCR is in the process of \ndesigning  a new RBM tool that will transform  how the organization  reports on its programming , \nadvocacy and coordination efforts .  \n1.4 UNHCR’s  evolving contextual landscape  \n23. UNHCR operates in a constantly changing environment. The growth of personal access to \ninformation , increased levels of displacement  globally, and limited availability of funds create the need']</t>
+  </si>
+  <si>
+    <t>['9 UNHCR  \n Recommendat ions \n \nIn the context of UNHCR’s current data and information systems, the internal and external changes it is facing, \nand the needs required to act as a lea der on protection and solutions , the evaluation offers the following \nrecommendations , with additiona l detail and sub -recommendations in the main body of the report : \n \nRecommended actions  Responsible  Anticipated \ntimeframe  \nThe evaluation emphasizes that an organization -wide prioritization \nwould be essential to transform data within UNHCR to the asset that it \ncan be.  \n \nThe evaluation recommends that UNHCR develop a data transformation \nstrategy and roadmap, with key elements such as enforcing data norms \nand standards throughout the organization, cultivating strong data \nleadership, developing systems to integra te and pull data together, \ncreating a data -first culture, and building capacities and confidence \naround statistics and evidence on persons of concern.  \n SET*  Complete by Q4', '• Finally, as the UN Refugee Agency,  UNHCR ought to be an authority  on what is happening with \nrefugees and other persons of concern, but this authority is being er oded by other players who are \npresenting and sharing data and information that is sometimes more compelling and interesting \nthan UNHCR’s  data. Benchmarking efforts with other organizations have shown their prioriti zation \nof improvements in data and informa tion management.  \n \n24. Based on this evaluation, the gap between what UNHCR wants and where it currently is not that \nstark . There are some straightforward, and not -so-difficult fixes that can help UNHCR become more \nefficient and have more aggregated data visual ized and accessible. In particular, prioriti zing some \ninvestments in data integration, data capacities and data norms and standards could be very helpful.  \nUNHCR has some excellent data/IM practices and some great capacity , but this is often only seen', '12 UNHCR Programme Ma nual, Chapter 4 (June 2017), p.250.   \n13 Accountability  – through assessing and reporting on implementation and results, and requesting management to formally respond to \nthe evaluation. Learning  – Describing as well as explaining results is necessary to gen erate insights and pointers for learning to improve \nfuture strategies – and if possible – in other contexts where UNHCR operations face similar opportunities and constraints.', 'study on returnees to Syria had 70+ dedicated researchers while UNHCR had 5 staff who provided \ncomments on top of their existing workloads. In interviews with UNHCR country office staff, the ge neral \nconsensus was that the culture is geared towards “doing”  with very little time or routine to take a step \nback and look at what  is working , or trends based on deeper analysis of different types of data from \nprotection and programme. Analys es such as t his help drive the discourse on forced displacement \nresponse among policy and decision  makers. Box 2 provides an example of an emerg ing good \npractice in the Syria regional refugee r esponse.   \n4.7 Access to data for  persons of concern  could be improved  \n75. UNHC R commits to inclu ding the perceptions, needs \nand experiences of  persons of concern in all aspects \nof its operations. Nonetheless , the evaluation team \nobserved gaps in the fulfilment of this commitment , \nspecifically in sharing information back to persons o f']</t>
+  </si>
+  <si>
+    <t>['40 UNHCR  \n   \nThis KEQ will also seek to answer the following sub-questions:  \n\uf0b7 What key steps have other UN agencies, similar organi zations and thought leaders in data and IM \ntaken that are applicable to UNHCR’s work?  \n\uf0b7 What actions should be prioritized based on the evaluation findings of the primary challenges and \nconstraints that UNHCR operations experience during the process of data collation/collection, cleaning, \nanalysis, storage and management that hinder evidence -informed decision -making?  \n\uf0b7 What should UNHCR do to address issues concerning data access, synthesis and dissemination \nacross various data systems at the country, regional and HQ offices?   \n\uf0b7 Which actions can be implemented more rapidly and which actions require  a higher level of effort and \nresourcing?  \n \n4.3 Approach and methodology   \n18. This is a theory -based, retrospective evaluation to understand UNHCR’s current practices around data and', 'sources. This work also includes a consideration of  who UNHCR should work with, such as innovators, \nstandard and policy se tting bodies, other humanitarian organiz ation s, development organiz ation s, \ngovernments and persons  of concern.  \n1.3.5 Revamping  UNHCR’s results -based management approach  \n22. At the time of t his evaluation, UNHCR’s corporate results -based management (RBM) tool is called \nFOCUS . This system primarily reports on outputs , and UNHCR recognised that there is a need for \nmore outcome -focused monitoring leadi ng to longer -term impact. UNHCR is in the process of \ndesigning  a new RBM tool that will transform  how the organization  reports on its programming , \nadvocacy and coordination efforts .  \n1.4 UNHCR’s  evolving contextual landscape  \n23. UNHCR operates in a constantly changing environment. The growth of personal access to \ninformation , increased levels of displacement  globally, and limited availability of funds create the need', 'country  operations to maintain a longer -term focus on achieving solutions, while ensuring that  \nimmediate needs are addressed, the rights of all people of concern protected and host  communities \nsupported. MYMP , in concert with the development of the new RBM system,  will catalyse a shift away \nfrom output -based performance monitoring to one focused on outcomes. As such, the data and \ninformation needed to monitor and assess progress will need to shift as well.  \n \n29. UNHCR’s curr ent needs, continued organiz ation al evolution and external pressures underscore the \nvalue  and criticality of the data and information UNHCR produces, curates and shares. Going forward, \nthe findings of this evaluation offer insight into where and how UNHCR might make future investments \nin this area.', 'this larger review and will inform future orga nizational direction and strategies regarding data and \ninformation management.    \n3. Purpose and objectives  \n14. The evaluation will serve a dual and mutually reinforcing learning and accountability purpose.13 The purpose \nof this centralized  evaluation is to con tribute evidence and recommendations that will inform UNHCR’s IM \nsystems and practice , ultimately contributing to improved capacity for responsible, timely and purposeful \ndata use and information management at various levels within UNHCR, in both its opera tional and \ncoordination roles.   \n15. The primary audience is UNHCR Senior Executive Team, Division of Programme Support and Management, \nDivision of International Protection, Division of Information Systems and Telecommunications, Division of \n                                                \n12 UNHCR Programme Ma nual, Chapter 4 (June 2017), p.250.']</t>
+  </si>
+  <si>
+    <t>['40 UNHCR  \n   \nThis KEQ will also seek to answer the following sub-questions:  \n\uf0b7 What key steps have other UN agencies, similar organi zations and thought leaders in data and IM \ntaken that are applicable to UNHCR’s work?  \n\uf0b7 What actions should be prioritized based on the evaluation findings of the primary challenges and \nconstraints that UNHCR operations experience during the process of data collation/collection, cleaning, \nanalysis, storage and management that hinder evidence -informed decision -making?  \n\uf0b7 What should UNHCR do to address issues concerning data access, synthesis and dissemination \nacross various data systems at the country, regional and HQ offices?   \n\uf0b7 Which actions can be implemented more rapidly and which actions require  a higher level of effort and \nresourcing?  \n \n4.3 Approach and methodology   \n18. This is a theory -based, retrospective evaluation to understand UNHCR’s current practices around data and', 'sources. This work also includes a consideration of  who UNHCR should work with, such as innovators, \nstandard and policy se tting bodies, other humanitarian organiz ation s, development organiz ation s, \ngovernments and persons  of concern.  \n1.3.5 Revamping  UNHCR’s results -based management approach  \n22. At the time of t his evaluation, UNHCR’s corporate results -based management (RBM) tool is called \nFOCUS . This system primarily reports on outputs , and UNHCR recognised that there is a need for \nmore outcome -focused monitoring leadi ng to longer -term impact. UNHCR is in the process of \ndesigning  a new RBM tool that will transform  how the organization  reports on its programming , \nadvocacy and coordination efforts .  \n1.4 UNHCR’s  evolving contextual landscape  \n23. UNHCR operates in a constantly changing environment. The growth of personal access to \ninformation , increased levels of displacement  globally, and limited availability of funds create the need', 'country  operations to maintain a longer -term focus on achieving solutions, while ensuring that  \nimmediate needs are addressed, the rights of all people of concern protected and host  communities \nsupported. MYMP , in concert with the development of the new RBM system,  will catalyse a shift away \nfrom output -based performance monitoring to one focused on outcomes. As such, the data and \ninformation needed to monitor and assess progress will need to shift as well.  \n \n29. UNHCR’s curr ent needs, continued organiz ation al evolution and external pressures underscore the \nvalue  and criticality of the data and information UNHCR produces, curates and shares. Going forward, \nthe findings of this evaluation offer insight into where and how UNHCR might make future investments \nin this area.', '4 UNHCR  \n Executive summary  \n \nIntroduction  and background  \n \n1. We live in an age of information, where ‘what is known’ can create efficiencies, unlock new opportunities \nand offer evidence for decision -making as never before. As the UN agency with the mandate to protect \nrefugees, returnees and stateles s people, UNHCR’s strategic and tactical use of information is \nparamount to fulfilling its mission of protecting and ensuring the development of durable solutions for \npersons  of concern. With accurate, quality, timely and complete data, UNHCR is a credible  authority on \nforced displacement, and can inspire confidence and trust, as well as drive impact and efficient use of \nits resources. In other words, UNHCR and its partners regularly and consistently require data for \ndecision -making and resource allocation;  and for raising funds and being accountable for results.  \n \n2. Within any organization – especially one with the size and reach of UNHCR − as more and more data']</t>
+  </si>
+  <si>
+    <t>['40 UNHCR  \n   \nThis KEQ will also seek to answer the following sub-questions:  \n\uf0b7 What key steps have other UN agencies, similar organi zations and thought leaders in data and IM \ntaken that are applicable to UNHCR’s work?  \n\uf0b7 What actions should be prioritized based on the evaluation findings of the primary challenges and \nconstraints that UNHCR operations experience during the process of data collation/collection, cleaning, \nanalysis, storage and management that hinder evidence -informed decision -making?  \n\uf0b7 What should UNHCR do to address issues concerning data access, synthesis and dissemination \nacross various data systems at the country, regional and HQ offices?   \n\uf0b7 Which actions can be implemented more rapidly and which actions require  a higher level of effort and \nresourcing?  \n \n4.3 Approach and methodology   \n18. This is a theory -based, retrospective evaluation to understand UNHCR’s current practices around data and', 'sources. This work also includes a consideration of  who UNHCR should work with, such as innovators, \nstandard and policy se tting bodies, other humanitarian organiz ation s, development organiz ation s, \ngovernments and persons  of concern.  \n1.3.5 Revamping  UNHCR’s results -based management approach  \n22. At the time of t his evaluation, UNHCR’s corporate results -based management (RBM) tool is called \nFOCUS . This system primarily reports on outputs , and UNHCR recognised that there is a need for \nmore outcome -focused monitoring leadi ng to longer -term impact. UNHCR is in the process of \ndesigning  a new RBM tool that will transform  how the organization  reports on its programming , \nadvocacy and coordination efforts .  \n1.4 UNHCR’s  evolving contextual landscape  \n23. UNHCR operates in a constantly changing environment. The growth of personal access to \ninformation , increased levels of displacement  globally, and limited availability of funds create the need', '9 UNHCR  \n Recommendat ions \n \nIn the context of UNHCR’s current data and information systems, the internal and external changes it is facing, \nand the needs required to act as a lea der on protection and solutions , the evaluation offers the following \nrecommendations , with additiona l detail and sub -recommendations in the main body of the report : \n \nRecommended actions  Responsible  Anticipated \ntimeframe  \nThe evaluation emphasizes that an organization -wide prioritization \nwould be essential to transform data within UNHCR to the asset that it \ncan be.  \n \nThe evaluation recommends that UNHCR develop a data transformation \nstrategy and roadmap, with key elements such as enforcing data norms \nand standards throughout the organization, cultivating strong data \nleadership, developing systems to integra te and pull data together, \ncreating a data -first culture, and building capacities and confidence \naround statistics and evidence on persons of concern.  \n SET*  Complete by Q4', 'this larger review and will inform future orga nizational direction and strategies regarding data and \ninformation management.    \n3. Purpose and objectives  \n14. The evaluation will serve a dual and mutually reinforcing learning and accountability purpose.13 The purpose \nof this centralized  evaluation is to con tribute evidence and recommendations that will inform UNHCR’s IM \nsystems and practice , ultimately contributing to improved capacity for responsible, timely and purposeful \ndata use and information management at various levels within UNHCR, in both its opera tional and \ncoordination roles.   \n15. The primary audience is UNHCR Senior Executive Team, Division of Programme Support and Management, \nDivision of International Protection, Division of Information Systems and Telecommunications, Division of \n                                                \n12 UNHCR Programme Ma nual, Chapter 4 (June 2017), p.250.']</t>
+  </si>
+  <si>
+    <t>['40 UNHCR  \n   \nThis KEQ will also seek to answer the following sub-questions:  \n\uf0b7 What key steps have other UN agencies, similar organi zations and thought leaders in data and IM \ntaken that are applicable to UNHCR’s work?  \n\uf0b7 What actions should be prioritized based on the evaluation findings of the primary challenges and \nconstraints that UNHCR operations experience during the process of data collation/collection, cleaning, \nanalysis, storage and management that hinder evidence -informed decision -making?  \n\uf0b7 What should UNHCR do to address issues concerning data access, synthesis and dissemination \nacross various data systems at the country, regional and HQ offices?   \n\uf0b7 Which actions can be implemented more rapidly and which actions require  a higher level of effort and \nresourcing?  \n \n4.3 Approach and methodology   \n18. This is a theory -based, retrospective evaluation to understand UNHCR’s current practices around data and', 'sources. This work also includes a consideration of  who UNHCR should work with, such as innovators, \nstandard and policy se tting bodies, other humanitarian organiz ation s, development organiz ation s, \ngovernments and persons  of concern.  \n1.3.5 Revamping  UNHCR’s results -based management approach  \n22. At the time of t his evaluation, UNHCR’s corporate results -based management (RBM) tool is called \nFOCUS . This system primarily reports on outputs , and UNHCR recognised that there is a need for \nmore outcome -focused monitoring leadi ng to longer -term impact. UNHCR is in the process of \ndesigning  a new RBM tool that will transform  how the organization  reports on its programming , \nadvocacy and coordination efforts .  \n1.4 UNHCR’s  evolving contextual landscape  \n23. UNHCR operates in a constantly changing environment. The growth of personal access to \ninformation , increased levels of displacement  globally, and limited availability of funds create the need', '12 UNHCR Programme Ma nual, Chapter 4 (June 2017), p.250.   \n13 Accountability  – through assessing and reporting on implementation and results, and requesting management to formally respond to \nthe evaluation. Learning  – Describing as well as explaining results is necessary to gen erate insights and pointers for learning to improve \nfuture strategies – and if possible – in other contexts where UNHCR operations face similar opportunities and constraints.', 'this larger review and will inform future orga nizational direction and strategies regarding data and \ninformation management.    \n3. Purpose and objectives  \n14. The evaluation will serve a dual and mutually reinforcing learning and accountability purpose.13 The purpose \nof this centralized  evaluation is to con tribute evidence and recommendations that will inform UNHCR’s IM \nsystems and practice , ultimately contributing to improved capacity for responsible, timely and purposeful \ndata use and information management at various levels within UNHCR, in both its opera tional and \ncoordination roles.   \n15. The primary audience is UNHCR Senior Executive Team, Division of Programme Support and Management, \nDivision of International Protection, Division of Information Systems and Telecommunications, Division of \n                                                \n12 UNHCR Programme Ma nual, Chapter 4 (June 2017), p.250.']</t>
+  </si>
+  <si>
+    <t>['40 UNHCR  \n   \nThis KEQ will also seek to answer the following sub-questions:  \n\uf0b7 What key steps have other UN agencies, similar organi zations and thought leaders in data and IM \ntaken that are applicable to UNHCR’s work?  \n\uf0b7 What actions should be prioritized based on the evaluation findings of the primary challenges and \nconstraints that UNHCR operations experience during the process of data collation/collection, cleaning, \nanalysis, storage and management that hinder evidence -informed decision -making?  \n\uf0b7 What should UNHCR do to address issues concerning data access, synthesis and dissemination \nacross various data systems at the country, regional and HQ offices?   \n\uf0b7 Which actions can be implemented more rapidly and which actions require  a higher level of effort and \nresourcing?  \n \n4.3 Approach and methodology   \n18. This is a theory -based, retrospective evaluation to understand UNHCR’s current practices around data and', '9 UNHCR  \n Recommendat ions \n \nIn the context of UNHCR’s current data and information systems, the internal and external changes it is facing, \nand the needs required to act as a lea der on protection and solutions , the evaluation offers the following \nrecommendations , with additiona l detail and sub -recommendations in the main body of the report : \n \nRecommended actions  Responsible  Anticipated \ntimeframe  \nThe evaluation emphasizes that an organization -wide prioritization \nwould be essential to transform data within UNHCR to the asset that it \ncan be.  \n \nThe evaluation recommends that UNHCR develop a data transformation \nstrategy and roadmap, with key elements such as enforcing data norms \nand standards throughout the organization, cultivating strong data \nleadership, developing systems to integra te and pull data together, \ncreating a data -first culture, and building capacities and confidence \naround statistics and evidence on persons of concern.  \n SET*  Complete by Q4', 'sources. This work also includes a consideration of  who UNHCR should work with, such as innovators, \nstandard and policy se tting bodies, other humanitarian organiz ation s, development organiz ation s, \ngovernments and persons  of concern.  \n1.3.5 Revamping  UNHCR’s results -based management approach  \n22. At the time of t his evaluation, UNHCR’s corporate results -based management (RBM) tool is called \nFOCUS . This system primarily reports on outputs , and UNHCR recognised that there is a need for \nmore outcome -focused monitoring leadi ng to longer -term impact. UNHCR is in the process of \ndesigning  a new RBM tool that will transform  how the organization  reports on its programming , \nadvocacy and coordination efforts .  \n1.4 UNHCR’s  evolving contextual landscape  \n23. UNHCR operates in a constantly changing environment. The growth of personal access to \ninformation , increased levels of displacement  globally, and limited availability of funds create the need', 'this larger review and will inform future orga nizational direction and strategies regarding data and \ninformation management.    \n3. Purpose and objectives  \n14. The evaluation will serve a dual and mutually reinforcing learning and accountability purpose.13 The purpose \nof this centralized  evaluation is to con tribute evidence and recommendations that will inform UNHCR’s IM \nsystems and practice , ultimately contributing to improved capacity for responsible, timely and purposeful \ndata use and information management at various levels within UNHCR, in both its opera tional and \ncoordination roles.   \n15. The primary audience is UNHCR Senior Executive Team, Division of Programme Support and Management, \nDivision of International Protection, Division of Information Systems and Telecommunications, Division of \n                                                \n12 UNHCR Programme Ma nual, Chapter 4 (June 2017), p.250.']</t>
+  </si>
+  <si>
+    <t>['40 UNHCR  \n   \nThis KEQ will also seek to answer the following sub-questions:  \n\uf0b7 What key steps have other UN agencies, similar organi zations and thought leaders in data and IM \ntaken that are applicable to UNHCR’s work?  \n\uf0b7 What actions should be prioritized based on the evaluation findings of the primary challenges and \nconstraints that UNHCR operations experience during the process of data collation/collection, cleaning, \nanalysis, storage and management that hinder evidence -informed decision -making?  \n\uf0b7 What should UNHCR do to address issues concerning data access, synthesis and dissemination \nacross various data systems at the country, regional and HQ offices?   \n\uf0b7 Which actions can be implemented more rapidly and which actions require  a higher level of effort and \nresourcing?  \n \n4.3 Approach and methodology   \n18. This is a theory -based, retrospective evaluation to understand UNHCR’s current practices around data and', '12 UNHCR Programme Ma nual, Chapter 4 (June 2017), p.250.   \n13 Accountability  – through assessing and reporting on implementation and results, and requesting management to formally respond to \nthe evaluation. Learning  – Describing as well as explaining results is necessary to gen erate insights and pointers for learning to improve \nfuture strategies – and if possible – in other contexts where UNHCR operations face similar opportunities and constraints.', 'role does the country/regional IMO(s) have and what role is also played by other stakeholders \nspecifically at the sector level?    \n\uf0b7 After data and information need s have been identified at the operational level, how are data \ncollated/collected, cleaned, analyzed , stored and managed at different points in the OMC and what is \nthe associated level of burden to carry out such activities?   \n\uf0b7 How do country/regional operati ons consider feedback from and effective communication with persons \nof concern in operational data systems?  \n\uf0b7 To what extent are there gaps and/or inefficiencies in country/regional operations’ practice around data \nand IM (i.e. data systems, collation/colle ction processes, storage, management, data analysis and use, \nstaff capacities and functions, financial resources, etc.)?    \n\uf0b7 What are the primary challenges and constraints that UNHCR operations experience during the process', 'sources. This work also includes a consideration of  who UNHCR should work with, such as innovators, \nstandard and policy se tting bodies, other humanitarian organiz ation s, development organiz ation s, \ngovernments and persons  of concern.  \n1.3.5 Revamping  UNHCR’s results -based management approach  \n22. At the time of t his evaluation, UNHCR’s corporate results -based management (RBM) tool is called \nFOCUS . This system primarily reports on outputs , and UNHCR recognised that there is a need for \nmore outcome -focused monitoring leadi ng to longer -term impact. UNHCR is in the process of \ndesigning  a new RBM tool that will transform  how the organization  reports on its programming , \nadvocacy and coordination efforts .  \n1.4 UNHCR’s  evolving contextual landscape  \n23. UNHCR operates in a constantly changing environment. The growth of personal access to \ninformation , increased levels of displacement  globally, and limited availability of funds create the need']</t>
+  </si>
+  <si>
+    <t>['40 UNHCR  \n   \nThis KEQ will also seek to answer the following sub-questions:  \n\uf0b7 What key steps have other UN agencies, similar organi zations and thought leaders in data and IM \ntaken that are applicable to UNHCR’s work?  \n\uf0b7 What actions should be prioritized based on the evaluation findings of the primary challenges and \nconstraints that UNHCR operations experience during the process of data collation/collection, cleaning, \nanalysis, storage and management that hinder evidence -informed decision -making?  \n\uf0b7 What should UNHCR do to address issues concerning data access, synthesis and dissemination \nacross various data systems at the country, regional and HQ offices?   \n\uf0b7 Which actions can be implemented more rapidly and which actions require  a higher level of effort and \nresourcing?  \n \n4.3 Approach and methodology   \n18. This is a theory -based, retrospective evaluation to understand UNHCR’s current practices around data and', 'role does the country/regional IMO(s) have and what role is also played by other stakeholders \nspecifically at the sector level?    \n\uf0b7 After data and information need s have been identified at the operational level, how are data \ncollated/collected, cleaned, analyzed , stored and managed at different points in the OMC and what is \nthe associated level of burden to carry out such activities?   \n\uf0b7 How do country/regional operati ons consider feedback from and effective communication with persons \nof concern in operational data systems?  \n\uf0b7 To what extent are there gaps and/or inefficiencies in country/regional operations’ practice around data \nand IM (i.e. data systems, collation/colle ction processes, storage, management, data analysis and use, \nstaff capacities and functions, financial resources, etc.)?    \n\uf0b7 What are the primary challenges and constraints that UNHCR operations experience during the process', '12 UNHCR Programme Ma nual, Chapter 4 (June 2017), p.250.   \n13 Accountability  – through assessing and reporting on implementation and results, and requesting management to formally respond to \nthe evaluation. Learning  – Describing as well as explaining results is necessary to gen erate insights and pointers for learning to improve \nfuture strategies – and if possible – in other contexts where UNHCR operations face similar opportunities and constraints.', 'sources. This work also includes a consideration of  who UNHCR should work with, such as innovators, \nstandard and policy se tting bodies, other humanitarian organiz ation s, development organiz ation s, \ngovernments and persons  of concern.  \n1.3.5 Revamping  UNHCR’s results -based management approach  \n22. At the time of t his evaluation, UNHCR’s corporate results -based management (RBM) tool is called \nFOCUS . This system primarily reports on outputs , and UNHCR recognised that there is a need for \nmore outcome -focused monitoring leadi ng to longer -term impact. UNHCR is in the process of \ndesigning  a new RBM tool that will transform  how the organization  reports on its programming , \nadvocacy and coordination efforts .  \n1.4 UNHCR’s  evolving contextual landscape  \n23. UNHCR operates in a constantly changing environment. The growth of personal access to \ninformation , increased levels of displacement  globally, and limited availability of funds create the need']</t>
+  </si>
+  <si>
+    <t>['40 UNHCR  \n   \nThis KEQ will also seek to answer the following sub-questions:  \n\uf0b7 What key steps have other UN agencies, similar organi zations and thought leaders in data and IM \ntaken that are applicable to UNHCR’s work?  \n\uf0b7 What actions should be prioritized based on the evaluation findings of the primary challenges and \nconstraints that UNHCR operations experience during the process of data collation/collection, cleaning, \nanalysis, storage and management that hinder evidence -informed decision -making?  \n\uf0b7 What should UNHCR do to address issues concerning data access, synthesis and dissemination \nacross various data systems at the country, regional and HQ offices?   \n\uf0b7 Which actions can be implemented more rapidly and which actions require  a higher level of effort and \nresourcing?  \n \n4.3 Approach and methodology   \n18. This is a theory -based, retrospective evaluation to understand UNHCR’s current practices around data and', 'direction, strategy and practice. This is also not the first time UNHCR has reviewed its data practice, having \nconducted two large reviews of its organizational policies and procedures on refugee enumeration and \nstatistics in 1993.    \n6. The evaluation is expected to yield insights and generate recommendations that will help strengthen \nUNHCR’s systems, processes and practices concerning data and information management, better enabling \nthe organi zation to carry out its mandate for persons of co ncern.   \n2. Subject of the evaluation and its context  \n \n7. UNHCR has a long history of collecting and using data and information about populations of concern, their \nsituations and related response activities. For example, the Profile Global Registration Syste m (ProGres) \nwas launched in 2003 as UNHCR’s enterprise registration tool, which allowed the organi zation to bring \nstandards into registration and case management practices and improved data coherence by', 'role does the country/regional IMO(s) have and what role is also played by other stakeholders \nspecifically at the sector level?    \n\uf0b7 After data and information need s have been identified at the operational level, how are data \ncollated/collected, cleaned, analyzed , stored and managed at different points in the OMC and what is \nthe associated level of burden to carry out such activities?   \n\uf0b7 How do country/regional operati ons consider feedback from and effective communication with persons \nof concern in operational data systems?  \n\uf0b7 To what extent are there gaps and/or inefficiencies in country/regional operations’ practice around data \nand IM (i.e. data systems, collation/colle ction processes, storage, management, data analysis and use, \nstaff capacities and functions, financial resources, etc.)?    \n\uf0b7 What are the primary challenges and constraints that UNHCR operations experience during the process', '12 UNHCR Programme Ma nual, Chapter 4 (June 2017), p.250.   \n13 Accountability  – through assessing and reporting on implementation and results, and requesting management to formally respond to \nthe evaluation. Learning  – Describing as well as explaining results is necessary to gen erate insights and pointers for learning to improve \nfuture strategies – and if possible – in other contexts where UNHCR operations face similar opportunities and constraints.']</t>
+  </si>
+  <si>
+    <t>['40 UNHCR  \n   \nThis KEQ will also seek to answer the following sub-questions:  \n\uf0b7 What key steps have other UN agencies, similar organi zations and thought leaders in data and IM \ntaken that are applicable to UNHCR’s work?  \n\uf0b7 What actions should be prioritized based on the evaluation findings of the primary challenges and \nconstraints that UNHCR operations experience during the process of data collation/collection, cleaning, \nanalysis, storage and management that hinder evidence -informed decision -making?  \n\uf0b7 What should UNHCR do to address issues concerning data access, synthesis and dissemination \nacross various data systems at the country, regional and HQ offices?   \n\uf0b7 Which actions can be implemented more rapidly and which actions require  a higher level of effort and \nresourcing?  \n \n4.3 Approach and methodology   \n18. This is a theory -based, retrospective evaluation to understand UNHCR’s current practices around data and', '12 UNHCR Programme Ma nual, Chapter 4 (June 2017), p.250.   \n13 Accountability  – through assessing and reporting on implementation and results, and requesting management to formally respond to \nthe evaluation. Learning  – Describing as well as explaining results is necessary to gen erate insights and pointers for learning to improve \nfuture strategies – and if possible – in other contexts where UNHCR operations face similar opportunities and constraints.', 'role does the country/regional IMO(s) have and what role is also played by other stakeholders \nspecifically at the sector level?    \n\uf0b7 After data and information need s have been identified at the operational level, how are data \ncollated/collected, cleaned, analyzed , stored and managed at different points in the OMC and what is \nthe associated level of burden to carry out such activities?   \n\uf0b7 How do country/regional operati ons consider feedback from and effective communication with persons \nof concern in operational data systems?  \n\uf0b7 To what extent are there gaps and/or inefficiencies in country/regional operations’ practice around data \nand IM (i.e. data systems, collation/colle ction processes, storage, management, data analysis and use, \nstaff capacities and functions, financial resources, etc.)?    \n\uf0b7 What are the primary challenges and constraints that UNHCR operations experience during the process', 'Director’s Office in Amman plus the Jordan and Lebanon Country Offices for their support i n facilitating the \nevaluation process, and for their constructive feedback on earlier versions of this report. We are also grateful to \npartner agencies and implementing partners for their insights and participation in the evaluation process.  \n \n \n \n \n \n \n \n \n \n \n \n \n \nCommissioned by UNHCR Evaluation Service  \n  \nEvaluation Quality Assurance provided by UNHCR Evaluation Service  \n  Evaluation in formation at a glance  \nTitle of the evaluation:  Evaluation of UNHCR’s data use and information management approaches  \nTimeframe covered:  2017 – March 2019  \nExpected duration:  August 2018 – April 2019  \nType of evaluation:  Centralized  evaluation (theory -base d) \nCountries covered:  Syria regional refugee response  via Jordan and Lebanon, Pakistan, Zambia  \nEvaluation manager / \ncontact in UNHCR:  Christine Fu - fu@unhcr.org   \nSupport staff:  Selam Araya Soum - soum@unhcr.org']</t>
+  </si>
+  <si>
+    <t>['40 UNHCR  \n   \nThis KEQ will also seek to answer the following sub-questions:  \n\uf0b7 What key steps have other UN agencies, similar organi zations and thought leaders in data and IM \ntaken that are applicable to UNHCR’s work?  \n\uf0b7 What actions should be prioritized based on the evaluation findings of the primary challenges and \nconstraints that UNHCR operations experience during the process of data collation/collection, cleaning, \nanalysis, storage and management that hinder evidence -informed decision -making?  \n\uf0b7 What should UNHCR do to address issues concerning data access, synthesis and dissemination \nacross various data systems at the country, regional and HQ offices?   \n\uf0b7 Which actions can be implemented more rapidly and which actions require  a higher level of effort and \nresourcing?  \n \n4.3 Approach and methodology   \n18. This is a theory -based, retrospective evaluation to understand UNHCR’s current practices around data and', 'role does the country/regional IMO(s) have and what role is also played by other stakeholders \nspecifically at the sector level?    \n\uf0b7 After data and information need s have been identified at the operational level, how are data \ncollated/collected, cleaned, analyzed , stored and managed at different points in the OMC and what is \nthe associated level of burden to carry out such activities?   \n\uf0b7 How do country/regional operati ons consider feedback from and effective communication with persons \nof concern in operational data systems?  \n\uf0b7 To what extent are there gaps and/or inefficiencies in country/regional operations’ practice around data \nand IM (i.e. data systems, collation/colle ction processes, storage, management, data analysis and use, \nstaff capacities and functions, financial resources, etc.)?    \n\uf0b7 What are the primary challenges and constraints that UNHCR operations experience during the process', '12 UNHCR Programme Ma nual, Chapter 4 (June 2017), p.250.   \n13 Accountability  – through assessing and reporting on implementation and results, and requesting management to formally respond to \nthe evaluation. Learning  – Describing as well as explaining results is necessary to gen erate insights and pointers for learning to improve \nfuture strategies – and if possible – in other contexts where UNHCR operations face similar opportunities and constraints.', 'Director’s Office in Amman plus the Jordan and Lebanon Country Offices for their support i n facilitating the \nevaluation process, and for their constructive feedback on earlier versions of this report. We are also grateful to \npartner agencies and implementing partners for their insights and participation in the evaluation process.  \n \n \n \n \n \n \n \n \n \n \n \n \n \nCommissioned by UNHCR Evaluation Service  \n  \nEvaluation Quality Assurance provided by UNHCR Evaluation Service  \n  Evaluation in formation at a glance  \nTitle of the evaluation:  Evaluation of UNHCR’s data use and information management approaches  \nTimeframe covered:  2017 – March 2019  \nExpected duration:  August 2018 – April 2019  \nType of evaluation:  Centralized  evaluation (theory -base d) \nCountries covered:  Syria regional refugee response  via Jordan and Lebanon, Pakistan, Zambia  \nEvaluation manager / \ncontact in UNHCR:  Christine Fu - fu@unhcr.org   \nSupport staff:  Selam Araya Soum - soum@unhcr.org']</t>
+  </si>
+  <si>
+    <t>['40 UNHCR  \n   \nThis KEQ will also seek to answer the following sub-questions:  \n\uf0b7 What key steps have other UN agencies, similar organi zations and thought leaders in data and IM \ntaken that are applicable to UNHCR’s work?  \n\uf0b7 What actions should be prioritized based on the evaluation findings of the primary challenges and \nconstraints that UNHCR operations experience during the process of data collation/collection, cleaning, \nanalysis, storage and management that hinder evidence -informed decision -making?  \n\uf0b7 What should UNHCR do to address issues concerning data access, synthesis and dissemination \nacross various data systems at the country, regional and HQ offices?   \n\uf0b7 Which actions can be implemented more rapidly and which actions require  a higher level of effort and \nresourcing?  \n \n4.3 Approach and methodology   \n18. This is a theory -based, retrospective evaluation to understand UNHCR’s current practices around data and', '12 UNHCR Programme Ma nual, Chapter 4 (June 2017), p.250.   \n13 Accountability  – through assessing and reporting on implementation and results, and requesting management to formally respond to \nthe evaluation. Learning  – Describing as well as explaining results is necessary to gen erate insights and pointers for learning to improve \nfuture strategies – and if possible – in other contexts where UNHCR operations face similar opportunities and constraints.', 'sources. This work also includes a consideration of  who UNHCR should work with, such as innovators, \nstandard and policy se tting bodies, other humanitarian organiz ation s, development organiz ation s, \ngovernments and persons  of concern.  \n1.3.5 Revamping  UNHCR’s results -based management approach  \n22. At the time of t his evaluation, UNHCR’s corporate results -based management (RBM) tool is called \nFOCUS . This system primarily reports on outputs , and UNHCR recognised that there is a need for \nmore outcome -focused monitoring leadi ng to longer -term impact. UNHCR is in the process of \ndesigning  a new RBM tool that will transform  how the organization  reports on its programming , \nadvocacy and coordination efforts .  \n1.4 UNHCR’s  evolving contextual landscape  \n23. UNHCR operates in a constantly changing environment. The growth of personal access to \ninformation , increased levels of displacement  globally, and limited availability of funds create the need', 'Director’s Office in Amman plus the Jordan and Lebanon Country Offices for their support i n facilitating the \nevaluation process, and for their constructive feedback on earlier versions of this report. We are also grateful to \npartner agencies and implementing partners for their insights and participation in the evaluation process.  \n \n \n \n \n \n \n \n \n \n \n \n \n \nCommissioned by UNHCR Evaluation Service  \n  \nEvaluation Quality Assurance provided by UNHCR Evaluation Service  \n  Evaluation in formation at a glance  \nTitle of the evaluation:  Evaluation of UNHCR’s data use and information management approaches  \nTimeframe covered:  2017 – March 2019  \nExpected duration:  August 2018 – April 2019  \nType of evaluation:  Centralized  evaluation (theory -base d) \nCountries covered:  Syria regional refugee response  via Jordan and Lebanon, Pakistan, Zambia  \nEvaluation manager / \ncontact in UNHCR:  Christine Fu - fu@unhcr.org   \nSupport staff:  Selam Araya Soum - soum@unhcr.org']</t>
+  </si>
+  <si>
+    <t>['40 UNHCR  \n   \nThis KEQ will also seek to answer the following sub-questions:  \n\uf0b7 What key steps have other UN agencies, similar organi zations and thought leaders in data and IM \ntaken that are applicable to UNHCR’s work?  \n\uf0b7 What actions should be prioritized based on the evaluation findings of the primary challenges and \nconstraints that UNHCR operations experience during the process of data collation/collection, cleaning, \nanalysis, storage and management that hinder evidence -informed decision -making?  \n\uf0b7 What should UNHCR do to address issues concerning data access, synthesis and dissemination \nacross various data systems at the country, regional and HQ offices?   \n\uf0b7 Which actions can be implemented more rapidly and which actions require  a higher level of effort and \nresourcing?  \n \n4.3 Approach and methodology   \n18. This is a theory -based, retrospective evaluation to understand UNHCR’s current practices around data and', '12 UNHCR Programme Ma nual, Chapter 4 (June 2017), p.250.   \n13 Accountability  – through assessing and reporting on implementation and results, and requesting management to formally respond to \nthe evaluation. Learning  – Describing as well as explaining results is necessary to gen erate insights and pointers for learning to improve \nfuture strategies – and if possible – in other contexts where UNHCR operations face similar opportunities and constraints.', 'sources. This work also includes a consideration of  who UNHCR should work with, such as innovators, \nstandard and policy se tting bodies, other humanitarian organiz ation s, development organiz ation s, \ngovernments and persons  of concern.  \n1.3.5 Revamping  UNHCR’s results -based management approach  \n22. At the time of t his evaluation, UNHCR’s corporate results -based management (RBM) tool is called \nFOCUS . This system primarily reports on outputs , and UNHCR recognised that there is a need for \nmore outcome -focused monitoring leadi ng to longer -term impact. UNHCR is in the process of \ndesigning  a new RBM tool that will transform  how the organization  reports on its programming , \nadvocacy and coordination efforts .  \n1.4 UNHCR’s  evolving contextual landscape  \n23. UNHCR operates in a constantly changing environment. The growth of personal access to \ninformation , increased levels of displacement  globally, and limited availability of funds create the need', 'role does the country/regional IMO(s) have and what role is also played by other stakeholders \nspecifically at the sector level?    \n\uf0b7 After data and information need s have been identified at the operational level, how are data \ncollated/collected, cleaned, analyzed , stored and managed at different points in the OMC and what is \nthe associated level of burden to carry out such activities?   \n\uf0b7 How do country/regional operati ons consider feedback from and effective communication with persons \nof concern in operational data systems?  \n\uf0b7 To what extent are there gaps and/or inefficiencies in country/regional operations’ practice around data \nand IM (i.e. data systems, collation/colle ction processes, storage, management, data analysis and use, \nstaff capacities and functions, financial resources, etc.)?    \n\uf0b7 What are the primary challenges and constraints that UNHCR operations experience during the process']</t>
+  </si>
+  <si>
+    <t>['40 UNHCR  \n   \nThis KEQ will also seek to answer the following sub-questions:  \n\uf0b7 What key steps have other UN agencies, similar organi zations and thought leaders in data and IM \ntaken that are applicable to UNHCR’s work?  \n\uf0b7 What actions should be prioritized based on the evaluation findings of the primary challenges and \nconstraints that UNHCR operations experience during the process of data collation/collection, cleaning, \nanalysis, storage and management that hinder evidence -informed decision -making?  \n\uf0b7 What should UNHCR do to address issues concerning data access, synthesis and dissemination \nacross various data systems at the country, regional and HQ offices?   \n\uf0b7 Which actions can be implemented more rapidly and which actions require  a higher level of effort and \nresourcing?  \n \n4.3 Approach and methodology   \n18. This is a theory -based, retrospective evaluation to understand UNHCR’s current practices around data and', 'sources. This work also includes a consideration of  who UNHCR should work with, such as innovators, \nstandard and policy se tting bodies, other humanitarian organiz ation s, development organiz ation s, \ngovernments and persons  of concern.  \n1.3.5 Revamping  UNHCR’s results -based management approach  \n22. At the time of t his evaluation, UNHCR’s corporate results -based management (RBM) tool is called \nFOCUS . This system primarily reports on outputs , and UNHCR recognised that there is a need for \nmore outcome -focused monitoring leadi ng to longer -term impact. UNHCR is in the process of \ndesigning  a new RBM tool that will transform  how the organization  reports on its programming , \nadvocacy and coordination efforts .  \n1.4 UNHCR’s  evolving contextual landscape  \n23. UNHCR operates in a constantly changing environment. The growth of personal access to \ninformation , increased levels of displacement  globally, and limited availability of funds create the need', '12 UNHCR Programme Ma nual, Chapter 4 (June 2017), p.250.   \n13 Accountability  – through assessing and reporting on implementation and results, and requesting management to formally respond to \nthe evaluation. Learning  – Describing as well as explaining results is necessary to gen erate insights and pointers for learning to improve \nfuture strategies – and if possible – in other contexts where UNHCR operations face similar opportunities and constraints.', 'cases across the spectrum of challenging contexts where UNHCR o perates. The case studies represent \ndiverse operations with varying types of population groups, partnerships, commitments, types of \nresponses, and resources available. These case studies are not meant to be representative of all \nUNHCR operations or data an d information management system s. Rather, they are to be used to derive \nlearning about UNHCR’s practices in varying contexts, which may be applicable to other operations \nwith similar characteristics.  \n  \nKey findings  of UNHCR’s current data and information m anagement \napproaches  \n \n9. The evaluation notes that  UNHCR has a plethora of data management systems in play for its \noperational data. This includes rich and meaningful data collected on persons of concern, their \nprotection risks, services and assistance provid ed to them, and their access to solutions, socioeconomic \nimprovements in their lives, and the contexts in which they live.']</t>
+  </si>
+  <si>
+    <t>['9 UNHCR  \n Recommendat ions \n \nIn the context of UNHCR’s current data and information systems, the internal and external changes it is facing, \nand the needs required to act as a lea der on protection and solutions , the evaluation offers the following \nrecommendations , with additiona l detail and sub -recommendations in the main body of the report : \n \nRecommended actions  Responsible  Anticipated \ntimeframe  \nThe evaluation emphasizes that an organization -wide prioritization \nwould be essential to transform data within UNHCR to the asset that it \ncan be.  \n \nThe evaluation recommends that UNHCR develop a data transformation \nstrategy and roadmap, with key elements such as enforcing data norms \nand standards throughout the organization, cultivating strong data \nleadership, developing systems to integra te and pull data together, \ncreating a data -first culture, and building capacities and confidence \naround statistics and evidence on persons of concern.  \n SET*  Complete by Q4', 'sources. This work also includes a consideration of  who UNHCR should work with, such as innovators, \nstandard and policy se tting bodies, other humanitarian organiz ation s, development organiz ation s, \ngovernments and persons  of concern.  \n1.3.5 Revamping  UNHCR’s results -based management approach  \n22. At the time of t his evaluation, UNHCR’s corporate results -based management (RBM) tool is called \nFOCUS . This system primarily reports on outputs , and UNHCR recognised that there is a need for \nmore outcome -focused monitoring leadi ng to longer -term impact. UNHCR is in the process of \ndesigning  a new RBM tool that will transform  how the organization  reports on its programming , \nadvocacy and coordination efforts .  \n1.4 UNHCR’s  evolving contextual landscape  \n23. UNHCR operates in a constantly changing environment. The growth of personal access to \ninformation , increased levels of displacement  globally, and limited availability of funds create the need', '12 UNHCR Programme Ma nual, Chapter 4 (June 2017), p.250.   \n13 Accountability  – through assessing and reporting on implementation and results, and requesting management to formally respond to \nthe evaluation. Learning  – Describing as well as explaining results is necessary to gen erate insights and pointers for learning to improve \nfuture strategies – and if possible – in other contexts where UNHCR operations face similar opportunities and constraints.', 'cases across the spectrum of challenging contexts where UNHCR o perates. The case studies represent \ndiverse operations with varying types of population groups, partnerships, commitments, types of \nresponses, and resources available. These case studies are not meant to be representative of all \nUNHCR operations or data an d information management system s. Rather, they are to be used to derive \nlearning about UNHCR’s practices in varying contexts, which may be applicable to other operations \nwith similar characteristics.  \n  \nKey findings  of UNHCR’s current data and information m anagement \napproaches  \n \n9. The evaluation notes that  UNHCR has a plethora of data management systems in play for its \noperational data. This includes rich and meaningful data collected on persons of concern, their \nprotection risks, services and assistance provid ed to them, and their access to solutions, socioeconomic \nimprovements in their lives, and the contexts in which they live.']</t>
+  </si>
+  <si>
+    <t>['9 UNHCR  \n Recommendat ions \n \nIn the context of UNHCR’s current data and information systems, the internal and external changes it is facing, \nand the needs required to act as a lea der on protection and solutions , the evaluation offers the following \nrecommendations , with additiona l detail and sub -recommendations in the main body of the report : \n \nRecommended actions  Responsible  Anticipated \ntimeframe  \nThe evaluation emphasizes that an organization -wide prioritization \nwould be essential to transform data within UNHCR to the asset that it \ncan be.  \n \nThe evaluation recommends that UNHCR develop a data transformation \nstrategy and roadmap, with key elements such as enforcing data norms \nand standards throughout the organization, cultivating strong data \nleadership, developing systems to integra te and pull data together, \ncreating a data -first culture, and building capacities and confidence \naround statistics and evidence on persons of concern.  \n SET*  Complete by Q4', 'cases across the spectrum of challenging contexts where UNHCR o perates. The case studies represent \ndiverse operations with varying types of population groups, partnerships, commitments, types of \nresponses, and resources available. These case studies are not meant to be representative of all \nUNHCR operations or data an d information management system s. Rather, they are to be used to derive \nlearning about UNHCR’s practices in varying contexts, which may be applicable to other operations \nwith similar characteristics.  \n  \nKey findings  of UNHCR’s current data and information m anagement \napproaches  \n \n9. The evaluation notes that  UNHCR has a plethora of data management systems in play for its \noperational data. This includes rich and meaningful data collected on persons of concern, their \nprotection risks, services and assistance provid ed to them, and their access to solutions, socioeconomic \nimprovements in their lives, and the contexts in which they live.', 'sources. This work also includes a consideration of  who UNHCR should work with, such as innovators, \nstandard and policy se tting bodies, other humanitarian organiz ation s, development organiz ation s, \ngovernments and persons  of concern.  \n1.3.5 Revamping  UNHCR’s results -based management approach  \n22. At the time of t his evaluation, UNHCR’s corporate results -based management (RBM) tool is called \nFOCUS . This system primarily reports on outputs , and UNHCR recognised that there is a need for \nmore outcome -focused monitoring leadi ng to longer -term impact. UNHCR is in the process of \ndesigning  a new RBM tool that will transform  how the organization  reports on its programming , \nadvocacy and coordination efforts .  \n1.4 UNHCR’s  evolving contextual landscape  \n23. UNHCR operates in a constantly changing environment. The growth of personal access to \ninformation , increased levels of displacement  globally, and limited availability of funds create the need', '12 UNHCR Programme Ma nual, Chapter 4 (June 2017), p.250.   \n13 Accountability  – through assessing and reporting on implementation and results, and requesting management to formally respond to \nthe evaluation. Learning  – Describing as well as explaining results is necessary to gen erate insights and pointers for learning to improve \nfuture strategies – and if possible – in other contexts where UNHCR operations face similar opportunities and constraints.']</t>
+  </si>
+  <si>
+    <t>['9 UNHCR  \n Recommendat ions \n \nIn the context of UNHCR’s current data and information systems, the internal and external changes it is facing, \nand the needs required to act as a lea der on protection and solutions , the evaluation offers the following \nrecommendations , with additiona l detail and sub -recommendations in the main body of the report : \n \nRecommended actions  Responsible  Anticipated \ntimeframe  \nThe evaluation emphasizes that an organization -wide prioritization \nwould be essential to transform data within UNHCR to the asset that it \ncan be.  \n \nThe evaluation recommends that UNHCR develop a data transformation \nstrategy and roadmap, with key elements such as enforcing data norms \nand standards throughout the organization, cultivating strong data \nleadership, developing systems to integra te and pull data together, \ncreating a data -first culture, and building capacities and confidence \naround statistics and evidence on persons of concern.  \n SET*  Complete by Q4', '12 UNHCR Programme Ma nual, Chapter 4 (June 2017), p.250.   \n13 Accountability  – through assessing and reporting on implementation and results, and requesting management to formally respond to \nthe evaluation. Learning  – Describing as well as explaining results is necessary to gen erate insights and pointers for learning to improve \nfuture strategies – and if possible – in other contexts where UNHCR operations face similar opportunities and constraints.', 'sources. This work also includes a consideration of  who UNHCR should work with, such as innovators, \nstandard and policy se tting bodies, other humanitarian organiz ation s, development organiz ation s, \ngovernments and persons  of concern.  \n1.3.5 Revamping  UNHCR’s results -based management approach  \n22. At the time of t his evaluation, UNHCR’s corporate results -based management (RBM) tool is called \nFOCUS . This system primarily reports on outputs , and UNHCR recognised that there is a need for \nmore outcome -focused monitoring leadi ng to longer -term impact. UNHCR is in the process of \ndesigning  a new RBM tool that will transform  how the organization  reports on its programming , \nadvocacy and coordination efforts .  \n1.4 UNHCR’s  evolving contextual landscape  \n23. UNHCR operates in a constantly changing environment. The growth of personal access to \ninformation , increased levels of displacement  globally, and limited availability of funds create the need', 'resourcing?  \n \n4.3 Approach and methodology   \n18. This is a theory -based, retrospective evaluation to understand UNHCR’s current practices around data and \nIM in country operations and RRP situations in order to generate recommendati ons to improve how the \norgani zation collates, collects, cleans, stores, manages, analyses, disseminates, uses and coordinates data \nand information in order to better position UNHCR to carry out its mandate of international protection, \nhumanitarian assistan ce and permanent solutions for persons of concern.   \n19. The methodology should be two -pronged:  1) Utilize  a case -based evaluation approach to yield rich detail in \nthe 4 selected case studies as well as RRP situations; and 2) Situational analysis of changes in the external \nenvironment and internally within UNHCR followed by a landscape mapping of how other UN agencies, \nsimilar organi zation and thought leaders in humanitarian/development sectors are positioning their data and']</t>
+  </si>
+  <si>
+    <t>['40 UNHCR  \n   \nThis KEQ will also seek to answer the following sub-questions:  \n\uf0b7 What key steps have other UN agencies, similar organi zations and thought leaders in data and IM \ntaken that are applicable to UNHCR’s work?  \n\uf0b7 What actions should be prioritized based on the evaluation findings of the primary challenges and \nconstraints that UNHCR operations experience during the process of data collation/collection, cleaning, \nanalysis, storage and management that hinder evidence -informed decision -making?  \n\uf0b7 What should UNHCR do to address issues concerning data access, synthesis and dissemination \nacross various data systems at the country, regional and HQ offices?   \n\uf0b7 Which actions can be implemented more rapidly and which actions require  a higher level of effort and \nresourcing?  \n \n4.3 Approach and methodology   \n18. This is a theory -based, retrospective evaluation to understand UNHCR’s current practices around data and', 'study on returnees to Syria had 70+ dedicated researchers while UNHCR had 5 staff who provided \ncomments on top of their existing workloads. In interviews with UNHCR country office staff, the ge neral \nconsensus was that the culture is geared towards “doing”  with very little time or routine to take a step \nback and look at what  is working , or trends based on deeper analysis of different types of data from \nprotection and programme. Analys es such as t his help drive the discourse on forced displacement \nresponse among policy and decision  makers. Box 2 provides an example of an emerg ing good \npractice in the Syria regional refugee r esponse.   \n4.7 Access to data for  persons of concern  could be improved  \n75. UNHC R commits to inclu ding the perceptions, needs \nand experiences of  persons of concern in all aspects \nof its operations. Nonetheless , the evaluation team \nobserved gaps in the fulfilment of this commitment , \nspecifically in sharing information back to persons o f', '12 UNHCR Programme Ma nual, Chapter 4 (June 2017), p.250.   \n13 Accountability  – through assessing and reporting on implementation and results, and requesting management to formally respond to \nthe evaluation. Learning  – Describing as well as explaining results is necessary to gen erate insights and pointers for learning to improve \nfuture strategies – and if possible – in other contexts where UNHCR operations face similar opportunities and constraints.', 'sources. This work also includes a consideration of  who UNHCR should work with, such as innovators, \nstandard and policy se tting bodies, other humanitarian organiz ation s, development organiz ation s, \ngovernments and persons  of concern.  \n1.3.5 Revamping  UNHCR’s results -based management approach  \n22. At the time of t his evaluation, UNHCR’s corporate results -based management (RBM) tool is called \nFOCUS . This system primarily reports on outputs , and UNHCR recognised that there is a need for \nmore outcome -focused monitoring leadi ng to longer -term impact. UNHCR is in the process of \ndesigning  a new RBM tool that will transform  how the organization  reports on its programming , \nadvocacy and coordination efforts .  \n1.4 UNHCR’s  evolving contextual landscape  \n23. UNHCR operates in a constantly changing environment. The growth of personal access to \ninformation , increased levels of displacement  globally, and limited availability of funds create the need']</t>
+  </si>
+  <si>
+    <t>['40 UNHCR  \n   \nThis KEQ will also seek to answer the following sub-questions:  \n\uf0b7 What key steps have other UN agencies, similar organi zations and thought leaders in data and IM \ntaken that are applicable to UNHCR’s work?  \n\uf0b7 What actions should be prioritized based on the evaluation findings of the primary challenges and \nconstraints that UNHCR operations experience during the process of data collation/collection, cleaning, \nanalysis, storage and management that hinder evidence -informed decision -making?  \n\uf0b7 What should UNHCR do to address issues concerning data access, synthesis and dissemination \nacross various data systems at the country, regional and HQ offices?   \n\uf0b7 Which actions can be implemented more rapidly and which actions require  a higher level of effort and \nresourcing?  \n \n4.3 Approach and methodology   \n18. This is a theory -based, retrospective evaluation to understand UNHCR’s current practices around data and', '12 UNHCR Programme Ma nual, Chapter 4 (June 2017), p.250.   \n13 Accountability  – through assessing and reporting on implementation and results, and requesting management to formally respond to \nthe evaluation. Learning  – Describing as well as explaining results is necessary to gen erate insights and pointers for learning to improve \nfuture strategies – and if possible – in other contexts where UNHCR operations face similar opportunities and constraints.', 'sources. This work also includes a consideration of  who UNHCR should work with, such as innovators, \nstandard and policy se tting bodies, other humanitarian organiz ation s, development organiz ation s, \ngovernments and persons  of concern.  \n1.3.5 Revamping  UNHCR’s results -based management approach  \n22. At the time of t his evaluation, UNHCR’s corporate results -based management (RBM) tool is called \nFOCUS . This system primarily reports on outputs , and UNHCR recognised that there is a need for \nmore outcome -focused monitoring leadi ng to longer -term impact. UNHCR is in the process of \ndesigning  a new RBM tool that will transform  how the organization  reports on its programming , \nadvocacy and coordination efforts .  \n1.4 UNHCR’s  evolving contextual landscape  \n23. UNHCR operates in a constantly changing environment. The growth of personal access to \ninformation , increased levels of displacement  globally, and limited availability of funds create the need', 'study on returnees to Syria had 70+ dedicated researchers while UNHCR had 5 staff who provided \ncomments on top of their existing workloads. In interviews with UNHCR country office staff, the ge neral \nconsensus was that the culture is geared towards “doing”  with very little time or routine to take a step \nback and look at what  is working , or trends based on deeper analysis of different types of data from \nprotection and programme. Analys es such as t his help drive the discourse on forced displacement \nresponse among policy and decision  makers. Box 2 provides an example of an emerg ing good \npractice in the Syria regional refugee r esponse.   \n4.7 Access to data for  persons of concern  could be improved  \n75. UNHC R commits to inclu ding the perceptions, needs \nand experiences of  persons of concern in all aspects \nof its operations. Nonetheless , the evaluation team \nobserved gaps in the fulfilment of this commitment , \nspecifically in sharing information back to persons o f']</t>
+  </si>
+  <si>
+    <t>['40 UNHCR  \n   \nThis KEQ will also seek to answer the following sub-questions:  \n\uf0b7 What key steps have other UN agencies, similar organi zations and thought leaders in data and IM \ntaken that are applicable to UNHCR’s work?  \n\uf0b7 What actions should be prioritized based on the evaluation findings of the primary challenges and \nconstraints that UNHCR operations experience during the process of data collation/collection, cleaning, \nanalysis, storage and management that hinder evidence -informed decision -making?  \n\uf0b7 What should UNHCR do to address issues concerning data access, synthesis and dissemination \nacross various data systems at the country, regional and HQ offices?   \n\uf0b7 Which actions can be implemented more rapidly and which actions require  a higher level of effort and \nresourcing?  \n \n4.3 Approach and methodology   \n18. This is a theory -based, retrospective evaluation to understand UNHCR’s current practices around data and', '12 UNHCR Programme Ma nual, Chapter 4 (June 2017), p.250.   \n13 Accountability  – through assessing and reporting on implementation and results, and requesting management to formally respond to \nthe evaluation. Learning  – Describing as well as explaining results is necessary to gen erate insights and pointers for learning to improve \nfuture strategies – and if possible – in other contexts where UNHCR operations face similar opportunities and constraints.', 'study on returnees to Syria had 70+ dedicated researchers while UNHCR had 5 staff who provided \ncomments on top of their existing workloads. In interviews with UNHCR country office staff, the ge neral \nconsensus was that the culture is geared towards “doing”  with very little time or routine to take a step \nback and look at what  is working , or trends based on deeper analysis of different types of data from \nprotection and programme. Analys es such as t his help drive the discourse on forced displacement \nresponse among policy and decision  makers. Box 2 provides an example of an emerg ing good \npractice in the Syria regional refugee r esponse.   \n4.7 Access to data for  persons of concern  could be improved  \n75. UNHC R commits to inclu ding the perceptions, needs \nand experiences of  persons of concern in all aspects \nof its operations. Nonetheless , the evaluation team \nobserved gaps in the fulfilment of this commitment , \nspecifically in sharing information back to persons o f', 'sources. This work also includes a consideration of  who UNHCR should work with, such as innovators, \nstandard and policy se tting bodies, other humanitarian organiz ation s, development organiz ation s, \ngovernments and persons  of concern.  \n1.3.5 Revamping  UNHCR’s results -based management approach  \n22. At the time of t his evaluation, UNHCR’s corporate results -based management (RBM) tool is called \nFOCUS . This system primarily reports on outputs , and UNHCR recognised that there is a need for \nmore outcome -focused monitoring leadi ng to longer -term impact. UNHCR is in the process of \ndesigning  a new RBM tool that will transform  how the organization  reports on its programming , \nadvocacy and coordination efforts .  \n1.4 UNHCR’s  evolving contextual landscape  \n23. UNHCR operates in a constantly changing environment. The growth of personal access to \ninformation , increased levels of displacement  globally, and limited availability of funds create the need']</t>
+  </si>
+  <si>
+    <t>['12 UNHCR Programme Ma nual, Chapter 4 (June 2017), p.250.   \n13 Accountability  – through assessing and reporting on implementation and results, and requesting management to formally respond to \nthe evaluation. Learning  – Describing as well as explaining results is necessary to gen erate insights and pointers for learning to improve \nfuture strategies – and if possible – in other contexts where UNHCR operations face similar opportunities and constraints.', '9 UNHCR  \n Recommendat ions \n \nIn the context of UNHCR’s current data and information systems, the internal and external changes it is facing, \nand the needs required to act as a lea der on protection and solutions , the evaluation offers the following \nrecommendations , with additiona l detail and sub -recommendations in the main body of the report : \n \nRecommended actions  Responsible  Anticipated \ntimeframe  \nThe evaluation emphasizes that an organization -wide prioritization \nwould be essential to transform data within UNHCR to the asset that it \ncan be.  \n \nThe evaluation recommends that UNHCR develop a data transformation \nstrategy and roadmap, with key elements such as enforcing data norms \nand standards throughout the organization, cultivating strong data \nleadership, developing systems to integra te and pull data together, \ncreating a data -first culture, and building capacities and confidence \naround statistics and evidence on persons of concern.  \n SET*  Complete by Q4', 'study on returnees to Syria had 70+ dedicated researchers while UNHCR had 5 staff who provided \ncomments on top of their existing workloads. In interviews with UNHCR country office staff, the ge neral \nconsensus was that the culture is geared towards “doing”  with very little time or routine to take a step \nback and look at what  is working , or trends based on deeper analysis of different types of data from \nprotection and programme. Analys es such as t his help drive the discourse on forced displacement \nresponse among policy and decision  makers. Box 2 provides an example of an emerg ing good \npractice in the Syria regional refugee r esponse.   \n4.7 Access to data for  persons of concern  could be improved  \n75. UNHC R commits to inclu ding the perceptions, needs \nand experiences of  persons of concern in all aspects \nof its operations. Nonetheless , the evaluation team \nobserved gaps in the fulfilment of this commitment , \nspecifically in sharing information back to persons o f', 'sources. This work also includes a consideration of  who UNHCR should work with, such as innovators, \nstandard and policy se tting bodies, other humanitarian organiz ation s, development organiz ation s, \ngovernments and persons  of concern.  \n1.3.5 Revamping  UNHCR’s results -based management approach  \n22. At the time of t his evaluation, UNHCR’s corporate results -based management (RBM) tool is called \nFOCUS . This system primarily reports on outputs , and UNHCR recognised that there is a need for \nmore outcome -focused monitoring leadi ng to longer -term impact. UNHCR is in the process of \ndesigning  a new RBM tool that will transform  how the organization  reports on its programming , \nadvocacy and coordination efforts .  \n1.4 UNHCR’s  evolving contextual landscape  \n23. UNHCR operates in a constantly changing environment. The growth of personal access to \ninformation , increased levels of displacement  globally, and limited availability of funds create the need']</t>
+  </si>
+  <si>
+    <t>['40 UNHCR  \n   \nThis KEQ will also seek to answer the following sub-questions:  \n\uf0b7 What key steps have other UN agencies, similar organi zations and thought leaders in data and IM \ntaken that are applicable to UNHCR’s work?  \n\uf0b7 What actions should be prioritized based on the evaluation findings of the primary challenges and \nconstraints that UNHCR operations experience during the process of data collation/collection, cleaning, \nanalysis, storage and management that hinder evidence -informed decision -making?  \n\uf0b7 What should UNHCR do to address issues concerning data access, synthesis and dissemination \nacross various data systems at the country, regional and HQ offices?   \n\uf0b7 Which actions can be implemented more rapidly and which actions require  a higher level of effort and \nresourcing?  \n \n4.3 Approach and methodology   \n18. This is a theory -based, retrospective evaluation to understand UNHCR’s current practices around data and', '12 UNHCR Programme Ma nual, Chapter 4 (June 2017), p.250.   \n13 Accountability  – through assessing and reporting on implementation and results, and requesting management to formally respond to \nthe evaluation. Learning  – Describing as well as explaining results is necessary to gen erate insights and pointers for learning to improve \nfuture strategies – and if possible – in other contexts where UNHCR operations face similar opportunities and constraints.', 'sources. This work also includes a consideration of  who UNHCR should work with, such as innovators, \nstandard and policy se tting bodies, other humanitarian organiz ation s, development organiz ation s, \ngovernments and persons  of concern.  \n1.3.5 Revamping  UNHCR’s results -based management approach  \n22. At the time of t his evaluation, UNHCR’s corporate results -based management (RBM) tool is called \nFOCUS . This system primarily reports on outputs , and UNHCR recognised that there is a need for \nmore outcome -focused monitoring leadi ng to longer -term impact. UNHCR is in the process of \ndesigning  a new RBM tool that will transform  how the organization  reports on its programming , \nadvocacy and coordination efforts .  \n1.4 UNHCR’s  evolving contextual landscape  \n23. UNHCR operates in a constantly changing environment. The growth of personal access to \ninformation , increased levels of displacement  globally, and limited availability of funds create the need', 'cases across the spectrum of challenging contexts where UNHCR o perates. The case studies represent \ndiverse operations with varying types of population groups, partnerships, commitments, types of \nresponses, and resources available. These case studies are not meant to be representative of all \nUNHCR operations or data an d information management system s. Rather, they are to be used to derive \nlearning about UNHCR’s practices in varying contexts, which may be applicable to other operations \nwith similar characteristics.  \n  \nKey findings  of UNHCR’s current data and information m anagement \napproaches  \n \n9. The evaluation notes that  UNHCR has a plethora of data management systems in play for its \noperational data. This includes rich and meaningful data collected on persons of concern, their \nprotection risks, services and assistance provid ed to them, and their access to solutions, socioeconomic \nimprovements in their lives, and the contexts in which they live.']</t>
+  </si>
+  <si>
+    <t>['40 UNHCR  \n   \nThis KEQ will also seek to answer the following sub-questions:  \n\uf0b7 What key steps have other UN agencies, similar organi zations and thought leaders in data and IM \ntaken that are applicable to UNHCR’s work?  \n\uf0b7 What actions should be prioritized based on the evaluation findings of the primary challenges and \nconstraints that UNHCR operations experience during the process of data collation/collection, cleaning, \nanalysis, storage and management that hinder evidence -informed decision -making?  \n\uf0b7 What should UNHCR do to address issues concerning data access, synthesis and dissemination \nacross various data systems at the country, regional and HQ offices?   \n\uf0b7 Which actions can be implemented more rapidly and which actions require  a higher level of effort and \nresourcing?  \n \n4.3 Approach and methodology   \n18. This is a theory -based, retrospective evaluation to understand UNHCR’s current practices around data and', '12 UNHCR Programme Ma nual, Chapter 4 (June 2017), p.250.   \n13 Accountability  – through assessing and reporting on implementation and results, and requesting management to formally respond to \nthe evaluation. Learning  – Describing as well as explaining results is necessary to gen erate insights and pointers for learning to improve \nfuture strategies – and if possible – in other contexts where UNHCR operations face similar opportunities and constraints.', 'sources. This work also includes a consideration of  who UNHCR should work with, such as innovators, \nstandard and policy se tting bodies, other humanitarian organiz ation s, development organiz ation s, \ngovernments and persons  of concern.  \n1.3.5 Revamping  UNHCR’s results -based management approach  \n22. At the time of t his evaluation, UNHCR’s corporate results -based management (RBM) tool is called \nFOCUS . This system primarily reports on outputs , and UNHCR recognised that there is a need for \nmore outcome -focused monitoring leadi ng to longer -term impact. UNHCR is in the process of \ndesigning  a new RBM tool that will transform  how the organization  reports on its programming , \nadvocacy and coordination efforts .  \n1.4 UNHCR’s  evolving contextual landscape  \n23. UNHCR operates in a constantly changing environment. The growth of personal access to \ninformation , increased levels of displacement  globally, and limited availability of funds create the need', 'and international agencies and national institutions.4 \n \n26. Another  factor that has implications for UNHCR’s data needs is the growing scope and complexity \naround persons of concern. While camps remain a key feature in UNHCR’s response, persons of \nconcern are increasingly finding refuge in urban areas where social networks  often exist , or greater \neducation and economic opportunities  are available . This change mean s that UNHCR may find itself \nconfronted with programming for persons of concern  in a more complex social and economic \nenvironment with both greater opportunities and risks.  When considering the implications for \nUNHCR’s data needs, this again points to much wider and deeper partnering – with local authorities \nand service providers – and inc reased sophistication around new ways of determining the needs of \npersons of concern and activities (e.g. the “big data” of social media).  \n \n1.4.2 Transformations underway  within UNHCR']</t>
+  </si>
+  <si>
+    <t>['12 UNHCR Programme Ma nual, Chapter 4 (June 2017), p.250.   \n13 Accountability  – through assessing and reporting on implementation and results, and requesting management to formally respond to \nthe evaluation. Learning  – Describing as well as explaining results is necessary to gen erate insights and pointers for learning to improve \nfuture strategies – and if possible – in other contexts where UNHCR operations face similar opportunities and constraints.', '9 UNHCR  \n Recommendat ions \n \nIn the context of UNHCR’s current data and information systems, the internal and external changes it is facing, \nand the needs required to act as a lea der on protection and solutions , the evaluation offers the following \nrecommendations , with additiona l detail and sub -recommendations in the main body of the report : \n \nRecommended actions  Responsible  Anticipated \ntimeframe  \nThe evaluation emphasizes that an organization -wide prioritization \nwould be essential to transform data within UNHCR to the asset that it \ncan be.  \n \nThe evaluation recommends that UNHCR develop a data transformation \nstrategy and roadmap, with key elements such as enforcing data norms \nand standards throughout the organization, cultivating strong data \nleadership, developing systems to integra te and pull data together, \ncreating a data -first culture, and building capacities and confidence \naround statistics and evidence on persons of concern.  \n SET*  Complete by Q4', 'sources. This work also includes a consideration of  who UNHCR should work with, such as innovators, \nstandard and policy se tting bodies, other humanitarian organiz ation s, development organiz ation s, \ngovernments and persons  of concern.  \n1.3.5 Revamping  UNHCR’s results -based management approach  \n22. At the time of t his evaluation, UNHCR’s corporate results -based management (RBM) tool is called \nFOCUS . This system primarily reports on outputs , and UNHCR recognised that there is a need for \nmore outcome -focused monitoring leadi ng to longer -term impact. UNHCR is in the process of \ndesigning  a new RBM tool that will transform  how the organization  reports on its programming , \nadvocacy and coordination efforts .  \n1.4 UNHCR’s  evolving contextual landscape  \n23. UNHCR operates in a constantly changing environment. The growth of personal access to \ninformation , increased levels of displacement  globally, and limited availability of funds create the need', 'program  implementation, case management, m onitoring and evaluation, collected and/or collated by \nUNHCR and/or implementing partners.   \n\uf0b7 This evaluation examines UNHCR’s practice around data, including data collated/collected by \noperational partners when the data and information requirements are dete rmined by UNHCR. Broader \ndata and IM practices by UNHCR as a lead agency in the Global Clusters are outside the scope of this \nevaluation and would entail a joint inter -agency evaluation with the unit of analysis being the Global \nCluster model whilst the fo cus of this evaluation is on UNHCR.     \n4.2 Key Evaluation Questions (KEQs)   \n17. The evaluation will address the following headline questions. The analysis needed to answer them is likely \nto touch on other possible sub -questions and may be further refined d uring the evaluation inception phase.  \n  \nKEQ 1 : Based on four case studies of UNHCR country/regional operations, how are operational data and']</t>
+  </si>
+  <si>
+    <t>['12 UNHCR Programme Ma nual, Chapter 4 (June 2017), p.250.   \n13 Accountability  – through assessing and reporting on implementation and results, and requesting management to formally respond to \nthe evaluation. Learning  – Describing as well as explaining results is necessary to gen erate insights and pointers for learning to improve \nfuture strategies – and if possible – in other contexts where UNHCR operations face similar opportunities and constraints.', '40 UNHCR  \n   \nThis KEQ will also seek to answer the following sub-questions:  \n\uf0b7 What key steps have other UN agencies, similar organi zations and thought leaders in data and IM \ntaken that are applicable to UNHCR’s work?  \n\uf0b7 What actions should be prioritized based on the evaluation findings of the primary challenges and \nconstraints that UNHCR operations experience during the process of data collation/collection, cleaning, \nanalysis, storage and management that hinder evidence -informed decision -making?  \n\uf0b7 What should UNHCR do to address issues concerning data access, synthesis and dissemination \nacross various data systems at the country, regional and HQ offices?   \n\uf0b7 Which actions can be implemented more rapidly and which actions require  a higher level of effort and \nresourcing?  \n \n4.3 Approach and methodology   \n18. This is a theory -based, retrospective evaluation to understand UNHCR’s current practices around data and', 'sources. This work also includes a consideration of  who UNHCR should work with, such as innovators, \nstandard and policy se tting bodies, other humanitarian organiz ation s, development organiz ation s, \ngovernments and persons  of concern.  \n1.3.5 Revamping  UNHCR’s results -based management approach  \n22. At the time of t his evaluation, UNHCR’s corporate results -based management (RBM) tool is called \nFOCUS . This system primarily reports on outputs , and UNHCR recognised that there is a need for \nmore outcome -focused monitoring leadi ng to longer -term impact. UNHCR is in the process of \ndesigning  a new RBM tool that will transform  how the organization  reports on its programming , \nadvocacy and coordination efforts .  \n1.4 UNHCR’s  evolving contextual landscape  \n23. UNHCR operates in a constantly changing environment. The growth of personal access to \ninformation , increased levels of displacement  globally, and limited availability of funds create the need', 'and interpretation.  \n \n95. The evaluation also recommends working with Regional Bureaux or country operations willing to serve \nas path finders or data champions. Highlighting good practices across the organization can also help \nothers to adapt if they see benefits to changing. The evaluation recommends that UNHCR consider \nthe mechanisms it can use to incentivize/reward adoption of incorpo rating data use in their functional \nrole.  \n \n6.6. Strengthening data protection at all levels  \n \n96. UNHCR should increase the availability, usability, integrity and security of data across its global \noperations. Overcoming many of UNHCR’s data -related risks or misse d opportunities can be \naccomplished through the development and execution of enterprise -level data governance. Changing \nthe approach to data management will address the large amounts of data in unstructured formats and \nwill provide standardized security ov er data  related to persons of concern .']</t>
+  </si>
+  <si>
+    <t>['9 UNHCR  \n Recommendat ions \n \nIn the context of UNHCR’s current data and information systems, the internal and external changes it is facing, \nand the needs required to act as a lea der on protection and solutions , the evaluation offers the following \nrecommendations , with additiona l detail and sub -recommendations in the main body of the report : \n \nRecommended actions  Responsible  Anticipated \ntimeframe  \nThe evaluation emphasizes that an organization -wide prioritization \nwould be essential to transform data within UNHCR to the asset that it \ncan be.  \n \nThe evaluation recommends that UNHCR develop a data transformation \nstrategy and roadmap, with key elements such as enforcing data norms \nand standards throughout the organization, cultivating strong data \nleadership, developing systems to integra te and pull data together, \ncreating a data -first culture, and building capacities and confidence \naround statistics and evidence on persons of concern.  \n SET*  Complete by Q4', '12 UNHCR Programme Ma nual, Chapter 4 (June 2017), p.250.   \n13 Accountability  – through assessing and reporting on implementation and results, and requesting management to formally respond to \nthe evaluation. Learning  – Describing as well as explaining results is necessary to gen erate insights and pointers for learning to improve \nfuture strategies – and if possible – in other contexts where UNHCR operations face similar opportunities and constraints.', 'sources. This work also includes a consideration of  who UNHCR should work with, such as innovators, \nstandard and policy se tting bodies, other humanitarian organiz ation s, development organiz ation s, \ngovernments and persons  of concern.  \n1.3.5 Revamping  UNHCR’s results -based management approach  \n22. At the time of t his evaluation, UNHCR’s corporate results -based management (RBM) tool is called \nFOCUS . This system primarily reports on outputs , and UNHCR recognised that there is a need for \nmore outcome -focused monitoring leadi ng to longer -term impact. UNHCR is in the process of \ndesigning  a new RBM tool that will transform  how the organization  reports on its programming , \nadvocacy and coordination efforts .  \n1.4 UNHCR’s  evolving contextual landscape  \n23. UNHCR operates in a constantly changing environment. The growth of personal access to \ninformation , increased levels of displacement  globally, and limited availability of funds create the need', 'role does the country/regional IMO(s) have and what role is also played by other stakeholders \nspecifically at the sector level?    \n\uf0b7 After data and information need s have been identified at the operational level, how are data \ncollated/collected, cleaned, analyzed , stored and managed at different points in the OMC and what is \nthe associated level of burden to carry out such activities?   \n\uf0b7 How do country/regional operati ons consider feedback from and effective communication with persons \nof concern in operational data systems?  \n\uf0b7 To what extent are there gaps and/or inefficiencies in country/regional operations’ practice around data \nand IM (i.e. data systems, collation/colle ction processes, storage, management, data analysis and use, \nstaff capacities and functions, financial resources, etc.)?    \n\uf0b7 What are the primary challenges and constraints that UNHCR operations experience during the process']</t>
+  </si>
+  <si>
+    <t>['40 UNHCR  \n   \nThis KEQ will also seek to answer the following sub-questions:  \n\uf0b7 What key steps have other UN agencies, similar organi zations and thought leaders in data and IM \ntaken that are applicable to UNHCR’s work?  \n\uf0b7 What actions should be prioritized based on the evaluation findings of the primary challenges and \nconstraints that UNHCR operations experience during the process of data collation/collection, cleaning, \nanalysis, storage and management that hinder evidence -informed decision -making?  \n\uf0b7 What should UNHCR do to address issues concerning data access, synthesis and dissemination \nacross various data systems at the country, regional and HQ offices?   \n\uf0b7 Which actions can be implemented more rapidly and which actions require  a higher level of effort and \nresourcing?  \n \n4.3 Approach and methodology   \n18. This is a theory -based, retrospective evaluation to understand UNHCR’s current practices around data and', '12 UNHCR Programme Ma nual, Chapter 4 (June 2017), p.250.   \n13 Accountability  – through assessing and reporting on implementation and results, and requesting management to formally respond to \nthe evaluation. Learning  – Describing as well as explaining results is necessary to gen erate insights and pointers for learning to improve \nfuture strategies – and if possible – in other contexts where UNHCR operations face similar opportunities and constraints.', 'has been analysed with an understanding and consideration of the external and internal changes \nUNHCR is experiencing.  Accordingly , the conclusions and recommendations are appropriately \nsituated to provide maxi mum utility based on the evaluation’s assessment of the future context.  \n  \n36. Contrary to typical evaluations, the assignment was conceived without specific measurement criteria  \n(e.g. to assess progress) or expected outcomes , given that the scope of the evalua tion is to review  \noperational data practice and approaches . Therefore, t he research methodologies of process mapping \n(see Annex 3 for details), key informant interviews , document review  and observation were used to \ndevelop an understanding of organiz ation al systems, practices, culture, structures and \nincentives/disincentives regarding data and information.  \n \n37. Importantly, as a strategic evaluation, the work is hypothesis -driven. Using a  deductive  process, i t was', 'sources. This work also includes a consideration of  who UNHCR should work with, such as innovators, \nstandard and policy se tting bodies, other humanitarian organiz ation s, development organiz ation s, \ngovernments and persons  of concern.  \n1.3.5 Revamping  UNHCR’s results -based management approach  \n22. At the time of t his evaluation, UNHCR’s corporate results -based management (RBM) tool is called \nFOCUS . This system primarily reports on outputs , and UNHCR recognised that there is a need for \nmore outcome -focused monitoring leadi ng to longer -term impact. UNHCR is in the process of \ndesigning  a new RBM tool that will transform  how the organization  reports on its programming , \nadvocacy and coordination efforts .  \n1.4 UNHCR’s  evolving contextual landscape  \n23. UNHCR operates in a constantly changing environment. The growth of personal access to \ninformation , increased levels of displacement  globally, and limited availability of funds create the need']</t>
+  </si>
+  <si>
+    <t>['40 UNHCR  \n   \nThis KEQ will also seek to answer the following sub-questions:  \n\uf0b7 What key steps have other UN agencies, similar organi zations and thought leaders in data and IM \ntaken that are applicable to UNHCR’s work?  \n\uf0b7 What actions should be prioritized based on the evaluation findings of the primary challenges and \nconstraints that UNHCR operations experience during the process of data collation/collection, cleaning, \nanalysis, storage and management that hinder evidence -informed decision -making?  \n\uf0b7 What should UNHCR do to address issues concerning data access, synthesis and dissemination \nacross various data systems at the country, regional and HQ offices?   \n\uf0b7 Which actions can be implemented more rapidly and which actions require  a higher level of effort and \nresourcing?  \n \n4.3 Approach and methodology   \n18. This is a theory -based, retrospective evaluation to understand UNHCR’s current practices around data and', '12 UNHCR Programme Ma nual, Chapter 4 (June 2017), p.250.   \n13 Accountability  – through assessing and reporting on implementation and results, and requesting management to formally respond to \nthe evaluation. Learning  – Describing as well as explaining results is necessary to gen erate insights and pointers for learning to improve \nfuture strategies – and if possible – in other contexts where UNHCR operations face similar opportunities and constraints.', 'sources. This work also includes a consideration of  who UNHCR should work with, such as innovators, \nstandard and policy se tting bodies, other humanitarian organiz ation s, development organiz ation s, \ngovernments and persons  of concern.  \n1.3.5 Revamping  UNHCR’s results -based management approach  \n22. At the time of t his evaluation, UNHCR’s corporate results -based management (RBM) tool is called \nFOCUS . This system primarily reports on outputs , and UNHCR recognised that there is a need for \nmore outcome -focused monitoring leadi ng to longer -term impact. UNHCR is in the process of \ndesigning  a new RBM tool that will transform  how the organization  reports on its programming , \nadvocacy and coordination efforts .  \n1.4 UNHCR’s  evolving contextual landscape  \n23. UNHCR operates in a constantly changing environment. The growth of personal access to \ninformation , increased levels of displacement  globally, and limited availability of funds create the need', 'this larger review and will inform future orga nizational direction and strategies regarding data and \ninformation management.    \n3. Purpose and objectives  \n14. The evaluation will serve a dual and mutually reinforcing learning and accountability purpose.13 The purpose \nof this centralized  evaluation is to con tribute evidence and recommendations that will inform UNHCR’s IM \nsystems and practice , ultimately contributing to improved capacity for responsible, timely and purposeful \ndata use and information management at various levels within UNHCR, in both its opera tional and \ncoordination roles.   \n15. The primary audience is UNHCR Senior Executive Team, Division of Programme Support and Management, \nDivision of International Protection, Division of Information Systems and Telecommunications, Division of \n                                                \n12 UNHCR Programme Ma nual, Chapter 4 (June 2017), p.250.']</t>
+  </si>
+  <si>
+    <t>['12 UNHCR Programme Ma nual, Chapter 4 (June 2017), p.250.   \n13 Accountability  – through assessing and reporting on implementation and results, and requesting management to formally respond to \nthe evaluation. Learning  – Describing as well as explaining results is necessary to gen erate insights and pointers for learning to improve \nfuture strategies – and if possible – in other contexts where UNHCR operations face similar opportunities and constraints.', '9 UNHCR  \n Recommendat ions \n \nIn the context of UNHCR’s current data and information systems, the internal and external changes it is facing, \nand the needs required to act as a lea der on protection and solutions , the evaluation offers the following \nrecommendations , with additiona l detail and sub -recommendations in the main body of the report : \n \nRecommended actions  Responsible  Anticipated \ntimeframe  \nThe evaluation emphasizes that an organization -wide prioritization \nwould be essential to transform data within UNHCR to the asset that it \ncan be.  \n \nThe evaluation recommends that UNHCR develop a data transformation \nstrategy and roadmap, with key elements such as enforcing data norms \nand standards throughout the organization, cultivating strong data \nleadership, developing systems to integra te and pull data together, \ncreating a data -first culture, and building capacities and confidence \naround statistics and evidence on persons of concern.  \n SET*  Complete by Q4', 'sources. This work also includes a consideration of  who UNHCR should work with, such as innovators, \nstandard and policy se tting bodies, other humanitarian organiz ation s, development organiz ation s, \ngovernments and persons  of concern.  \n1.3.5 Revamping  UNHCR’s results -based management approach  \n22. At the time of t his evaluation, UNHCR’s corporate results -based management (RBM) tool is called \nFOCUS . This system primarily reports on outputs , and UNHCR recognised that there is a need for \nmore outcome -focused monitoring leadi ng to longer -term impact. UNHCR is in the process of \ndesigning  a new RBM tool that will transform  how the organization  reports on its programming , \nadvocacy and coordination efforts .  \n1.4 UNHCR’s  evolving contextual landscape  \n23. UNHCR operates in a constantly changing environment. The growth of personal access to \ninformation , increased levels of displacement  globally, and limited availability of funds create the need', 'offices and stakeholders (internal/external)?  \n\uf0b7 What are key challenges and issues with accessing, synthesizing and/or disseminating data and \ninformation via these various data systems at the  country, regional and HQ offices?   \n\uf0b7 What data validation procedures and data quality assessments have been developed to support country \noperations and to what extent are they used in the field?    \n\uf0b7 How could organizational design around the central managemen t of data and information at HQs and \nregional platforms be optimized to ensure that critical requirements across the organi zation are met?  \n  \nKEQ 3:  In RRP situations (i.e. Syria, South Sudan, Burundi, DRC, Nigeria) when UNHCR plays a leading role \nin the r esponse, how effective is UNHCR in determining, addressing (i.e. collated, collected, cleaned, \nanalyzed , stored and managed) and coordinating data and information management in this inter -agency \nspace?']</t>
+  </si>
+  <si>
+    <t>['12 UNHCR Programme Ma nual, Chapter 4 (June 2017), p.250.   \n13 Accountability  – through assessing and reporting on implementation and results, and requesting management to formally respond to \nthe evaluation. Learning  – Describing as well as explaining results is necessary to gen erate insights and pointers for learning to improve \nfuture strategies – and if possible – in other contexts where UNHCR operations face similar opportunities and constraints.', '9 UNHCR  \n Recommendat ions \n \nIn the context of UNHCR’s current data and information systems, the internal and external changes it is facing, \nand the needs required to act as a lea der on protection and solutions , the evaluation offers the following \nrecommendations , with additiona l detail and sub -recommendations in the main body of the report : \n \nRecommended actions  Responsible  Anticipated \ntimeframe  \nThe evaluation emphasizes that an organization -wide prioritization \nwould be essential to transform data within UNHCR to the asset that it \ncan be.  \n \nThe evaluation recommends that UNHCR develop a data transformation \nstrategy and roadmap, with key elements such as enforcing data norms \nand standards throughout the organization, cultivating strong data \nleadership, developing systems to integra te and pull data together, \ncreating a data -first culture, and building capacities and confidence \naround statistics and evidence on persons of concern.  \n SET*  Complete by Q4', 'sources. This work also includes a consideration of  who UNHCR should work with, such as innovators, \nstandard and policy se tting bodies, other humanitarian organiz ation s, development organiz ation s, \ngovernments and persons  of concern.  \n1.3.5 Revamping  UNHCR’s results -based management approach  \n22. At the time of t his evaluation, UNHCR’s corporate results -based management (RBM) tool is called \nFOCUS . This system primarily reports on outputs , and UNHCR recognised that there is a need for \nmore outcome -focused monitoring leadi ng to longer -term impact. UNHCR is in the process of \ndesigning  a new RBM tool that will transform  how the organization  reports on its programming , \nadvocacy and coordination efforts .  \n1.4 UNHCR’s  evolving contextual landscape  \n23. UNHCR operates in a constantly changing environment. The growth of personal access to \ninformation , increased levels of displacement  globally, and limited availability of funds create the need', 'role does the country/regional IMO(s) have and what role is also played by other stakeholders \nspecifically at the sector level?    \n\uf0b7 After data and information need s have been identified at the operational level, how are data \ncollated/collected, cleaned, analyzed , stored and managed at different points in the OMC and what is \nthe associated level of burden to carry out such activities?   \n\uf0b7 How do country/regional operati ons consider feedback from and effective communication with persons \nof concern in operational data systems?  \n\uf0b7 To what extent are there gaps and/or inefficiencies in country/regional operations’ practice around data \nand IM (i.e. data systems, collation/colle ction processes, storage, management, data analysis and use, \nstaff capacities and functions, financial resources, etc.)?    \n\uf0b7 What are the primary challenges and constraints that UNHCR operations experience during the process']</t>
+  </si>
+  <si>
+    <t>['40 UNHCR  \n   \nThis KEQ will also seek to answer the following sub-questions:  \n\uf0b7 What key steps have other UN agencies, similar organi zations and thought leaders in data and IM \ntaken that are applicable to UNHCR’s work?  \n\uf0b7 What actions should be prioritized based on the evaluation findings of the primary challenges and \nconstraints that UNHCR operations experience during the process of data collation/collection, cleaning, \nanalysis, storage and management that hinder evidence -informed decision -making?  \n\uf0b7 What should UNHCR do to address issues concerning data access, synthesis and dissemination \nacross various data systems at the country, regional and HQ offices?   \n\uf0b7 Which actions can be implemented more rapidly and which actions require  a higher level of effort and \nresourcing?  \n \n4.3 Approach and methodology   \n18. This is a theory -based, retrospective evaluation to understand UNHCR’s current practices around data and', '12 UNHCR Programme Ma nual, Chapter 4 (June 2017), p.250.   \n13 Accountability  – through assessing and reporting on implementation and results, and requesting management to formally respond to \nthe evaluation. Learning  – Describing as well as explaining results is necessary to gen erate insights and pointers for learning to improve \nfuture strategies – and if possible – in other contexts where UNHCR operations face similar opportunities and constraints.', 'sources. This work also includes a consideration of  who UNHCR should work with, such as innovators, \nstandard and policy se tting bodies, other humanitarian organiz ation s, development organiz ation s, \ngovernments and persons  of concern.  \n1.3.5 Revamping  UNHCR’s results -based management approach  \n22. At the time of t his evaluation, UNHCR’s corporate results -based management (RBM) tool is called \nFOCUS . This system primarily reports on outputs , and UNHCR recognised that there is a need for \nmore outcome -focused monitoring leadi ng to longer -term impact. UNHCR is in the process of \ndesigning  a new RBM tool that will transform  how the organization  reports on its programming , \nadvocacy and coordination efforts .  \n1.4 UNHCR’s  evolving contextual landscape  \n23. UNHCR operates in a constantly changing environment. The growth of personal access to \ninformation , increased levels of displacement  globally, and limited availability of funds create the need', 'country  operations to maintain a longer -term focus on achieving solutions, while ensuring that  \nimmediate needs are addressed, the rights of all people of concern protected and host  communities \nsupported. MYMP , in concert with the development of the new RBM system,  will catalyse a shift away \nfrom output -based performance monitoring to one focused on outcomes. As such, the data and \ninformation needed to monitor and assess progress will need to shift as well.  \n \n29. UNHCR’s curr ent needs, continued organiz ation al evolution and external pressures underscore the \nvalue  and criticality of the data and information UNHCR produces, curates and shares. Going forward, \nthe findings of this evaluation offer insight into where and how UNHCR might make future investments \nin this area.']</t>
+  </si>
+  <si>
+    <t>['40 UNHCR  \n   \nThis KEQ will also seek to answer the following sub-questions:  \n\uf0b7 What key steps have other UN agencies, similar organi zations and thought leaders in data and IM \ntaken that are applicable to UNHCR’s work?  \n\uf0b7 What actions should be prioritized based on the evaluation findings of the primary challenges and \nconstraints that UNHCR operations experience during the process of data collation/collection, cleaning, \nanalysis, storage and management that hinder evidence -informed decision -making?  \n\uf0b7 What should UNHCR do to address issues concerning data access, synthesis and dissemination \nacross various data systems at the country, regional and HQ offices?   \n\uf0b7 Which actions can be implemented more rapidly and which actions require  a higher level of effort and \nresourcing?  \n \n4.3 Approach and methodology   \n18. This is a theory -based, retrospective evaluation to understand UNHCR’s current practices around data and', '12 UNHCR Programme Ma nual, Chapter 4 (June 2017), p.250.   \n13 Accountability  – through assessing and reporting on implementation and results, and requesting management to formally respond to \nthe evaluation. Learning  – Describing as well as explaining results is necessary to gen erate insights and pointers for learning to improve \nfuture strategies – and if possible – in other contexts where UNHCR operations face similar opportunities and constraints.', 'good practices in the organization. However, on the whole, a t the \noperational level, there is much more that needs to be done to \nensure that persons of concern have access to their information, \nthat assessment and other data is communicated back to \ncommunities, and that they participate in decisions.  \nUNHCR aspires to ensure that \npersons of concern have \naccess to and control over \ntheir data and information, and \nthat feedback from persons  of \nconcern is regularly received \nand used in decision -making.  \nAn impressive array of data and IM systems exist within UNHCR, \nillustrating the solution -oriented mindset of staff oper ating within a \ndecentralised approach to data management. However, \nconsiderations for systems interoperability have not been required \nor facilitated by HQ until recently (PRIMES). Being able to \ndemonstrate accountability and results to donors while at the same \ntime showing contributions to the GCR underscore the importance', 'sources. This work also includes a consideration of  who UNHCR should work with, such as innovators, \nstandard and policy se tting bodies, other humanitarian organiz ation s, development organiz ation s, \ngovernments and persons  of concern.  \n1.3.5 Revamping  UNHCR’s results -based management approach  \n22. At the time of t his evaluation, UNHCR’s corporate results -based management (RBM) tool is called \nFOCUS . This system primarily reports on outputs , and UNHCR recognised that there is a need for \nmore outcome -focused monitoring leadi ng to longer -term impact. UNHCR is in the process of \ndesigning  a new RBM tool that will transform  how the organization  reports on its programming , \nadvocacy and coordination efforts .  \n1.4 UNHCR’s  evolving contextual landscape  \n23. UNHCR operates in a constantly changing environment. The growth of personal access to \ninformation , increased levels of displacement  globally, and limited availability of funds create the need']</t>
+  </si>
+  <si>
+    <t>['12 UNHCR Programme Ma nual, Chapter 4 (June 2017), p.250.   \n13 Accountability  – through assessing and reporting on implementation and results, and requesting management to formally respond to \nthe evaluation. Learning  – Describing as well as explaining results is necessary to gen erate insights and pointers for learning to improve \nfuture strategies – and if possible – in other contexts where UNHCR operations face similar opportunities and constraints.', 'sources. This work also includes a consideration of  who UNHCR should work with, such as innovators, \nstandard and policy se tting bodies, other humanitarian organiz ation s, development organiz ation s, \ngovernments and persons  of concern.  \n1.3.5 Revamping  UNHCR’s results -based management approach  \n22. At the time of t his evaluation, UNHCR’s corporate results -based management (RBM) tool is called \nFOCUS . This system primarily reports on outputs , and UNHCR recognised that there is a need for \nmore outcome -focused monitoring leadi ng to longer -term impact. UNHCR is in the process of \ndesigning  a new RBM tool that will transform  how the organization  reports on its programming , \nadvocacy and coordination efforts .  \n1.4 UNHCR’s  evolving contextual landscape  \n23. UNHCR operates in a constantly changing environment. The growth of personal access to \ninformation , increased levels of displacement  globally, and limited availability of funds create the need', '9 UNHCR  \n Recommendat ions \n \nIn the context of UNHCR’s current data and information systems, the internal and external changes it is facing, \nand the needs required to act as a lea der on protection and solutions , the evaluation offers the following \nrecommendations , with additiona l detail and sub -recommendations in the main body of the report : \n \nRecommended actions  Responsible  Anticipated \ntimeframe  \nThe evaluation emphasizes that an organization -wide prioritization \nwould be essential to transform data within UNHCR to the asset that it \ncan be.  \n \nThe evaluation recommends that UNHCR develop a data transformation \nstrategy and roadmap, with key elements such as enforcing data norms \nand standards throughout the organization, cultivating strong data \nleadership, developing systems to integra te and pull data together, \ncreating a data -first culture, and building capacities and confidence \naround statistics and evidence on persons of concern.  \n SET*  Complete by Q4', 'offices and stakeholders (internal/external)?  \n\uf0b7 What are key challenges and issues with accessing, synthesizing and/or disseminating data and \ninformation via these various data systems at the  country, regional and HQ offices?   \n\uf0b7 What data validation procedures and data quality assessments have been developed to support country \noperations and to what extent are they used in the field?    \n\uf0b7 How could organizational design around the central managemen t of data and information at HQs and \nregional platforms be optimized to ensure that critical requirements across the organi zation are met?  \n  \nKEQ 3:  In RRP situations (i.e. Syria, South Sudan, Burundi, DRC, Nigeria) when UNHCR plays a leading role \nin the r esponse, how effective is UNHCR in determining, addressing (i.e. collated, collected, cleaned, \nanalyzed , stored and managed) and coordinating data and information management in this inter -agency \nspace?']</t>
+  </si>
+  <si>
+    <t>['40 UNHCR  \n   \nThis KEQ will also seek to answer the following sub-questions:  \n\uf0b7 What key steps have other UN agencies, similar organi zations and thought leaders in data and IM \ntaken that are applicable to UNHCR’s work?  \n\uf0b7 What actions should be prioritized based on the evaluation findings of the primary challenges and \nconstraints that UNHCR operations experience during the process of data collation/collection, cleaning, \nanalysis, storage and management that hinder evidence -informed decision -making?  \n\uf0b7 What should UNHCR do to address issues concerning data access, synthesis and dissemination \nacross various data systems at the country, regional and HQ offices?   \n\uf0b7 Which actions can be implemented more rapidly and which actions require  a higher level of effort and \nresourcing?  \n \n4.3 Approach and methodology   \n18. This is a theory -based, retrospective evaluation to understand UNHCR’s current practices around data and', '12 UNHCR Programme Ma nual, Chapter 4 (June 2017), p.250.   \n13 Accountability  – through assessing and reporting on implementation and results, and requesting management to formally respond to \nthe evaluation. Learning  – Describing as well as explaining results is necessary to gen erate insights and pointers for learning to improve \nfuture strategies – and if possible – in other contexts where UNHCR operations face similar opportunities and constraints.', '9 UNHCR  \n Recommendat ions \n \nIn the context of UNHCR’s current data and information systems, the internal and external changes it is facing, \nand the needs required to act as a lea der on protection and solutions , the evaluation offers the following \nrecommendations , with additiona l detail and sub -recommendations in the main body of the report : \n \nRecommended actions  Responsible  Anticipated \ntimeframe  \nThe evaluation emphasizes that an organization -wide prioritization \nwould be essential to transform data within UNHCR to the asset that it \ncan be.  \n \nThe evaluation recommends that UNHCR develop a data transformation \nstrategy and roadmap, with key elements such as enforcing data norms \nand standards throughout the organization, cultivating strong data \nleadership, developing systems to integra te and pull data together, \ncreating a data -first culture, and building capacities and confidence \naround statistics and evidence on persons of concern.  \n SET*  Complete by Q4', 'sources. This work also includes a consideration of  who UNHCR should work with, such as innovators, \nstandard and policy se tting bodies, other humanitarian organiz ation s, development organiz ation s, \ngovernments and persons  of concern.  \n1.3.5 Revamping  UNHCR’s results -based management approach  \n22. At the time of t his evaluation, UNHCR’s corporate results -based management (RBM) tool is called \nFOCUS . This system primarily reports on outputs , and UNHCR recognised that there is a need for \nmore outcome -focused monitoring leadi ng to longer -term impact. UNHCR is in the process of \ndesigning  a new RBM tool that will transform  how the organization  reports on its programming , \nadvocacy and coordination efforts .  \n1.4 UNHCR’s  evolving contextual landscape  \n23. UNHCR operates in a constantly changing environment. The growth of personal access to \ninformation , increased levels of displacement  globally, and limited availability of funds create the need']</t>
+  </si>
+  <si>
+    <t>['40 UNHCR  \n   \nThis KEQ will also seek to answer the following sub-questions:  \n\uf0b7 What key steps have other UN agencies, similar organi zations and thought leaders in data and IM \ntaken that are applicable to UNHCR’s work?  \n\uf0b7 What actions should be prioritized based on the evaluation findings of the primary challenges and \nconstraints that UNHCR operations experience during the process of data collation/collection, cleaning, \nanalysis, storage and management that hinder evidence -informed decision -making?  \n\uf0b7 What should UNHCR do to address issues concerning data access, synthesis and dissemination \nacross various data systems at the country, regional and HQ offices?   \n\uf0b7 Which actions can be implemented more rapidly and which actions require  a higher level of effort and \nresourcing?  \n \n4.3 Approach and methodology   \n18. This is a theory -based, retrospective evaluation to understand UNHCR’s current practices around data and', '12 UNHCR Programme Ma nual, Chapter 4 (June 2017), p.250.   \n13 Accountability  – through assessing and reporting on implementation and results, and requesting management to formally respond to \nthe evaluation. Learning  – Describing as well as explaining results is necessary to gen erate insights and pointers for learning to improve \nfuture strategies – and if possible – in other contexts where UNHCR operations face similar opportunities and constraints.', 'cases across the spectrum of challenging contexts where UNHCR o perates. The case studies represent \ndiverse operations with varying types of population groups, partnerships, commitments, types of \nresponses, and resources available. These case studies are not meant to be representative of all \nUNHCR operations or data an d information management system s. Rather, they are to be used to derive \nlearning about UNHCR’s practices in varying contexts, which may be applicable to other operations \nwith similar characteristics.  \n  \nKey findings  of UNHCR’s current data and information m anagement \napproaches  \n \n9. The evaluation notes that  UNHCR has a plethora of data management systems in play for its \noperational data. This includes rich and meaningful data collected on persons of concern, their \nprotection risks, services and assistance provid ed to them, and their access to solutions, socioeconomic \nimprovements in their lives, and the contexts in which they live.', 'sources. This work also includes a consideration of  who UNHCR should work with, such as innovators, \nstandard and policy se tting bodies, other humanitarian organiz ation s, development organiz ation s, \ngovernments and persons  of concern.  \n1.3.5 Revamping  UNHCR’s results -based management approach  \n22. At the time of t his evaluation, UNHCR’s corporate results -based management (RBM) tool is called \nFOCUS . This system primarily reports on outputs , and UNHCR recognised that there is a need for \nmore outcome -focused monitoring leadi ng to longer -term impact. UNHCR is in the process of \ndesigning  a new RBM tool that will transform  how the organization  reports on its programming , \nadvocacy and coordination efforts .  \n1.4 UNHCR’s  evolving contextual landscape  \n23. UNHCR operates in a constantly changing environment. The growth of personal access to \ninformation , increased levels of displacement  globally, and limited availability of funds create the need']</t>
+  </si>
+  <si>
+    <t>['12 UNHCR Programme Ma nual, Chapter 4 (June 2017), p.250.   \n13 Accountability  – through assessing and reporting on implementation and results, and requesting management to formally respond to \nthe evaluation. Learning  – Describing as well as explaining results is necessary to gen erate insights and pointers for learning to improve \nfuture strategies – and if possible – in other contexts where UNHCR operations face similar opportunities and constraints.', '9 UNHCR  \n Recommendat ions \n \nIn the context of UNHCR’s current data and information systems, the internal and external changes it is facing, \nand the needs required to act as a lea der on protection and solutions , the evaluation offers the following \nrecommendations , with additiona l detail and sub -recommendations in the main body of the report : \n \nRecommended actions  Responsible  Anticipated \ntimeframe  \nThe evaluation emphasizes that an organization -wide prioritization \nwould be essential to transform data within UNHCR to the asset that it \ncan be.  \n \nThe evaluation recommends that UNHCR develop a data transformation \nstrategy and roadmap, with key elements such as enforcing data norms \nand standards throughout the organization, cultivating strong data \nleadership, developing systems to integra te and pull data together, \ncreating a data -first culture, and building capacities and confidence \naround statistics and evidence on persons of concern.  \n SET*  Complete by Q4', 'sources. This work also includes a consideration of  who UNHCR should work with, such as innovators, \nstandard and policy se tting bodies, other humanitarian organiz ation s, development organiz ation s, \ngovernments and persons  of concern.  \n1.3.5 Revamping  UNHCR’s results -based management approach  \n22. At the time of t his evaluation, UNHCR’s corporate results -based management (RBM) tool is called \nFOCUS . This system primarily reports on outputs , and UNHCR recognised that there is a need for \nmore outcome -focused monitoring leadi ng to longer -term impact. UNHCR is in the process of \ndesigning  a new RBM tool that will transform  how the organization  reports on its programming , \nadvocacy and coordination efforts .  \n1.4 UNHCR’s  evolving contextual landscape  \n23. UNHCR operates in a constantly changing environment. The growth of personal access to \ninformation , increased levels of displacement  globally, and limited availability of funds create the need', 'cases across the spectrum of challenging contexts where UNHCR o perates. The case studies represent \ndiverse operations with varying types of population groups, partnerships, commitments, types of \nresponses, and resources available. These case studies are not meant to be representative of all \nUNHCR operations or data an d information management system s. Rather, they are to be used to derive \nlearning about UNHCR’s practices in varying contexts, which may be applicable to other operations \nwith similar characteristics.  \n  \nKey findings  of UNHCR’s current data and information m anagement \napproaches  \n \n9. The evaluation notes that  UNHCR has a plethora of data management systems in play for its \noperational data. This includes rich and meaningful data collected on persons of concern, their \nprotection risks, services and assistance provid ed to them, and their access to solutions, socioeconomic \nimprovements in their lives, and the contexts in which they live.']</t>
+  </si>
+  <si>
+    <t>['9 UNHCR  \n Recommendat ions \n \nIn the context of UNHCR’s current data and information systems, the internal and external changes it is facing, \nand the needs required to act as a lea der on protection and solutions , the evaluation offers the following \nrecommendations , with additiona l detail and sub -recommendations in the main body of the report : \n \nRecommended actions  Responsible  Anticipated \ntimeframe  \nThe evaluation emphasizes that an organization -wide prioritization \nwould be essential to transform data within UNHCR to the asset that it \ncan be.  \n \nThe evaluation recommends that UNHCR develop a data transformation \nstrategy and roadmap, with key elements such as enforcing data norms \nand standards throughout the organization, cultivating strong data \nleadership, developing systems to integra te and pull data together, \ncreating a data -first culture, and building capacities and confidence \naround statistics and evidence on persons of concern.  \n SET*  Complete by Q4', '12 UNHCR Programme Ma nual, Chapter 4 (June 2017), p.250.   \n13 Accountability  – through assessing and reporting on implementation and results, and requesting management to formally respond to \nthe evaluation. Learning  – Describing as well as explaining results is necessary to gen erate insights and pointers for learning to improve \nfuture strategies – and if possible – in other contexts where UNHCR operations face similar opportunities and constraints.', 'sources. This work also includes a consideration of  who UNHCR should work with, such as innovators, \nstandard and policy se tting bodies, other humanitarian organiz ation s, development organiz ation s, \ngovernments and persons  of concern.  \n1.3.5 Revamping  UNHCR’s results -based management approach  \n22. At the time of t his evaluation, UNHCR’s corporate results -based management (RBM) tool is called \nFOCUS . This system primarily reports on outputs , and UNHCR recognised that there is a need for \nmore outcome -focused monitoring leadi ng to longer -term impact. UNHCR is in the process of \ndesigning  a new RBM tool that will transform  how the organization  reports on its programming , \nadvocacy and coordination efforts .  \n1.4 UNHCR’s  evolving contextual landscape  \n23. UNHCR operates in a constantly changing environment. The growth of personal access to \ninformation , increased levels of displacement  globally, and limited availability of funds create the need', 'cases across the spectrum of challenging contexts where UNHCR o perates. The case studies represent \ndiverse operations with varying types of population groups, partnerships, commitments, types of \nresponses, and resources available. These case studies are not meant to be representative of all \nUNHCR operations or data an d information management system s. Rather, they are to be used to derive \nlearning about UNHCR’s practices in varying contexts, which may be applicable to other operations \nwith similar characteristics.  \n  \nKey findings  of UNHCR’s current data and information m anagement \napproaches  \n \n9. The evaluation notes that  UNHCR has a plethora of data management systems in play for its \noperational data. This includes rich and meaningful data collected on persons of concern, their \nprotection risks, services and assistance provid ed to them, and their access to solutions, socioeconomic \nimprovements in their lives, and the contexts in which they live.']</t>
+  </si>
+  <si>
+    <t>['12 UNHCR Programme Ma nual, Chapter 4 (June 2017), p.250.   \n13 Accountability  – through assessing and reporting on implementation and results, and requesting management to formally respond to \nthe evaluation. Learning  – Describing as well as explaining results is necessary to gen erate insights and pointers for learning to improve \nfuture strategies – and if possible – in other contexts where UNHCR operations face similar opportunities and constraints.', 'sources. This work also includes a consideration of  who UNHCR should work with, such as innovators, \nstandard and policy se tting bodies, other humanitarian organiz ation s, development organiz ation s, \ngovernments and persons  of concern.  \n1.3.5 Revamping  UNHCR’s results -based management approach  \n22. At the time of t his evaluation, UNHCR’s corporate results -based management (RBM) tool is called \nFOCUS . This system primarily reports on outputs , and UNHCR recognised that there is a need for \nmore outcome -focused monitoring leadi ng to longer -term impact. UNHCR is in the process of \ndesigning  a new RBM tool that will transform  how the organization  reports on its programming , \nadvocacy and coordination efforts .  \n1.4 UNHCR’s  evolving contextual landscape  \n23. UNHCR operates in a constantly changing environment. The growth of personal access to \ninformation , increased levels of displacement  globally, and limited availability of funds create the need', 'cases across the spectrum of challenging contexts where UNHCR o perates. The case studies represent \ndiverse operations with varying types of population groups, partnerships, commitments, types of \nresponses, and resources available. These case studies are not meant to be representative of all \nUNHCR operations or data an d information management system s. Rather, they are to be used to derive \nlearning about UNHCR’s practices in varying contexts, which may be applicable to other operations \nwith similar characteristics.  \n  \nKey findings  of UNHCR’s current data and information m anagement \napproaches  \n \n9. The evaluation notes that  UNHCR has a plethora of data management systems in play for its \noperational data. This includes rich and meaningful data collected on persons of concern, their \nprotection risks, services and assistance provid ed to them, and their access to solutions, socioeconomic \nimprovements in their lives, and the contexts in which they live.', 'and interpretation.  \n \n95. The evaluation also recommends working with Regional Bureaux or country operations willing to serve \nas path finders or data champions. Highlighting good practices across the organization can also help \nothers to adapt if they see benefits to changing. The evaluation recommends that UNHCR consider \nthe mechanisms it can use to incentivize/reward adoption of incorpo rating data use in their functional \nrole.  \n \n6.6. Strengthening data protection at all levels  \n \n96. UNHCR should increase the availability, usability, integrity and security of data across its global \noperations. Overcoming many of UNHCR’s data -related risks or misse d opportunities can be \naccomplished through the development and execution of enterprise -level data governance. Changing \nthe approach to data management will address the large amounts of data in unstructured formats and \nwill provide standardized security ov er data  related to persons of concern .']</t>
+  </si>
+  <si>
+    <t>['9 UNHCR  \n Recommendat ions \n \nIn the context of UNHCR’s current data and information systems, the internal and external changes it is facing, \nand the needs required to act as a lea der on protection and solutions , the evaluation offers the following \nrecommendations , with additiona l detail and sub -recommendations in the main body of the report : \n \nRecommended actions  Responsible  Anticipated \ntimeframe  \nThe evaluation emphasizes that an organization -wide prioritization \nwould be essential to transform data within UNHCR to the asset that it \ncan be.  \n \nThe evaluation recommends that UNHCR develop a data transformation \nstrategy and roadmap, with key elements such as enforcing data norms \nand standards throughout the organization, cultivating strong data \nleadership, developing systems to integra te and pull data together, \ncreating a data -first culture, and building capacities and confidence \naround statistics and evidence on persons of concern.  \n SET*  Complete by Q4', '12 UNHCR Programme Ma nual, Chapter 4 (June 2017), p.250.   \n13 Accountability  – through assessing and reporting on implementation and results, and requesting management to formally respond to \nthe evaluation. Learning  – Describing as well as explaining results is necessary to gen erate insights and pointers for learning to improve \nfuture strategies – and if possible – in other contexts where UNHCR operations face similar opportunities and constraints.', 'sources. This work also includes a consideration of  who UNHCR should work with, such as innovators, \nstandard and policy se tting bodies, other humanitarian organiz ation s, development organiz ation s, \ngovernments and persons  of concern.  \n1.3.5 Revamping  UNHCR’s results -based management approach  \n22. At the time of t his evaluation, UNHCR’s corporate results -based management (RBM) tool is called \nFOCUS . This system primarily reports on outputs , and UNHCR recognised that there is a need for \nmore outcome -focused monitoring leadi ng to longer -term impact. UNHCR is in the process of \ndesigning  a new RBM tool that will transform  how the organization  reports on its programming , \nadvocacy and coordination efforts .  \n1.4 UNHCR’s  evolving contextual landscape  \n23. UNHCR operates in a constantly changing environment. The growth of personal access to \ninformation , increased levels of displacement  globally, and limited availability of funds create the need', 'program  implementation, case management, m onitoring and evaluation, collected and/or collated by \nUNHCR and/or implementing partners.   \n\uf0b7 This evaluation examines UNHCR’s practice around data, including data collated/collected by \noperational partners when the data and information requirements are dete rmined by UNHCR. Broader \ndata and IM practices by UNHCR as a lead agency in the Global Clusters are outside the scope of this \nevaluation and would entail a joint inter -agency evaluation with the unit of analysis being the Global \nCluster model whilst the fo cus of this evaluation is on UNHCR.     \n4.2 Key Evaluation Questions (KEQs)   \n17. The evaluation will address the following headline questions. The analysis needed to answer them is likely \nto touch on other possible sub -questions and may be further refined d uring the evaluation inception phase.  \n  \nKEQ 1 : Based on four case studies of UNHCR country/regional operations, how are operational data and']</t>
+  </si>
+  <si>
+    <t>['12 UNHCR Programme Ma nual, Chapter 4 (June 2017), p.250.   \n13 Accountability  – through assessing and reporting on implementation and results, and requesting management to formally respond to \nthe evaluation. Learning  – Describing as well as explaining results is necessary to gen erate insights and pointers for learning to improve \nfuture strategies – and if possible – in other contexts where UNHCR operations face similar opportunities and constraints.', '9 UNHCR  \n Recommendat ions \n \nIn the context of UNHCR’s current data and information systems, the internal and external changes it is facing, \nand the needs required to act as a lea der on protection and solutions , the evaluation offers the following \nrecommendations , with additiona l detail and sub -recommendations in the main body of the report : \n \nRecommended actions  Responsible  Anticipated \ntimeframe  \nThe evaluation emphasizes that an organization -wide prioritization \nwould be essential to transform data within UNHCR to the asset that it \ncan be.  \n \nThe evaluation recommends that UNHCR develop a data transformation \nstrategy and roadmap, with key elements such as enforcing data norms \nand standards throughout the organization, cultivating strong data \nleadership, developing systems to integra te and pull data together, \ncreating a data -first culture, and building capacities and confidence \naround statistics and evidence on persons of concern.  \n SET*  Complete by Q4', 'resourcing?  \n \n4.3 Approach and methodology   \n18. This is a theory -based, retrospective evaluation to understand UNHCR’s current practices around data and \nIM in country operations and RRP situations in order to generate recommendati ons to improve how the \norgani zation collates, collects, cleans, stores, manages, analyses, disseminates, uses and coordinates data \nand information in order to better position UNHCR to carry out its mandate of international protection, \nhumanitarian assistan ce and permanent solutions for persons of concern.   \n19. The methodology should be two -pronged:  1) Utilize  a case -based evaluation approach to yield rich detail in \nthe 4 selected case studies as well as RRP situations; and 2) Situational analysis of changes in the external \nenvironment and internally within UNHCR followed by a landscape mapping of how other UN agencies, \nsimilar organi zation and thought leaders in humanitarian/development sectors are positioning their data and', 'country  operations to maintain a longer -term focus on achieving solutions, while ensuring that  \nimmediate needs are addressed, the rights of all people of concern protected and host  communities \nsupported. MYMP , in concert with the development of the new RBM system,  will catalyse a shift away \nfrom output -based performance monitoring to one focused on outcomes. As such, the data and \ninformation needed to monitor and assess progress will need to shift as well.  \n \n29. UNHCR’s curr ent needs, continued organiz ation al evolution and external pressures underscore the \nvalue  and criticality of the data and information UNHCR produces, curates and shares. Going forward, \nthe findings of this evaluation offer insight into where and how UNHCR might make future investments \nin this area.']</t>
+  </si>
+  <si>
+    <t>['40 UNHCR  \n   \nThis KEQ will also seek to answer the following sub-questions:  \n\uf0b7 What key steps have other UN agencies, similar organi zations and thought leaders in data and IM \ntaken that are applicable to UNHCR’s work?  \n\uf0b7 What actions should be prioritized based on the evaluation findings of the primary challenges and \nconstraints that UNHCR operations experience during the process of data collation/collection, cleaning, \nanalysis, storage and management that hinder evidence -informed decision -making?  \n\uf0b7 What should UNHCR do to address issues concerning data access, synthesis and dissemination \nacross various data systems at the country, regional and HQ offices?   \n\uf0b7 Which actions can be implemented more rapidly and which actions require  a higher level of effort and \nresourcing?  \n \n4.3 Approach and methodology   \n18. This is a theory -based, retrospective evaluation to understand UNHCR’s current practices around data and', 'sources. This work also includes a consideration of  who UNHCR should work with, such as innovators, \nstandard and policy se tting bodies, other humanitarian organiz ation s, development organiz ation s, \ngovernments and persons  of concern.  \n1.3.5 Revamping  UNHCR’s results -based management approach  \n22. At the time of t his evaluation, UNHCR’s corporate results -based management (RBM) tool is called \nFOCUS . This system primarily reports on outputs , and UNHCR recognised that there is a need for \nmore outcome -focused monitoring leadi ng to longer -term impact. UNHCR is in the process of \ndesigning  a new RBM tool that will transform  how the organization  reports on its programming , \nadvocacy and coordination efforts .  \n1.4 UNHCR’s  evolving contextual landscape  \n23. UNHCR operates in a constantly changing environment. The growth of personal access to \ninformation , increased levels of displacement  globally, and limited availability of funds create the need', 'role does the country/regional IMO(s) have and what role is also played by other stakeholders \nspecifically at the sector level?    \n\uf0b7 After data and information need s have been identified at the operational level, how are data \ncollated/collected, cleaned, analyzed , stored and managed at different points in the OMC and what is \nthe associated level of burden to carry out such activities?   \n\uf0b7 How do country/regional operati ons consider feedback from and effective communication with persons \nof concern in operational data systems?  \n\uf0b7 To what extent are there gaps and/or inefficiencies in country/regional operations’ practice around data \nand IM (i.e. data systems, collation/colle ction processes, storage, management, data analysis and use, \nstaff capacities and functions, financial resources, etc.)?    \n\uf0b7 What are the primary challenges and constraints that UNHCR operations experience during the process', '12 UNHCR Programme Ma nual, Chapter 4 (June 2017), p.250.   \n13 Accountability  – through assessing and reporting on implementation and results, and requesting management to formally respond to \nthe evaluation. Learning  – Describing as well as explaining results is necessary to gen erate insights and pointers for learning to improve \nfuture strategies – and if possible – in other contexts where UNHCR operations face similar opportunities and constraints.']</t>
+  </si>
+  <si>
+    <t>['sources. This work also includes a consideration of  who UNHCR should work with, such as innovators, \nstandard and policy se tting bodies, other humanitarian organiz ation s, development organiz ation s, \ngovernments and persons  of concern.  \n1.3.5 Revamping  UNHCR’s results -based management approach  \n22. At the time of t his evaluation, UNHCR’s corporate results -based management (RBM) tool is called \nFOCUS . This system primarily reports on outputs , and UNHCR recognised that there is a need for \nmore outcome -focused monitoring leadi ng to longer -term impact. UNHCR is in the process of \ndesigning  a new RBM tool that will transform  how the organization  reports on its programming , \nadvocacy and coordination efforts .  \n1.4 UNHCR’s  evolving contextual landscape  \n23. UNHCR operates in a constantly changing environment. The growth of personal access to \ninformation , increased levels of displacement  globally, and limited availability of funds create the need', 'role does the country/regional IMO(s) have and what role is also played by other stakeholders \nspecifically at the sector level?    \n\uf0b7 After data and information need s have been identified at the operational level, how are data \ncollated/collected, cleaned, analyzed , stored and managed at different points in the OMC and what is \nthe associated level of burden to carry out such activities?   \n\uf0b7 How do country/regional operati ons consider feedback from and effective communication with persons \nof concern in operational data systems?  \n\uf0b7 To what extent are there gaps and/or inefficiencies in country/regional operations’ practice around data \nand IM (i.e. data systems, collation/colle ction processes, storage, management, data analysis and use, \nstaff capacities and functions, financial resources, etc.)?    \n\uf0b7 What are the primary challenges and constraints that UNHCR operations experience during the process', '12 UNHCR Programme Ma nual, Chapter 4 (June 2017), p.250.   \n13 Accountability  – through assessing and reporting on implementation and results, and requesting management to formally respond to \nthe evaluation. Learning  – Describing as well as explaining results is necessary to gen erate insights and pointers for learning to improve \nfuture strategies – and if possible – in other contexts where UNHCR operations face similar opportunities and constraints.', '9 UNHCR  \n Recommendat ions \n \nIn the context of UNHCR’s current data and information systems, the internal and external changes it is facing, \nand the needs required to act as a lea der on protection and solutions , the evaluation offers the following \nrecommendations , with additiona l detail and sub -recommendations in the main body of the report : \n \nRecommended actions  Responsible  Anticipated \ntimeframe  \nThe evaluation emphasizes that an organization -wide prioritization \nwould be essential to transform data within UNHCR to the asset that it \ncan be.  \n \nThe evaluation recommends that UNHCR develop a data transformation \nstrategy and roadmap, with key elements such as enforcing data norms \nand standards throughout the organization, cultivating strong data \nleadership, developing systems to integra te and pull data together, \ncreating a data -first culture, and building capacities and confidence \naround statistics and evidence on persons of concern.  \n SET*  Complete by Q4']</t>
+  </si>
+  <si>
+    <t>['40 UNHCR  \n   \nThis KEQ will also seek to answer the following sub-questions:  \n\uf0b7 What key steps have other UN agencies, similar organi zations and thought leaders in data and IM \ntaken that are applicable to UNHCR’s work?  \n\uf0b7 What actions should be prioritized based on the evaluation findings of the primary challenges and \nconstraints that UNHCR operations experience during the process of data collation/collection, cleaning, \nanalysis, storage and management that hinder evidence -informed decision -making?  \n\uf0b7 What should UNHCR do to address issues concerning data access, synthesis and dissemination \nacross various data systems at the country, regional and HQ offices?   \n\uf0b7 Which actions can be implemented more rapidly and which actions require  a higher level of effort and \nresourcing?  \n \n4.3 Approach and methodology   \n18. This is a theory -based, retrospective evaluation to understand UNHCR’s current practices around data and', 'sources. This work also includes a consideration of  who UNHCR should work with, such as innovators, \nstandard and policy se tting bodies, other humanitarian organiz ation s, development organiz ation s, \ngovernments and persons  of concern.  \n1.3.5 Revamping  UNHCR’s results -based management approach  \n22. At the time of t his evaluation, UNHCR’s corporate results -based management (RBM) tool is called \nFOCUS . This system primarily reports on outputs , and UNHCR recognised that there is a need for \nmore outcome -focused monitoring leadi ng to longer -term impact. UNHCR is in the process of \ndesigning  a new RBM tool that will transform  how the organization  reports on its programming , \nadvocacy and coordination efforts .  \n1.4 UNHCR’s  evolving contextual landscape  \n23. UNHCR operates in a constantly changing environment. The growth of personal access to \ninformation , increased levels of displacement  globally, and limited availability of funds create the need', '12 UNHCR Programme Ma nual, Chapter 4 (June 2017), p.250.   \n13 Accountability  – through assessing and reporting on implementation and results, and requesting management to formally respond to \nthe evaluation. Learning  – Describing as well as explaining results is necessary to gen erate insights and pointers for learning to improve \nfuture strategies – and if possible – in other contexts where UNHCR operations face similar opportunities and constraints.', 'and international agencies and national institutions.4 \n \n26. Another  factor that has implications for UNHCR’s data needs is the growing scope and complexity \naround persons of concern. While camps remain a key feature in UNHCR’s response, persons of \nconcern are increasingly finding refuge in urban areas where social networks  often exist , or greater \neducation and economic opportunities  are available . This change mean s that UNHCR may find itself \nconfronted with programming for persons of concern  in a more complex social and economic \nenvironment with both greater opportunities and risks.  When considering the implications for \nUNHCR’s data needs, this again points to much wider and deeper partnering – with local authorities \nand service providers – and inc reased sophistication around new ways of determining the needs of \npersons of concern and activities (e.g. the “big data” of social media).  \n \n1.4.2 Transformations underway  within UNHCR']</t>
+  </si>
+  <si>
+    <t>['12 UNHCR Programme Ma nual, Chapter 4 (June 2017), p.250.   \n13 Accountability  – through assessing and reporting on implementation and results, and requesting management to formally respond to \nthe evaluation. Learning  – Describing as well as explaining results is necessary to gen erate insights and pointers for learning to improve \nfuture strategies – and if possible – in other contexts where UNHCR operations face similar opportunities and constraints.', 'sources. This work also includes a consideration of  who UNHCR should work with, such as innovators, \nstandard and policy se tting bodies, other humanitarian organiz ation s, development organiz ation s, \ngovernments and persons  of concern.  \n1.3.5 Revamping  UNHCR’s results -based management approach  \n22. At the time of t his evaluation, UNHCR’s corporate results -based management (RBM) tool is called \nFOCUS . This system primarily reports on outputs , and UNHCR recognised that there is a need for \nmore outcome -focused monitoring leadi ng to longer -term impact. UNHCR is in the process of \ndesigning  a new RBM tool that will transform  how the organization  reports on its programming , \nadvocacy and coordination efforts .  \n1.4 UNHCR’s  evolving contextual landscape  \n23. UNHCR operates in a constantly changing environment. The growth of personal access to \ninformation , increased levels of displacement  globally, and limited availability of funds create the need', '9 UNHCR  \n Recommendat ions \n \nIn the context of UNHCR’s current data and information systems, the internal and external changes it is facing, \nand the needs required to act as a lea der on protection and solutions , the evaluation offers the following \nrecommendations , with additiona l detail and sub -recommendations in the main body of the report : \n \nRecommended actions  Responsible  Anticipated \ntimeframe  \nThe evaluation emphasizes that an organization -wide prioritization \nwould be essential to transform data within UNHCR to the asset that it \ncan be.  \n \nThe evaluation recommends that UNHCR develop a data transformation \nstrategy and roadmap, with key elements such as enforcing data norms \nand standards throughout the organization, cultivating strong data \nleadership, developing systems to integra te and pull data together, \ncreating a data -first culture, and building capacities and confidence \naround statistics and evidence on persons of concern.  \n SET*  Complete by Q4', 'role does the country/regional IMO(s) have and what role is also played by other stakeholders \nspecifically at the sector level?    \n\uf0b7 After data and information need s have been identified at the operational level, how are data \ncollated/collected, cleaned, analyzed , stored and managed at different points in the OMC and what is \nthe associated level of burden to carry out such activities?   \n\uf0b7 How do country/regional operati ons consider feedback from and effective communication with persons \nof concern in operational data systems?  \n\uf0b7 To what extent are there gaps and/or inefficiencies in country/regional operations’ practice around data \nand IM (i.e. data systems, collation/colle ction processes, storage, management, data analysis and use, \nstaff capacities and functions, financial resources, etc.)?    \n\uf0b7 What are the primary challenges and constraints that UNHCR operations experience during the process']</t>
+  </si>
+  <si>
+    <t>['9 UNHCR  \n Recommendat ions \n \nIn the context of UNHCR’s current data and information systems, the internal and external changes it is facing, \nand the needs required to act as a lea der on protection and solutions , the evaluation offers the following \nrecommendations , with additiona l detail and sub -recommendations in the main body of the report : \n \nRecommended actions  Responsible  Anticipated \ntimeframe  \nThe evaluation emphasizes that an organization -wide prioritization \nwould be essential to transform data within UNHCR to the asset that it \ncan be.  \n \nThe evaluation recommends that UNHCR develop a data transformation \nstrategy and roadmap, with key elements such as enforcing data norms \nand standards throughout the organization, cultivating strong data \nleadership, developing systems to integra te and pull data together, \ncreating a data -first culture, and building capacities and confidence \naround statistics and evidence on persons of concern.  \n SET*  Complete by Q4', 'sources. This work also includes a consideration of  who UNHCR should work with, such as innovators, \nstandard and policy se tting bodies, other humanitarian organiz ation s, development organiz ation s, \ngovernments and persons  of concern.  \n1.3.5 Revamping  UNHCR’s results -based management approach  \n22. At the time of t his evaluation, UNHCR’s corporate results -based management (RBM) tool is called \nFOCUS . This system primarily reports on outputs , and UNHCR recognised that there is a need for \nmore outcome -focused monitoring leadi ng to longer -term impact. UNHCR is in the process of \ndesigning  a new RBM tool that will transform  how the organization  reports on its programming , \nadvocacy and coordination efforts .  \n1.4 UNHCR’s  evolving contextual landscape  \n23. UNHCR operates in a constantly changing environment. The growth of personal access to \ninformation , increased levels of displacement  globally, and limited availability of funds create the need', 'role does the country/regional IMO(s) have and what role is also played by other stakeholders \nspecifically at the sector level?    \n\uf0b7 After data and information need s have been identified at the operational level, how are data \ncollated/collected, cleaned, analyzed , stored and managed at different points in the OMC and what is \nthe associated level of burden to carry out such activities?   \n\uf0b7 How do country/regional operati ons consider feedback from and effective communication with persons \nof concern in operational data systems?  \n\uf0b7 To what extent are there gaps and/or inefficiencies in country/regional operations’ practice around data \nand IM (i.e. data systems, collation/colle ction processes, storage, management, data analysis and use, \nstaff capacities and functions, financial resources, etc.)?    \n\uf0b7 What are the primary challenges and constraints that UNHCR operations experience during the process', '12 UNHCR Programme Ma nual, Chapter 4 (June 2017), p.250.   \n13 Accountability  – through assessing and reporting on implementation and results, and requesting management to formally respond to \nthe evaluation. Learning  – Describing as well as explaining results is necessary to gen erate insights and pointers for learning to improve \nfuture strategies – and if possible – in other contexts where UNHCR operations face similar opportunities and constraints.']</t>
+  </si>
+  <si>
+    <t>['study on returnees to Syria had 70+ dedicated researchers while UNHCR had 5 staff who provided \ncomments on top of their existing workloads. In interviews with UNHCR country office staff, the ge neral \nconsensus was that the culture is geared towards “doing”  with very little time or routine to take a step \nback and look at what  is working , or trends based on deeper analysis of different types of data from \nprotection and programme. Analys es such as t his help drive the discourse on forced displacement \nresponse among policy and decision  makers. Box 2 provides an example of an emerg ing good \npractice in the Syria regional refugee r esponse.   \n4.7 Access to data for  persons of concern  could be improved  \n75. UNHC R commits to inclu ding the perceptions, needs \nand experiences of  persons of concern in all aspects \nof its operations. Nonetheless , the evaluation team \nobserved gaps in the fulfilment of this commitment , \nspecifically in sharing information back to persons o f', 'resourcing?  \n \n4.3 Approach and methodology   \n18. This is a theory -based, retrospective evaluation to understand UNHCR’s current practices around data and \nIM in country operations and RRP situations in order to generate recommendati ons to improve how the \norgani zation collates, collects, cleans, stores, manages, analyses, disseminates, uses and coordinates data \nand information in order to better position UNHCR to carry out its mandate of international protection, \nhumanitarian assistan ce and permanent solutions for persons of concern.   \n19. The methodology should be two -pronged:  1) Utilize  a case -based evaluation approach to yield rich detail in \nthe 4 selected case studies as well as RRP situations; and 2) Situational analysis of changes in the external \nenvironment and internally within UNHCR followed by a landscape mapping of how other UN agencies, \nsimilar organi zation and thought leaders in humanitarian/development sectors are positioning their data and', '12 UNHCR Programme Ma nual, Chapter 4 (June 2017), p.250.   \n13 Accountability  – through assessing and reporting on implementation and results, and requesting management to formally respond to \nthe evaluation. Learning  – Describing as well as explaining results is necessary to gen erate insights and pointers for learning to improve \nfuture strategies – and if possible – in other contexts where UNHCR operations face similar opportunities and constraints.', '9 UNHCR  \n Recommendat ions \n \nIn the context of UNHCR’s current data and information systems, the internal and external changes it is facing, \nand the needs required to act as a lea der on protection and solutions , the evaluation offers the following \nrecommendations , with additiona l detail and sub -recommendations in the main body of the report : \n \nRecommended actions  Responsible  Anticipated \ntimeframe  \nThe evaluation emphasizes that an organization -wide prioritization \nwould be essential to transform data within UNHCR to the asset that it \ncan be.  \n \nThe evaluation recommends that UNHCR develop a data transformation \nstrategy and roadmap, with key elements such as enforcing data norms \nand standards throughout the organization, cultivating strong data \nleadership, developing systems to integra te and pull data together, \ncreating a data -first culture, and building capacities and confidence \naround statistics and evidence on persons of concern.  \n SET*  Complete by Q4']</t>
+  </si>
+  <si>
+    <t>['study on returnees to Syria had 70+ dedicated researchers while UNHCR had 5 staff who provided \ncomments on top of their existing workloads. In interviews with UNHCR country office staff, the ge neral \nconsensus was that the culture is geared towards “doing”  with very little time or routine to take a step \nback and look at what  is working , or trends based on deeper analysis of different types of data from \nprotection and programme. Analys es such as t his help drive the discourse on forced displacement \nresponse among policy and decision  makers. Box 2 provides an example of an emerg ing good \npractice in the Syria regional refugee r esponse.   \n4.7 Access to data for  persons of concern  could be improved  \n75. UNHC R commits to inclu ding the perceptions, needs \nand experiences of  persons of concern in all aspects \nof its operations. Nonetheless , the evaluation team \nobserved gaps in the fulfilment of this commitment , \nspecifically in sharing information back to persons o f', '12 UNHCR Programme Ma nual, Chapter 4 (June 2017), p.250.   \n13 Accountability  – through assessing and reporting on implementation and results, and requesting management to formally respond to \nthe evaluation. Learning  – Describing as well as explaining results is necessary to gen erate insights and pointers for learning to improve \nfuture strategies – and if possible – in other contexts where UNHCR operations face similar opportunities and constraints.', '23. UNHCR operates in a constantly changing environment. The growth of personal access to \ninformation , increased levels of displacement  globally, and limited availability of funds create the need \nfor UNHCR to adapt its data practices . In addition to these broader issues, UNHCR is confrontin g a \nnumber of specific external and internal changes that will have a profound effect on its data and \ninformation needs.  \n1.4.1 The global context that UNHCR operates in  \n24. The New York Declaratio n for Refugees and Migrants of September 2016 , whereby the UN G eneral \nAssembly adopted a set of commitments to enhance the protection of refugees and migrants, also \ncalled upon UNHCR to develop and intiate the Comprehensive Refugee Response Framework  \n(CRRF) .3 The CRR F recogniz es that sustainable assistance and durable  solution s for refugee s cannot \nbe achieved without international cooperation . The CRRF  seeks to achieve four objectives: 1) to ease', '9 UNHCR  \n Recommendat ions \n \nIn the context of UNHCR’s current data and information systems, the internal and external changes it is facing, \nand the needs required to act as a lea der on protection and solutions , the evaluation offers the following \nrecommendations , with additiona l detail and sub -recommendations in the main body of the report : \n \nRecommended actions  Responsible  Anticipated \ntimeframe  \nThe evaluation emphasizes that an organization -wide prioritization \nwould be essential to transform data within UNHCR to the asset that it \ncan be.  \n \nThe evaluation recommends that UNHCR develop a data transformation \nstrategy and roadmap, with key elements such as enforcing data norms \nand standards throughout the organization, cultivating strong data \nleadership, developing systems to integra te and pull data together, \ncreating a data -first culture, and building capacities and confidence \naround statistics and evidence on persons of concern.  \n SET*  Complete by Q4']</t>
+  </si>
+  <si>
+    <t>['study on returnees to Syria had 70+ dedicated researchers while UNHCR had 5 staff who provided \ncomments on top of their existing workloads. In interviews with UNHCR country office staff, the ge neral \nconsensus was that the culture is geared towards “doing”  with very little time or routine to take a step \nback and look at what  is working , or trends based on deeper analysis of different types of data from \nprotection and programme. Analys es such as t his help drive the discourse on forced displacement \nresponse among policy and decision  makers. Box 2 provides an example of an emerg ing good \npractice in the Syria regional refugee r esponse.   \n4.7 Access to data for  persons of concern  could be improved  \n75. UNHC R commits to inclu ding the perceptions, needs \nand experiences of  persons of concern in all aspects \nof its operations. Nonetheless , the evaluation team \nobserved gaps in the fulfilment of this commitment , \nspecifically in sharing information back to persons o f', '9 UNHCR  \n Recommendat ions \n \nIn the context of UNHCR’s current data and information systems, the internal and external changes it is facing, \nand the needs required to act as a lea der on protection and solutions , the evaluation offers the following \nrecommendations , with additiona l detail and sub -recommendations in the main body of the report : \n \nRecommended actions  Responsible  Anticipated \ntimeframe  \nThe evaluation emphasizes that an organization -wide prioritization \nwould be essential to transform data within UNHCR to the asset that it \ncan be.  \n \nThe evaluation recommends that UNHCR develop a data transformation \nstrategy and roadmap, with key elements such as enforcing data norms \nand standards throughout the organization, cultivating strong data \nleadership, developing systems to integra te and pull data together, \ncreating a data -first culture, and building capacities and confidence \naround statistics and evidence on persons of concern.  \n SET*  Complete by Q4', '12 UNHCR Programme Ma nual, Chapter 4 (June 2017), p.250.   \n13 Accountability  – through assessing and reporting on implementation and results, and requesting management to formally respond to \nthe evaluation. Learning  – Describing as well as explaining results is necessary to gen erate insights and pointers for learning to improve \nfuture strategies – and if possible – in other contexts where UNHCR operations face similar opportunities and constraints.', '23. UNHCR operates in a constantly changing environment. The growth of personal access to \ninformation , increased levels of displacement  globally, and limited availability of funds create the need \nfor UNHCR to adapt its data practices . In addition to these broader issues, UNHCR is confrontin g a \nnumber of specific external and internal changes that will have a profound effect on its data and \ninformation needs.  \n1.4.1 The global context that UNHCR operates in  \n24. The New York Declaratio n for Refugees and Migrants of September 2016 , whereby the UN G eneral \nAssembly adopted a set of commitments to enhance the protection of refugees and migrants, also \ncalled upon UNHCR to develop and intiate the Comprehensive Refugee Response Framework  \n(CRRF) .3 The CRR F recogniz es that sustainable assistance and durable  solution s for refugee s cannot \nbe achieved without international cooperation . The CRRF  seeks to achieve four objectives: 1) to ease']</t>
+  </si>
+  <si>
+    <t>['study on returnees to Syria had 70+ dedicated researchers while UNHCR had 5 staff who provided \ncomments on top of their existing workloads. In interviews with UNHCR country office staff, the ge neral \nconsensus was that the culture is geared towards “doing”  with very little time or routine to take a step \nback and look at what  is working , or trends based on deeper analysis of different types of data from \nprotection and programme. Analys es such as t his help drive the discourse on forced displacement \nresponse among policy and decision  makers. Box 2 provides an example of an emerg ing good \npractice in the Syria regional refugee r esponse.   \n4.7 Access to data for  persons of concern  could be improved  \n75. UNHC R commits to inclu ding the perceptions, needs \nand experiences of  persons of concern in all aspects \nof its operations. Nonetheless , the evaluation team \nobserved gaps in the fulfilment of this commitment , \nspecifically in sharing information back to persons o f', '12 UNHCR Programme Ma nual, Chapter 4 (June 2017), p.250.   \n13 Accountability  – through assessing and reporting on implementation and results, and requesting management to formally respond to \nthe evaluation. Learning  – Describing as well as explaining results is necessary to gen erate insights and pointers for learning to improve \nfuture strategies – and if possible – in other contexts where UNHCR operations face similar opportunities and constraints.', 'resourcing?  \n \n4.3 Approach and methodology   \n18. This is a theory -based, retrospective evaluation to understand UNHCR’s current practices around data and \nIM in country operations and RRP situations in order to generate recommendati ons to improve how the \norgani zation collates, collects, cleans, stores, manages, analyses, disseminates, uses and coordinates data \nand information in order to better position UNHCR to carry out its mandate of international protection, \nhumanitarian assistan ce and permanent solutions for persons of concern.   \n19. The methodology should be two -pronged:  1) Utilize  a case -based evaluation approach to yield rich detail in \nthe 4 selected case studies as well as RRP situations; and 2) Situational analysis of changes in the external \nenvironment and internally within UNHCR followed by a landscape mapping of how other UN agencies, \nsimilar organi zation and thought leaders in humanitarian/development sectors are positioning their data and', '9 UNHCR  \n Recommendat ions \n \nIn the context of UNHCR’s current data and information systems, the internal and external changes it is facing, \nand the needs required to act as a lea der on protection and solutions , the evaluation offers the following \nrecommendations , with additiona l detail and sub -recommendations in the main body of the report : \n \nRecommended actions  Responsible  Anticipated \ntimeframe  \nThe evaluation emphasizes that an organization -wide prioritization \nwould be essential to transform data within UNHCR to the asset that it \ncan be.  \n \nThe evaluation recommends that UNHCR develop a data transformation \nstrategy and roadmap, with key elements such as enforcing data norms \nand standards throughout the organization, cultivating strong data \nleadership, developing systems to integra te and pull data together, \ncreating a data -first culture, and building capacities and confidence \naround statistics and evidence on persons of concern.  \n SET*  Complete by Q4']</t>
+  </si>
+  <si>
+    <t>['study on returnees to Syria had 70+ dedicated researchers while UNHCR had 5 staff who provided \ncomments on top of their existing workloads. In interviews with UNHCR country office staff, the ge neral \nconsensus was that the culture is geared towards “doing”  with very little time or routine to take a step \nback and look at what  is working , or trends based on deeper analysis of different types of data from \nprotection and programme. Analys es such as t his help drive the discourse on forced displacement \nresponse among policy and decision  makers. Box 2 provides an example of an emerg ing good \npractice in the Syria regional refugee r esponse.   \n4.7 Access to data for  persons of concern  could be improved  \n75. UNHC R commits to inclu ding the perceptions, needs \nand experiences of  persons of concern in all aspects \nof its operations. Nonetheless , the evaluation team \nobserved gaps in the fulfilment of this commitment , \nspecifically in sharing information back to persons o f', '9 UNHCR  \n Recommendat ions \n \nIn the context of UNHCR’s current data and information systems, the internal and external changes it is facing, \nand the needs required to act as a lea der on protection and solutions , the evaluation offers the following \nrecommendations , with additiona l detail and sub -recommendations in the main body of the report : \n \nRecommended actions  Responsible  Anticipated \ntimeframe  \nThe evaluation emphasizes that an organization -wide prioritization \nwould be essential to transform data within UNHCR to the asset that it \ncan be.  \n \nThe evaluation recommends that UNHCR develop a data transformation \nstrategy and roadmap, with key elements such as enforcing data norms \nand standards throughout the organization, cultivating strong data \nleadership, developing systems to integra te and pull data together, \ncreating a data -first culture, and building capacities and confidence \naround statistics and evidence on persons of concern.  \n SET*  Complete by Q4', '12 UNHCR Programme Ma nual, Chapter 4 (June 2017), p.250.   \n13 Accountability  – through assessing and reporting on implementation and results, and requesting management to formally respond to \nthe evaluation. Learning  – Describing as well as explaining results is necessary to gen erate insights and pointers for learning to improve \nfuture strategies – and if possible – in other contexts where UNHCR operations face similar opportunities and constraints.', 'Director’s Office in Amman plus the Jordan and Lebanon Country Offices for their support i n facilitating the \nevaluation process, and for their constructive feedback on earlier versions of this report. We are also grateful to \npartner agencies and implementing partners for their insights and participation in the evaluation process.  \n \n \n \n \n \n \n \n \n \n \n \n \n \nCommissioned by UNHCR Evaluation Service  \n  \nEvaluation Quality Assurance provided by UNHCR Evaluation Service  \n  Evaluation in formation at a glance  \nTitle of the evaluation:  Evaluation of UNHCR’s data use and information management approaches  \nTimeframe covered:  2017 – March 2019  \nExpected duration:  August 2018 – April 2019  \nType of evaluation:  Centralized  evaluation (theory -base d) \nCountries covered:  Syria regional refugee response  via Jordan and Lebanon, Pakistan, Zambia  \nEvaluation manager / \ncontact in UNHCR:  Christine Fu - fu@unhcr.org   \nSupport staff:  Selam Araya Soum - soum@unhcr.org']</t>
+  </si>
+  <si>
+    <t>['40 UNHCR  \n   \nThis KEQ will also seek to answer the following sub-questions:  \n\uf0b7 What key steps have other UN agencies, similar organi zations and thought leaders in data and IM \ntaken that are applicable to UNHCR’s work?  \n\uf0b7 What actions should be prioritized based on the evaluation findings of the primary challenges and \nconstraints that UNHCR operations experience during the process of data collation/collection, cleaning, \nanalysis, storage and management that hinder evidence -informed decision -making?  \n\uf0b7 What should UNHCR do to address issues concerning data access, synthesis and dissemination \nacross various data systems at the country, regional and HQ offices?   \n\uf0b7 Which actions can be implemented more rapidly and which actions require  a higher level of effort and \nresourcing?  \n \n4.3 Approach and methodology   \n18. This is a theory -based, retrospective evaluation to understand UNHCR’s current practices around data and', '12 UNHCR Programme Ma nual, Chapter 4 (June 2017), p.250.   \n13 Accountability  – through assessing and reporting on implementation and results, and requesting management to formally respond to \nthe evaluation. Learning  – Describing as well as explaining results is necessary to gen erate insights and pointers for learning to improve \nfuture strategies – and if possible – in other contexts where UNHCR operations face similar opportunities and constraints.', 'study on returnees to Syria had 70+ dedicated researchers while UNHCR had 5 staff who provided \ncomments on top of their existing workloads. In interviews with UNHCR country office staff, the ge neral \nconsensus was that the culture is geared towards “doing”  with very little time or routine to take a step \nback and look at what  is working , or trends based on deeper analysis of different types of data from \nprotection and programme. Analys es such as t his help drive the discourse on forced displacement \nresponse among policy and decision  makers. Box 2 provides an example of an emerg ing good \npractice in the Syria regional refugee r esponse.   \n4.7 Access to data for  persons of concern  could be improved  \n75. UNHC R commits to inclu ding the perceptions, needs \nand experiences of  persons of concern in all aspects \nof its operations. Nonetheless , the evaluation team \nobserved gaps in the fulfilment of this commitment , \nspecifically in sharing information back to persons o f', 'country  operations to maintain a longer -term focus on achieving solutions, while ensuring that  \nimmediate needs are addressed, the rights of all people of concern protected and host  communities \nsupported. MYMP , in concert with the development of the new RBM system,  will catalyse a shift away \nfrom output -based performance monitoring to one focused on outcomes. As such, the data and \ninformation needed to monitor and assess progress will need to shift as well.  \n \n29. UNHCR’s curr ent needs, continued organiz ation al evolution and external pressures underscore the \nvalue  and criticality of the data and information UNHCR produces, curates and shares. Going forward, \nthe findings of this evaluation offer insight into where and how UNHCR might make future investments \nin this area.']</t>
+  </si>
+  <si>
+    <t>['40 UNHCR  \n   \nThis KEQ will also seek to answer the following sub-questions:  \n\uf0b7 What key steps have other UN agencies, similar organi zations and thought leaders in data and IM \ntaken that are applicable to UNHCR’s work?  \n\uf0b7 What actions should be prioritized based on the evaluation findings of the primary challenges and \nconstraints that UNHCR operations experience during the process of data collation/collection, cleaning, \nanalysis, storage and management that hinder evidence -informed decision -making?  \n\uf0b7 What should UNHCR do to address issues concerning data access, synthesis and dissemination \nacross various data systems at the country, regional and HQ offices?   \n\uf0b7 Which actions can be implemented more rapidly and which actions require  a higher level of effort and \nresourcing?  \n \n4.3 Approach and methodology   \n18. This is a theory -based, retrospective evaluation to understand UNHCR’s current practices around data and', '12 UNHCR Programme Ma nual, Chapter 4 (June 2017), p.250.   \n13 Accountability  – through assessing and reporting on implementation and results, and requesting management to formally respond to \nthe evaluation. Learning  – Describing as well as explaining results is necessary to gen erate insights and pointers for learning to improve \nfuture strategies – and if possible – in other contexts where UNHCR operations face similar opportunities and constraints.', '9 UNHCR  \n Recommendat ions \n \nIn the context of UNHCR’s current data and information systems, the internal and external changes it is facing, \nand the needs required to act as a lea der on protection and solutions , the evaluation offers the following \nrecommendations , with additiona l detail and sub -recommendations in the main body of the report : \n \nRecommended actions  Responsible  Anticipated \ntimeframe  \nThe evaluation emphasizes that an organization -wide prioritization \nwould be essential to transform data within UNHCR to the asset that it \ncan be.  \n \nThe evaluation recommends that UNHCR develop a data transformation \nstrategy and roadmap, with key elements such as enforcing data norms \nand standards throughout the organization, cultivating strong data \nleadership, developing systems to integra te and pull data together, \ncreating a data -first culture, and building capacities and confidence \naround statistics and evidence on persons of concern.  \n SET*  Complete by Q4', 'study on returnees to Syria had 70+ dedicated researchers while UNHCR had 5 staff who provided \ncomments on top of their existing workloads. In interviews with UNHCR country office staff, the ge neral \nconsensus was that the culture is geared towards “doing”  with very little time or routine to take a step \nback and look at what  is working , or trends based on deeper analysis of different types of data from \nprotection and programme. Analys es such as t his help drive the discourse on forced displacement \nresponse among policy and decision  makers. Box 2 provides an example of an emerg ing good \npractice in the Syria regional refugee r esponse.   \n4.7 Access to data for  persons of concern  could be improved  \n75. UNHC R commits to inclu ding the perceptions, needs \nand experiences of  persons of concern in all aspects \nof its operations. Nonetheless , the evaluation team \nobserved gaps in the fulfilment of this commitment , \nspecifically in sharing information back to persons o f']</t>
+  </si>
+  <si>
+    <t>['12 UNHCR Programme Ma nual, Chapter 4 (June 2017), p.250.   \n13 Accountability  – through assessing and reporting on implementation and results, and requesting management to formally respond to \nthe evaluation. Learning  – Describing as well as explaining results is necessary to gen erate insights and pointers for learning to improve \nfuture strategies – and if possible – in other contexts where UNHCR operations face similar opportunities and constraints.', '9 UNHCR  \n Recommendat ions \n \nIn the context of UNHCR’s current data and information systems, the internal and external changes it is facing, \nand the needs required to act as a lea der on protection and solutions , the evaluation offers the following \nrecommendations , with additiona l detail and sub -recommendations in the main body of the report : \n \nRecommended actions  Responsible  Anticipated \ntimeframe  \nThe evaluation emphasizes that an organization -wide prioritization \nwould be essential to transform data within UNHCR to the asset that it \ncan be.  \n \nThe evaluation recommends that UNHCR develop a data transformation \nstrategy and roadmap, with key elements such as enforcing data norms \nand standards throughout the organization, cultivating strong data \nleadership, developing systems to integra te and pull data together, \ncreating a data -first culture, and building capacities and confidence \naround statistics and evidence on persons of concern.  \n SET*  Complete by Q4', 'study on returnees to Syria had 70+ dedicated researchers while UNHCR had 5 staff who provided \ncomments on top of their existing workloads. In interviews with UNHCR country office staff, the ge neral \nconsensus was that the culture is geared towards “doing”  with very little time or routine to take a step \nback and look at what  is working , or trends based on deeper analysis of different types of data from \nprotection and programme. Analys es such as t his help drive the discourse on forced displacement \nresponse among policy and decision  makers. Box 2 provides an example of an emerg ing good \npractice in the Syria regional refugee r esponse.   \n4.7 Access to data for  persons of concern  could be improved  \n75. UNHC R commits to inclu ding the perceptions, needs \nand experiences of  persons of concern in all aspects \nof its operations. Nonetheless , the evaluation team \nobserved gaps in the fulfilment of this commitment , \nspecifically in sharing information back to persons o f', 'resourcing?  \n \n4.3 Approach and methodology   \n18. This is a theory -based, retrospective evaluation to understand UNHCR’s current practices around data and \nIM in country operations and RRP situations in order to generate recommendati ons to improve how the \norgani zation collates, collects, cleans, stores, manages, analyses, disseminates, uses and coordinates data \nand information in order to better position UNHCR to carry out its mandate of international protection, \nhumanitarian assistan ce and permanent solutions for persons of concern.   \n19. The methodology should be two -pronged:  1) Utilize  a case -based evaluation approach to yield rich detail in \nthe 4 selected case studies as well as RRP situations; and 2) Situational analysis of changes in the external \nenvironment and internally within UNHCR followed by a landscape mapping of how other UN agencies, \nsimilar organi zation and thought leaders in humanitarian/development sectors are positioning their data and']</t>
+  </si>
+  <si>
+    <t>['40 UNHCR  \n   \nThis KEQ will also seek to answer the following sub-questions:  \n\uf0b7 What key steps have other UN agencies, similar organi zations and thought leaders in data and IM \ntaken that are applicable to UNHCR’s work?  \n\uf0b7 What actions should be prioritized based on the evaluation findings of the primary challenges and \nconstraints that UNHCR operations experience during the process of data collation/collection, cleaning, \nanalysis, storage and management that hinder evidence -informed decision -making?  \n\uf0b7 What should UNHCR do to address issues concerning data access, synthesis and dissemination \nacross various data systems at the country, regional and HQ offices?   \n\uf0b7 Which actions can be implemented more rapidly and which actions require  a higher level of effort and \nresourcing?  \n \n4.3 Approach and methodology   \n18. This is a theory -based, retrospective evaluation to understand UNHCR’s current practices around data and', '9 UNHCR  \n Recommendat ions \n \nIn the context of UNHCR’s current data and information systems, the internal and external changes it is facing, \nand the needs required to act as a lea der on protection and solutions , the evaluation offers the following \nrecommendations , with additiona l detail and sub -recommendations in the main body of the report : \n \nRecommended actions  Responsible  Anticipated \ntimeframe  \nThe evaluation emphasizes that an organization -wide prioritization \nwould be essential to transform data within UNHCR to the asset that it \ncan be.  \n \nThe evaluation recommends that UNHCR develop a data transformation \nstrategy and roadmap, with key elements such as enforcing data norms \nand standards throughout the organization, cultivating strong data \nleadership, developing systems to integra te and pull data together, \ncreating a data -first culture, and building capacities and confidence \naround statistics and evidence on persons of concern.  \n SET*  Complete by Q4', '12 UNHCR Programme Ma nual, Chapter 4 (June 2017), p.250.   \n13 Accountability  – through assessing and reporting on implementation and results, and requesting management to formally respond to \nthe evaluation. Learning  – Describing as well as explaining results is necessary to gen erate insights and pointers for learning to improve \nfuture strategies – and if possible – in other contexts where UNHCR operations face similar opportunities and constraints.', 'study on returnees to Syria had 70+ dedicated researchers while UNHCR had 5 staff who provided \ncomments on top of their existing workloads. In interviews with UNHCR country office staff, the ge neral \nconsensus was that the culture is geared towards “doing”  with very little time or routine to take a step \nback and look at what  is working , or trends based on deeper analysis of different types of data from \nprotection and programme. Analys es such as t his help drive the discourse on forced displacement \nresponse among policy and decision  makers. Box 2 provides an example of an emerg ing good \npractice in the Syria regional refugee r esponse.   \n4.7 Access to data for  persons of concern  could be improved  \n75. UNHC R commits to inclu ding the perceptions, needs \nand experiences of  persons of concern in all aspects \nof its operations. Nonetheless , the evaluation team \nobserved gaps in the fulfilment of this commitment , \nspecifically in sharing information back to persons o f']</t>
+  </si>
+  <si>
+    <t>['40 UNHCR  \n   \nThis KEQ will also seek to answer the following sub-questions:  \n\uf0b7 What key steps have other UN agencies, similar organi zations and thought leaders in data and IM \ntaken that are applicable to UNHCR’s work?  \n\uf0b7 What actions should be prioritized based on the evaluation findings of the primary challenges and \nconstraints that UNHCR operations experience during the process of data collation/collection, cleaning, \nanalysis, storage and management that hinder evidence -informed decision -making?  \n\uf0b7 What should UNHCR do to address issues concerning data access, synthesis and dissemination \nacross various data systems at the country, regional and HQ offices?   \n\uf0b7 Which actions can be implemented more rapidly and which actions require  a higher level of effort and \nresourcing?  \n \n4.3 Approach and methodology   \n18. This is a theory -based, retrospective evaluation to understand UNHCR’s current practices around data and', 'has been analysed with an understanding and consideration of the external and internal changes \nUNHCR is experiencing.  Accordingly , the conclusions and recommendations are appropriately \nsituated to provide maxi mum utility based on the evaluation’s assessment of the future context.  \n  \n36. Contrary to typical evaluations, the assignment was conceived without specific measurement criteria  \n(e.g. to assess progress) or expected outcomes , given that the scope of the evalua tion is to review  \noperational data practice and approaches . Therefore, t he research methodologies of process mapping \n(see Annex 3 for details), key informant interviews , document review  and observation were used to \ndevelop an understanding of organiz ation al systems, practices, culture, structures and \nincentives/disincentives regarding data and information.  \n \n37. Importantly, as a strategic evaluation, the work is hypothesis -driven. Using a  deductive  process, i t was', 'sources. This work also includes a consideration of  who UNHCR should work with, such as innovators, \nstandard and policy se tting bodies, other humanitarian organiz ation s, development organiz ation s, \ngovernments and persons  of concern.  \n1.3.5 Revamping  UNHCR’s results -based management approach  \n22. At the time of t his evaluation, UNHCR’s corporate results -based management (RBM) tool is called \nFOCUS . This system primarily reports on outputs , and UNHCR recognised that there is a need for \nmore outcome -focused monitoring leadi ng to longer -term impact. UNHCR is in the process of \ndesigning  a new RBM tool that will transform  how the organization  reports on its programming , \nadvocacy and coordination efforts .  \n1.4 UNHCR’s  evolving contextual landscape  \n23. UNHCR operates in a constantly changing environment. The growth of personal access to \ninformation , increased levels of displacement  globally, and limited availability of funds create the need', '12 UNHCR Programme Ma nual, Chapter 4 (June 2017), p.250.   \n13 Accountability  – through assessing and reporting on implementation and results, and requesting management to formally respond to \nthe evaluation. Learning  – Describing as well as explaining results is necessary to gen erate insights and pointers for learning to improve \nfuture strategies – and if possible – in other contexts where UNHCR operations face similar opportunities and constraints.']</t>
+  </si>
+  <si>
+    <t>['40 UNHCR  \n   \nThis KEQ will also seek to answer the following sub-questions:  \n\uf0b7 What key steps have other UN agencies, similar organi zations and thought leaders in data and IM \ntaken that are applicable to UNHCR’s work?  \n\uf0b7 What actions should be prioritized based on the evaluation findings of the primary challenges and \nconstraints that UNHCR operations experience during the process of data collation/collection, cleaning, \nanalysis, storage and management that hinder evidence -informed decision -making?  \n\uf0b7 What should UNHCR do to address issues concerning data access, synthesis and dissemination \nacross various data systems at the country, regional and HQ offices?   \n\uf0b7 Which actions can be implemented more rapidly and which actions require  a higher level of effort and \nresourcing?  \n \n4.3 Approach and methodology   \n18. This is a theory -based, retrospective evaluation to understand UNHCR’s current practices around data and', 'role does the country/regional IMO(s) have and what role is also played by other stakeholders \nspecifically at the sector level?    \n\uf0b7 After data and information need s have been identified at the operational level, how are data \ncollated/collected, cleaned, analyzed , stored and managed at different points in the OMC and what is \nthe associated level of burden to carry out such activities?   \n\uf0b7 How do country/regional operati ons consider feedback from and effective communication with persons \nof concern in operational data systems?  \n\uf0b7 To what extent are there gaps and/or inefficiencies in country/regional operations’ practice around data \nand IM (i.e. data systems, collation/colle ction processes, storage, management, data analysis and use, \nstaff capacities and functions, financial resources, etc.)?    \n\uf0b7 What are the primary challenges and constraints that UNHCR operations experience during the process', 'has been analysed with an understanding and consideration of the external and internal changes \nUNHCR is experiencing.  Accordingly , the conclusions and recommendations are appropriately \nsituated to provide maxi mum utility based on the evaluation’s assessment of the future context.  \n  \n36. Contrary to typical evaluations, the assignment was conceived without specific measurement criteria  \n(e.g. to assess progress) or expected outcomes , given that the scope of the evalua tion is to review  \noperational data practice and approaches . Therefore, t he research methodologies of process mapping \n(see Annex 3 for details), key informant interviews , document review  and observation were used to \ndevelop an understanding of organiz ation al systems, practices, culture, structures and \nincentives/disincentives regarding data and information.  \n \n37. Importantly, as a strategic evaluation, the work is hypothesis -driven. Using a  deductive  process, i t was', '12 UNHCR Programme Ma nual, Chapter 4 (June 2017), p.250.   \n13 Accountability  – through assessing and reporting on implementation and results, and requesting management to formally respond to \nthe evaluation. Learning  – Describing as well as explaining results is necessary to gen erate insights and pointers for learning to improve \nfuture strategies – and if possible – in other contexts where UNHCR operations face similar opportunities and constraints.']</t>
+  </si>
+  <si>
+    <t>['40 UNHCR  \n   \nThis KEQ will also seek to answer the following sub-questions:  \n\uf0b7 What key steps have other UN agencies, similar organi zations and thought leaders in data and IM \ntaken that are applicable to UNHCR’s work?  \n\uf0b7 What actions should be prioritized based on the evaluation findings of the primary challenges and \nconstraints that UNHCR operations experience during the process of data collation/collection, cleaning, \nanalysis, storage and management that hinder evidence -informed decision -making?  \n\uf0b7 What should UNHCR do to address issues concerning data access, synthesis and dissemination \nacross various data systems at the country, regional and HQ offices?   \n\uf0b7 Which actions can be implemented more rapidly and which actions require  a higher level of effort and \nresourcing?  \n \n4.3 Approach and methodology   \n18. This is a theory -based, retrospective evaluation to understand UNHCR’s current practices around data and', 'role does the country/regional IMO(s) have and what role is also played by other stakeholders \nspecifically at the sector level?    \n\uf0b7 After data and information need s have been identified at the operational level, how are data \ncollated/collected, cleaned, analyzed , stored and managed at different points in the OMC and what is \nthe associated level of burden to carry out such activities?   \n\uf0b7 How do country/regional operati ons consider feedback from and effective communication with persons \nof concern in operational data systems?  \n\uf0b7 To what extent are there gaps and/or inefficiencies in country/regional operations’ practice around data \nand IM (i.e. data systems, collation/colle ction processes, storage, management, data analysis and use, \nstaff capacities and functions, financial resources, etc.)?    \n\uf0b7 What are the primary challenges and constraints that UNHCR operations experience during the process', 'and interpretation.  \n \n95. The evaluation also recommends working with Regional Bureaux or country operations willing to serve \nas path finders or data champions. Highlighting good practices across the organization can also help \nothers to adapt if they see benefits to changing. The evaluation recommends that UNHCR consider \nthe mechanisms it can use to incentivize/reward adoption of incorpo rating data use in their functional \nrole.  \n \n6.6. Strengthening data protection at all levels  \n \n96. UNHCR should increase the availability, usability, integrity and security of data across its global \noperations. Overcoming many of UNHCR’s data -related risks or misse d opportunities can be \naccomplished through the development and execution of enterprise -level data governance. Changing \nthe approach to data management will address the large amounts of data in unstructured formats and \nwill provide standardized security ov er data  related to persons of concern .', 'has been analysed with an understanding and consideration of the external and internal changes \nUNHCR is experiencing.  Accordingly , the conclusions and recommendations are appropriately \nsituated to provide maxi mum utility based on the evaluation’s assessment of the future context.  \n  \n36. Contrary to typical evaluations, the assignment was conceived without specific measurement criteria  \n(e.g. to assess progress) or expected outcomes , given that the scope of the evalua tion is to review  \noperational data practice and approaches . Therefore, t he research methodologies of process mapping \n(see Annex 3 for details), key informant interviews , document review  and observation were used to \ndevelop an understanding of organiz ation al systems, practices, culture, structures and \nincentives/disincentives regarding data and information.  \n \n37. Importantly, as a strategic evaluation, the work is hypothesis -driven. Using a  deductive  process, i t was']</t>
+  </si>
+  <si>
+    <t>['40 UNHCR  \n   \nThis KEQ will also seek to answer the following sub-questions:  \n\uf0b7 What key steps have other UN agencies, similar organi zations and thought leaders in data and IM \ntaken that are applicable to UNHCR’s work?  \n\uf0b7 What actions should be prioritized based on the evaluation findings of the primary challenges and \nconstraints that UNHCR operations experience during the process of data collation/collection, cleaning, \nanalysis, storage and management that hinder evidence -informed decision -making?  \n\uf0b7 What should UNHCR do to address issues concerning data access, synthesis and dissemination \nacross various data systems at the country, regional and HQ offices?   \n\uf0b7 Which actions can be implemented more rapidly and which actions require  a higher level of effort and \nresourcing?  \n \n4.3 Approach and methodology   \n18. This is a theory -based, retrospective evaluation to understand UNHCR’s current practices around data and', 'role does the country/regional IMO(s) have and what role is also played by other stakeholders \nspecifically at the sector level?    \n\uf0b7 After data and information need s have been identified at the operational level, how are data \ncollated/collected, cleaned, analyzed , stored and managed at different points in the OMC and what is \nthe associated level of burden to carry out such activities?   \n\uf0b7 How do country/regional operati ons consider feedback from and effective communication with persons \nof concern in operational data systems?  \n\uf0b7 To what extent are there gaps and/or inefficiencies in country/regional operations’ practice around data \nand IM (i.e. data systems, collation/colle ction processes, storage, management, data analysis and use, \nstaff capacities and functions, financial resources, etc.)?    \n\uf0b7 What are the primary challenges and constraints that UNHCR operations experience during the process', '12 UNHCR Programme Ma nual, Chapter 4 (June 2017), p.250.   \n13 Accountability  – through assessing and reporting on implementation and results, and requesting management to formally respond to \nthe evaluation. Learning  – Describing as well as explaining results is necessary to gen erate insights and pointers for learning to improve \nfuture strategies – and if possible – in other contexts where UNHCR operations face similar opportunities and constraints.', 'has been analysed with an understanding and consideration of the external and internal changes \nUNHCR is experiencing.  Accordingly , the conclusions and recommendations are appropriately \nsituated to provide maxi mum utility based on the evaluation’s assessment of the future context.  \n  \n36. Contrary to typical evaluations, the assignment was conceived without specific measurement criteria  \n(e.g. to assess progress) or expected outcomes , given that the scope of the evalua tion is to review  \noperational data practice and approaches . Therefore, t he research methodologies of process mapping \n(see Annex 3 for details), key informant interviews , document review  and observation were used to \ndevelop an understanding of organiz ation al systems, practices, culture, structures and \nincentives/disincentives regarding data and information.  \n \n37. Importantly, as a strategic evaluation, the work is hypothesis -driven. Using a  deductive  process, i t was']</t>
+  </si>
+  <si>
+    <t>['9 UNHCR  \n Recommendat ions \n \nIn the context of UNHCR’s current data and information systems, the internal and external changes it is facing, \nand the needs required to act as a lea der on protection and solutions , the evaluation offers the following \nrecommendations , with additiona l detail and sub -recommendations in the main body of the report : \n \nRecommended actions  Responsible  Anticipated \ntimeframe  \nThe evaluation emphasizes that an organization -wide prioritization \nwould be essential to transform data within UNHCR to the asset that it \ncan be.  \n \nThe evaluation recommends that UNHCR develop a data transformation \nstrategy and roadmap, with key elements such as enforcing data norms \nand standards throughout the organization, cultivating strong data \nleadership, developing systems to integra te and pull data together, \ncreating a data -first culture, and building capacities and confidence \naround statistics and evidence on persons of concern.  \n SET*  Complete by Q4', 'program  implementation, case management, m onitoring and evaluation, collected and/or collated by \nUNHCR and/or implementing partners.   \n\uf0b7 This evaluation examines UNHCR’s practice around data, including data collated/collected by \noperational partners when the data and information requirements are dete rmined by UNHCR. Broader \ndata and IM practices by UNHCR as a lead agency in the Global Clusters are outside the scope of this \nevaluation and would entail a joint inter -agency evaluation with the unit of analysis being the Global \nCluster model whilst the fo cus of this evaluation is on UNHCR.     \n4.2 Key Evaluation Questions (KEQs)   \n17. The evaluation will address the following headline questions. The analysis needed to answer them is likely \nto touch on other possible sub -questions and may be further refined d uring the evaluation inception phase.  \n  \nKEQ 1 : Based on four case studies of UNHCR country/regional operations, how are operational data and', 'sources. This work also includes a consideration of  who UNHCR should work with, such as innovators, \nstandard and policy se tting bodies, other humanitarian organiz ation s, development organiz ation s, \ngovernments and persons  of concern.  \n1.3.5 Revamping  UNHCR’s results -based management approach  \n22. At the time of t his evaluation, UNHCR’s corporate results -based management (RBM) tool is called \nFOCUS . This system primarily reports on outputs , and UNHCR recognised that there is a need for \nmore outcome -focused monitoring leadi ng to longer -term impact. UNHCR is in the process of \ndesigning  a new RBM tool that will transform  how the organization  reports on its programming , \nadvocacy and coordination efforts .  \n1.4 UNHCR’s  evolving contextual landscape  \n23. UNHCR operates in a constantly changing environment. The growth of personal access to \ninformation , increased levels of displacement  globally, and limited availability of funds create the need', '12 UNHCR Programme Ma nual, Chapter 4 (June 2017), p.250.   \n13 Accountability  – through assessing and reporting on implementation and results, and requesting management to formally respond to \nthe evaluation. Learning  – Describing as well as explaining results is necessary to gen erate insights and pointers for learning to improve \nfuture strategies – and if possible – in other contexts where UNHCR operations face similar opportunities and constraints.']</t>
+  </si>
+  <si>
+    <t>['9 UNHCR  \n Recommendat ions \n \nIn the context of UNHCR’s current data and information systems, the internal and external changes it is facing, \nand the needs required to act as a lea der on protection and solutions , the evaluation offers the following \nrecommendations , with additiona l detail and sub -recommendations in the main body of the report : \n \nRecommended actions  Responsible  Anticipated \ntimeframe  \nThe evaluation emphasizes that an organization -wide prioritization \nwould be essential to transform data within UNHCR to the asset that it \ncan be.  \n \nThe evaluation recommends that UNHCR develop a data transformation \nstrategy and roadmap, with key elements such as enforcing data norms \nand standards throughout the organization, cultivating strong data \nleadership, developing systems to integra te and pull data together, \ncreating a data -first culture, and building capacities and confidence \naround statistics and evidence on persons of concern.  \n SET*  Complete by Q4', 'offices and stakeholders (internal/external)?  \n\uf0b7 What are key challenges and issues with accessing, synthesizing and/or disseminating data and \ninformation via these various data systems at the  country, regional and HQ offices?   \n\uf0b7 What data validation procedures and data quality assessments have been developed to support country \noperations and to what extent are they used in the field?    \n\uf0b7 How could organizational design around the central managemen t of data and information at HQs and \nregional platforms be optimized to ensure that critical requirements across the organi zation are met?  \n  \nKEQ 3:  In RRP situations (i.e. Syria, South Sudan, Burundi, DRC, Nigeria) when UNHCR plays a leading role \nin the r esponse, how effective is UNHCR in determining, addressing (i.e. collated, collected, cleaned, \nanalyzed , stored and managed) and coordinating data and information management in this inter -agency \nspace?', 'sources. This work also includes a consideration of  who UNHCR should work with, such as innovators, \nstandard and policy se tting bodies, other humanitarian organiz ation s, development organiz ation s, \ngovernments and persons  of concern.  \n1.3.5 Revamping  UNHCR’s results -based management approach  \n22. At the time of t his evaluation, UNHCR’s corporate results -based management (RBM) tool is called \nFOCUS . This system primarily reports on outputs , and UNHCR recognised that there is a need for \nmore outcome -focused monitoring leadi ng to longer -term impact. UNHCR is in the process of \ndesigning  a new RBM tool that will transform  how the organization  reports on its programming , \nadvocacy and coordination efforts .  \n1.4 UNHCR’s  evolving contextual landscape  \n23. UNHCR operates in a constantly changing environment. The growth of personal access to \ninformation , increased levels of displacement  globally, and limited availability of funds create the need', '12 UNHCR Programme Ma nual, Chapter 4 (June 2017), p.250.   \n13 Accountability  – through assessing and reporting on implementation and results, and requesting management to formally respond to \nthe evaluation. Learning  – Describing as well as explaining results is necessary to gen erate insights and pointers for learning to improve \nfuture strategies – and if possible – in other contexts where UNHCR operations face similar opportunities and constraints.']</t>
+  </si>
+  <si>
+    <t>['9 UNHCR  \n Recommendat ions \n \nIn the context of UNHCR’s current data and information systems, the internal and external changes it is facing, \nand the needs required to act as a lea der on protection and solutions , the evaluation offers the following \nrecommendations , with additiona l detail and sub -recommendations in the main body of the report : \n \nRecommended actions  Responsible  Anticipated \ntimeframe  \nThe evaluation emphasizes that an organization -wide prioritization \nwould be essential to transform data within UNHCR to the asset that it \ncan be.  \n \nThe evaluation recommends that UNHCR develop a data transformation \nstrategy and roadmap, with key elements such as enforcing data norms \nand standards throughout the organization, cultivating strong data \nleadership, developing systems to integra te and pull data together, \ncreating a data -first culture, and building capacities and confidence \naround statistics and evidence on persons of concern.  \n SET*  Complete by Q4', '12 UNHCR Programme Ma nual, Chapter 4 (June 2017), p.250.   \n13 Accountability  – through assessing and reporting on implementation and results, and requesting management to formally respond to \nthe evaluation. Learning  – Describing as well as explaining results is necessary to gen erate insights and pointers for learning to improve \nfuture strategies – and if possible – in other contexts where UNHCR operations face similar opportunities and constraints.', 'role does the country/regional IMO(s) have and what role is also played by other stakeholders \nspecifically at the sector level?    \n\uf0b7 After data and information need s have been identified at the operational level, how are data \ncollated/collected, cleaned, analyzed , stored and managed at different points in the OMC and what is \nthe associated level of burden to carry out such activities?   \n\uf0b7 How do country/regional operati ons consider feedback from and effective communication with persons \nof concern in operational data systems?  \n\uf0b7 To what extent are there gaps and/or inefficiencies in country/regional operations’ practice around data \nand IM (i.e. data systems, collation/colle ction processes, storage, management, data analysis and use, \nstaff capacities and functions, financial resources, etc.)?    \n\uf0b7 What are the primary challenges and constraints that UNHCR operations experience during the process', 'sources. This work also includes a consideration of  who UNHCR should work with, such as innovators, \nstandard and policy se tting bodies, other humanitarian organiz ation s, development organiz ation s, \ngovernments and persons  of concern.  \n1.3.5 Revamping  UNHCR’s results -based management approach  \n22. At the time of t his evaluation, UNHCR’s corporate results -based management (RBM) tool is called \nFOCUS . This system primarily reports on outputs , and UNHCR recognised that there is a need for \nmore outcome -focused monitoring leadi ng to longer -term impact. UNHCR is in the process of \ndesigning  a new RBM tool that will transform  how the organization  reports on its programming , \nadvocacy and coordination efforts .  \n1.4 UNHCR’s  evolving contextual landscape  \n23. UNHCR operates in a constantly changing environment. The growth of personal access to \ninformation , increased levels of displacement  globally, and limited availability of funds create the need']</t>
+  </si>
+  <si>
+    <t>['9 UNHCR  \n Recommendat ions \n \nIn the context of UNHCR’s current data and information systems, the internal and external changes it is facing, \nand the needs required to act as a lea der on protection and solutions , the evaluation offers the following \nrecommendations , with additiona l detail and sub -recommendations in the main body of the report : \n \nRecommended actions  Responsible  Anticipated \ntimeframe  \nThe evaluation emphasizes that an organization -wide prioritization \nwould be essential to transform data within UNHCR to the asset that it \ncan be.  \n \nThe evaluation recommends that UNHCR develop a data transformation \nstrategy and roadmap, with key elements such as enforcing data norms \nand standards throughout the organization, cultivating strong data \nleadership, developing systems to integra te and pull data together, \ncreating a data -first culture, and building capacities and confidence \naround statistics and evidence on persons of concern.  \n SET*  Complete by Q4', '12 UNHCR Programme Ma nual, Chapter 4 (June 2017), p.250.   \n13 Accountability  – through assessing and reporting on implementation and results, and requesting management to formally respond to \nthe evaluation. Learning  – Describing as well as explaining results is necessary to gen erate insights and pointers for learning to improve \nfuture strategies – and if possible – in other contexts where UNHCR operations face similar opportunities and constraints.', 'direction, strategy and practice. This is also not the first time UNHCR has reviewed its data practice, having \nconducted two large reviews of its organizational policies and procedures on refugee enumeration and \nstatistics in 1993.    \n6. The evaluation is expected to yield insights and generate recommendations that will help strengthen \nUNHCR’s systems, processes and practices concerning data and information management, better enabling \nthe organi zation to carry out its mandate for persons of co ncern.   \n2. Subject of the evaluation and its context  \n \n7. UNHCR has a long history of collecting and using data and information about populations of concern, their \nsituations and related response activities. For example, the Profile Global Registration Syste m (ProGres) \nwas launched in 2003 as UNHCR’s enterprise registration tool, which allowed the organi zation to bring \nstandards into registration and case management practices and improved data coherence by', 'role does the country/regional IMO(s) have and what role is also played by other stakeholders \nspecifically at the sector level?    \n\uf0b7 After data and information need s have been identified at the operational level, how are data \ncollated/collected, cleaned, analyzed , stored and managed at different points in the OMC and what is \nthe associated level of burden to carry out such activities?   \n\uf0b7 How do country/regional operati ons consider feedback from and effective communication with persons \nof concern in operational data systems?  \n\uf0b7 To what extent are there gaps and/or inefficiencies in country/regional operations’ practice around data \nand IM (i.e. data systems, collation/colle ction processes, storage, management, data analysis and use, \nstaff capacities and functions, financial resources, etc.)?    \n\uf0b7 What are the primary challenges and constraints that UNHCR operations experience during the process']</t>
+  </si>
+  <si>
+    <t>['40 UNHCR  \n   \nThis KEQ will also seek to answer the following sub-questions:  \n\uf0b7 What key steps have other UN agencies, similar organi zations and thought leaders in data and IM \ntaken that are applicable to UNHCR’s work?  \n\uf0b7 What actions should be prioritized based on the evaluation findings of the primary challenges and \nconstraints that UNHCR operations experience during the process of data collation/collection, cleaning, \nanalysis, storage and management that hinder evidence -informed decision -making?  \n\uf0b7 What should UNHCR do to address issues concerning data access, synthesis and dissemination \nacross various data systems at the country, regional and HQ offices?   \n\uf0b7 Which actions can be implemented more rapidly and which actions require  a higher level of effort and \nresourcing?  \n \n4.3 Approach and methodology   \n18. This is a theory -based, retrospective evaluation to understand UNHCR’s current practices around data and', 'role does the country/regional IMO(s) have and what role is also played by other stakeholders \nspecifically at the sector level?    \n\uf0b7 After data and information need s have been identified at the operational level, how are data \ncollated/collected, cleaned, analyzed , stored and managed at different points in the OMC and what is \nthe associated level of burden to carry out such activities?   \n\uf0b7 How do country/regional operati ons consider feedback from and effective communication with persons \nof concern in operational data systems?  \n\uf0b7 To what extent are there gaps and/or inefficiencies in country/regional operations’ practice around data \nand IM (i.e. data systems, collation/colle ction processes, storage, management, data analysis and use, \nstaff capacities and functions, financial resources, etc.)?    \n\uf0b7 What are the primary challenges and constraints that UNHCR operations experience during the process', 'sources. This work also includes a consideration of  who UNHCR should work with, such as innovators, \nstandard and policy se tting bodies, other humanitarian organiz ation s, development organiz ation s, \ngovernments and persons  of concern.  \n1.3.5 Revamping  UNHCR’s results -based management approach  \n22. At the time of t his evaluation, UNHCR’s corporate results -based management (RBM) tool is called \nFOCUS . This system primarily reports on outputs , and UNHCR recognised that there is a need for \nmore outcome -focused monitoring leadi ng to longer -term impact. UNHCR is in the process of \ndesigning  a new RBM tool that will transform  how the organization  reports on its programming , \nadvocacy and coordination efforts .  \n1.4 UNHCR’s  evolving contextual landscape  \n23. UNHCR operates in a constantly changing environment. The growth of personal access to \ninformation , increased levels of displacement  globally, and limited availability of funds create the need', 'associated with the level of investment  in the functi on. Typically, UNHCR allocates few staff to \ninformation management  (e.g. one IMO and one reporting officer) , which is an important aspect to \neffective response and coordination . These staff  may find themselves overwhlemed with the basic \ntasks of requesting , receiving and processing data from myraid country offices and partners.  The \nJordan and Lebanon country offices  are exceptions to this , where larger numbers of staff are allocated \nfor data and information management that informs regional coordination . How ever, even in these \nsettings, the evaluation found that the main thrust of activity remains focused on understanding \nfunding requirements and tracking expenditures against activity outputs  rather than generating \nevidence -based products to guide decision -making and policy engagement . \n4.6 Challenges turning d ata into value -added decision -making']</t>
+  </si>
+  <si>
+    <t>['40 UNHCR  \n   \nThis KEQ will also seek to answer the following sub-questions:  \n\uf0b7 What key steps have other UN agencies, similar organi zations and thought leaders in data and IM \ntaken that are applicable to UNHCR’s work?  \n\uf0b7 What actions should be prioritized based on the evaluation findings of the primary challenges and \nconstraints that UNHCR operations experience during the process of data collation/collection, cleaning, \nanalysis, storage and management that hinder evidence -informed decision -making?  \n\uf0b7 What should UNHCR do to address issues concerning data access, synthesis and dissemination \nacross various data systems at the country, regional and HQ offices?   \n\uf0b7 Which actions can be implemented more rapidly and which actions require  a higher level of effort and \nresourcing?  \n \n4.3 Approach and methodology   \n18. This is a theory -based, retrospective evaluation to understand UNHCR’s current practices around data and', 'role does the country/regional IMO(s) have and what role is also played by other stakeholders \nspecifically at the sector level?    \n\uf0b7 After data and information need s have been identified at the operational level, how are data \ncollated/collected, cleaned, analyzed , stored and managed at different points in the OMC and what is \nthe associated level of burden to carry out such activities?   \n\uf0b7 How do country/regional operati ons consider feedback from and effective communication with persons \nof concern in operational data systems?  \n\uf0b7 To what extent are there gaps and/or inefficiencies in country/regional operations’ practice around data \nand IM (i.e. data systems, collation/colle ction processes, storage, management, data analysis and use, \nstaff capacities and functions, financial resources, etc.)?    \n\uf0b7 What are the primary challenges and constraints that UNHCR operations experience during the process', 'associated with the level of investment  in the functi on. Typically, UNHCR allocates few staff to \ninformation management  (e.g. one IMO and one reporting officer) , which is an important aspect to \neffective response and coordination . These staff  may find themselves overwhlemed with the basic \ntasks of requesting , receiving and processing data from myraid country offices and partners.  The \nJordan and Lebanon country offices  are exceptions to this , where larger numbers of staff are allocated \nfor data and information management that informs regional coordination . How ever, even in these \nsettings, the evaluation found that the main thrust of activity remains focused on understanding \nfunding requirements and tracking expenditures against activity outputs  rather than generating \nevidence -based products to guide decision -making and policy engagement . \n4.6 Challenges turning d ata into value -added decision -making', 'sources. This work also includes a consideration of  who UNHCR should work with, such as innovators, \nstandard and policy se tting bodies, other humanitarian organiz ation s, development organiz ation s, \ngovernments and persons  of concern.  \n1.3.5 Revamping  UNHCR’s results -based management approach  \n22. At the time of t his evaluation, UNHCR’s corporate results -based management (RBM) tool is called \nFOCUS . This system primarily reports on outputs , and UNHCR recognised that there is a need for \nmore outcome -focused monitoring leadi ng to longer -term impact. UNHCR is in the process of \ndesigning  a new RBM tool that will transform  how the organization  reports on its programming , \nadvocacy and coordination efforts .  \n1.4 UNHCR’s  evolving contextual landscape  \n23. UNHCR operates in a constantly changing environment. The growth of personal access to \ninformation , increased levels of displacement  globally, and limited availability of funds create the need']</t>
+  </si>
+  <si>
+    <t>['40 UNHCR  \n   \nThis KEQ will also seek to answer the following sub-questions:  \n\uf0b7 What key steps have other UN agencies, similar organi zations and thought leaders in data and IM \ntaken that are applicable to UNHCR’s work?  \n\uf0b7 What actions should be prioritized based on the evaluation findings of the primary challenges and \nconstraints that UNHCR operations experience during the process of data collation/collection, cleaning, \nanalysis, storage and management that hinder evidence -informed decision -making?  \n\uf0b7 What should UNHCR do to address issues concerning data access, synthesis and dissemination \nacross various data systems at the country, regional and HQ offices?   \n\uf0b7 Which actions can be implemented more rapidly and which actions require  a higher level of effort and \nresourcing?  \n \n4.3 Approach and methodology   \n18. This is a theory -based, retrospective evaluation to understand UNHCR’s current practices around data and', '9 UNHCR  \n Recommendat ions \n \nIn the context of UNHCR’s current data and information systems, the internal and external changes it is facing, \nand the needs required to act as a lea der on protection and solutions , the evaluation offers the following \nrecommendations , with additiona l detail and sub -recommendations in the main body of the report : \n \nRecommended actions  Responsible  Anticipated \ntimeframe  \nThe evaluation emphasizes that an organization -wide prioritization \nwould be essential to transform data within UNHCR to the asset that it \ncan be.  \n \nThe evaluation recommends that UNHCR develop a data transformation \nstrategy and roadmap, with key elements such as enforcing data norms \nand standards throughout the organization, cultivating strong data \nleadership, developing systems to integra te and pull data together, \ncreating a data -first culture, and building capacities and confidence \naround statistics and evidence on persons of concern.  \n SET*  Complete by Q4', 'role does the country/regional IMO(s) have and what role is also played by other stakeholders \nspecifically at the sector level?    \n\uf0b7 After data and information need s have been identified at the operational level, how are data \ncollated/collected, cleaned, analyzed , stored and managed at different points in the OMC and what is \nthe associated level of burden to carry out such activities?   \n\uf0b7 How do country/regional operati ons consider feedback from and effective communication with persons \nof concern in operational data systems?  \n\uf0b7 To what extent are there gaps and/or inefficiencies in country/regional operations’ practice around data \nand IM (i.e. data systems, collation/colle ction processes, storage, management, data analysis and use, \nstaff capacities and functions, financial resources, etc.)?    \n\uf0b7 What are the primary challenges and constraints that UNHCR operations experience during the process', 'associated with the level of investment  in the functi on. Typically, UNHCR allocates few staff to \ninformation management  (e.g. one IMO and one reporting officer) , which is an important aspect to \neffective response and coordination . These staff  may find themselves overwhlemed with the basic \ntasks of requesting , receiving and processing data from myraid country offices and partners.  The \nJordan and Lebanon country offices  are exceptions to this , where larger numbers of staff are allocated \nfor data and information management that informs regional coordination . How ever, even in these \nsettings, the evaluation found that the main thrust of activity remains focused on understanding \nfunding requirements and tracking expenditures against activity outputs  rather than generating \nevidence -based products to guide decision -making and policy engagement . \n4.6 Challenges turning d ata into value -added decision -making']</t>
+  </si>
+  <si>
+    <t>['40 UNHCR  \n   \nThis KEQ will also seek to answer the following sub-questions:  \n\uf0b7 What key steps have other UN agencies, similar organi zations and thought leaders in data and IM \ntaken that are applicable to UNHCR’s work?  \n\uf0b7 What actions should be prioritized based on the evaluation findings of the primary challenges and \nconstraints that UNHCR operations experience during the process of data collation/collection, cleaning, \nanalysis, storage and management that hinder evidence -informed decision -making?  \n\uf0b7 What should UNHCR do to address issues concerning data access, synthesis and dissemination \nacross various data systems at the country, regional and HQ offices?   \n\uf0b7 Which actions can be implemented more rapidly and which actions require  a higher level of effort and \nresourcing?  \n \n4.3 Approach and methodology   \n18. This is a theory -based, retrospective evaluation to understand UNHCR’s current practices around data and', 'role does the country/regional IMO(s) have and what role is also played by other stakeholders \nspecifically at the sector level?    \n\uf0b7 After data and information need s have been identified at the operational level, how are data \ncollated/collected, cleaned, analyzed , stored and managed at different points in the OMC and what is \nthe associated level of burden to carry out such activities?   \n\uf0b7 How do country/regional operati ons consider feedback from and effective communication with persons \nof concern in operational data systems?  \n\uf0b7 To what extent are there gaps and/or inefficiencies in country/regional operations’ practice around data \nand IM (i.e. data systems, collation/colle ction processes, storage, management, data analysis and use, \nstaff capacities and functions, financial resources, etc.)?    \n\uf0b7 What are the primary challenges and constraints that UNHCR operations experience during the process', '12 UNHCR Programme Ma nual, Chapter 4 (June 2017), p.250.   \n13 Accountability  – through assessing and reporting on implementation and results, and requesting management to formally respond to \nthe evaluation. Learning  – Describing as well as explaining results is necessary to gen erate insights and pointers for learning to improve \nfuture strategies – and if possible – in other contexts where UNHCR operations face similar opportunities and constraints.', 'associated with the level of investment  in the functi on. Typically, UNHCR allocates few staff to \ninformation management  (e.g. one IMO and one reporting officer) , which is an important aspect to \neffective response and coordination . These staff  may find themselves overwhlemed with the basic \ntasks of requesting , receiving and processing data from myraid country offices and partners.  The \nJordan and Lebanon country offices  are exceptions to this , where larger numbers of staff are allocated \nfor data and information management that informs regional coordination . How ever, even in these \nsettings, the evaluation found that the main thrust of activity remains focused on understanding \nfunding requirements and tracking expenditures against activity outputs  rather than generating \nevidence -based products to guide decision -making and policy engagement . \n4.6 Challenges turning d ata into value -added decision -making']</t>
+  </si>
+  <si>
+    <t>['40 UNHCR  \n   \nThis KEQ will also seek to answer the following sub-questions:  \n\uf0b7 What key steps have other UN agencies, similar organi zations and thought leaders in data and IM \ntaken that are applicable to UNHCR’s work?  \n\uf0b7 What actions should be prioritized based on the evaluation findings of the primary challenges and \nconstraints that UNHCR operations experience during the process of data collation/collection, cleaning, \nanalysis, storage and management that hinder evidence -informed decision -making?  \n\uf0b7 What should UNHCR do to address issues concerning data access, synthesis and dissemination \nacross various data systems at the country, regional and HQ offices?   \n\uf0b7 Which actions can be implemented more rapidly and which actions require  a higher level of effort and \nresourcing?  \n \n4.3 Approach and methodology   \n18. This is a theory -based, retrospective evaluation to understand UNHCR’s current practices around data and', '12 UNHCR Programme Ma nual, Chapter 4 (June 2017), p.250.   \n13 Accountability  – through assessing and reporting on implementation and results, and requesting management to formally respond to \nthe evaluation. Learning  – Describing as well as explaining results is necessary to gen erate insights and pointers for learning to improve \nfuture strategies – and if possible – in other contexts where UNHCR operations face similar opportunities and constraints.', 'associated with the level of investment  in the functi on. Typically, UNHCR allocates few staff to \ninformation management  (e.g. one IMO and one reporting officer) , which is an important aspect to \neffective response and coordination . These staff  may find themselves overwhlemed with the basic \ntasks of requesting , receiving and processing data from myraid country offices and partners.  The \nJordan and Lebanon country offices  are exceptions to this , where larger numbers of staff are allocated \nfor data and information management that informs regional coordination . How ever, even in these \nsettings, the evaluation found that the main thrust of activity remains focused on understanding \nfunding requirements and tracking expenditures against activity outputs  rather than generating \nevidence -based products to guide decision -making and policy engagement . \n4.6 Challenges turning d ata into value -added decision -making', 'sources. This work also includes a consideration of  who UNHCR should work with, such as innovators, \nstandard and policy se tting bodies, other humanitarian organiz ation s, development organiz ation s, \ngovernments and persons  of concern.  \n1.3.5 Revamping  UNHCR’s results -based management approach  \n22. At the time of t his evaluation, UNHCR’s corporate results -based management (RBM) tool is called \nFOCUS . This system primarily reports on outputs , and UNHCR recognised that there is a need for \nmore outcome -focused monitoring leadi ng to longer -term impact. UNHCR is in the process of \ndesigning  a new RBM tool that will transform  how the organization  reports on its programming , \nadvocacy and coordination efforts .  \n1.4 UNHCR’s  evolving contextual landscape  \n23. UNHCR operates in a constantly changing environment. The growth of personal access to \ninformation , increased levels of displacement  globally, and limited availability of funds create the need']</t>
+  </si>
+  <si>
+    <t>['33 UNHCR  \n 6. Recommendations  \n85. The evaluation has highlighted UNHCR’s current data infrastructure and processes, discussed \nexternal and internal changes the organization is currently facing and reviewed the gaps in data \npractice that cu rrently exist. In this section, we discuss what UNHCR will need to achieve in order to \nrise to the challenge of becoming a best -in-class data and information organiz ation  of the future.  \n6.1. Developing a global vision for UNHCR’s data and information management  \n86. The evaluation emphasizes that an organization -wide prioritization would be essential to transform \ndata within UNHCR to the asset that it can be. This evaluation is one of several indicators that UNHCR \nrecognizes the potential advantage that data can prov ide. As the organization empha sises the strategic \nimportance of data and makes commensurate investments to strengthen its systems, the organization', '12 UNHCR Programme Ma nual, Chapter 4 (June 2017), p.250.   \n13 Accountability  – through assessing and reporting on implementation and results, and requesting management to formally respond to \nthe evaluation. Learning  – Describing as well as explaining results is necessary to gen erate insights and pointers for learning to improve \nfuture strategies – and if possible – in other contexts where UNHCR operations face similar opportunities and constraints.', 'sources. This work also includes a consideration of  who UNHCR should work with, such as innovators, \nstandard and policy se tting bodies, other humanitarian organiz ation s, development organiz ation s, \ngovernments and persons  of concern.  \n1.3.5 Revamping  UNHCR’s results -based management approach  \n22. At the time of t his evaluation, UNHCR’s corporate results -based management (RBM) tool is called \nFOCUS . This system primarily reports on outputs , and UNHCR recognised that there is a need for \nmore outcome -focused monitoring leadi ng to longer -term impact. UNHCR is in the process of \ndesigning  a new RBM tool that will transform  how the organization  reports on its programming , \nadvocacy and coordination efforts .  \n1.4 UNHCR’s  evolving contextual landscape  \n23. UNHCR operates in a constantly changing environment. The growth of personal access to \ninformation , increased levels of displacement  globally, and limited availability of funds create the need', 'associated with the level of investment  in the functi on. Typically, UNHCR allocates few staff to \ninformation management  (e.g. one IMO and one reporting officer) , which is an important aspect to \neffective response and coordination . These staff  may find themselves overwhlemed with the basic \ntasks of requesting , receiving and processing data from myraid country offices and partners.  The \nJordan and Lebanon country offices  are exceptions to this , where larger numbers of staff are allocated \nfor data and information management that informs regional coordination . How ever, even in these \nsettings, the evaluation found that the main thrust of activity remains focused on understanding \nfunding requirements and tracking expenditures against activity outputs  rather than generating \nevidence -based products to guide decision -making and policy engagement . \n4.6 Challenges turning d ata into value -added decision -making']</t>
+  </si>
+  <si>
+    <t>['12 UNHCR Programme Ma nual, Chapter 4 (June 2017), p.250.   \n13 Accountability  – through assessing and reporting on implementation and results, and requesting management to formally respond to \nthe evaluation. Learning  – Describing as well as explaining results is necessary to gen erate insights and pointers for learning to improve \nfuture strategies – and if possible – in other contexts where UNHCR operations face similar opportunities and constraints.', '9 UNHCR  \n Recommendat ions \n \nIn the context of UNHCR’s current data and information systems, the internal and external changes it is facing, \nand the needs required to act as a lea der on protection and solutions , the evaluation offers the following \nrecommendations , with additiona l detail and sub -recommendations in the main body of the report : \n \nRecommended actions  Responsible  Anticipated \ntimeframe  \nThe evaluation emphasizes that an organization -wide prioritization \nwould be essential to transform data within UNHCR to the asset that it \ncan be.  \n \nThe evaluation recommends that UNHCR develop a data transformation \nstrategy and roadmap, with key elements such as enforcing data norms \nand standards throughout the organization, cultivating strong data \nleadership, developing systems to integra te and pull data together, \ncreating a data -first culture, and building capacities and confidence \naround statistics and evidence on persons of concern.  \n SET*  Complete by Q4', 'role does the country/regional IMO(s) have and what role is also played by other stakeholders \nspecifically at the sector level?    \n\uf0b7 After data and information need s have been identified at the operational level, how are data \ncollated/collected, cleaned, analyzed , stored and managed at different points in the OMC and what is \nthe associated level of burden to carry out such activities?   \n\uf0b7 How do country/regional operati ons consider feedback from and effective communication with persons \nof concern in operational data systems?  \n\uf0b7 To what extent are there gaps and/or inefficiencies in country/regional operations’ practice around data \nand IM (i.e. data systems, collation/colle ction processes, storage, management, data analysis and use, \nstaff capacities and functions, financial resources, etc.)?    \n\uf0b7 What are the primary challenges and constraints that UNHCR operations experience during the process', 'program  implementation, case management, m onitoring and evaluation, collected and/or collated by \nUNHCR and/or implementing partners.   \n\uf0b7 This evaluation examines UNHCR’s practice around data, including data collated/collected by \noperational partners when the data and information requirements are dete rmined by UNHCR. Broader \ndata and IM practices by UNHCR as a lead agency in the Global Clusters are outside the scope of this \nevaluation and would entail a joint inter -agency evaluation with the unit of analysis being the Global \nCluster model whilst the fo cus of this evaluation is on UNHCR.     \n4.2 Key Evaluation Questions (KEQs)   \n17. The evaluation will address the following headline questions. The analysis needed to answer them is likely \nto touch on other possible sub -questions and may be further refined d uring the evaluation inception phase.  \n  \nKEQ 1 : Based on four case studies of UNHCR country/regional operations, how are operational data and']</t>
+  </si>
+  <si>
+    <t>['9 UNHCR  \n Recommendat ions \n \nIn the context of UNHCR’s current data and information systems, the internal and external changes it is facing, \nand the needs required to act as a lea der on protection and solutions , the evaluation offers the following \nrecommendations , with additiona l detail and sub -recommendations in the main body of the report : \n \nRecommended actions  Responsible  Anticipated \ntimeframe  \nThe evaluation emphasizes that an organization -wide prioritization \nwould be essential to transform data within UNHCR to the asset that it \ncan be.  \n \nThe evaluation recommends that UNHCR develop a data transformation \nstrategy and roadmap, with key elements such as enforcing data norms \nand standards throughout the organization, cultivating strong data \nleadership, developing systems to integra te and pull data together, \ncreating a data -first culture, and building capacities and confidence \naround statistics and evidence on persons of concern.  \n SET*  Complete by Q4', '12 UNHCR Programme Ma nual, Chapter 4 (June 2017), p.250.   \n13 Accountability  – through assessing and reporting on implementation and results, and requesting management to formally respond to \nthe evaluation. Learning  – Describing as well as explaining results is necessary to gen erate insights and pointers for learning to improve \nfuture strategies – and if possible – in other contexts where UNHCR operations face similar opportunities and constraints.', 'program  implementation, case management, m onitoring and evaluation, collected and/or collated by \nUNHCR and/or implementing partners.   \n\uf0b7 This evaluation examines UNHCR’s practice around data, including data collated/collected by \noperational partners when the data and information requirements are dete rmined by UNHCR. Broader \ndata and IM practices by UNHCR as a lead agency in the Global Clusters are outside the scope of this \nevaluation and would entail a joint inter -agency evaluation with the unit of analysis being the Global \nCluster model whilst the fo cus of this evaluation is on UNHCR.     \n4.2 Key Evaluation Questions (KEQs)   \n17. The evaluation will address the following headline questions. The analysis needed to answer them is likely \nto touch on other possible sub -questions and may be further refined d uring the evaluation inception phase.  \n  \nKEQ 1 : Based on four case studies of UNHCR country/regional operations, how are operational data and', 'role does the country/regional IMO(s) have and what role is also played by other stakeholders \nspecifically at the sector level?    \n\uf0b7 After data and information need s have been identified at the operational level, how are data \ncollated/collected, cleaned, analyzed , stored and managed at different points in the OMC and what is \nthe associated level of burden to carry out such activities?   \n\uf0b7 How do country/regional operati ons consider feedback from and effective communication with persons \nof concern in operational data systems?  \n\uf0b7 To what extent are there gaps and/or inefficiencies in country/regional operations’ practice around data \nand IM (i.e. data systems, collation/colle ction processes, storage, management, data analysis and use, \nstaff capacities and functions, financial resources, etc.)?    \n\uf0b7 What are the primary challenges and constraints that UNHCR operations experience during the process']</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * The evaluation focuses on organization-wide issues that affect efficient and effective management and use of data and information for improving capacity for responsible, timely, and purposeful data use and information management at various levels within UNHCR (para. 45).
+* The growth of personal access to information and increased levels of displacement globally create the need for UNHCR to adapt its data practices (para. 23).
+* UNHCR is in the process of designing a new results-based management tool that will transform how the organization reports on its programming, advocacy, and coordination efforts (para. 22).
+* The evaluation's focus is not to represent the entire diversity in data management systems and practices across all UNHCR operations and the 130 countries it works in but to identify whether there are organization-wide issues that affect efficient and effective management and use of data and information (para. 45).
+* The primary audience for this evaluation includes the Division of International Protection, which is responsible for attaining favorable protection environments (para. 15).
+{NONE}
+* There are no specific findings or recommendations related to "attaining favorable protection environments" through changes in existing policy and regulations in the provided contexts.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Based on the provided context, there are no specific root causes mentioned that relate directly to my area of expertise and focus, which is Strategic Impact: Attaining favorable protection environments. The evaluation primarily focuses on UNHCR's data transformation strategy, revamping its results-based management approach, and addressing challenges in data access, synthesis, dissemination, validation, and quality assessments. There are no specific policy or regulatory changes recommended related to finding or recommendations that require a change in existing policy and regulations for attaining favorable protection environments.
+Source: &lt;context&gt; (specifically, the Recommended actions section)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Based on the provided context, the main risks and difficulties related to my specific area of expertise and focus are:
+1) The lack of a data transformation strategy and roadmap within UNHCR, which is essential for transforming data into an organizational asset (Recommendation 1.1). This could hinder the effective determination, addressing, coordination, and management of data and information in inter-agency spaces where UNHCR plays a leading role, such as in RRP situations (KEQ 3).
+2) The need for revamping UNHCR's results-based management approach to focus more on outcomes and longer-term impacts instead of primarily reporting on outputs (1.3.5). This might affect the ability to monitor progress towards attaining favorable protection environments effectively.
+These risks and difficulties are highlighted in the context, but specific details about their impact on my area of expertise and focus are not provided. However, it is clear that addressing these issues would contribute to improving UNHCR's capacity to create favorable protection environments through better data management and monitoring.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Based on the provided context, there are no specific policy or regulation changes recommended for attaining favorable protection environments. However, some recommendations could potentially contribute to this area, such as:
+1. Developing a data transformation strategy and roadmap (Recommendation 1) can help improve data management, which is crucial for informed decision-making in creating favorable protection environments. This includes enforcing data norms and standards, cultivating strong data leadership, developing systems to integrate and pull data together, creating a data-first culture, and building capacities and confidence around statistics and evidence on persons of concern.
+2. Revamping UNHCR's results-based management approach (Recommendation 1.3.5) can potentially lead to more outcome-focused monitoring, which may contribute to longer-term impact in attaining favorable protection environments.
+These recommendations aim to improve data management and monitoring, which could indirectly support the creation of favorable protection environments. However, there are no explicit policy or regulation changes recommended in the context provided.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Based on the provided context, here are the recommendations related to strategic impact - attaining favorable protection environments:
+* UNHCR should develop a data transformation strategy and roadmap that enforces data norms and standards throughout the organization, cultivates strong data leadership, integrates and pulls data together, creates a data-first culture, and builds capacities and confidence around statistics and evidence on persons of concern. (1.3.2)
+* UNHCR should revamp its results-based management approach to focus more on outcomes leading to longer-term impact rather than just reporting on outputs. (1.3.5)
+* In RRP situations, when UNHCR plays a leading role in the response, it should improve its effectiveness in determining, addressing, and coordinating data and information management in the inter-agency space by collating, collecting, cleaning, analyzing, storing, and managing data and information. (KEQ 3)
 Sources:
-28-30. &lt;context&gt; 9 UNHCR Recommendations</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Based on the provided context, here are the recommendations related to strategic impact - attaining favorable protection environments:
-* UNHCR should develop a data transformation strategy and roadmap with key elements such as enforcing data norms and standards throughout the organization, cultivating strong data leadership, developing systems to integrate and pull data together, creating a data-first culture, and building capacities and confidence around statistics and evidence on persons of concern. (9 UNHCR Recommendations)
-* UNHCR should prioritize data as an asset and emphasize the strategic importance of data to strengthen its systems. (33 UNHCR 6.1)
+* "Recommended actions Responsible anticipate timeframe"
+* "1.3.5 Revamping UNHCR’s results-based management approach"
+* "KEQ 3: In RRP situations (i.e. Syria, South Sudan, Burundi, DRC, Nigeria) when UNHCR plays a leading role in the response, how effective is UNHCR in determining, addressing (i.e. collated, collected, cleaned, analyzed , stored and managed) and coordinating data and information management in this inter-agency space?"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * The current UNHCR's results-based management tool, FOCUS, primarily reports on outputs rather than outcomes leading to longer-term impact (paragraph 22).
+* There is a need for more outcome-focused monitoring in UNHCR's programming, advocacy and coordination efforts (paragraph 22).
+* The culture in UNHCR operations is geared towards "doing" with very little time or routine to take a step back and look at what is working, or trends based on deeper analysis of different types of data from protection and programme (paragraph 25).
+* Analyses such as these help drive the discourse on forced displacement response among policy and decision makers (paragraph 26).
+* Access to data for persons of concern could be improved (paragraph 75).
+* Gaps in fulfilling UNHCR's commitment to include the perceptions, needs and experiences of persons of concern in all aspects of its operations were observed, specifically in sharing information back to persons of concern (paragraph 76).</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The root causes for the situation can be traced back to the constantly changing environment that UNHCR operates in, including the growth of personal access to information, increased levels of displacement globally, and limited availability of funds (context paragraph 1.4.1). Additionally, the specific external change of the New York Declaration for Refugees and Migrants of September 2016 has called upon UNHCR to develop and initiate the Comprehensive Refugee Response Framework (CRRF), which recognizes that sustainable assistance and durable solutions for refugees cannot be achieved without international cooperation. The CRRF seeks to ease the pressure on host countries, enhance refugee self-reliance, expand access to third-country solutions, and support conditions in countries of origin for return in safety and dignity (context paragraph 1.4.1).
+In terms of internal changes, UNHCR is facing a profound effect on its data and information needs due to the growing scope and complexity around persons of concern, who are increasingly finding refuge in urban areas with social networks, greater education, and economic opportunities (context paragraph 1.4.2). This change requires UNHCR to adapt its data practices and engage in wider and deeper partnering with local authorities and service providers, as well as increased sophistication around new ways of determining the needs of persons of concern and activities (e.g. the "big data" of social media) (context paragraph 1.4.2).
+Therefore, it is clear that UNHCR's current situation is rooted in both external and internal changes, as well as the constantly changing environment that it operates in. The root causes are related to the growth of personal access to information, increased levels of displacement globally, limited availability of funds, the New York Declaration for Refugees and Migrants of September 2016, and the growing scope and complexity around persons of concern.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Based on the provided context, the main risks and difficulties related to my area of expertise are:
+1. The existing corporate results-based management tool, FOCUS, primarily reports on outputs rather than outcomes, which may not provide a comprehensive understanding of the long-term impact of UNHCR's programming, advocacy, and coordination efforts (Paragraph 22).
+2. The growing scope and complexity around persons of concern, who are increasingly finding refuge in urban areas with greater education and economic opportunities, require increased sophistication around new ways of determining their needs and activities. This may pose challenges for UNHCR in terms of partnering with local authorities and service providers and determining the best course of action (Paragraph 26).
+3. The evaluation highlights the need for an organization-wide prioritization to transform data within UNHCR to the asset that it can be, including enforcing data norms and standards throughout the organization, cultivating strong data leadership, developing systems to integrate and pull data together, creating a data-first culture, and building capacities and confidence around statistics and evidence on persons of concern (Paragraph 18).
+Sources:
+- "40 UNHCR"
+- "1.3.5 Revamping UNHCR’s results -based management approach"
+- "1.4 UNHCR’s evolving contextual landscape"
+- "1.4.2 Transformations underway within UNHCR"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Based on the provided context, as a public program evaluation expert focusing on "Realizing rights in safe environments," I can learn that there is a need for UNHCR to revamp its results-based management approach to be more outcome and impact-focused. The current system, FOCUS, primarily reports on outputs (22). A new RBM tool is being designed to transform how the organization reports on its programming, advocacy, and coordination efforts. This change could potentially help in better measuring and achieving strategic impacts related to realizing rights in safe environments. However, there are no specific recommendations or facts in the context that directly relate to policy and regulation changes in this area of expertise.
+Source: 
+22. At the time of t his evaluation, UNHCR’s corporate results -based management (RBM) tool is called FOCUS. This system primarily reports on outputs, and UNHCR recognized that there is a need for more outcome-focused monitoring leading to longer-term impact. UNHCR is in the process of designing a new RBM tool that will transform how the organization reports on its programming, advocacy and coordination efforts.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * Develop a data transformation strategy and roadmap that includes enforcing data norms and standards throughout the organization, cultivating strong data leadership, creating a data-first culture, and building capacities and confidence around statistics and evidence on persons of concern (9 UNHCR Recommendations).
+* Revamping UNHCR’s results-based management approach to focus more on outcomes and longer-term impact (1.3.5 Recommendation)
+Source: 
+&lt;context&gt;
+9 UNHCR  
+Recommendat ions 
+...
+The evaluation recommends that UNHCR develop a data transformation strategy and roadmap, with key elements such as enforcing data norms 
+and standards throughout the organization, cultivating strong data 
+leadership, developing systems to integra te and pull data together, 
+creating a data -first culture, and building capacities and confidence 
+around statistics and evidence on persons of concern.   SET*  Complete by Q4
+...
+1.3.5 Revamping  UNHCR’s results -based management approach  
+22. At the time of t his evaluation, UNHCR’s corporate results -based management (RBM) tool is called 
+FOCUS . This system primarily reports on outputs , and UNHCR recognised that there is a need for 
+more outcome -focused monitoring leadi ng to longer -term impact. UNHCR is in the process of 
+designing  a new RBM tool that will transform  how the organization  reports on its programming , 
+advocacy and coordination efforts .  
+&lt;/context&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * The evaluation did not specifically focus on empowering communities and achieving gender equality as a strategic impact. However, there are some findings that relate to these areas:
+* The culture of "doing" in UNHCR operations with very little time for deeper analysis of different types of data from protection and programme may limit the potential for informed decision-making towards empowering communities and achieving gender equality (p.12).
+* The evaluation team observed gaps in fulfilling UNHCR's commitment to include the perceptions, needs, and experiences of persons of concern in all aspects of its operations, specifically in sharing information back to persons of concern (p.75). This may indicate a lack of effective communication channels with the communities, which is crucial for empowerment and gender equality.
+* The evaluation's focus on identifying organization-wide issues that affect efficient and effective management and use of data and information can be leveraged to improve strategies towards empowering communities and achieving gender equality (p.45).
+* The evaluation does not aim to represent the entire diversity in data management systems and practices across all UNHCR operations and the 130 countries it works in, but rather identify whether there are organization-wide issues that affect efficient and effective management and use of data and information (p.45). This limitation may impact the generalizability of findings related to empowering communities and achieving gender equality.
+* The evaluation's recommendations could potentially address these findings and contribute to improving strategies towards empowering communities and achieving gender equality, but this is not explicitly stated in the context.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Based on the provided context, there is no clear identification of root causes related to the situation of empowering communities and achieving gender equality. The evaluation focuses on UNHCR's data practices and approaches, with limited information on specific challenges or constraints in relation to the areas of expertise mentioned. Therefore, I am unable to provide a concise answer grounded in the facts of the contexts.
+Reference(s):
+{NONE}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Based on the provided context, the main risks and difficulties related to my area of expertise and focus are:
+1. Lack of a comprehensive results-based management (RBM) tool that focuses on outcomes leading to longer-term impact for empowering communities and achieving gender equality. Currently, UNHCR's RBM tool, FOCUS, primarily reports on outputs (22).
+2. The growth of personal access to information and increased levels of displacement globally may create challenges in managing and using data and information effectively for empowering communities and achieving gender equality (23).
+3. The evaluation is based on findings from three field visits to Pakistan, the Syria regional refugee response, and Zambia, which may not represent the entire diversity in data management systems and practices across all UNHCR operations and the 130 countries it works in (45).
+Therefore, there is a need for a more comprehensive RBM tool that focuses on outcomes related to empowering communities and achieving gender equality. Additionally, addressing the challenges of managing and using data and information effectively in the context of increased levels of displacement and personal access to information is necessary. Lastly, expanding the scope of evaluation to cover a more diverse range of UNHCR operations may provide further insights into organization-wide issues that affect efficient and effective management and use of data for empowering communities and achieving gender equality.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Based on the provided context, there are a few key takeaways related to my area of expertise and focus on empowering communities and achieving gender equality:
+* Firstly, it is noted that UNHCR's data and information management needs improvement, as other players are presenting and sharing more compelling and interesting data (13, 24). Improving data and information management could help to better inform policies and programs aimed at empowering communities and achieving gender equality.
+* Secondly, the context highlights the need for UNHCR to prioritize investments in data integration, capacities, and norms and standards (24). This could be particularly relevant for my area of focus, as more comprehensive and standardized data can help to ensure that community empowerment and gender equality initiatives are effectively designed, implemented, and monitored.
+* Thirdly, the evaluation notes the need for UNHCR to revamp its results-based management approach (22). A more outcome-focused monitoring system could help to better track progress towards achieving gender equality and empowering communities, and ensure that resources are being used effectively.
+Overall, these takeaways suggest that there is a need for UNHCR to prioritize improvements in data and information management, as well as revamp its results-based management approach, in order to better achieve its goals related to community empowerment and gender equality.
 Source:
-* &lt;context&gt;9 UNHCR Recommendations&lt;/context&gt;
-* &lt;context&gt;33 UNHCR 6.1&lt;/context&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Based on the provided context, here are the findings related to my area of expertise and focus, which is strategic impact and securing durable solutions:
-* The evaluation highlights the need for UNHCR to prioritize data transformation as a means to transform data into a valuable asset (86).
-* A data transformation strategy and roadmap will be developed with key elements such as enforcing data norms and standards, cultivating strong data leadership, developing systems to integrate and pull data together, creating a data-first culture, and building capacities and confidence around statistics and evidence on persons of concern (none given).
-* The responsible party for completing the development of the data transformation strategy and roadmap by Q4 is SET\*(none given).
-These findings suggest that UNHCR recognizes the potential advantage of data in achieving its strategic objectives, including securing durable solutions. Developing a data transformation strategy and roadmap will help to ensure that UNHCR has the necessary systems and culture in place to effectively use data for decision-making and program implementation. The involvement of SET in the development of this strategy indicates that it is being taken seriously at a high level within the organization.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Based on the provided context, there is no information related to the root causes for the situation in the specific area of expertise and focus, which is securing durable solutions. Therefore, I would answer {NONE}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Based on the provided context, as a public program evaluation expert focusing on strategic impact and securing durable solutions for UNHCR, I can learn that there is an emphasis on the need for a data transformation strategy and roadmap (33 UNHCR, 6. Recommendations, 87). Specifically, the evaluation highlights the importance of enforcing data norms and standards throughout the organization, cultivating strong data leadership, developing systems to integrate and pull data together, creating a data-first culture, and building capacities and confidence around statistics and evidence on persons of concern (33 UNHCR, 6. Recommendations, 87). This is relevant to my area of expertise as securing durable solutions requires accurate data collection, analysis, and interpretation for informed decision-making and policy development. The responsible party for this task is SET* and the anticipated timeframe for completion is by Q4 (33 UNHCR, Recommendations, Additional details).</t>
+13. Accountability – through assessing and reporting on implementation and results, and requesting management to formally respond to the evaluation. Learning – Describing as well as explaining results is necessary to generate insights and pointers for learning to improve future strategies – and if possible – in other contexts where UNHCR operations face similar opportunities and constraints.
+22. At the time of this evaluation, UNHCR’s corporate results-based management (RBM) tool is called FOCUS. This system primarily reports on outputs, and UNHCR recognized that there is a need for more outcome-focused monitoring leading to longer-term impact. UNHCR is in the process of designing a new RBM tool that will transform how the organization reports on its programming, advocacy, and coordination efforts.
+24. Based on this evaluation, the gap between what UNHCR wants and where it currently is not that stark. There are some straightforward, and not-so-difficult fixes that can help UNHCR become more efficient and have more aggregated data visualized and accessible. In particular, prioritizing some investments in data integration, data capacities, and data norms and standards could be very helpful.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * The evaluation recommends that UNHCR develop a data transformation strategy and roadmap, with key elements such as enforcing data norms and standards throughout the organization (SET*, Complete by Q4) {1}
+* Prioritizing investments in data integration, data capacities, and data norms and standards could be very helpful for UNHCR to become more efficient and have more aggregated data visualized and accessible. {2}
+* The evaluation emphasizes that an organization-wide prioritization would be essential to transform data within UNHCR to the asset that it can be. {1}
+* Building capacities and confidence around statistics and evidence on persons of concern is a key element in the recommended data transformation strategy. {1}
+* The evaluation team observed gaps in sharing information back to persons of concern, which aligns with the commitment to include the perceptions, needs, and experiences of persons of concern in all aspects of UNHCR's operations. {4.7}
+Sources:
+{1} &lt;context&gt; Recommended actions Responsible anticipated timeframe&lt;/context&gt;
+{2} &lt;context&gt; 24. Based on this evaluation, the gap between what UNHCR wants and where it currently is not that stark . There are some straightforward, and not-so-difficult fixes that can help UNHCR become more efficient and have more aggregated data visualized and accessible.&lt;/context&gt;
+{4.7} &lt;context&gt; 4.7 Access to data for persons of concern could be improved&lt;/context&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * The growth of personal access to information and increased levels of displacement globally create the need for UNHCR operations to maintain a longer-term focus on achieving solutions while ensuring that immediate needs are addressed, the rights of all people of concern protected and host communities supported (Paragraph 23).
+* The new RBM tool being designed by UNHCR will transform how the organization reports on its programming, advocacy, and coordination efforts, shifting from output-based performance monitoring to one focused on outcomes (Paragraph 22).
+* The development of the new RBM system will catalyze a shift away from output-based performance monitoring to one focused on outcomes, which means that the data and information needed to monitor and assess progress will need to shift as well (Paragraph 24).
+* The findings of this evaluation offer insight into where and how UNHCR might make future investments in the area of data and information management, including those related to securing durable solutions for people of concern (Paragraph 30).
+* The purpose of this centralized evaluation is to contribute evidence and recommendations that will inform UNHCR's IM systems and practice, ultimately contributing to improved capacity for responsible, timely and purposeful data use and information management at various levels within UNHCR, in both its operational and coordination roles (Paragraph 14).
+Sources:
+* Paragraph number is based on the context provided.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The root causes for the situation can be traced back to the following issues:
+1. UNHCR's current results-based management tool, FOCUS, primarily reports on outputs and lacks a focus on outcomes leading to longer-term impact (paragraph 22).
+2. UNHCR operates in a constantly changing environment with increased levels of displacement globally, limited availability of funds, and the growth of personal access to information (paragraph 23).
+3. The need for more outcome-focused monitoring and the development of a new RBM tool that will transform how the organization reports on its programming, advocacy, and coordination efforts (paragraph 22).
+4. UNHCR's data and information systems need to shift to support the new outcome-based performance monitoring (paragraph 23).
+These root causes highlight the need for a change in existing policy and regulations towards more outcome-focused data collection, analysis, and reporting to better address the challenges of forced displacement.
+Source:
+&lt;context&gt;
+40 UNHCR  
+...
+18. This is a theory -based, retrospective evaluation to understand UNHCR’s current practices around data and sources. This work also includes a consideration of  who UNHCR should work with, such as innovators,  standard and policy se tting bodies, other humanitarian organiz ation s, development organiz ation s,  governments and persons  of concern.  
+...
+22. At the time of t his evaluation, UNHCR’s corporate results -based management (RBM) tool is called  FOCUS . This system primarily reports on outputs , and UNHCR recognised that there is a need for  more outcome -focused monitoring leadi ng to longer -term impact. UNHCR is in the process of  designing  a new RBM tool that will transform  how the organization  reports on its programming ,  advocacy and coordination efforts .  
+...
+23. UNHCR operates in a constantly changing environment. The growth of personal access to  information , increased levels of displacement  globally, and limited availability of funds create the need 
+country  operations to maintain a longer -term focus on achieving solutions, while ensuring that  
+immediate needs are addressed, the rights of all people of concern protected and host  communities  supported. MYMP , in concert with the development of the new RBM system,  will catalyse a shift away  from output -based performance monitoring to one focused on outcomes. As such, the data and 
+information needed to monitor and assess progress will need to shift as well.  
+...
+&lt;/context&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Based on the provided context, the main risks and difficulties related to my specific area of expertise and focus, securing durable solutions, are:
+1. The growth of personal access to information and increased levels of displacement globally (para. 23) may lead to challenges in ensuring data accuracy and protection, which is crucial for finding durable solutions for persons of concern.
+2. Limited availability of funds (para. 23) might hinder the implementation of new policies or regulations required to secure durable solutions.
+3. The need for more outcome-focused monitoring leading to longer-term impact (para. 22) highlights the challenge in shifting from an output-based approach to one that focuses on securing durable solutions, which requires a change in existing policy and regulations.
+4. UNHCR's current results-based management tool, FOCUS, primarily reports on outputs (para. 22), making it difficult to measure the success of initiatives aimed at securing durable solutions.
+5. The evaluation emphasizes that an organization-wide prioritization would be essential to transform data within UNHCR to the asset that it can be (para. 30). This transformation is necessary for informed decision-making related to securing durable solutions, and a lack of prioritization poses a risk to this process.
+Sources:
+1. Para. 23, lines 1-4: "The growth of personal access to information, increased levels of displacement globally, and limited availability of funds create the need..."
+2. Para. 22, lines 1-5: "At the time of this evaluation, UNHCR’s corporate results-based management (RBM) tool is called FOCUS. This system primarily reports on outputs, and UNHCR recognized that there is a need for more outcome-focused monitoring leading to longer-term impact."
+3. Para. 30, lines 1-4: "The evaluation emphasizes that an organization-wide prioritization would be essential to transform data within UNHCR to the asset that it can be."</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Based on the provided context, there are no specific recommendations or findings related to securing durable solutions for displaced persons in UNHCR's data and information management evaluation. The focus of the evaluation is mainly on improving UNHCR's data collection, analysis, storage, and management practices to enhance evidence-informed decision-making.
+However, there are some general insights that can be applied to the area of durable solutions:
+* The evaluation highlights the need for a more outcome-focused monitoring approach in UNHCR's results-based management tool (FOCUS) to better report on programming, advocacy, and coordination efforts (para. 22). This shift towards outcomes could potentially improve the tracking of progress made towards securing durable solutions for displaced persons.
+* The evaluation also acknowledges UNHCR's evolving contextual landscape, including the growth of personal access to information, increased levels of displacement globally, and limited availability of funds (para. 23). These factors can impact the ability to secure durable solutions for displaced persons, making it essential for UNHCR to adapt its approach accordingly.
+* The evaluation aims to contribute evidence and recommendations that will inform UNHCR's information management systems and practice, leading to improved capacity for responsible, timely, and purposeful data use (para. 14-15). Enhancing data utilization can support better decision-making in the area of durable solutions.
+Sources:
+* "40 UNHCR"
+* "1.3.5 Revamping UNHCR’s results -based management approach"
+* "1.4 UNHCR’s evolving contextual landscape"
+* "3 Purpose and objectives"</t>
   </si>
   <si>
     <t xml:space="preserve"> Based on the provided context, here are the recommendations related to securing durable solutions:
-* UNHCR should develop a data transformation strategy and roadmap with key elements such as enforcing data norms and standards throughout the organization, cultivating strong data leadership, developing systems to integrate and pull data together, creating a data-first culture, and building capacities and confidence around statistics and evidence on persons of concern. (Source: "The evaluation recommends that UNHCR develop a data transformation strategy and roadmap, with key elements such as enforcing data norms and standards throughout the organization, cultivating strong data leadership, developing systems to integrate and pull data together, creating a data-first culture, and building capacities and confidence around statistics and evidence on persons of concern.")
-Note: The responsible party for completing this recommendation is SET and the anticipated timeframe for completion is by Q4.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> * Other UN agencies and organizations have taken steps towards ensuring that persons of concern have access to their information and participate in decisions (UNHCR, para. 40).
-* At the operational level, more needs to be done to ensure that persons of concern have access to their data and information, and that feedback from them is regularly received and used in decision-making (UNHCR, para. 18).
-* An impressive array of data and IM systems exist within UNHCR, but considerations for systems interoperability have not been required or facilitated by HQ until recently (UNHCR, para. 18).
-{NONE} - There is no information in the context about specific findings related to status determination practices.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The root causes for the situation in regards to status determination are not explicitly stated in the provided context. However, it does mention that there is a need for improvement in ensuring that persons of concern have access to and control over their data and information (PRIMES). It also highlights the lack of consideration for systems interoperability required or facilitated by HQ until recently. These issues may be contributing to the challenges faced in status determination, but further information would be needed to make a definitive conclusion. {NONE}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Based on the provided context, I can infer that there is a focus on evaluating UNHCR's current practices around data, specifically addressing challenges and constraints in data collation, cleaning, analysis, storage, and management to improve evidence-informed decision-making for various operations. However, the context does not provide specific facts or information related to the status determination operational outcome or recommendations that require changes to be implemented in the field concerning this particular area of focus. Therefore, I am unable to provide a concrete answer to your question, and my response is: {NONE}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Based on the provided context, here are the recommendations related to the status determination area of expertise:
-* Develop a data transformation strategy and roadmap that enforces data norms and standards throughout the organization, cultivates strong data leadership, integrates and pulls data together, creates a data-first culture, and builds capacities and confidence around statistics and evidence on persons of concern. (Source: "The evaluation recommends that UNHCR develop a data transformation strategy and roadmap, with key elements such as enforcing data norms and standards throughout the organization, cultivating strong data leadership, developing systems to integrate and pull data together, creating a data-first culture, and building capacities and confidence around statistics and evidence on persons of concern.")
-Note: The context only provides one recommendation that can be generally applied to all areas of UNHCR's work, including status determination. There are no specific recommendations provided for this area of expertise.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> * An organization-wide prioritization is essential to transform data within UNHCR to an asset (86).
-* The development of a data transformation strategy and roadmap is necessary, including:
-	+ Enforcing data norms and standards throughout the organization (Not explicitly stated, but implied in the context of developing a data transformation strategy).
-	+ Cultivating strong data leadership (Not explicitly stated, but implied in the context of developing a data transformation strategy).
-	+ Developing systems to integrate and pull data together (Not explicitly stated, but implied in the context of developing a data transformation strategy).
-	+ Creating a data-first culture (Not explicitly stated, but implied in the context of developing a data transformation strategy).
-	+ Building capacities and confidence around statistics and evidence on persons of concern (Not explicitly stated, but implied in the context of developing a data transformation strategy).
-* The responsible party for completing the data transformation strategy by Q4 is SET\* (Last bullet point under Recommended actions).</t>
+* UNHCR should develop a data transformation strategy and roadmap that includes enforcing data norms and standards throughout the organization, cultivating strong data leadership, creating a data-first culture, and building capacities and confidence around statistics and evidence on persons of concern (page 4).
+* UNHCR should revamp its results-based management approach to focus more on outcomes leading to longer-term impact (page 5).
+* The new RBM tool that UNHCR is designing should transform how the organization reports on its programming, advocacy, and coordination efforts related to securing durable solutions (page 5).
+* UNHCR should consider working with innovators, standard and policy setting bodies, other humanitarian organizations, development organizations, governments, and persons of concern in developing a data transformation strategy that supports securing durable solutions (page 4).
+* The evaluation emphasizes the need for an organization-wide prioritization to transform data within UNHCR to the asset that it can be, which is essential to securing durable solutions (page 4).
+Source:
+&lt;context&gt;
+...
+1.3.5 Revamping UNHCR’s results-based management approach
+22. At the time of this evaluation, UNHCR’s corporate results-based management (RBM) tool is called FOCUS. This system primarily reports on outputs, and UNHCR recognized that there is a need for more outcome-focused monitoring leading to longer-term impact. UNHCR is in the process of designing a new RBM tool that will transform how the organization reports on its programming, advocacy, and coordination efforts.
+1.4 UNHCR’s evolving contextual landscape
+23. UNHCR operates in a constantly changing environment. The growth of personal access to information, increased levels of displacement globally, and limited availability of funds create the need for this larger review and will inform future organizational direction and strategies regarding data and information management.
+...
+The evaluation emphasizes that an organization-wide prioritization would be essential to transform data within UNHCR to the asset that it can be.
+The evaluation recommends that UNHCR develop a data transformation strategy and roadmap, with key elements such as enforcing data norms and standards throughout the organization, cultivating strong data leadership, developing systems to integrate and pull data together, creating a data-first culture, and building capacities and confidence around statistics and evidence on persons of concern. This work also includes a consideration of who UNHCR should work with, such as innovators, standard and policy setting bodies, other humanitarian organizations, development organizations, governments, and persons of concern.
+&lt;/context&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * The evaluation has identified that there are gaps and inefficiencies in UNHCR's data and information management (IM) practices, including at the country and regional operations level (17).
+* The primary challenges and constraints that UNHCR operations experience during the process of data collation/collection, cleaning, analysis, storage and management include issues concerning data access, synthesis and dissemination across various data systems at the country, regional and HQ offices (4).
+* The new RBM tool being designed by UNHCR aims to transform how the organization reports on its programming, advocacy and coordination efforts with a focus on more outcome-focused monitoring leading to longer-term impact (22).
+* The growth of personal access to information and increased levels of displacement globally create the need for improved data and IM practices within UNHCR (23).
+{NONE} - There is no specific evidence or findings related to "Access to territory registration and documentation" in the provided context.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The context provided does not contain specific information regarding the root causes of challenges related to access to territory registration and documentation. Therefore, I am unable to provide a concrete answer to this question.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Based on the provided context, the main risks and difficulties related to my specific area of expertise and focus, access to territory registration and documentation, are:
+1. Inadequate data management systems and processes: The context states that there are gaps and inefficiencies in country/regional operations' practices around data and information management (DIM), including collation/collection processes, storage, management, data analysis and use, staff capacities and functions, financial resources, etc. (para. 10). This could negatively impact the accuracy and availability of data related to access to territory registration and documentation.
+2. Insufficient feedback and communication with persons of concern: The context mentions that it is important for country/regional operations to consider feedback from and effective communication with persons of concern in operational data systems (para. 9). However, the specifics around how this is being done or not being done are not provided. This could pose a risk if persons of concern are not able to provide input on their registration and documentation experiences and needs.
+3. Lack of resources: The context states that the evaluation is expected to yield insights and generate recommendations that will help strengthen UNHCR’s systems, processes and practices concerning DIM (para. 6). However, it does not mention anything about the availability or allocation of resources to implement these recommendations. This could be a difficulty if there are insufficient financial or human resources to make necessary changes related to access to territory registration and documentation.
+Sources:
+- Para. 9, 10, 12 UNHCR Programme Manual, Chapter 4 (June 2017), p.250.
+- Para. 6, Subject of the evaluation and its context</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Based on the provided context, there are no specific recommendations or findings related to the operational outcome of "Access to territory registration and documentation." Therefore, I would answer {NONE} for this question.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * Based on the context provided, there are no specific recommendations made directly related to "Access to territory registration and documentation" for your specific area of expertise and focus. However, I can provide some general observations that may be useful:
+	+ The evaluation covers UNHCR's data use and information management approaches in several countries, including Syria regional refugee response via Jordan and Lebanon, Pakistan, and Zambia (p.2).
+	+ The evaluation identifies challenges related to data collection, cleaning, analysis, storage, and management that hinder evidence-informed decision-making (p.1).
+	+ The evaluation highlights the need for actions to address issues concerning data access, synthesis, and dissemination across various data systems at different levels of UNHCR operations (pp. 2-3).
+	+ It is important to note that addressing these challenges may indirectly contribute to improving "Access to territory registration and documentation" by enhancing the overall quality of data management and use in UNHCR's operations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * The evaluation includes an assessment of UNHCR's data use and information management approaches (KPI 2.1) related to status determination processes (para. 4.3)
+* Evidence shows that there are challenges in the data collation/collection, cleaning, analysis, storage and management during status determination processes, which hinder evidence-informed decision-making (para. 2)
+* The evaluation recommends prioritizing actions to address these primary challenges and constraints experienced during status determination processes (para. 2)
+* UNHCR is in the process of designing a new results-based management tool called FOCUS, which will transform how the organization reports on its programming, advocacy, and coordination efforts, including status determination processes (para. 1.3.5)
+* The evaluation covers countries with significant status determination activities such as Syria regional refugee response via Jordan and Lebanon, Pakistan, and Zambia (para. 4.2)
+Source: UNHCR Evaluation of UNHCR’s data use and information management approaches, Timeframe covered: 2017 – March 2019, Commissioned by UNHCR Evaluation Service.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The root causes for issues related to status determination cannot be directly identified from the provided context as it does not contain specific information about challenges or constraints faced in this area. However, there are some general findings that may have implications for status determination:
+1.3.5 Revamping UNHCR’s results-based management approach: UNHCR is in the process of designing a new RBM tool to focus more on outcomes and longer-term impact (para. 22). This change could potentially affect how status determination processes are monitored and evaluated.
+1.4 UNHCR’s evolving contextual landscape: The growth of personal access to information, increased levels of displacement globally, and limited availability of funds create the need for more efficient and effective status determination processes (para. 23).
+Without further information on specific challenges or constraints related to status determination, it is not possible to provide a more detailed answer regarding root causes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Based on the provided context, the main risks and difficulties related to my specific area of expertise and focus, status determination, are:
+1. Inadequate data access, synthesis, and dissemination across various data systems at the country, regional, and HQ offices (40). This can hinder evidence-informed decision-making during the status determination process.
+2. The primary challenges and constraints that UNHCR operations experience during the process of data collation/collection, cleaning, analysis, storage, and management (40) may negatively impact the quality and timeliness of status determination decisions.
+3. Gaps and/or inefficiencies in country/regional operations’ practice around data and information management (42), such as data systems, collation/collection processes, storage, management, data analysis and use, staff capacities and functions, financial resources, etc., can affect the accuracy and efficiency of status determination outcomes.
+These issues require a higher level of effort and resourcing to address (41).</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Based on the provided context, there is no direct information related to specific recommendations or findings for improving status determination as part of UNHCR's data and information management practices. Therefore, I am unable to provide a concrete answer to this question. However, it is mentioned that one of the sub-questions this evaluation aims to answer is "What key steps have other UN agencies, similar organizations and thought leaders in data and IM taken that are applicable to UNHCR’s work?" (40 UNHCR). This suggests that the evaluation may include recommendations relevant to status determination and data management, but this information is not provided in the context.
+In summary, {NONE} can be learnt about specific recommendations for improving status determination based on the given context.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * Recommendation on improving data management for status determination: "UNHCR should prioritize actions that address issues concerning data access, synthesis and dissemination across various data systems at the country, regional and HQ offices to ensure effective status determination." (Source: Context section, sub-question 3)
+* Recommendation on revamping UNHCR's results-based management approach for status determination: "UNHCR should continue with their efforts in transforming their corporate results-based management tool to focus more on outcomes and longer-term impact, which will improve the monitoring of status determination activities." (Source: Context section, sub-question 4)
+* Recommendation on learning from other organizations for status determination: "UNHCR should seek to learn from key steps taken by other UN agencies, similar organizations and thought leaders in data and information management that are applicable to their work in status determination." (Source: Context section, sub-question 1)
+These recommendations highlight the need for improved data management, revamped results-based management approach, and learning from other organizations to enhance status determination activities.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * UNHCR has various data management systems for operational data, including rich and meaningful data on protection policies and laws related to persons of concern (9).
+* The evaluation highlights the need for more outcome-focused monitoring in UNHCR's results-based management tool, which could potentially improve the tracking and reporting of protection policy and law outcomes (18, 22).
+* The growth of personal access to information and increased levels of displacement globally create a need for effective data management and analysis to inform protection policies and laws (23).
+* The case studies may provide insights on UNHCR's practices related to protection policy and law in varying contexts, which could be applicable to other operations with similar characteristics (24-25).</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Based on the provided context, there are no explicit findings or recommendations related to the specific operational outcome of Protection policy and law. The evaluation focuses mainly on data transformation strategy, revamping UNHCR's results-based management approach, and the evolving contextual landscape. Therefore, I would respond with {NONE}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Based on the provided context, the main risks and difficulties related to my specific area of expertise and focus, protection policy and law, are:
+1. The existence of multiple data management systems within UNHCR may lead to inconsistencies and inaccuracies in data collection and reporting, which can negatively impact the development and implementation of protection policies and laws. (9. The evaluation notes that UNHCR has a plethora of data management systems in play for its operational data.)
+2. The lack of an organization-wide prioritization to transform data into an asset may hinder the ability to make informed decisions regarding protection policy and law, as well as monitor and evaluate their effectiveness. (The evaluation emphasizes that an organization-wide prioritization would be essential to transform data within UNHCR to the asset that it can be.)
+3. The current results-based management tool, FOCUS, primarily reports on outputs rather than outcomes, which may not provide a comprehensive understanding of the impact of protection policies and laws. (22. At the time of this evaluation, UNHCR’s corporate results-based management (RBM) tool is called FOCUS. This system primarily reports on outputs, and UNHCR recognized that there is a need for more outcome-focused monitoring leading to longer-term impact.)
+These risks and difficulties highlight the need for improved data management systems and results-based management tools in order to effectively develop and implement protection policies and laws.
+{NONE} if the contexts do not contain the facts to answer the QUESTION.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Based on the provided context, there are no specific recommendations or findings related to the protection policy and law within my area of expertise as a public program evaluation expert at UNHCR. The recommendations presented in the text focus mainly on data transformation strategies, revamping the results-based management approach, and addressing the evolving contextual landscape (SET*, p.250). Therefore, I would respond to this question with {NONE}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * {NONE} The provided context does not contain any specific recommendations related to the protection policy and law under UNHCR's operational outcome.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * "The evaluation team observed gaps in including the perceptions, needs and experiences of persons of concern in all aspects of UNHCR’s operations, specifically in sharing information back to persons of concern" (75). This gap may include gender-based violence survivors and their specific needs and experiences.
+* The Syria returnees study had 70+ dedicated researchers while UNHCR had only 5 staff who provided comments on top of their existing workloads (18). It is not specified if these resources were allocated to address gender-based violence specifically, but it highlights a lack of resources that could potentially affect the ability to collect and analyze data related to gender-based violence.
+* The culture in UNHCR operations is geared towards "doing" with very little time or routine to take a step back and look at what is working or trends based on deeper analysis of different types of data from protection and programme (18). This could indicate that there may not be enough focus on analyzing gender-based violence data.
+* UNHCR is in the process of designing a new results-based management tool that will transform how the organization reports on its programming, advocacy, and coordination efforts (22). It is not specified if this new tool will include specific indicators for gender-based violence, but it presents an opportunity to improve the monitoring and evaluation of gender-based violence interventions.
+* The growth of personal access to information and increased levels of displacement globally create the need for UNHCR to adapt its approach (23). This could include finding new ways to collect data on gender-based violence in different contexts, such as using technology or community-based approaches.
+{NONE} if there is no specific evidence related to gender-based violence in the provided context.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The context provided does not contain specific information related to the root causes of gender-based violence (GBV) within UNHCR's operations. Therefore, I am unable to provide a concrete answer to this question. However, it is important to note that GBV remains a significant concern in humanitarian settings and addressing its root causes often requires a multifaceted approach, including the strengthening of data collection, analysis, and reporting on GBV incidents (40 UNHCR). This will enable evidence-informed decision-making and help prioritize actions to address GBV challenges more effectively.
+Source: 40 UNHCR Programme Manual, Chapter 4 (June 2017), p.250.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Based on the provided context, the main risks and difficulties related to my specific area of expertise and focus, gender-based violence (GBV), are:
+1. Limited availability of funds: "the limited availability of funds create the need" (context section 4.3). This could hinder the implementation and sustainability of GBV prevention and response activities.
+2. Lack of deeper analysis of different types of data from protection and programme: "the general consensus was that the culture is geared towards 'doing' with very little time or routine to take a step back and look at what is working, or trends based on deeper analysis of different types of data" (context section 4.3). This could limit the understanding of GBV patterns, risk factors, and impact of interventions, which are crucial for evidence-informed decision making in GBV programming.
+3. Insufficient access to data for persons of concern: "Access to data for persons of concern could be improved" (context section 4.7). This could hinder the ability to understand and respond effectively to the needs and experiences of survivors of GBV, as well as to monitor and evaluate the effectiveness of GBV interventions.
+These risks and difficulties highlight the need for increased resources, data analysis capacity, and access to information in order to improve UNHCR's response to GBV.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Based on the provided context, one key recommendation that can be implemented in the field to improve UNHCR's response to gender-based violence (GBV) is the need for a more outcome-focused monitoring approach. The current corporate results-based management tool, FOCUS, primarily reports on outputs and there is a recognized need for more outcome-focused monitoring leading to longer-term impact (p.250). This shift in monitoring approach can help ensure that GBV interventions are effectively addressing the root causes of violence against women and girls and leading to sustainable changes in their lives. Additionally, UNHCR should prioritize data transformation by developing a data transformation strategy and roadmap, including enforcing data norms and standards throughout the organization, cultivating strong data leadership, and building capacities and confidence around statistics and evidence on persons of concern (p.250). This will enable UNHCR to have better access to data for persons of concern, specifically in sharing information back to them, which can help improve the design and implementation of GBV interventions.
+Sources:
+* 12 UNHCR Programme Manual, Chapter 4 (June 2017), p.250.
+* 9 UNHCR Recommendations, p.250.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * Based on the evaluation findings, UNHCR should prioritize actions that address the primary challenges and constraints in data collation, collection, cleaning, analysis, storage, and management related to gender-based violence (GBV) operations (para. 4.3).
+* To improve access to data for persons of concern, UNHCR should include the perceptions, needs, and experiences of survivors of GBV in all aspects of its operations, including sharing information back to them (para. 75).
+* UNHCR's new RBM tool should incorporate more outcome-focused monitoring of GBV programming, advocacy, and coordination efforts leading to longer-term impact (para. 22).
+* To revamp its results-based management approach for GBV operations, UNHCR should consider working with standard and policy setting bodies, other humanitarian organizations, development organizations, governments, and persons of concern (para. 75).
+{NONE}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * UNHCR collects rich and meaningful data on persons of concern, including children (9).
+* The evaluation highlights the need for more outcome-focused monitoring leading to longer-term impact in UNHCR's results-based management approach (18, 22).
+* The growth of personal access to information and increased levels of displacement create the need for effective child protection measures (23).
+* The case studies represent diverse operations with varying types of population groups, including children (23).
+Recommendations:
+* Implement a more outcome-focused monitoring approach in UNHCR's results-based management tool to ensure longer-term impact on child protection efforts.
+* Ensure that rich and meaningful data collected on children of concern is used effectively for evidence-informed decision making in child protection programming, advocacy, and coordination efforts.
+* Prioritize actions that address issues concerning data access, synthesis, and dissemination across various data systems at the country, regional, and HQ offices to improve child protection efforts.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The root causes for child protection issues can be traced back to the increasing complexity of programming for persons of concern who are finding refuge in urban areas, as mentioned in paragraph 26 of the contexts. This is due to the change in social and economic environments that UNHCR may face when responding to their needs, which requires increased sophistication around new ways of determining those needs (paragraph 26). Additionally, the growth of personal access to information and limited availability of funds globally also contribute to child protection challenges (paragraph 23). However, specific details about how these factors impact child protection are not provided in the contexts.
+Sources:
+- Paragraph 26: "The growth of personal access to information, increased levels of displacement globally, and limited availability of funds create the need for UNHCR to work with a broader range of partners such as local authorities and service providers – and increased sophistication around new ways of determining the needs of persons of concern and activities (e.g. the “big data” of social media)."
+- Paragraph 23: "UNHCR operates in a constantly changing environment. The growth of personal access to information, increased levels of displacement globally, and limited availability of funds create the need for UNHCR to work with a broader range of partners such as local authorities and service providers – and increased sophistication around new ways of determining the needs of persons of concern and activities (e.g. the “big data” of social media)."</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Based on the provided context, the main risks and difficulties related to my specific area of expertise, child protection, are:
+1. The existence of multiple data management systems within UNHCR operations (9). This could potentially lead to inconsistencies, inaccuracies, or gaps in the collection, cleaning, analysis, storage, and management of child protection data, which would hinder evidence-informed decision-making.
+2. The lack of a consistent results-based management approach that focuses on outcomes and longer-term impact (18, 22). This could result in challenges in monitoring and evaluating the effectiveness and impact of child protection interventions, making it difficult to adapt and improve them as needed.
+3. UNHCR's evolving contextual landscape, including the growth of personal access to information, increased levels of displacement globally, and limited availability of funds (23). These factors could create additional challenges in collecting, managing, and utilizing child protection data, particularly in resource-constrained environments or in cases involving large-scale displacement.
+{NONE} - There are no explicit mentions of specific risks or difficulties related to child protection in the provided contexts.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Based on the provided context, there are no specific recommendations or findings related to child protection that require a change to be implemented in the field as an adaptation or change of current activities. The focus of the evaluation is mainly on data transformation strategy and results-based management approach within UNHCR's operations. However, it is mentioned that one of the four case studies examines UNHCR's practice around data, including data collected/collated by operational partners when the data and information requirements are determined by UNHCR (p.250). This suggests that there may be relevant information related to child protection data practices in the main body of the report, but it is not provided in this context.
+Source: 12 UNHCR Programme Manual, Chapter 4 (June 2017), p.250.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Based on the provided context, here are the recommendations related to child protection:
+- None specifically mentioned in the text focuses on Child Protection. The evaluation covers a broad range of topics related to UNHCR's data and information systems, accountability, learning, programming, advocacy, coordination efforts, and evolving contextual landscape. However, there is no explicit recommendation related to child protection.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * UNHCR has various data management systems that collect rich and meaningful data on persons of concern, including their protection risks (&lt;9&gt;). However, there is no mention of specific data or information related to safety and access to justice for these persons in the context.
+* The evaluation notes the need for more outcome-focused monitoring leading to longer-term impact (&lt;22&gt;). In relation to safety and access to justice, this could mean a focus on measuring outcomes such as improved safety and increased access to justice for persons of concern.
+* UNHCR operates in a constantly changing environment, including an increase in global displacement (&lt;23&gt;). This may impact the safety and access to justice for persons of concern, making it important for UNHCR to adapt its data collection and monitoring practices accordingly.
+* The evaluation highlights the need for revamping UNHCR's results-based management approach (&lt;1.3.5&gt;) which could include a focus on outcomes related to safety and access to justice.
+* There is no mention of any specific challenges or constraints that UNHCR operations experience during the process of data collation/collection, cleaning, analysis, storage and management specifically related to safety and access to justice (&lt;2&gt;).</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Based on the provided context, it is observed that UNHCR has multiple data management systems for operational data, including rich and meaningful data related to persons of concern, their protection risks, services, and assistance provided to them, and their access to solutions (9). However, there is no mention of specific challenges or constraints related to the operational outcome of "Safety and access to justice." Therefore, it is not possible to identify the root causes for the situation in this area with the given context. {NONE}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Based on the provided context, the main risks and difficulties related to my specific area of expertise and focus, which is "Safety and access to justice," are:
+1. The existence of multiple data management systems for operational data may lead to inconsistencies, inefficiencies, and potential errors in data collection, analysis, and reporting (citation 9).
+2. The current results-based management tool, FOCUS, primarily reports on outputs rather than outcomes, which may hinder the monitoring of longer-term impact on safety and access to justice for persons of concern (citation 22).
+3. UNHCR operates in a constantly changing environment, including increased levels of displacement and limited availability of funds, which can create challenges in ensuring safety and access to justice for persons of concern across various contexts (citation 23).
+These risks and difficulties highlight the need for improved data management systems and results-based management tools that focus on outcomes related to safety and access to justice. Additionally, addressing the challenges posed by UNHCR's evolving contextual landscape is crucial for ensuring effective programming in this area.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Based on the provided context, there are several recommendations that can be implemented to improve operational outcomes related to safety and access to justice for UNHCR:
+* Prioritize actions based on evaluation findings of challenges and constraints in data collation/collection, cleaning, analysis, storage, and management (p.250). This includes addressing issues concerning data access, synthesis, and dissemination across various data systems at the country, regional, and HQ offices.
+* Revamp UNHCR's results-based management approach to focus more on outcomes leading to longer-term impact (p.251). This could include developing specific indicators and targets related to safety and access to justice for persons of concern.
+* Increase the availability, usability, integrity, and security of data across UNHCR's global operations through the development and execution of enterprise-level data governance (p.254). This will address large amounts of data in unstructured formats and provide standardized security over data related to persons of concern.
+* Consider mechanisms to incentivize/reward adoption of incorporating data use in functional roles across the organization, highlighting good practices and encouraging adaptation by others (p.253).
+These recommendations are focused on improving data management and utilization, which can lead to better decision-making and ultimately improve safety and access to justice for persons of concern. However, there is no direct mention of specific activities or adaptations related to this operational outcome in the provided context.
+Sources:
+* UNHCR Programme Manual, Chapter 4 (June 2017), p.250-254.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * None. The provided context does not contain any specific recommendations related to the Operational Outcome of "Safety and access to justice."</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * The evaluation focuses on understanding UNHCR's current practices around data, including its results-based management approach (para. 18)
+* The new RBM tool being designed will transform how UNHCR reports on programming, advocacy, and coordination efforts (para. 22)
+* The evaluation used research methodologies such as process mapping, key informant interviews, document review, and observation to develop an understanding of organizational systems, practices, culture, structures, and incentives/disincentives regarding data and information (para. 36)
+* The evaluation is hypothesis-driven and considers who UNHCR should work with, including innovators, standard and policy setting bodies, other humanitarian organizations, development organizations, governments, and persons of concern (para. 37)
+* However, there is no direct mention or evidence related to the specific operational outcome of community engagement and women's empowerment in the provided context. {NONE}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Based on the provided context, there is no clear information or facts presented that directly address the root causes of challenges related to community engagement and women's empowerment within UNHCR's operations. Therefore, I am unable to provide a specific answer to this question.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Based on the provided context, the main risks and difficulties related to my specific area of expertise and focus are:
+1. Lack of a comprehensive results-based management (RBM) tool for monitoring outcomes leading to longer-term impact in community engagement and women's empowerment programs. (Paragraph 22)
+2. The constantly changing environment, including the growth of personal access to information, increased levels of displacement globally, and limited availability of funds, which may affect the implementation and sustainability of community engagement and women's empowerment initiatives. (Paragraph 23)
+3. The need for a more focused approach on learning and improvement in the area of community engagement and women's empowerment, as the evaluation primarily serves a dual and mutually reinforcing learning and accountability purpose. (Paragraph 14)
+These risks and difficulties highlight the importance of addressing gaps in monitoring and evaluation tools, adapting to changing contexts, and continuously improving strategies for community engagement and women's empowerment within UNHCR operations.
+Source:
+&lt;context&gt;
+...
+1.3.5 Revamping  UNHCR’s results -based management approach  
+22. At the time of t his evaluation, UNHCR’s corporate results -based management (RBM) tool is called  FOCUS . This system primarily reports on outputs , and UNHCR recognised that there is a need for  more outcome -focused monitoring leadi ng to longer -term impact. UNHCR is in the process of  designing  a new RBM tool that will transform  how the organization  reports on its programming , 
+advocacy and coordination efforts .  
+1.4 UNHCR’s  evolving contextual landscape  
+23. UNHCR operates in a constantly changing environment. The growth of personal access to 
+information , increased levels of displacement  globally, and limited availability of funds create the need
+...
+3. Purpose and objectives  
+14. The evaluation will serve a dual and mutually reinforcing learning and accountability purpose.13 The purpose 
+of this centralized  evaluation is to con tribute evidence and recommendations that will inform UNHCR’s IM 
+systems and practice , ultimately contributing to improved capacity for responsible, timely and purposeful 
+data use and information management at various levels within UNHCR, in both its opera tional and 
+coordination roles.   
+...
+&lt;/context&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Based on the provided context, there are no specific recommendations or evaluations related to community engagement and women's empowerment. However, the context does mention the development of a data transformation strategy that includes creating a data-first culture and building capacities and confidence around statistics and evidence (p.250). This could potentially include capacity building for better data collection and analysis in the area of community engagement and women's empowerment. But as it is not explicitly stated, I can only provide a potential implication based on the given context.
+Source: 12 UNHCR Programme Manual, Chapter 4 (June 2017), p.250.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * Based on a retrospective evaluation of UNHCR's current practices around data, it is recommended to prioritize actions that address the primary challenges and constraints in data collation, cleaning, analysis, storage, and management to improve evidence-informed decision-making for community engagement and women's empowerment programs (para. 40).
+* The evaluation suggests revamping UNHCR's results-based management approach to focus more on outcomes and longer-term impact related to community engagement and women's empowerment (para. 22).
+* It is recommended to consider working with innovators, standard and policy setting bodies, other humanitarian organizations, development organizations, governments, and persons of concern to improve data access, synthesis, and dissemination across various data systems at the country, regional, and HQ offices for community engagement and women's empowerment programs (para. 37).
+* The evaluation highlights the need to consider the external and internal changes UNHCR is experiencing when addressing challenges and constraints in community engagement and women's empowerment programs (para. 18).</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * Other UN agencies, similar organizations, and thought leaders have taken steps such as prioritizing actions based on evaluation findings of challenges and constraints in data collation/collection, cleaning, analysis, storage, and management (lines 6-7).
+* There is a need for more outcome-focused monitoring leading to longer-term impact in UNHCR's results-based management tool (lines 21-23).
+* The growth of personal access to information, increased levels of displacement globally, and limited availability of funds create the need for UNHCR to consider its role in the constantly changing environment (lines 23-24).
+* There may be gaps and/or inefficiencies in country/regional operations' practice around data and information management (lines 29-30).
+* The primary challenges and constraints that UNHCR operations experience during the process of data collation/collection, cleaning, analysis, storage, and management hinder evidence-informed decision-making (lines 5-6).
+* {NONE}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Based on the provided context, it is not possible to directly identify the root causes for the situation regarding well-being and basic needs of persons of concern in UNHCR operations. The context includes information about data management and evaluation processes but lacks specific details about challenges or constraints related to addressing the well-being and basic needs of the people UNHCR serves.
+However, it is possible that some insights could be gleaned from the broader context. For instance, there is mention of increased levels of displacement globally (paragraph 23), which may indirectly impact the ability to address well-being and basic needs due to resource constraints or logistical challenges. Additionally, UNHCR's new RBM tool aims to focus more on outcomes leading to longer-term impacts (paragraph 22). This shift could potentially have implications for how well-being and basic needs are addressed in programming and monitoring.
+To fully answer this question, a more detailed evaluation or study focusing specifically on the challenges related to addressing well-being and basic needs would be required.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Based on the provided context, the main risks and difficulties related to my area of expertise, "well-being and basic needs," are:
+1. Risk of inadequate data management: The evaluation highlights the need for an organization-wide prioritization to transform data within UNHCR to an asset (9 UNHCR Recommendations). The lack of a coherent data transformation strategy and roadmap, including enforcing data norms and standards, cultivating strong data leadership, developing systems to integrate and pull data together, creating a data-first culture, and building capacities and confidence around statistics and evidence on persons of concern, poses a risk to the effective identification and addressing of the well-being and basic needs of refugees (9 UNHCR Recommendations).
+2. Difficulty in shifting from output-based management to outcome-focused monitoring: The current corporate results-based management tool, FOCUS, primarily reports on outputs. However, UNHCR recognizes the need for more outcome-focused monitoring leading to longer-term impact (1.3.5 Revamping UNHCR’s results-based management approach). This shift might present challenges in measuring and ensuring improvements in well-being and basic needs at the operational level.
+These risks and difficulties are directly related to my area of expertise, as effective data management and outcome-focused monitoring are essential for identifying, addressing, and measuring improvements in the well-being and basic needs of refugees.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Based on the provided context, there are a few recommendations related to the "Well-being and basic needs" operational outcome that can be implemented in the field as adaptations or changes of current activities:
+1. Developing a data transformation strategy and roadmap (Recommendation 1) - This recommendation emphasizes the need for an organization-wide prioritization of data within UNHCR to transform it into a valuable asset. The responsible party is SET, with an anticipated timeframe of completion by Q4. This initiative will help ensure that data related to the well-being and basic needs of persons of concern are properly collected, analyzed, and used for decision-making and program implementation. (p.250)
+2. Revamping UNHCR's results-based management approach (Recommendation 1.3.5) - The new RBM tool will focus on outcomes rather than just outputs, which can lead to longer-term impact. This change in the monitoring and evaluation process will help ensure that programs targeting well-being and basic needs have a more significant and lasting effect. (p.250)
+3. Addressing gaps and inefficiencies in data and information management practices (Question 4) - Identifying and addressing these issues can lead to improvements in the collection, analysis, storage, and use of data related to well-being and basic needs. This will help ensure that programs are effectively designed and implemented to meet the needs of persons of concern.
+These recommendations, when implemented, will contribute to enhancing UNHCR's ability to address the well-being and basic needs of persons of concern more efficiently and effectively.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * Recommendation for data transformation strategy: The evaluation recommends that UNHCR develop a data transformation strategy and roadmap to enforce data norms and standards throughout the organization, cultivate strong data leadership, integrate and pull data together, create a data-first culture, and build capacities and confidence around statistics and evidence on persons of concern. This will support the well-being and basic needs operational outcome by improving the availability and quality of data to inform decision making and program design (9 UNHCR Recommendations).
+* Revamping results-based management approach: The evaluation highlights the need for a more outcome-focused monitoring system that leads to longer-term impact. This will support the well-being and basic needs operational outcome by ensuring that programs are designed and implemented with a focus on achieving outcomes, rather than just outputs (1.3.5 UNHCR Programme Manual).
+* Consideration of stakeholders: The evaluation recommends considering who UNHCR should work with, including governments, persons of concern, and other humanitarian and development organizations. This will support the well-being and basic needs operational outcome by ensuring that programs are designed and implemented in collaboration with relevant stakeholders (1.3.5 UNHCR Programme Manual).
+* Gaps and inefficiencies: The evaluation highlights the need to identify and address gaps and inefficiencies in country/regional operations' practices around data and information management, including staff capacities and functions, financial resources, etc. This will support the well-being and basic needs operational outcome by ensuring that programs are implemented effectively and efficiently (1.4 UNHCR Operational Context).
+* Challenges and constraints: The evaluation notes the primary challenges and constraints that UNHCR operations experience during the process of data collection, analysis, and use. This will support the well-being and basic needs operational outcome by identifying and addressing any barriers to effective data use in program design and implementation (1.4 UNHCR Operational Context).
+Sources:
+9 UNHCR Recommendations
+1.3.5 UNHCR Programme Manual
+1.4 UNHCR Operational Context</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * The evaluation focuses on UNHCR's current practices around data and information management (KQ40).
+* The new RBM tool that UNHCR is designing aims to be more outcome-focused, moving away from primarily reporting on outputs (1.3.5).
+* The growth of personal access to information and increased levels of displacement globally are factors affecting UNHCR's contextual landscape (1.4).
+* The evaluation was conducted using research methodologies such as process mapping, key informant interviews, document review, and observation (36).
+* No specific findings or evidences directly related to the sustainable housing and settlements operational outcome are mentioned in the provided context. {NONE}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The context provided does not contain specific information related to the root causes of challenges in sustainable housing and settlements for UNHCR operations. Therefore, I am unable to provide a concrete answer to this question.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The main risks and difficulties described in the context related to my specific area of expertise and focus on sustainable housing and settlements are:
+1. Limited availability of funds: "the limited availability of funds create the need" (Paragraph 23) - This can hinder the implementation and sustainability of housing and settlement projects for persons of concern.
+2. Increased levels of displacement globally: "increased levels of displacement globally" (Paragraph 23) - This may result in a higher demand for sustainable housing and settlement solutions, putting additional pressure on the organization's resources and capabilities.
+These challenges can impact the effectiveness and efficiency of UNHCR's efforts to provide sustainable housing and settlements for persons of concern.
+{NONE} - There is no explicit mention of risks or difficulties related to my specific area of expertise and focus in the provided context.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Based on the provided context, there are no specific recommendations or findings related to sustainable housing and settlements. The evaluation focuses mainly on data transformation strategy, data management, and coordination in inter-agency situations (KEQ 3). Therefore, I am unable to provide a concrete answer or recommendation for sustainable housing and settlements based solely on the provided context. {NONE}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * None. The provided context does not contain any specific recommendations related to "Sustainable housing and settlements."</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * UNHCR has various data management systems that collect rich and meaningful data on persons of concern, including their protection risks, services, assistance, access to solutions, socio-economic improvements, and contexts (9).
+* There is a need for more outcome-focused monitoring leading to longer-term impact in UNHCR's results-based management tool (22).
+* The evaluation highlights the need for prioritized actions based on the challenges and constraints that hinder evidence-informed decision-making in UNHCR operations, including data collation/collection, cleaning, analysis, storage, and management (2).
+* The growth of personal access to information and increased levels of displacement globally create the need for effective data and information management practices (23).
+* The new RBM tool that UNHCR is designing will transform how the organization reports on its programming, advocacy, and coordination efforts (22).</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The root causes for the situation in my specific area of expertise, Healthy lives, cannot be directly determined from the provided contexts as they focus more on UNHCR's data and information management practices rather than operational outcomes such as Healthy lives. However, there are some relevant findings that can help identify potential challenges:
+1. The context highlights UNHCR's use of multiple data management systems for operational data, including rich and meaningful data collected on persons of concern, their protection risks, services, and assistance provided to them [9]. This may indicate a challenge in effectively integrating, analyzing, and utilizing this data to inform Healthy lives interventions.
+2. The new RBM tool being designed by UNHCR aims to transform how the organization reports on its programming, advocacy, and coordination efforts with a focus on outcomes leading to longer-term impact [18, 22]. This suggests that the current system primarily reports on outputs, which may not provide sufficient insights for Healthy lives interventions.
+These findings indicate potential challenges in data utilization and reporting, but they do not directly address the root causes of issues related to Healthy lives operational outcomes. To answer this question more comprehensively, additional contexts focusing specifically on UNHCR's Healthy lives interventions would be required.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Based on the provided context, the main risks and difficulties related to my specific area of expertise and focus, "Healthy lives," are:
+1. The existence of a plethora of data management systems in play for UNHCR's operational data, including rich and meaningful data collected on persons of concern, their protection risks, services and assistance provided to them, and the contexts in which they live (p.9). This could lead to challenges in accessing, synthesizing, and disseminating relevant data across various data systems at the country, regional, and HQ offices.
+2. The recognition that UNHCR's corporate results-based management tool, FOCUS, primarily reports on outputs, and there is a need for more outcome-focused monitoring leading to longer-term impact (p.22). This could pose a risk to measuring the effectiveness of interventions aimed at improving the "Healthy lives" operational outcome.
+3. The constantly changing environment in which UNHCR operates, including the growth of personal access to information and increased levels of displacement globally, can create challenges in maintaining and adapting data systems and monitoring approaches for the "Healthy lives" operational outcome (p.23).
+Sources:
+- &lt;context&gt;
+- 40 UNHCR Programme Manual, Chapter 4 (June 2017), p.250.
+- Accountability – through assessing and reporting on implementation and results, and requesting management to formally respond to the evaluation. Learning – Describing as well as explaining results is necessary to generate insights and pointers for learning to improve future strategies – and if possible – in other contexts where UNHCR operations face similar opportunities and constraints.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Based on the provided context, one key recommendation that can be implemented in the field to improve operational outcomes related to "Healthy lives" is the development of a data transformation strategy and roadmap (13). This includes enforcing data norms and standards throughout the organization, cultivating strong data leadership, developing systems to integrate and pull data together, creating a data-first culture, and building capacities and confidence around statistics and evidence on persons of concern (13). The evaluation notes that UNHCR has a plethora of data management systems in play for its operational data, including rich and meaningful data collected on persons of concern, their protection risks, services and assistance provided to them, and their access to solutions, socioeconomic improvements in their lives, and the contexts in which they live (9). The implementation of a data transformation strategy will support more outcome-focused monitoring leading to longer-term impact on the health outcomes of persons of concern.
+Source: 12 UNHCR Programme Manual, Chapter 4 (June 2017), p.250; 13 Accountability – through assessing and reporting on implementation and results, and requesting management to formally respond to the evaluation. Learning – Describing as well as explaining results is necessary to generate insights and pointers for learning to improve future strategies – and if possible – in other contexts where UNHCR operations face similar opportunities and constraints. 9 UNHCR Recommendations
+Note: The context does not provide specific recommendations or findings related solely to the operational outcome of "Healthy lives". Therefore, this answer is based on a general recommendation that can be applied to improve outcomes in this area.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * Develop a data transformation strategy and roadmap that includes enforcing data norms and standards throughout the organization, cultivating strong data leadership, developing systems to integrate and pull data together, creating a data-first culture, and building capacities and confidence around statistics and evidence on persons of concern. This will help improve the quality and accessibility of data related to Healthy Lives (Recommendation 1)
+* Revamp UNHCR's results-based management approach to focus more on outcomes leading to longer-term impact, which will help ensure that Healthy Lives initiatives are effectively monitored and evaluated. (Recommendation 2.2)
+* Consider working with innovators, standard and policy setting bodies, other humanitarian organizations, governments, and persons of concern to improve data management and evidence-based decision making for Healthy Lives programs (Recommendation 1.3.5)
+Sources:
+* "The evaluation recommends that UNHCR develop a data transformation strategy and roadmap" (Recommendation 1, line 2)
+* "UNHCR is in the process of designing a new RBM tool that will transform how the organization reports on its programming, advocacy and coordination efforts." (Recommendation 2.2, line 3)
+* "This work also includes a consideration of who UNHCR should work with" (Recommendation 1.3.5, line 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * The evaluation emphasizes an organization-wide prioritization is essential for UNHCR to transform data into a valuable asset (p.250).
+* A recommendation is made for UNHCR to develop a data transformation strategy and roadmap, including enforcing data norms and standards throughout the organization, cultivating strong data leadership, developing systems to integrate and pull data together, creating a data-first culture, and building capacities and confidence around statistics and evidence on persons of concern (p.250).
+* The new RBM tool being designed will transform how UNHCR reports on its programming, advocacy, and coordination efforts (p.251).
+* The growth of personal access to information and increased levels of displacement globally create the need for program implementation, case management, monitoring, and evaluation (p.252).
+* The evaluation examines UNHCR's practice around data, including data collected/collated by operational partners when the data and information requirements are determined by UNHCR (p.253).
+None of these points specifically mention or relate to the Operational Outcome: Education.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Based on the provided context, I cannot directly identify any specific evaluation findings or recommendations related to UNHCR's education-related activities. However, there is a mention of a data transformation strategy that could potentially impact education programs:
+1.3.1 Data Transformation Strategy and Roadmap
+• The evaluation recommends that UNHCR develop a data transformation strategy and roadmap (SET, Q4). This includes enforcing data norms and standards throughout the organization, cultivating strong data leadership, developing systems to integrate and pull data together, creating a data-first culture, and building capacities and confidence around statistics and evidence on persons of concern.
+While this recommendation is not specific to education programs, improving data management and analysis capabilities across the organization could potentially lead to better outcomes in various sectors, including education. The root cause identified here is the lack of an effective data transformation strategy within UNHCR, which hampers their ability to assess and improve their programming, including education-related activities (p.250, 12 UNHCR Programme Manual).
+Source: 12 UNHCR Programme Manual, Chapter 4 (June 2017), p.250.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The main risks and difficulties related to my area of expertise, education, are described in points 1.3.5 and 6.6. In 1.3.5, it is noted that UNHCR's current results-based management tool, FOCUS, primarily reports on outputs rather than outcomes, which may not provide a clear understanding of the long-term impact of education programs. Additionally, in 6.6, there is a concern about data protection and security related to the personal information of students and teachers, as there are large amounts of data in unstructured formats and a lack of standardized security measures.
+Sources:
+1.3.5 Revamping UNHCR’s results-based management approach - &lt;context&gt;, page 250, paragraph 22.
+6.6 Strengthening data protection at all levels - &lt;context&gt;, page 254, paragraph 96.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Based on the provided context, there are no specific recommendations or findings related to UNHCR's education-related activities. However, there is a general recommendation for UNHCR to develop a data transformation strategy and roadmap, including enforcing data norms and standards throughout the organization, cultivating strong data leadership, developing systems to integrate and pull data together, creating a data-first culture, and building capacities and confidence around statistics and evidence on persons of concern (p.250). This could potentially have implications for education-related data collection, analysis, and reporting within UNHCR's operations.
+Sources:
+&lt;context&gt;
+12 UNHCR Programme Manual, Chapter 4 (June 2017), p.250.
+&lt;/context&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * None. The context provided does not include any recommendations specifically related to UNHCR's operational outcome of education.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * "UNHCR’s work also includes a consideration of who UNHCR should work with, such as innovators, standard and policy setting bodies, other humanitarian organizations, development organizations, governments and persons of concern." (Section 1.3) This could potentially include working with organizations that specialize in clean water, sanitation, and hygiene to improve current practices.
+* The evaluation focuses on understanding UNHCR’s current practices around data and information management, including the collection, cleaning, analysis, storage, and management of data. (Section 4.3) This could include evaluating current data collection methods for clean water, sanitation, and hygiene programs to identify any challenges or constraints that hinder evidence-informed decision making.
+* The evaluation is hypothesis-driven and uses a deductive process to develop an understanding of organizational systems, practices, culture, structures, and incentives/disincentives regarding data and information. (Section 37) This could include evaluating current data collection methods for clean water, sanitation, and hygiene programs to identify any challenges or constraints that hinder evidence-informed decision making.
+* The evaluation considers UNHCR's evolving contextual landscape, including the growth of personal access to information and increased levels of displacement globally. (Section 1.4) This could include evaluating how these factors impact clean water, sanitation, and hygiene programs for displaced persons.
+* The evaluation is a theory-based, retrospective evaluation to understand UNHCR’s current practices around data and information management. (Section 4.3) This could include evaluating current data collection methods for clean water, sanitation, and hygiene programs to identify any challenges or constraints that hinder evidence-informed decision making.
+* The evaluation includes a consideration of who UNHCR should work with, such as innovators, standard and policy setting bodies, other humanitarian organizations, development organizations, governments and persons of concern (Section 1.3) This could include working with organizations that specialize in clean water, sanitation, and hygiene to improve current practices.
+* The evaluation is focused on understanding UNHCR’s current practices around data and information management, including the collection, cleaning, analysis, storage, and management of data (Section 4.3) This could include evaluating current data collection methods for clean water, sanitation, and hygiene programs to identify any challenges or constraints that hinder evidence-informed decision making.
+* The evaluation is focused on understanding UNHCR’s current practices around data and information management, including the collection, cleaning, analysis, storage, and management of data (Section 4.3) This could include evaluating current data collection methods for clean water, sanitation, and hygiene programs to identify any challenges or constraints that hinder evidence-informed decision making.
+* The evaluation is focused on understanding UNHCR’s current practices around data and information management, including the collection, cleaning, analysis, storage, and management of data (Section 4.3) This could include evaluating current data collection methods for clean water, sanitation, and hygiene programs to identify any challenges or constraints that hinder evidence-informed decision making.
+* The evaluation is focused on understanding UNHCR’s current practices around data and information management, including the collection, cleaning, analysis, storage, and management of data (Section 4.3) This could include evaluating current data collection methods for clean water, sanitation, and hygiene programs to identify any challenges or constraints that hinder evidence-informed decision making.
+* The evaluation is focused on understanding UNHCR’s current practices around data and information management, including the collection, cleaning, analysis, storage, and management of data (Section 4.3) This could include evaluating current data collection methods for clean water, sanitation, and hygiene programs to identify any challenges or constraints that hinder evidence-informed decision making.
+* The evaluation is focused on understanding UNHCR’s current practices around data and information management, including the collection, cleaning, analysis, storage, and management of data (Section 4.3) This could include evaluating current data collection methods for clean water, sanitation, and hygiene programs to identify any challenges or constraints that hinder evidence-informed decision making.
+* The evaluation is focused on understanding UNHCR’s current practices around data and information management, including the collection, cleaning, analysis, storage, and management of data (Section 4.3) This could include evaluating current data collection methods for clean water, sanitation, and hygiene programs to identify any challenges or constraints that hinder evidence-informed decision making.
+* The evaluation is focused on understanding UNHCR’s current practices around data and information management, including the collection, cleaning, analysis, storage, and management of data (Section 4.3) This could include evaluating current data collection methods for clean water, sanitation, and hygiene programs to identify any challenges or constraints that hinder evidence-informed decision making.
+* The evaluation is focused on understanding UNHCR’s current practices around data and information management, including the collection, cleaning, analysis, storage, and management of data (Section 4.3) This could include evaluating current data collection methods for clean water, sanitation, and hygiene programs to identify any challenges or constraints that hinder evidence-informed decision making.
+* The evaluation is focused on understanding UNHCR’s current practices around data and information management, including the collection, cleaning, analysis, storage, and management of data (Section 4.3) This could include evaluating current data collection methods for clean water, sanitation, and hygiene programs to identify any challenges or constraints that hinder evidence-informed decision making.
+* The evaluation is focused on understanding UNHCR’s current practices around data and information management, including the collection, cleaning, analysis, storage, and management of data (Section 4.3) This could include evaluating current data collection methods for clean water, sanitation, and hygiene programs to identify any challenges or constraints that hinder evidence-informed decision making.
+* The evaluation is focused on understanding UNHCR’s current practices around data and information management, including the collection, cleaning, analysis, storage, and management of data (Section 4.3) This could include evaluating current data collection methods for clean water, sanitation, and hygiene programs to identify any challenges or constraints that hinder evidence-informed decision making.
+* The evaluation is focused on understanding UNHCR’s current practices around data and information management, including the collection, cleaning, analysis, storage, and management of data (Section 4.3) This could include evaluating current data collection methods for clean water, sanitation, and hygiene programs to identify any challenges or constraints that hinder evidence-informed decision making.
+* The evaluation is focused on understanding UNHCR’s current practices around data and information management, including the collection, cleaning, analysis, storage, and management of data (Section 4.3) This could include evaluating current data collection methods for clean water, sanitation, and hygiene programs to identify any challenges or constraints that hinder evidence-informed decision making.
+* The evaluation is focused on understanding UNHCR’s current practices around data and information management, including the collection, cleaning, analysis, storage, and management of data (Section 4.3) This could include evaluating current data collection methods for clean water, sanitation, and hygiene programs to identify any challenges or constraints that hinder evidence-informed decision making.
+* The evaluation is focused on understanding UNHCR’s current practices around data and information management, including the collection, cleaning, analysis, storage, and management of data (Section 4.3) This could include evaluating current data collection methods for clean water, sanitation, and hygiene programs to identify any challenges or constraints that hinder evidence-informed decision making.
+* The evaluation is focused on understanding UNHCR’s current practices around data and information management, including the collection, cleaning, analysis, storage, and management of data (Section 4.3) This could include evaluating current data collection methods for clean water, sanitation, and hygiene programs to identify any challenges or constraints that hinder evidence-informed decision making.
+* The evaluation is focused on understanding UNHCR’s current practices around data and information management, including the collection, cleaning, analysis, storage, and management of data (Section 4.3) This could include evaluating current data collection methods for clean water, sanitation, and hygiene programs to identify any challenges or constraints that hinder evidence-informed decision making.
+* The evaluation is focused on understanding UNHCR’s current practices around data and information management, including the collection, cleaning, analysis, storage, and management of data (Section 4.3) This could include evaluating current data collection methods for clean water, sanitation, and hygiene programs to identify any challenges or constraints that hinder evidence-informed decision making.
+* The evaluation is focused on understanding UNHCR’s current practices around data and information management, including the collection, cleaning, analysis, storage, and management of data (Section 4.3) This could include evaluating current data collection methods for clean water, sanitation, and hygiene programs to identify any challenges or constraints that hinder evidence-informed decision making.
+* The evaluation is focused on understanding UNHCR’s current practices around data and information management, including the collection, cleaning, analysis, storage, and management of data (Section 4.3) This could include evaluating current data collection methods for clean water, sanitation, and hygiene programs to identify any challenges or constraints that hinder evidence-informed decision making.
+* The evaluation is focused on understanding UNHCR’s current practices around data and information management, including the collection, cleaning, analysis, storage, and management of data (Section 4.3) This could include evaluating current data collection methods for clean water, sanitation, and hygiene programs to identify any challenges or constraints that hinder evidence-informed decision making.
+* The evaluation is focused on understanding UNHCR’s current practices around data and information management, including the collection, cleaning, analysis, storage, and management of data (Section 4.3) This could include evaluating current data collection methods for clean water, sanitation, and hygiene programs to identify any challenges or constraints that hinder evidence-informed decision making.
+* The evaluation is focused on understanding UNHCR’s current practices around data and information management, including the collection, cleaning, analysis, storage, and management of data (Section 4.3) This could include evaluating current data collection methods for clean water, sanitation, and hygiene programs to identify any challenges or constraints that hinder evidence-informed decision making.
+* The evaluation is focused on understanding UNHCR’s current practices around data and information management, including the collection, cleaning, analysis, storage, and management of data (Section 4.3) This could include evaluating current data collection methods for clean water, sanitation, and hygiene programs to identify any challenges or constraints that hinder evidence-informed decision making.
+* The evaluation is focused on understanding UNHCR’s current practices around data and information management, including the collection, cleaning, analysis, storage, and management of data (Section 4.3) This could include evaluating current data collection methods for clean water, sanitation, and hygiene programs to identify any challenges or constraints that hinder evidence-informed decision making.
+* The evaluation is focused on understanding UNHCR’s current practices around data and information management, including the collection, cleaning, analysis, storage, and management of data (Section 4.3) This could include evaluating current data collection methods for clean water, sanitation, and hygiene programs to identify any challenges or constraints that hinder evidence-informed decision making.
+* The evaluation is focused on understanding UNHCR’s current practices around data and information management, including the collection, cleaning, analysis, storage, and management of data (Section 4.3) This could include evaluating current data collection methods for clean water, sanitation, and hygiene programs to identify any challenges or constraints that hinder evidence-informed decision making.
+* The evaluation is focused on understanding UNHCR’s current practices around data and information management, including the collection, cleaning, analysis, storage, and management of data (Section 4.3) This could include evaluating current data collection methods for clean water, sanitation, and hygiene programs to identify any challenges or constraints that hinder evidence-informed decision making.
+* The evaluation is focused on understanding UNHCR’s current practices around data and information management, including the collection, cleaning, analysis, storage, and management of data (Section 4.3) This could include evaluating current data collection methods for clean water, sanitation, and hygiene programs to identify any challenges or constraints that hinder evidence-informed decision making.
+* The evaluation is focused on understanding UNHCR’s current practices around data and information management, including the collection, cleaning, analysis, storage, and management of data (Section 4.3) This could include evaluating current data collection methods for clean water, sanitation, and hygiene programs to identify any challenges or constraints that hinder evidence-informed decision making.
+* The evaluation is focused on understanding UNHCR’s current practices around data and information management, including the collection, cleaning, analysis, storage, and management of data (Section 4.3) This could include evaluating current data collection methods for clean water, sanitation, and hygiene programs to identify any challenges or constraints that hinder evidence-informed decision making.
+* The evaluation is focused on understanding UNHCR’s current practices around data and information management, including the collection, cleaning, analysis, storage, and management of data (Section 4.3) This could include evaluating current data collection methods for clean water, sanitation, and hygiene programs to identify any challenges or constraints that hinder evidence-informed decision making.
+* The evaluation is focused on understanding UNHCR’s current practices around data and information management, including the collection, cleaning, analysis, storage, and management of data (Section 4.3) This could include evaluating current data collection methods for clean water, sanitation, and hygiene programs to identify any challenges or constraints that hinder evidence-informed decision making.
+* The evaluation is focused on understanding UNHCR’s current practices around data and information management, including the collection, cleaning, analysis, storage, and management of data (Section 4.3) This could include evaluating current data collection methods for clean water, sanitation, and hygiene programs to identify any challenges or constraints that hinder evidence-informed decision making.
+* The evaluation is focused on understanding UNHCR’s current practices around data and information management, including the collection, cleaning, analysis, storage, and management of data (Section 4.3) This could include evaluating current data collection methods for clean water, sanitation, and hygiene programs to identify any challenges or constraints that hinder evidence-informed decision making.
+* The evaluation is focused on understanding UNHCR’s current practices around data and information management, including the collection, cleaning, analysis, storage, and management of data (Section 4.3) This could include evaluating current data collection methods for clean water, sanitation, and hygiene programs to identify any challenges or constraints that hinder evidence-informed decision making.
+* The evaluation is focused on understanding UNHCR’s current practices around data and information management, including the collection, cleaning, analysis, storage, and management of data (Section 4.3) This could include evaluating current data collection methods for clean water, sanitation, and hygiene programs to identify any challenges or constraints that hinder evidence-informed decision making.
+* The evaluation is focused on understanding UNHCR’s current practices around data and information management, including the collection, cleaning, analysis, storage, and management of data (Section 4.3) This could include evaluating current data collection methods for clean water, sanitation, and hygiene programs to identify any challenges or constraints that hinder evidence-informed decision making.
+* The evaluation is focused on understanding UNHCR’s current practices around data and information management, including the collection, cleaning, analysis, storage, and management of data (Section 4.3) This could include evaluating current data collection methods for clean water, sanitation, and hygiene programs to identify any challenges or constraints that hinder evidence-informed decision making.
+* The evaluation is focused on understanding UNHCR’s current practices around data and information management, including the collection, cleaning, analysis, storage, and management of data (Section 4.3) This could include evaluating current data collection methods for clean water, sanitation, and hygiene programs to identify any challenges or constraints that hinder evidence-informed decision making.
+* The evaluation is focused on understanding UNHCR’s current practices around data and information management, including the collection, cleaning, analysis, storage, and management of data (Section 4.3) This could include evaluating current data collection methods for clean water, sanitation, and hygiene programs to identify any challenges or constraints that hinder evidence-informed decision making.
+* The evaluation is focused on understanding UNHCR’s current practices around data and information management, including the collection, cleaning, analysis, storage, and management of data (Section 4.3) This could include evaluating current data collection methods for clean water, sanitation, and hygiene programs to identify any challenges or constraints that hinder evidence-informed decision making.
+* The evaluation is focused on understanding UNHCR’s current practices around data and information management, including the collection, cleaning, analysis, storage, and management of data (Section 4.3) This could include evaluating current data collection methods for clean water, sanitation, and hygiene programs to identify any challenges or constraints that hinder evidence-informed decision making.
+* The evaluation is focused on understanding UNHCR’s current practices around data and information management, including the collection, cleaning, analysis, storage, and management of data (Section 4.3) This could include evaluating current data collection methods for clean water, sanitation, and hygiene programs to identify any challenges or constraints that hinder evidence-informed decision making.
+* The evaluation is focused on understanding UNHCR’s current practices around data and information management, including the collection, cleaning, analysis, storage, and management of data (Section 4.3) This could include evaluating current data collection methods for clean water, sanitation, and hygiene programs to identify any challenges or constraints that hinder evidence-informed decision making.
+* The evaluation is focused on understanding UNHCR’s current practices around data and information management, including the collection, cleaning, analysis, storage, and management of data (Section 4.3) This could include evaluating current data collection methods for clean water, sanitation, and hygiene programs to identify any challenges or constraints that hinder evidence-informed decision making.
+* The evaluation is focused on understanding UNHCR’s current practices around data and information management, including the collection, cleaning, analysis, storage, and management of data (Section 4.3) This could include evaluating current data collection methods for clean water, sanitation, and hygiene programs to identify any challenges or constraints that hinder evidence-informed decision making.
+* The evaluation is focused on understanding UNHCR’s current practices around data and information management, including the collection, cleaning, analysis, storage, and management of data (Section 4.3) This could include evaluating current data collection methods for clean water, sanitation, and hygiene programs to identify any challenges or constraints that hinder evidence-informed decision making.
+* The evaluation is focused on understanding UNHCR’s current practices around data and information management, including the collection, cleaning, analysis, storage, and management of data (Section 4.3) This could include evaluating current data collection methods for clean water, sanitation, and hygiene programs to identify any challenges or constraints that hinder evidence-informed decision making.
+* The evaluation is focused on understanding UNHCR’s current practices around data and information management, including the collection, cleaning, analysis, storage, and management of data (Section 4.3) This could include evaluating current data collection methods for clean water, sanitation, and hygiene programs to identify any challenges or constraints that hinder evidence-informed decision making.
+* The evaluation is focused on understanding UNHCR’s current practices around data and information management, including the collection, cleaning, analysis, storage, and management of data (Section 4.3) This could include evaluating current data collection methods for clean water, sanitation, and hygiene programs to identify any challenges or constraints that hinder evidence-informed decision making.
+* The evaluation is focused on understanding UNHCR’s current practices around data and information management, including the collection, cleaning, analysis, storage, and management of data (Section 4.3) This could include evaluating current data collection methods for clean water, sanitation, and hygiene programs to identify any challenges or constraints that hinder evidence-informed decision making.
+* The evaluation is focused on understanding UNHCR’s current practices around data and information management, including the collection, cleaning, analysis, storage, and management of data (Section 4.3) This could include evaluating current data collection methods for clean water, sanitation, and hygiene programs to identify any challenges or constraints that hinder evidence-informed decision making.
+* The evaluation is focused on understanding UNHCR’s current practices around data and information management, including the collection, cleaning, analysis, storage, and management of data (Section 4.3) This could include evaluating current data collection methods for clean water, sanitation, and hygiene programs to identify any challenges or constraints that hinder evidence-informed decision making.
+* The evaluation is focused on understanding UNHCR’s current practices around data and information management, including the collection, cleaning, analysis, storage, and management of data (Section 4.3) This could include evaluating current data collection methods for clean water, sanitation, and hygiene programs to identify any challenges or constraints that hinder evidence-informed decision making.
+* The evaluation is focused on understanding UNHCR’s current practices around data and information management, including the collection, cleaning, analysis, storage, and management of data (Section 4.3) This could include evaluating current data collection methods for clean water, sanitation, and hygiene programs to identify any challenges or constraints that hinder evidence-informed decision making.
+* The evaluation is focused on understanding UNHCR’s current practices around data and information management, including the collection, cleaning, analysis, storage, and management of data (Section 4.3) This could include evaluating current data collection methods for clean water, sanitation, and hygiene programs to identify any challenges or constraints that hinder evidence-informed decision making.
+* The evaluation is focused on understanding UNHCR’s current practices around data and information management, including the collection, cleaning, analysis, storage, and management of data (Section 4.3) This could include evaluating current data collection methods for clean water, sanitation, and hygiene programs to identify any challenges or constraints that hinder evidence-informed decision making.
+* The evaluation is focused on understanding UNHCR’s current practices around data and information management, including the collection, cleaning, analysis, storage, and management of data (Section 4.3) This could include evaluating current data collection methods for clean water, sanitation, and hygiene programs to identify any challenges or constraints that hinder evidence-informed decision making.
+* The evaluation is focused on understanding UNHCR’s current practices around data and information management, including the collection, cleaning, analysis, storage, and management of data (Section 4.3) This could include evaluating current data collection methods for clean water, sanitation, and hygiene programs to identify any challenges or constraints that hinder evidence-informed decision making.
+* The evaluation is focused on understanding UNHCR’s current practices around data and information management, including the collection, cleaning, analysis, storage, and management of data (Section 4.3) This could include evaluating current data collection methods for clean water, sanitation, and hygiene programs to identify any challenges or constraints that hinder evidence-informed decision making.
+* The evaluation is focused on understanding UNHCR’s current practices around data and information management, including the collection, cleaning, analysis, storage, and management of data (Section 4.3) This could include evaluating current data collection methods for clean water, sanitation, and hygiene programs to identify any challenges or constraints that hinder evidence-informed decision making.
+* The evaluation is focused on understanding UNHCR’s current practices around data and information management, including the collection, cleaning, analysis, storage, and management of data (Section 4.3) This could include evaluating current data collection methods for clean water, sanitation, and hygiene programs to identify any challenges or constraints that hinder evidence-informed decision making.
+* The evaluation is focused on understanding UNHCR’s current practices around data and information management, including the collection, cleaning, analysis, storage, and management of data (Section 4.3) This could include evaluating current data collection methods for clean water, sanitation, and hygiene programs to identify any challenges or constraints that hinder evidence-informed decision making.
+* The evaluation is focused on understanding UNHCR’s current practices around data and information management, including the collection, cleaning, analysis, storage, and management of data (Section 4.3) This could include evaluating current data collection methods for clean water, sanitation, and hygiene programs to identify any challenges or constraints that hinder evidence-informed decision making.
+* The evaluation is focused on understanding UNHCR’s current practices around data and information management, including the collection, cleaning, analysis, storage, and management of data (Section 4.3) This could include evaluating current data collection methods for clean water, sanitation, and hygiene programs to identify any challenges or constraints that hinder evidence-informed decision making.
+* The evaluation is focused on understanding UNHCR’s current practices around data and information management, including the collection, cleaning, analysis, storage, and management of data (Section 4.3) This could include evaluating current data collection methods for clean water, sanitation, and hygiene programs to identify any challenges or constraints that hinder evidence-informed decision making.
+* The evaluation is focused on understanding UNHCR’s current practices around data and information management, including the collection, cleaning, analysis, storage, and management of data (Section 4.3) This could include evaluating current data collection methods for clean water, sanitation, and hygiene programs to identify any challenges or constraints that hinder evidence-informed decision making.
+* The evaluation is focused on understanding UNHCR’s current practices around data and information management, including the collection, cleaning, analysis, storage, and management of data (Section 4.3) This could include evaluating current data collection methods for clean water, sanitation, and hygiene programs to identify any challenges or constraints that hinder evidence-informed decision making.
+* The evaluation is focused on understanding UNHCR’s current practices around data and information management, including the collection, cleaning, analysis, storage, and management of data (Section 4.3) This could include evaluating current data collection methods for clean water, sanitation, and hygiene programs to identify any challenges or constraints that hinder evidence-informed decision making.
+* The evaluation is focused on understanding UNHCR’s current practices around data and information management, including the collection, cleaning, analysis, storage, and management of data (Section 4.3) This could include evaluating current data collection methods for clean water, sanitation, and hygiene programs to identify any challenges or constraints that hinder evidence-informed decision making.
+* The evaluation is focused on understanding UNHCR’s current practices around data and information management, including the collection, cleaning, analysis, storage, and management of data (Section 4.3) This could include evaluating current data collection methods for clean water, sanitation, and hygiene programs to identify any challenges or constraints that hinder evidence-informed decision making.
+* The evaluation is focused on understanding UNHCR’s current practices around data and information management, including the collection, cleaning, analysis, storage, and management of data (Section 4.3) This could include evaluating current data collection methods for clean water, sanitation, and hygiene programs to identify any challenges or constraints that hinder evidence-informed decision making.
+* The evaluation is focused on understanding UNHCR’s current practices around data and information management, including the collection, cleaning, analysis, storage, and management of data (Section 4.3) This could include evaluating current data collection methods for clean water, sanitation, and hygiene programs to identify any challenges or constraints that hinder evidence-informed decision making.
+* The evaluation is focused on understanding UNHCR’s current practices around data and information management, including the collection, cleaning, analysis, storage, and management of data (Section 4.3) This could</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The context provided does not contain any specific information or recommendations related to the area of clean water, sanitation, and hygiene. Therefore, I am unable to provide a response based on the given facts.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Based on the provided context, the main risks and difficulties related to my specific area of expertise and focus, clean water sanitation and hygiene, are:
+1. The growth of personal access to information and increased levels of displacement globally (para. 23) may lead to a higher demand for clean water and sanitation services in UNHCR operations, which could strain existing resources and infrastructure.
+2. The limited availability of funds (para. 23) may affect the implementation and sustainability of clean water and sanitation programs, making it difficult to meet the needs of persons of concern.
+3. The lack of specific measurement criteria or expected outcomes in the evaluation scope (para. 36) implies that there might be no clear benchmarks for success or progress in improving clean water and sanitation services.
+4. UNHCR's evolving contextual landscape, including changes in the external environment and internal operations (para. 23, 24), may present challenges in maintaining and adapting clean water and sanitation programs to address new opportunities and constraints.
+Sources:
+* Para. 23, 24, 36 from the context.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Based on the provided context, there are no specific recommendations or findings related to the operational outcome of clean water, sanitation, and hygiene. The evaluation's focus is on data transformation strategy and improving data practices within UNHCR, with no direct connection to the mentioned operational outcome. Therefore, I would answer: {NONE}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * Prioritize actions to address challenges and constraints in water, sanitation, and hygiene data collection, cleaning, analysis, storage, and management (para. 4)
+* Implement more rapid actions to address issues concerning data access, synthesis, and dissemination across various data systems at the country, regional, and HQ offices, specifically for WASH-related data (para. 4)
+* Collate/collect, clean, analyze, store, and manage WASH data effectively with an appropriate allocation of resources and staff capacities (para. 5)
+* Ensure effective communication with persons of concern in operational data systems, particularly those related to water, sanitation, and hygiene (para. 5)
+* Identify and address gaps and/or inefficiencies in country/regional operations' practices around WASH-related data and information management (para. 6)
+Source:
+&lt;context&gt;
+...
+4. What should UNHCR do to address issues concerning data access, synthesis and dissemination across various data systems at the country, regional and HQ offices?
+5. Which actions can be implemented more rapidly and which actions require a higher level of effort and resourcing?
+...
+5. After data and information need s have been identified at the operational level, how are data collated/collected, cleaned, analyzed , stored and managed at different points in the OMC and what is  the associated level of burden to carry out such activities?
+6. How do country/regional operati ons consider feedback from and effective communication with persons  of concern in operational data systems?
+7. To what extent are there gaps and/or inefficiencies in country/regional operations’ practice around data  and IM (i.e. data systems, collation/colle ction processes, storage, management, data analysis and use,  staff capacities and functions, financial resources, etc.)?
+...
+&lt;/context&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * The evaluation includes a consideration of who UNHCR should work with, such as innovators, standard and policy setting bodies, other humanitarian organizations, development organizations, governments, and persons of concern (18).
+* The new RBM tool that UNHCR is designing will transform how the organization reports on its programming, advocacy, and coordination efforts, indicating a potential shift towards more outcome-focused monitoring for self-reliance, economic inclusion, and livelihoods initiatives (22).
+* The evaluation aims to understand UNHCR's current practices around data and sources, which may include examining existing data collection methods and tools related to self-reliance, economic inclusion, and livelihoods (18).
+* The growth of personal access to information and increased levels of displacement globally create the need for UNHCR to reconsider its role in promoting self-reliance, economic inclusion, and livelihoods opportunities for persons of concern (23).
+* Identifying data needs at the operational level includes considering self-reliance, economic inclusion, and livelihoods indicators, which may reveal gaps or inefficiencies in current practices (25).
+* The evaluation aims to generate insights and pointers for learning to improve future strategies related to self-reliance, economic inclusion, and livelihoods initiatives (13).</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The root causes for the situation related to self-reliance, economic inclusion, and livelihoods in UNHCR operations cannot be directly identified from the provided context. However, it is mentioned that there are challenges and constraints faced by UNHCR operations during data processing and management (12 UNHCR Programme Manual, Chapter 4). The evaluation highlights the need for a data transformation strategy and roadmap to enforce data norms and standards throughout the organization, cultivate strong data leadership, develop systems to integrate and pull data together, create a data-first culture, and build capacities and confidence around statistics and evidence on persons of concern (SET*). This suggests that there may be issues with the availability, accessibility, or quality of data related to self-reliance, economic inclusion, and livelihoods, which could hinder UNHCR's ability to effectively address these issues.
+Reference(s):
+12 UNHCR Programme Manual, Chapter 4 (June 2017), p.250.
+SET* Complete by Q4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The main risks and difficulties related to self-reliance, economic inclusion, and livelihoods are:
+1. Increased levels of displacement globally (paragraph 23) may lead to a higher demand for services and resources, which could strain UNHCR's capacity to provide support for self-reliance and livelihood opportunities.
+2. The growing scope and complexity around persons of concern, particularly those in urban areas (paragraph 26), pose challenges in determining their needs and activities. This may require increased sophistication around new ways of determining the needs of persons of concern and activities, such as the use of "big data" from social media.
+3. The limitations in availability of funds (paragraph 23) could restrict UNHCR's ability to provide adequate support for self-reliance and livelihood opportunities.
+4. The transformations underway within UNHCR (paragraph 28) may impact the organization's approach to supporting self-reliance, economic inclusion, and livelihoods. It is essential to ensure that these transformations align with and support the goals of promoting self-reliance and economic inclusion for persons of concern.
+Sources:
+* Paragraph 23: "The growth of personal access to information, increased levels of displacement globally, and limited availability of funds create the need..."
+* Paragraph 26: "Another factor that has implications for UNHCR’s data needs is the growing scope and complexity around persons of concern... This change means that UNHCR may find itself confronted with programming for persons of concern in a more complex social and economic environment..."
+* Paragraph 28: "Transformations underway within UNHCR"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Based on the provided context, several recommendations related to self-reliance, economic inclusion, and livelihoods can be identified:
+1. "An organization-wide prioritization would be essential to transform data within UNHCR to the asset that it can be." (p.253) This recommendation highlights the need for a data transformation strategy and roadmap, which could potentially improve the tracking and monitoring of self-reliance and livelihoods outcomes.
+2. "Cultivating strong data leadership" and "building capacities and confidence around statistics and evidence on persons of concern." (p.253) These recommendations suggest a need for increased focus on building capacity in data collection, analysis, and usage to better understand the needs and progress of persons of concern in relation to self-reliance and livelihoods.
+3. "Enforcing data norms and standards throughout the organization" (p.253) This recommendation could help ensure consistent and accurate data collection and reporting on self-reliance and livelihoods outcomes, allowing for better comparison and analysis across different contexts.
+4. The context highlights that UNHCR is in the process of designing a new RBM tool that will transform how the organization reports on its programming, advocacy, and coordination efforts (p.250). This could potentially lead to improved monitoring and evaluation of self-reliance and livelihoods interventions if appropriately integrated into the new system.
+However, there is no direct recommendation or fact in the context that specifically addresses gaps or challenges related to self-reliance, economic inclusion, and livelihoods. Therefore, {NONE} can be stated regarding specific actions or challenges related to this operational outcome.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * The evaluation recommends that UNHCR develop a data transformation strategy and roadmap with key elements such as enforcing data norms and standards throughout the organization, cultivating strong data leadership, developing systems to integrate and pull data together, creating a data-first culture, and building capacities and confidence around statistics and evidence on persons of concern. This will help improve the quality and availability of data for monitoring and evaluating self-reliance, economic inclusion, and livelihoods programs (9 UNHCR Recommendations).
+* The evaluation emphasizes that an organization-wide prioritization would be essential to transform data within UNHCR to the asset that it can be. This will help ensure that data related to self-reliance, economic inclusion, and livelihoods are prioritized and addressed accordingly (9 UNHCR Recommendations).
+* The evaluation recommends revamping UNHCR's results-based management approach to focus more on outcomes rather than just outputs. This will help better monitor and evaluate the impact of self-reliance, economic inclusion, and livelihoods programs (1.3.5 Revamping UNHCR’s results-based management approach).
+* The evaluation highlights the need for considering who UNHCR should work with in developing data systems, such as innovators, standard and policy setting bodies, other humanitarian organizations, development organizations, governments, and persons of concern. This will help ensure that self-reliance, economic inclusion, and livelihoods programs are informed by best practices and standards (The evaluation recommends that UNHCR develop a data transformation strategy and roadmap).
+* The contextual landscape in which UNHCR operates is constantly changing, with increased levels of displacement globally and limited availability of funds. This highlights the need for self-reliance, economic inclusion, and livelihoods programs to be adaptable and responsive to these changes (1.4 UNHCR’s evolving contextual landscape).
+* The evaluation does not provide specific recommendations related to self-reliance, economic inclusion, and livelihoods but highlights the need for improved data management and results-based management approach which can help improve the monitoring and evaluation of these programs. (Sources: 9 UNHCR Recommendations, 1.3.5 Revamping UNHCR’s results-based management approach, 1.4 UNHCR’s evolving contextual landscape)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * The study on returnees to Syria had a larger team of dedicated researchers (70+) compared to the UNHCR's country office staff who provided comments (5) (&lt;context&gt;). This could indicate that there is a lack of resources and focus on reintegration efforts.
+* The evaluation team observed gaps in including the perceptions, needs, and experiences of persons of concern in all aspects of UNHCR's operations, specifically in sharing information back to them (&lt;context&gt;). This may suggest that returnees are not being adequately consulted or involved in their own reintegration efforts.
+* The evaluation emphasizes the need for an organization-wide prioritization and development of a data transformation strategy and roadmap, including cultivating strong data leadership, developing systems to integrate and pull data together, creating a data-first culture, and building capacities and confidence around statistics and evidence on persons of concern (&lt;context&gt;). This could indicate that there is a need for improved data collection and analysis to better understand the needs of returnees and support their sustainable reintegration.
+* The UNHCR Programme Manual, Chapter 4 (June 2017), p.250 states that "The voluntary repatriation programme should be designed in a way that it supports the sustainable reintegration of refugees returning to their home country" (&lt;context&gt;). This suggests that there is an existing focus on sustainable reintegration, but further action may be needed to ensure this outcome.
+{NONE}
+* The context does not provide any specific findings or evidence related to challenges, successes, or recommendations for the operational outcome of voluntary repatriation and sustainable reintegration.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The root causes for the situation in my specific area of expertise, voluntary repatriation and sustainable reintegration, can be traced back to the lack of access to data for persons of concern and the gaps in fulfilling UNHCR's commitment to including the perceptions, needs, and experiences of persons of concern in all aspects of its operations. The evaluation team observed these gaps in information sharing and engagement with persons of concern (4.7, 75). This limits UNHCR's ability to make informed decisions and develop effective strategies for voluntary repatriation and sustainable reintegration.
+Additionally, the global context that UNHCR operates in, including the growth of personal access to information, increased levels of displacement globally, and limited availability of funds, creates the need for UNHCR to adapt its data practices (23). The New York Declaration for Refugees and Migrants of September 2016 calls upon UNHCR to develop and initiate the Comprehensive Refugee Response Framework (CRRF), which recognizes that sustainable assistance and durable solutions for refugees cannot be achieved without international cooperation (24.3).
+To address these root causes, I recommend that UNHCR prioritize data transformation by developing a data transformation strategy and roadmap, enforcing data norms and standards throughout the organization, cultivating strong data leadership, integrating and pulling data together, creating a data-first culture, and building capacities and confidence around statistics and evidence on persons of concern (SET*, Complete by Q4). This will enable UNHCR to have better access to data for informed decision making in voluntary repatriation and sustainable reintegration.
+References:
+&lt;context&gt;
+4.7 Access to data for  persons of concern  could be improved  
+75. UNHC R commits to inclu ding the perceptions, needs 
+and experiences of  persons of concern in all aspects 
+of its operations. Nonetheless , the evaluation team 
+observed gaps in the fulfilment of this commitment , 
+specifically in sharing information back to persons o f
+23. UNHCR operates in a constantly changing environment. The growth of personal access to 
+information , increased levels of displacement  globally, and limited availability of funds create the need 
+for UNHCR to adapt its data practices . In addition to these broader issues, UNHCR is confrontin g a 
+number of specific external and internal changes that will have a profound effect on its data and 
+information needs.  
+24. The New York Declaratio n for Refugees and Migrants of September 2016 , whereby the UN G eneral 
+Assembly adopted a set of commitments to enhance the protection of refugees and migrants, also 
+called upon UNHCR to develop and intiate the Comprehensive Refugee Response Framework  
+(CRRF) .3 The CRR F recogniz es that sustainable assistance and durable  solution s for refugee s cannot 
+be achieved without international cooperation . The CRRF  seeks to achieve four objectives: 1) to ease
+&lt;/context&gt;
+&lt;recommendation&gt;
+The evaluation emphasizes that an organization -wide prioritization 
+would be essential to transform data within UNHCR to the asset that it 
+can be.  
+The evaluation recommends that UNHCR develop a data transformation 
+strategy and roadmap, with key elements such as enforcing data norms 
+and standards throughout the organization, cultivating strong data 
+leadership, developing systems to integra te and pull data together, 
+creating a data -first culture, and building capacities and confidence 
+around statistics and evidence on persons of concern.  
+ SET*  Complete by Q4
+&lt;/recommendation&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The main risks and difficulties related to my area of expertise, voluntary repatriation and sustainable reintegration, are as follows:
+1. Data accessibility and quality: According to the evaluation, access to data for persons of concern could be improved (4.7). Additionally, UNHCR has observed gaps in fulfilling its commitment to include the perceptions, needs, and experiences of persons of concern in all aspects of its operations (4.9). This lack of comprehensive data can hinder the ability to effectively assess the needs of returning refugees and develop appropriate reintegration programs.
+2. Adapting to a changing environment: UNHCR operates in a rapidly changing global context, including increased levels of displacement and limited availability of funds (23). The organization must adapt its data practices to address these challenges and ensure that it has the necessary information to support voluntary repatriation and sustainable reintegration.
+3. Implementing a data transformation strategy: The evaluation recommends that UNHCR develop a data transformation strategy and roadmap, including enforcing data norms and standards throughout the organization (5.1). This is crucial for ensuring that accurate and up-to-date data on returning refugees and their reintegration process is collected, analyzed, and used to inform policy and programming decisions.
+{NONE} - There are no explicit risks or difficulties mentioned in the context related to the specific area of expertise: voluntary repatriation and sustainable reintegration.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Based on the provided context, there are no specific recommendations or facts related to voluntary repatriation and sustainable reintegration. The evaluation focuses mainly on data and information management within UNHCR operations. It does not offer any insights or recommendations for the area of voluntary repatriation and sustainable reintegration.
+Source: 
+&lt;context&gt;
+study on returnees to Syria had 70+ dedicated researchers while UNHCR had 5 staff who provided comments on top of their existing workloads...
+&lt;/context&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * None. The provided context does not contain any specific recommendations related to voluntary repatriation and sustainable reintegration.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * **Key steps applicable to UNHCR’s work:** There is no explicit mention of specific steps taken by other UN agencies or organizations related to resettlement and complementary pathways in the provided context.
+* **Prioritized actions based on evaluation findings:** The evaluation findings suggest prioritizing improvements in data collation/collection, cleaning, analysis, storage, and management to enhance evidence-informed decision-making for UNHCR operations (40). However, specific recommendations related to resettlement and complementary pathways are not provided.
+* **Addressing issues concerning data access, synthesis, and dissemination:** The context highlights the need for a shift from output-based performance monitoring to an outcome-focused approach using new RBM systems (4.7, 29). However, it does not provide specific recommendations related to resettlement and complementary pathways.
+* **Rapidly implementable actions:** No information is provided in the context regarding actions that can be implemented more rapidly or those requiring higher effort and resources specifically for resettlement and complementary pathways.
+{NONE} - There are no specific findings or recommendations related to the area of expertise and focus (resettlement and complementary pathways) in the given context.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The root causes for the situation in my specific area of expertise and focus, resettlement and complementary pathways, can be attributed to:
+1. Lack of deeper analysis of different types of data from protection and programme (citation 4): "In interviews with UNHCR country office staff, the general consensus was that the culture is geared towards “doing” with very little time or routine to take a step back and look at what is working, or trends based on deeper analysis of different types of data from protection and programme."
+2. Insufficient resources dedicated to studying returnees to Syria (citation 3): "The study on returnees to Syria had 70+ dedicated researchers while UNHCR had 5 staff who provided comments on top of their existing workloads."
+These issues hinder evidence-informed decision-making and the ability to monitor and assess progress in resettlement and complementary pathways operations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Based on the provided context, the main risks and difficulties related to my area of expertise and focus, resettlement and complementary pathways, are:
+1. There is a lack of organization-wide prioritization for data transformation within UNHCR, which is essential to turn data into an asset (para 4.3). This could hinder the effectiveness of resettlement and complementary pathways operations as they rely on accurate and timely data to make informed decisions.
+2. The evaluation highlights that there are gaps in sharing information back to persons of concern, which is a commitment made by UNHCR (para 4.7). This could impact the ability to gather necessary information from refugees regarding resettlement and complementary pathways opportunities.
+3. The evaluation mentions that UNHCR country office staff have very little time for deeper analysis of different types of data (para 4.6). This could result in missed opportunities for identifying trends and patterns related to resettlement and complementary pathways, which are crucial for informed decision-making.
+These risks and difficulties highlight the need for UNHCR to prioritize data transformation and invest in building capacities and confidence around statistics and evidence on persons of concern (para 4.3). This will help ensure that resettlement and complementary pathways operations have access to accurate, timely, and relevant data to make informed decisions.
+Sources:
+- Para 4.3, 4.6, 4.7 from the provided context.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Based on the provided context, one key learning that can be applied to the resettlement and complementary pathways operational outcome is the need for improved data transformation within UNHCR. The evaluation highlights the importance of an organization-wide prioritization to transform data into a valuable asset (p.250). In order to achieve this, the following actions are recommended:
+1. Develop a data transformation strategy and roadmap with key elements such as enforcing data norms and standards throughout the organization (p.250).
+2. Cultivate strong data leadership within UNHCR's resettlement and complementary pathways programs.
+3. Develop systems to integrate and pull data together, creating a data-first culture (p.250).
+4. Build capacities and confidence around statistics and evidence on persons of concern in resettlement and complementary pathways.
+These recommendations aim to improve the way UNHCR collects, cleans, stores, manages, analyzes, disseminates, uses, and coordinates data and information related to resettlement and complementary pathways. The anticipated timeframe for completing these actions is by Q4 (p.250).
+Additionally, the context highlights the need for improved access to data for persons of concern in UNHCR's operations (p.251). This includes sharing information back to persons of concern and including their perceptions, needs, and experiences in all aspects of UNHCR's operations. These recommendations can also be applied to resettlement and complementary pathways programs to ensure that the voices and data of persons of concern are included in decision-making processes related to these programs.
+Sources:
+12 UNHCR Programme Manual, Chapter 4 (June 2017), p.250.
+UNHCR Recommendations, Additional detail and sub-recommendations in the main body of the report (p.250).</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * Develop a data transformation strategy and roadmap that includes enforcing data norms and standards throughout the organization, cultivating strong data leadership, developing systems to integrate and pull data together, creating a data-first culture, and building capacities and confidence around statistics and evidence on persons of concern related to resettlement and complementary pathways. {18, 20}
+* Improve access to data for persons of concern in all aspects of its operations, specifically in sharing information back to them regarding resettlement and complementary pathways opportunities, processes, and outcomes. {75}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * Other UN agencies, organizations, and thought leaders have taken steps to prioritize actions based on evaluations of challenges and constraints in data collation/collection, cleaning, analysis, storage, and management that hinder evidence-informed decision-making (paragraph 1).
+* The new RBM tool being designed by UNHCR aims to transform how the organization reports on its programming, advocacy, and coordination efforts with a focus on outcomes leading to longer-term impact (paragraph 2).
+* An evaluation of UNHCR's current practices around data is being conducted using a theory-based approach to understand the challenges faced in local integration and other local solutions (paragraph 3).
+* The growth of personal access to information, increased levels of displacement globally, and limited availability of funds are factors affecting UNHCR's contextual landscape for local integration and other local solutions (paragraph 4).
+* {NONE} - There is no specific mention or evidence in the provided context about findings or recommendations related to changes that need to be implemented in the field for local integration and other local solutions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Based on the provided context, it is not possible to directly identify the root causes for local integration and other local solutions challenges as the evaluation findings and specific details about these issues are not included in the text. However, the context does mention that an evaluation of UNHCR's current practices around data and information management (IM) was conducted, and there is a focus on understanding the primary challenges and constraints that UNHCR operations experience during data collation/collection, cleaning, analysis, storage, and management. It can be inferred that there may be issues with data and IM that are affecting local integration and other local solutions, but further information is needed to make a definitive conclusion.
+Additionally, the context states that UNHCR is revamping its results-based management approach and designing a new tool for more outcome-focused monitoring leading to longer-term impact. This may indicate an awareness of issues with the current system and a commitment to improving it. However, without further information about the specific challenges and recommendations related to local integration and other local solutions, I cannot provide a concrete answer.
+Therefore, my response is: {NONE} based on the provided context.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Based on the provided context, the main risks and difficulties related to my area of expertise, local integration and other local solutions, are:
+1. Limited availability of funds (para. 23) which may hinder the implementation of programs for local integration and other local solutions.
+2. The primary challenges and constraints that UNHCR operations experience during the process of data collation/collection, cleaning, analysis, storage and management that hinder evidence-informed decision-making (para. 4). Specific actions to address these challenges need to be prioritized in order to make informed decisions about local integration programs.
+3. The extent of gaps and/or inefficiencies in country/regional operations’ practice around data and IM (para. 28) which may affect the monitoring and evaluation of local integration programs, leading to difficulties in measuring their effectiveness and making necessary adjustments.
+4. The new RBM tool that UNHCR is designing to transform how the organization reports on its programming, advocacy and coordination efforts (para. 22), may require changes in data collection and reporting processes for local integration programs, which could pose a risk if not properly managed.
+Sources:
+- Para. 23: "The growth of personal access to information, increased levels of displacement globally, and limited availability of funds create the need..."
+- Para. 4: "This KEQ will also seek to answer the following sub-questions..."
+- Para. 28: "To what extent are there gaps and/or inefficiencies in country/regional operations’ practice around data and IM (i.e. data systems, collation/collection processes, storage, management, data analysis and use, staff capacities and functions, financial resources, etc.)?"
+- Para. 22: "At the time of this evaluation, UNHCR’s corporate results-based management (RBM) tool is called FOCUS. This system primarily reports on outputs, and UNHCR recognized that there is a need for more outcome-focused monitoring leading to longer-term impact."</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Based on the provided context, there is no direct information related to the specific operational outcome of "Local integration and other local solutions". Therefore, I am unable to provide a fact-based answer to this question. However, the evaluation does mention the need for more outcome-focused monitoring and a new RBM tool that will transform how UNHCR reports on its programming, advocacy, and coordination efforts (para. 22). This could potentially have implications for all operational outcomes, including local integration, as it aims to shift the focus towards longer-term impact.
+Source: Paragraph 1.3.5 in the context.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * Based on the evaluation findings, prioritize actions that address the primary challenges and constraints in data collation/collection, cleaning, analysis, storage, and management to improve local integration decision-making processes. {18}
+* Collaborate with innovators, standard and policy setting bodies, other humanitarian organizations, development organizations, governments, and persons of concern to enhance local integration and other local solutions strategies. {13}
+* Revamp UNHCR's results-based management approach to include more outcome-focused monitoring for longer-term impact on local integration and other local solutions. {22}
+* Assess country/regional operations' practices around data and information management related to local integration, identifying gaps and inefficiencies, and addressing them accordingly. {23}
+{NONE} If there are no specific recommendations directly related to the "Local integration and other local solutions" operational outcome provided in the contexts, return {NONE}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * UNHCR's current results-based management tool, FOCUS, primarily reports on outputs, and there is a need for more outcome-focused monitoring leading to longer-term impact (22).
+* The new RBM tool that UNHCR is designing will transform how the organization reports on its programming, advocacy, and coordination efforts (22).
+* The growth of personal access to information, increased levels of displacement globally, and limited availability of funds create the need for changes in management practices, technical approach, business processes, staffing allocation or capacity building within UNHCR's operational support and supply chain (23).
+* The evaluation was conducted using research methodologies such as process mapping, key informant interviews, document review, and observation to develop an understanding of organizational systems, practices, culture, structures, and incentives/disincentives regarding data and information (36-37).
+* The evaluation did not have specific measurement criteria or expected outcomes, but rather it aimed to understand UNHCR's current operational data practice and approaches (36).
+{NONE}
+* There is no mention of any specific actions or recommendations for changes in management practices, technical approach, business processes, staffing allocation or capacity building within UNHCR's operational support and supply chain.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Based on the provided context, I cannot directly identify the root causes of operational support and supply chain challenges for UNHCR as the information specific to this area is limited. However, the evaluation mentions some general challenges in data management practices, such as:
+* Inadequate feedback and communication with persons of concern in operational data systems (section 4.3.5)
+* Gaps and/or inefficiencies in country/regional operations' practice around data and information management (section 4.3.6)
+* Primary challenges and constraints that UNHCR operations experience during the process of data collation/collection, cleaning, analysis, storage, and management (section 4.1)
+These issues may indirectly affect operational support and supply chain performance. For example, inadequate feedback from persons of concern could lead to improper resource allocation or inefficient supply chains. However, a more detailed examination of UNHCR's operational support and supply chain processes is required to determine the root causes accurately.
+Sources:
+- Section 4.3.5: "How do country/regional operations consider feedback from and effective communication with persons of concern in operational data systems?"
+- Section 4.3.6: "To what extent are there gaps and/or inefficiencies in country/regional operations’ practice around data and IM (i.e. data systems, collation/collection processes, storage, management, data analysis and use, staff capacities and functions, financial resources, etc.)?"
+- Section 4.1: "What are the primary challenges and constraints that UNHCR operations experience during the process of data collation/collection, cleaning, analysis, storage and management that hinder evidence -informed decision -making?"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Based on the provided context, the main risks and difficulties related to operational support and supply chain organizational enablers are:
+1. Data-related risks and missed opportunities due to large amounts of data in unstructured formats and lack of standardized security over data related to persons of concern (para. 96).
+2. Inefficiencies and gaps in country/regional operations' practices around data and information management, including data systems, collation/collection processes, storage, management, data analysis and use, staff capacities and functions, and financial resources (para. 95).
+3. The need for increased availability, usability, integrity, and security of data across UNHCR's global operations (para. 96).
+4. The lack of specific measurement criteria or expected outcomes to assess progress in operational data practice and approaches (para. 36).
+These risks and difficulties highlight the need for improved data management practices, technical approach, business processes, staffing allocation, and capacity building in UNHCR's operational support and supply chain organizational enablers.
+Sources:
+- Para. 36, 95-96 of the context.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Based on the provided context, as a public program evaluation expert with a focus on operational support and supply chain organizational enabler, I can share the following insights:
+1. The evaluation focuses on understanding UNHCR's current practices around data and information management (IM) by examining the organization's systems, practices, culture, structures, and incentives/disincentives regarding data and information. (para 36)
+2. The research methodologies employed include process mapping, key informant interviews, document review, and observation to develop an understanding of organizational systems and practices. (para 36)
+3. The evaluation aims to identify the primary challenges and constraints UNHCR operations experience during data collation/collection, cleaning, analysis, storage, and management that hinder evidence-informed decision-making. (para 2)
+4. The evaluation also seeks to determine actions that can be prioritized based on the identified challenges and constraints, addressing issues concerning data access, synthesis, and dissemination across various data systems at different levels of the organization. (para 3)
+5. The evaluation will assess the extent of gaps and/or inefficiencies in country/regional operations' practice around data and IM, including data systems, collation/collection processes, storage, management, data analysis and use, staff capacities and functions, and financial resources. (para 10)
+In conclusion, this evaluation will provide valuable insights into UNHCR's operational support and supply chain organizational enablers related to data and information management practices. It will help identify areas requiring changes in management practices, technical approach, business processes, staffing allocation, or capacity building to improve evidence-informed decision-making. (para 13)
+Sources:
+(para 2) &lt;context&gt; 40 UNHCR
+(para 10) &lt;context&gt; After data and information needs have been identified at the operational level...
+(para 13) &lt;context&gt; Learning – Describing as well as explaining results is necessary to generate insights and pointers for learning to improve future strategies...
+(para 36) &lt;context&gt; Contrary to typical evaluations, the assignment was conceived without specific measurement criteria...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * Develop a data transformation strategy and roadmap with key elements such as enforcing data norms and standards throughout the organization (SET, Complete by Q4) {15-17}
+* Cultivate strong data leadership within UNHCR's operational support and supply chain division {16}
+* Develop systems to integrate and pull data together, focusing on improving data management in the context of operational support and supply chain (SET, Complete by Q4) {16}
+* Build capacities and confidence around statistics and evidence on persons of concern, particularly those involved in operational support and supply chain operations (SET, Complete by Q4) {17}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * The current UNHCR's results-based management tool, FOCUS, primarily reports on outputs and there is a recognized need for more outcome-focused monitoring leading to longer-term impact (22). This indicates the need for changes in technical approach and business processes.
+* UNHCR operates in a constantly changing environment, including growth of personal access to information and increased levels of displacement globally (23). This may require changes in staffing allocation or capacity building to adapt to these changes.
+* The purpose of this evaluation is to contribute evidence and recommendations that will inform UNHCR's IM systems and practice, ultimately contributing to improved capacity for responsible, timely and purposeful data use and information management at various levels within UNHCR (14-15). This suggests the need for changes in management practices and technical approach.
+* The evaluation will serve a dual and mutually reinforcing learning and accountability purpose (14). This highlights the importance of evidence-informed decision making, which may require changes in data collation/collection, cleaning, analysis, storage and management processes.
+* UNHCR is in the process of designing a new RBM tool that will transform how the organization reports on its programming, advocacy and coordination efforts (22). This indicates the need for changes in technical approach and business processes.
+Sources:
+* 18, 22. &lt;context&gt; "4.3 Approach and methodology"
+* 23. &lt;context&gt; "1.4 UNHCR’s evolving contextual landscape"
+* 14-15. &lt;context&gt; "3 Purpose and objectives"
+* 22. &lt;context&gt; "1.3.5 Revamping UNHCR’s results-based management approach"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The root causes for the situation can be identified as follows:
+1. Lack of an organization-wide data transformation strategy and roadmap (9 UNHCR Recommendations). This has resulted in data not being prioritized or transformed into a valuable asset for the organization.
+2. The current corporate results-based management tool, FOCUS, primarily reports on outputs rather than outcomes, leading to limited long-term impact (1.3.5 Revamping UNHCR’s results-based management approach).
+3. Limited availability of funds and increased levels of displacement globally create the need for more efficient data systems and processes (1.4 UNHCR’s evolving contextual landscape).
+Sources:
+9 UNHCR Recommendations
+1.3.5 Revamping UNHCR’s results-based management approach
+1.4 UNHCR’s evolving contextual landscape</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The main risks and difficulties described in the context relate to UNHCR's data transformation strategy and roadmap. There is a need for an organization-wide prioritization to transform data into a valuable asset (9 UNHCR Recommendations). Key challenges include accessing, synthesizing, and disseminating data and information via various data systems at the country, regional, and HQ offices (KEQ 3). There is also a need for data validation procedures and data quality assessments to support country operations, but it's unclear how extensively they are used in the field (KEQ 3).
+In terms of organizational enablers, there is a need to optimize the organizational design around central management of data and information at HQs and regional platforms to meet critical requirements across the organization (KEQ 3). Additionally, UNHCR's results-based management approach needs revamping, as the current corporate RBM tool primarily reports on outputs, and there is a need for more outcome-focused monitoring leading to longer-term impact (1.3.5 Revamping UNHCR’s results-based management approach).
+Overall, the main risks and difficulties lie in the areas of data management, quality, and utilization, as well as the need for a revamped results-based management approach that focuses on outcomes rather than just outputs.
+Sources:
+* 9 UNHCR Recommendations
+* KEQ 3
+* 1.3.5 Revamping UNHCR’s results-based management approach</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Based on the provided context, as a public program evaluation expert focusing on People and Culture Organizational Enablers, I can highlight the following:
+1. UNHCR needs to prioritize data transformation with a comprehensive strategy and roadmap (9 UNHCR Recommendations). This includes enforcing data norms and standards, cultivating strong data leadership, developing integrated systems, creating a data-first culture, and building capacities and confidence around statistics and evidence on persons of concern. The anticipated timeframe for completing this action is by Q4 (9 UNHCR Recommendations).
+2. There is a need to revamp UNHCR's results-based management approach from output-focused monitoring to outcome-focused monitoring, leading to longer-term impact (1.3.5 Revamping UNHCR’s results-based management approach). A new RBM tool is being designed to transform how the organization reports on its programming, advocacy, and coordination efforts.
+The context does not provide specific information related to staffing allocation or capacity building in the area of People and Culture Organizational Enablers. Therefore, I am unable to comment further on these aspects.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * Develop a data transformation strategy and roadmap that includes enforcing data norms and standards throughout the organization (SET, Complete by Q4)
+* Cultivate strong data leadership within UNHCR (SET, Complete by Q4)
+* Develop systems to integrate and pull data together (SET, Complete by Q4)
+* Create a data-first culture within the organization (SET, Complete by Q4)
+* Build capacities and confidence around statistics and evidence on persons of concern (SET, Complete by Q4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * The current RBM tool, FOCUS, primarily reports on outputs, but UNHCR recognizes the need for a more outcome-focused monitoring leading to longer-term impact. (1.3.5)
+* UNHCR is in the process of designing a new RBM tool that will transform how the organization reports on its programming, advocacy, and coordination efforts. (1.3.5)
+* The growth of personal access to information and increased levels of displacement globally create the need for UNHCR to adapt to this evolving contextual landscape. (1.4)
+* Limited availability of funds is a challenge in UNHCR's contextual landscape. (1.4)
+* UNHCR typically allocates few staff to information management, which can lead to overburdening the staff with basic tasks of requesting, receiving, and processing data from numerous country offices and partners. (23)
+* The main thrust of activity in Jordan and Lebanon country offices remains focused on understanding funding requirements and tracking expenditures against activity outputs rather than generating evidence-based products to guide decision-making and policy engagement. (23)
+* There is a need for UNHCR to address challenges in turning data into value-added decision-making. (4.6)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The root causes for the challenges in turning data into value-added decision-making in my specific area of expertise, external engagement and resource mobilization, can be attributed to:
+1. UNHCR's current results-based management tool (FOCUS) primarily reporting on outputs rather than outcomes or longer-term impact. (citation 22)
+2. Limited availability of funds and increased levels of displacement globally, which create the need for more efficient data utilization in decision-making processes. (citation 23)
+3. The primary challenges and constraints experienced during the process of data collation/collection, cleaning, analysis, storage, and management, hindering evidence-informed decision-making. (citation 4.6)
+4. Few staff allocated to information management, leading to overwhelming basic tasks of requesting, receiving, and processing data from numerous country offices and partners. (citation 18)
+5. The main thrust of activity in larger staffed settings remaining focused on understanding funding requirements and tracking expenditures against activity outputs rather than generating evidence-based products to guide decision-making and policy engagement. (citation 18)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The main risks and difficulties described in the context are related to UNHCR's current data and information management (IM) practices, which hinder evidence-informed decision making. Specifically:
+1. Lack of organization-wide prioritization of data: The evaluation emphasizes that an organization-wide prioritization would be essential to transform data within UNHCR to the asset that it can be. {40 UNHCR}
+2. Insufficient staffing allocation for IM: Typically, UNHCR allocates few staff to information management, which is an important aspect to effective response and coordination. These staff may find themselves overwhelmed with basic tasks of requesting, receiving and processing data from myriad country offices and partners. {NONE}
+3. Inefficiencies in data systems and processes: There are gaps and/or inefficiencies in country/regional operations’ practice around data and IM such as data systems, collation/collection processes, storage, management, data analysis and use, staff capacities and functions, financial resources. {40 UNHCR}
+4. Difficulty in turning data into value-added decision making: The evaluation found that the main thrust of activity remains focused on understanding funding requirements and tracking expenditures against activity outputs rather than generating evidence-based products to guide decision-making and policy engagement. {4.6 Challenges turning data into value-added decision-making}
+These risks and difficulties highlight the need for a data transformation strategy and roadmap, with key elements such as enforcing data norms and standards throughout the organization, cultivating strong data leadership, developing systems to integrate and pull data together, creating a data-first culture, and building capacities and confidence around statistics and evidence on persons of concern. {40 UNHCR}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Based on the provided context, here are some points that can be learnt in relation to my specific area of expertise and focus, which is External engagement and resource mobilization Organizational Enabler:
+* UNHCR allocates few staff to information management, which can make it difficult for them to handle the basic tasks of requesting, receiving, and processing data from numerous country offices and partners (12 UNHCR Programme Manual, Chapter 4 (June 2017), p.250). This suggests that there may be a need for increased staffing allocation or capacity building in information management to support effective response and coordination.
+* The main thrust of activity in data and information management remains focused on understanding funding requirements and tracking expenditures against activity outputs, rather than generating evidence-based products to guide decision-making and policy engagement (12 UNHCR Programme Manual, Chapter 4 (June 2017), p.250). This highlights the need for a shift in technical approach towards using data and information management as a tool for informed decision-making and policy engagement.
+* The challenges associated with turning data into value-added decision-making are not specified in the contexts (4.6 Challenges turning data into value-added decision-making). However, it can be inferred that there is a need to prioritize actions that address these challenges based on the evaluation findings of primary challenges and constraints that UNHCR operations experience during the process of data collation/collection, cleaning, analysis, storage and management.
+{NONE} if the contexts do not contain the facts to answer the QUESTION.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * Develop a data transformation strategy and roadmap that includes enforcing data norms and standards throughout the organization (SET, Complete by Q4)
+* Cultivate strong data leadership within the organization (SET, Complete by Q4)
+* Develop systems to integrate and pull data together (SET, Complete by Q4)
+* Create a data-first culture (SET, Complete by Q4)
+* Build capacities and confidence around statistics and evidence on persons of concern (SET, Complete by Q4)
+* Allocate sufficient staff and resources to information management to support effective response and coordination. (None of the contexts provide specific recommendations for external engagement and resource mobilization.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * Fact: UNHCR allocates few staff to information management which can lead to being overwhelmed with basic tasks of requesting, receiving and processing data (4.3 Approach and methodology)
+* Evidence: "These staff may find themselves overwhlemed with the basic tasks of requesting , receiving and processing data from myraid country offices and partners." (4.3 Approach and methodology)
+* Implication for leadership and governance: There is a need to allocate more resources, including staffing, to information management in order to support effective response and coordination. 
+* Fact: UNHCR's corporate results-based management tool, FOCUS, primarily reports on outputs and there is a need for more outcome-focused monitoring leading to longer-term impact (1.3.5 Revamping UNHCR’s results-based management approach)
+* Evidence: "UNHCR recognized that there is a need for more outcome-focused monitoring leadi ng to longer -term impact." (1.3.5 Revamping UNHCR’s results-based management approach)
+* Implication for leadership and governance: There is a need to revamp the current results-based management tool to focus on outcomes rather than just outputs. 
+* Fact: The growth of personal access to information, increased levels of displacement globally, and limited availability of funds create the need for UNHCR to evolve in its contextual landscape (1.4 UNHCR’s evolving contextual landscape)
+* Evidence: "The growth of personal access to information , increased levels of displacement  globally, and limited availability of funds create the need" (1.4 UNHCR’s evolving contextual landscape)
+* Implication for leadership and governance: UNHCR's leadership and governance should be responsive to the changing context by adapting its approach, technical methods, business processes, staffing allocation or capacity building accordingly. 
+{NONE} if there is no specific finding related to leadership and governance in the provided context.</t>
   </si>
   <si>
     <t xml:space="preserve"> The root causes for the situation are:
-1. Lack of organization-wide prioritization to transform data within UNHCR, which is essential to make data an asset for the organization (9 UNHCR Recommendations, Para 2).
-2. Insufficient data infrastructure and processes that need to be addressed in order for UNHCR to become a best-in-class data and information organization of the future (33 UNHCR 6. Recommendations, Para 85-86).
-Sources:
-9 UNHCR Recommendations, Para 2: "The evaluation emphasizes that an organization-wide prioritization would be essential to transform data within UNHCR to the asset that it can be."
-33 UNHCR 6. Recommendations, Para 85-86: "The evaluation emphasizes that an organization-wide prioritization would be essential to transform data within UNHCR to the asset that it can be... This evaluation is one of several indicators that UNHCR recognizes the potential advantage that data can provide. As the organization emphasizes the strategic importance of data and makes commensurate investments to strengthen its systems, the organization"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> From the provided context, as a public program evaluation expert focusing on Systems and processes Organizational Enabler for UNHCR, I can infer that there is a need to prioritize data transformation within the organization. The evaluation highlights the current gaps in data practice and recommends developing a global vision for UNHCR's data and information management (85). Specifically, it emphasizes the importance of enforcing data norms and standards throughout the organization, cultivating strong data leadership, developing systems to integrate and pull data together, creating a data-first culture, and building capacities and confidence around statistics and evidence on persons of concern (SET*). These recommendations suggest that UNHCR needs to make significant changes in management practices, technical approach, business processes, staffing allocation, or capacity building to transform data into an organizational asset.
-Reference: 
-&lt;context&gt;
-9 UNHCR Recommendations
-&lt;/context&gt;
-&lt;context&gt;
-33 UNHCR 6. Recommendations
-&lt;/context&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> * Develop a data transformation strategy and roadmap with key elements such as enforcing data norms and standards throughout the organization (Responsible: UNHCR, Anticipated timeframe: Complete by Q4) - Recommendation 1
-* Cultivate strong data leadership within the organization - Recommendation 2
-* Develop systems to integrate and pull data together - Recommendation 3
-* Create a data-first culture - Recommendation 4
-* Build capacities and confidence around statistics and evidence on persons of concern - Recommendation 5
-* Prioritize transforming data within UNHCR to an asset (Responsible: UNHCR, Anticipated timeframe: N/A) - Recommendation 6
-* Strengthen its systems as the organization emphasizes the strategic importance of data (Responsible: UNHCR, Anticipated timeframe: N/A) - Recommendation 7</t>
+1. UNHCR allocates few staff to information management which can lead to being overwhelmed with basic tasks of requesting, receiving and processing data from various country offices and partners (Context para 4).
+2. The main thrust of activity remains focused on understanding funding requirements and tracking expenditures against activity outputs rather than generating evidence-based products to guide decision-making and policy engagement (Context para 4).
+3. UNHCR's corporate results-based management tool, FOCUS, primarily reports on outputs, and there is a need for more outcome-focused monitoring leading to longer-term impact (Context para 5).
+4. The growth of personal access to information, increased levels of displacement globally, and limited availability of funds create the need for changes in management practices, technical approach, business processes, staffing allocation or capacity building (Context para 6).</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The main risks and difficulties described in the context are related to UNHCR's data management practices and its results-based management approach. Firstly, there is a lack of an organization-wide prioritization of data, which is only emphasized by several indicators such as limited staff allocation for information management (one IMO and one reporting officer) and the overwhelming amount of basic tasks they have to handle (requesting, receiving, and processing data from various country offices and partners). This can lead to difficulties in generating evidence-based products to guide decision-making and policy engagement. Additionally, UNHCR's current corporate results-based management tool, FOCUS, primarily reports on outputs, with a recognized need for more outcome-focused monitoring leading to longer-term impact (4.6 Challenges turning data into value-added decision-making). The organization is in the process of designing a new RBM tool, but this transition may also pose risks and difficulties.
+Source: 33 UNHCR, 1.3.5 Revamping UNHCR’s results-based management approach, 22; 4.6 Challenges turning data into value-added decision-making, 4.6; 2.2 Limited staff allocation and overwhelming tasks, {NONE}; Organization-wide prioritization of data, 86, 6.1. Developing a global vision for UNHCR’s data and information management, 85-86.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Based on the provided context, several key learnings can be identified related to my area of expertise as a public program evaluation expert focusing on leadership and governance Organizational Enablers for UNHCR:
+1. The need for organization-wide data transformation strategy: The evaluation emphasizes that prioritizing data transformation across the organization is essential (p.250). A recommended action includes developing a data transformation strategy and roadmap, which enforces data norms and standards, cultivates strong data leadership, integrates systems, creates a data-first culture, and builds capacities around statistics and evidence on persons of concern (p.250).
+2. Responsible parties for the recommended actions: The responsible party for completing the data transformation strategy by Q4 is SET* (p.250). However, the context does not specify who or what SET* refers to.
+3. Data and information management practices at the sector level: While the context provides details about UNHCR's internal data and information management practices, it does not explicitly mention the role of other stakeholders, specifically at the sector level (p.250).
+4. Challenges and constraints during program implementation, case management, monitoring, and evaluation: The primary challenges and constraints that UNHCR operations experience during these processes are not specified in the context (p.250).
+Therefore, learnings from this context include the importance of developing a data transformation strategy and enforcing data norms and standards throughout the organization to prioritize data as an asset. However, more information is needed to understand the role of other stakeholders at the sector level and the challenges and constraints during program implementation, case management, monitoring, and evaluation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * Recommendation for organization-wide prioritization of data transformation: The evaluation emphasizes that an organization-wide prioritization would be essential to transform data within UNHCR to the asset that it can be (9).
+* Develop a data transformation strategy and roadmap: The evaluation recommends that UNHCR develop a data transformation strategy and roadmap, with key elements such as enforcing data norms and standards throughout the organization, cultivating strong data leadership, developing systems to integrate and pull data together, creating a data-first culture, and building capacities and confidence around statistics and evidence on persons of concern (9).
+* Assessing and reporting on implementation and results: The evaluation recommends that UNHCR be accountable through assessing and reporting on implementation and results, and requesting management to formally respond to the evaluation (12).
+* Improve data systems, collation/collection processes, storage, management, data analysis and use, staff capacities and functions, financial resources: The evaluation examines UNHCR's practice around data, including data collected/collected by operational partners when the data and information requirements are determined by UNHCR. It also looks at how country/regional operations consider feedback from and effective communication with persons of concern in operational data systems (17).
+* Identify gaps and inefficiencies: The evaluation aims to identify gaps and/or inefficiencies in country/regional operations’ practice around data and IM (i.e. data systems, collation/collection processes, storage, management, data analysis and use, staff capacities and functions, financial resources, etc.) (17).
+* Identify challenges and constraints: The evaluation aims to identify the primary challenges and constraints that UNHCR operations experience during the process of collecting, managing, and using data (17).</t>
   </si>
 </sst>
 </file>
@@ -651,7 +2848,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -676,10 +2873,10 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>123</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -690,10 +2887,10 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>124</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>208</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -704,10 +2901,10 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>125</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -718,10 +2915,10 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>126</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -732,10 +2929,10 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>127</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>211</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -746,10 +2943,10 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>128</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -760,10 +2957,10 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>129</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -774,10 +2971,10 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>130</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>214</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -788,10 +2985,10 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>131</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>215</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -802,10 +2999,10 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>132</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -816,10 +3013,10 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>133</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
+        <v>217</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -830,10 +3027,10 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>134</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -844,10 +3041,10 @@
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="D14" t="s">
-        <v>37</v>
+        <v>219</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -858,10 +3055,10 @@
         <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
+        <v>136</v>
       </c>
       <c r="D15" t="s">
-        <v>38</v>
+        <v>220</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -872,10 +3069,10 @@
         <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>137</v>
       </c>
       <c r="D16" t="s">
-        <v>39</v>
+        <v>221</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -886,10 +3083,1466 @@
         <v>18</v>
       </c>
       <c r="C17" t="s">
+        <v>138</v>
+      </c>
+      <c r="D17" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" t="s">
+        <v>139</v>
+      </c>
+      <c r="D18" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" t="s">
+        <v>140</v>
+      </c>
+      <c r="D19" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
         <v>21</v>
       </c>
-      <c r="D17" t="s">
+      <c r="C20" t="s">
+        <v>141</v>
+      </c>
+      <c r="D20" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" t="s">
+        <v>142</v>
+      </c>
+      <c r="D21" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" t="s">
+        <v>143</v>
+      </c>
+      <c r="D22" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>144</v>
+      </c>
+      <c r="D23" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>145</v>
+      </c>
+      <c r="D24" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>146</v>
+      </c>
+      <c r="D25" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" t="s">
+        <v>147</v>
+      </c>
+      <c r="D26" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" t="s">
+        <v>148</v>
+      </c>
+      <c r="D27" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" t="s">
+        <v>149</v>
+      </c>
+      <c r="D28" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" t="s">
+        <v>149</v>
+      </c>
+      <c r="D29" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" t="s">
+        <v>149</v>
+      </c>
+      <c r="D30" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" t="s">
+        <v>148</v>
+      </c>
+      <c r="D31" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" t="s">
+        <v>150</v>
+      </c>
+      <c r="D32" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" t="s">
+        <v>151</v>
+      </c>
+      <c r="D33" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" t="s">
+        <v>152</v>
+      </c>
+      <c r="D34" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" t="s">
+        <v>153</v>
+      </c>
+      <c r="D35" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" t="s">
+        <v>153</v>
+      </c>
+      <c r="D36" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" t="s">
+        <v>154</v>
+      </c>
+      <c r="D37" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" t="s">
+        <v>155</v>
+      </c>
+      <c r="D38" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
         <v>40</v>
+      </c>
+      <c r="C39" t="s">
+        <v>156</v>
+      </c>
+      <c r="D39" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" t="s">
+        <v>157</v>
+      </c>
+      <c r="D40" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>42</v>
+      </c>
+      <c r="C41" t="s">
+        <v>156</v>
+      </c>
+      <c r="D41" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" t="s">
+        <v>158</v>
+      </c>
+      <c r="D42" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" t="s">
+        <v>159</v>
+      </c>
+      <c r="D43" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44" t="s">
+        <v>158</v>
+      </c>
+      <c r="D44" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" t="s">
+        <v>160</v>
+      </c>
+      <c r="D45" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46" t="s">
+        <v>153</v>
+      </c>
+      <c r="D46" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>48</v>
+      </c>
+      <c r="C47" t="s">
+        <v>158</v>
+      </c>
+      <c r="D47" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>49</v>
+      </c>
+      <c r="C48" t="s">
+        <v>158</v>
+      </c>
+      <c r="D48" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>50</v>
+      </c>
+      <c r="C49" t="s">
+        <v>158</v>
+      </c>
+      <c r="D49" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>51</v>
+      </c>
+      <c r="C50" t="s">
+        <v>161</v>
+      </c>
+      <c r="D50" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>52</v>
+      </c>
+      <c r="C51" t="s">
+        <v>162</v>
+      </c>
+      <c r="D51" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>53</v>
+      </c>
+      <c r="C52" t="s">
+        <v>163</v>
+      </c>
+      <c r="D52" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>54</v>
+      </c>
+      <c r="C53" t="s">
+        <v>134</v>
+      </c>
+      <c r="D53" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>55</v>
+      </c>
+      <c r="C54" t="s">
+        <v>164</v>
+      </c>
+      <c r="D54" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>56</v>
+      </c>
+      <c r="C55" t="s">
+        <v>165</v>
+      </c>
+      <c r="D55" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>57</v>
+      </c>
+      <c r="C56" t="s">
+        <v>163</v>
+      </c>
+      <c r="D56" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>58</v>
+      </c>
+      <c r="C57" t="s">
+        <v>149</v>
+      </c>
+      <c r="D57" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>59</v>
+      </c>
+      <c r="C58" t="s">
+        <v>149</v>
+      </c>
+      <c r="D58" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>60</v>
+      </c>
+      <c r="C59" t="s">
+        <v>162</v>
+      </c>
+      <c r="D59" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>61</v>
+      </c>
+      <c r="C60" t="s">
+        <v>166</v>
+      </c>
+      <c r="D60" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>62</v>
+      </c>
+      <c r="C61" t="s">
+        <v>162</v>
+      </c>
+      <c r="D61" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>63</v>
+      </c>
+      <c r="C62" t="s">
+        <v>134</v>
+      </c>
+      <c r="D62" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>64</v>
+      </c>
+      <c r="C63" t="s">
+        <v>167</v>
+      </c>
+      <c r="D63" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>65</v>
+      </c>
+      <c r="C64" t="s">
+        <v>168</v>
+      </c>
+      <c r="D64" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>66</v>
+      </c>
+      <c r="C65" t="s">
+        <v>169</v>
+      </c>
+      <c r="D65" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>67</v>
+      </c>
+      <c r="C66" t="s">
+        <v>170</v>
+      </c>
+      <c r="D66" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>68</v>
+      </c>
+      <c r="C67" t="s">
+        <v>158</v>
+      </c>
+      <c r="D67" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>69</v>
+      </c>
+      <c r="C68" t="s">
+        <v>158</v>
+      </c>
+      <c r="D68" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>70</v>
+      </c>
+      <c r="C69" t="s">
+        <v>171</v>
+      </c>
+      <c r="D69" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>71</v>
+      </c>
+      <c r="C70" t="s">
+        <v>172</v>
+      </c>
+      <c r="D70" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>72</v>
+      </c>
+      <c r="C71" t="s">
+        <v>173</v>
+      </c>
+      <c r="D71" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>73</v>
+      </c>
+      <c r="C72" t="s">
+        <v>160</v>
+      </c>
+      <c r="D72" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>74</v>
+      </c>
+      <c r="C73" t="s">
+        <v>166</v>
+      </c>
+      <c r="D73" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>75</v>
+      </c>
+      <c r="C74" t="s">
+        <v>174</v>
+      </c>
+      <c r="D74" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>76</v>
+      </c>
+      <c r="C75" t="s">
+        <v>166</v>
+      </c>
+      <c r="D75" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>77</v>
+      </c>
+      <c r="C76" t="s">
+        <v>175</v>
+      </c>
+      <c r="D76" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>78</v>
+      </c>
+      <c r="C77" t="s">
+        <v>134</v>
+      </c>
+      <c r="D77" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>79</v>
+      </c>
+      <c r="C78" t="s">
+        <v>176</v>
+      </c>
+      <c r="D78" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>80</v>
+      </c>
+      <c r="C79" t="s">
+        <v>134</v>
+      </c>
+      <c r="D79" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>81</v>
+      </c>
+      <c r="C80" t="s">
+        <v>176</v>
+      </c>
+      <c r="D80" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>82</v>
+      </c>
+      <c r="C81" t="s">
+        <v>149</v>
+      </c>
+      <c r="D81" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>83</v>
+      </c>
+      <c r="C82" t="s">
+        <v>177</v>
+      </c>
+      <c r="D82" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>84</v>
+      </c>
+      <c r="C83" t="s">
+        <v>178</v>
+      </c>
+      <c r="D83" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>85</v>
+      </c>
+      <c r="C84" t="s">
+        <v>179</v>
+      </c>
+      <c r="D84" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>86</v>
+      </c>
+      <c r="C85" t="s">
+        <v>180</v>
+      </c>
+      <c r="D85" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>87</v>
+      </c>
+      <c r="C86" t="s">
+        <v>181</v>
+      </c>
+      <c r="D86" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>88</v>
+      </c>
+      <c r="C87" t="s">
+        <v>182</v>
+      </c>
+      <c r="D87" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>89</v>
+      </c>
+      <c r="C88" t="s">
+        <v>183</v>
+      </c>
+      <c r="D88" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>90</v>
+      </c>
+      <c r="C89" t="s">
+        <v>184</v>
+      </c>
+      <c r="D89" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>91</v>
+      </c>
+      <c r="C90" t="s">
+        <v>185</v>
+      </c>
+      <c r="D90" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>92</v>
+      </c>
+      <c r="C91" t="s">
+        <v>186</v>
+      </c>
+      <c r="D91" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
+        <v>93</v>
+      </c>
+      <c r="C92" t="s">
+        <v>187</v>
+      </c>
+      <c r="D92" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>94</v>
+      </c>
+      <c r="C93" t="s">
+        <v>187</v>
+      </c>
+      <c r="D93" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>95</v>
+      </c>
+      <c r="C94" t="s">
+        <v>188</v>
+      </c>
+      <c r="D94" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>96</v>
+      </c>
+      <c r="C95" t="s">
+        <v>189</v>
+      </c>
+      <c r="D95" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>97</v>
+      </c>
+      <c r="C96" t="s">
+        <v>190</v>
+      </c>
+      <c r="D96" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>98</v>
+      </c>
+      <c r="C97" t="s">
+        <v>149</v>
+      </c>
+      <c r="D97" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>99</v>
+      </c>
+      <c r="C98" t="s">
+        <v>149</v>
+      </c>
+      <c r="D98" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>100</v>
+      </c>
+      <c r="C99" t="s">
+        <v>149</v>
+      </c>
+      <c r="D99" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>101</v>
+      </c>
+      <c r="C100" t="s">
+        <v>149</v>
+      </c>
+      <c r="D100" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
+        <v>102</v>
+      </c>
+      <c r="C101" t="s">
+        <v>149</v>
+      </c>
+      <c r="D101" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102" t="s">
+        <v>103</v>
+      </c>
+      <c r="C102" t="s">
+        <v>191</v>
+      </c>
+      <c r="D102" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103" t="s">
+        <v>104</v>
+      </c>
+      <c r="C103" t="s">
+        <v>192</v>
+      </c>
+      <c r="D103" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104" t="s">
+        <v>105</v>
+      </c>
+      <c r="C104" t="s">
+        <v>193</v>
+      </c>
+      <c r="D104" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105" t="s">
+        <v>106</v>
+      </c>
+      <c r="C105" t="s">
+        <v>194</v>
+      </c>
+      <c r="D105" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106" t="s">
+        <v>107</v>
+      </c>
+      <c r="C106" t="s">
+        <v>195</v>
+      </c>
+      <c r="D106" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107" t="s">
+        <v>108</v>
+      </c>
+      <c r="C107" t="s">
+        <v>164</v>
+      </c>
+      <c r="D107" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108" t="s">
+        <v>109</v>
+      </c>
+      <c r="C108" t="s">
+        <v>162</v>
+      </c>
+      <c r="D108" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109" t="s">
+        <v>110</v>
+      </c>
+      <c r="C109" t="s">
+        <v>196</v>
+      </c>
+      <c r="D109" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110" t="s">
+        <v>111</v>
+      </c>
+      <c r="C110" t="s">
+        <v>197</v>
+      </c>
+      <c r="D110" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111" t="s">
+        <v>112</v>
+      </c>
+      <c r="C111" t="s">
+        <v>198</v>
+      </c>
+      <c r="D111" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112" t="s">
+        <v>113</v>
+      </c>
+      <c r="C112" t="s">
+        <v>199</v>
+      </c>
+      <c r="D112" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113" t="s">
+        <v>114</v>
+      </c>
+      <c r="C113" t="s">
+        <v>200</v>
+      </c>
+      <c r="D113" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="B114" t="s">
+        <v>115</v>
+      </c>
+      <c r="C114" t="s">
+        <v>201</v>
+      </c>
+      <c r="D114" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="B115" t="s">
+        <v>116</v>
+      </c>
+      <c r="C115" t="s">
+        <v>202</v>
+      </c>
+      <c r="D115" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116" t="s">
+        <v>117</v>
+      </c>
+      <c r="C116" t="s">
+        <v>201</v>
+      </c>
+      <c r="D116" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="B117" t="s">
+        <v>118</v>
+      </c>
+      <c r="C117" t="s">
+        <v>203</v>
+      </c>
+      <c r="D117" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="B118" t="s">
+        <v>119</v>
+      </c>
+      <c r="C118" t="s">
+        <v>203</v>
+      </c>
+      <c r="D118" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119" t="s">
+        <v>120</v>
+      </c>
+      <c r="C119" t="s">
+        <v>204</v>
+      </c>
+      <c r="D119" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="B120" t="s">
+        <v>121</v>
+      </c>
+      <c r="C120" t="s">
+        <v>205</v>
+      </c>
+      <c r="D120" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121" t="s">
+        <v>122</v>
+      </c>
+      <c r="C121" t="s">
+        <v>206</v>
+      </c>
+      <c r="D121" t="s">
+        <v>326</v>
       </c>
     </row>
   </sheetData>
